--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="822">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6767725944519</t>
+    <t xml:space="preserve">7.67677116394043</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728616714478</t>
+    <t xml:space="preserve">7.65728664398193</t>
   </si>
   <si>
     <t xml:space="preserve">7.63780307769775</t>
@@ -53,13 +53,13 @@
     <t xml:space="preserve">7.55986547470093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5988335609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502313613892</t>
+    <t xml:space="preserve">7.59883403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40788984298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502408981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.63390588760376</t>
@@ -68,73 +68,73 @@
     <t xml:space="preserve">7.44685745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52089881896973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972320556641</t>
+    <t xml:space="preserve">7.52089738845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
     <t xml:space="preserve">7.4429612159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75081014633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77808856964111</t>
+    <t xml:space="preserve">7.7508111000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77808809280396</t>
   </si>
   <si>
     <t xml:space="preserve">7.87161302566528</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79367589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250123977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837596893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94955062866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588247299194</t>
+    <t xml:space="preserve">7.79367685317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573829650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837644577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278911590576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94955015182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7858829498291</t>
   </si>
   <si>
     <t xml:space="preserve">7.94175624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02748584747314</t>
+    <t xml:space="preserve">8.02748775482178</t>
   </si>
   <si>
     <t xml:space="preserve">8.19115447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16777229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410556793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9963116645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1443920135498</t>
+    <t xml:space="preserve">8.16777324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99631261825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926370620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14439010620117</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645488739014</t>
@@ -143,16 +143,16 @@
     <t xml:space="preserve">8.05086803436279</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75470781326294</t>
+    <t xml:space="preserve">7.75470876693726</t>
   </si>
   <si>
     <t xml:space="preserve">7.84043788909912</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85602474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80147075653076</t>
+    <t xml:space="preserve">7.85602521896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80147171020508</t>
   </si>
   <si>
     <t xml:space="preserve">7.75860500335693</t>
@@ -164,58 +164,58 @@
     <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7391209602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7040491104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48193025588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854902267456</t>
+    <t xml:space="preserve">7.73911952972412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854663848877</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851919174194</t>
+    <t xml:space="preserve">7.98851776123047</t>
   </si>
   <si>
     <t xml:space="preserve">7.7001519203186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89499473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0820426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10542392730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2457103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129722595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41717147827148</t>
+    <t xml:space="preserve">7.89499425888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204174041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10542297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41717052459717</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863258361816</t>
+    <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215560913086</t>
@@ -224,16 +224,16 @@
     <t xml:space="preserve">8.5340747833252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.70347595214844</t>
+    <t xml:space="preserve">8.70347690582275</t>
   </si>
   <si>
     <t xml:space="preserve">8.81567764282227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74354839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539264678955</t>
+    <t xml:space="preserve">8.74354934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539169311523</t>
   </si>
   <si>
     <t xml:space="preserve">8.63134956359863</t>
@@ -245,34 +245,34 @@
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14248085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517723083496</t>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893627166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
     <t xml:space="preserve">8.43900680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57524871826172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28050422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0561056137085</t>
+    <t xml:space="preserve">8.57524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28050327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05610466003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.44880294799805</t>
@@ -284,7 +284,7 @@
     <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95370197296143</t>
+    <t xml:space="preserve">9.95370006561279</t>
   </si>
   <si>
     <t xml:space="preserve">9.96171474456787</t>
@@ -293,10 +293,10 @@
     <t xml:space="preserve">9.76135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60107326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53696060180664</t>
+    <t xml:space="preserve">9.60107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
     <t xml:space="preserve">9.61710166931152</t>
@@ -305,25 +305,25 @@
     <t xml:space="preserve">9.73731517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50490283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646018981934</t>
+    <t xml:space="preserve">9.50490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.29653167724609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18433284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45681667327881</t>
+    <t xml:space="preserve">9.18433380126953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45681762695312</t>
   </si>
   <si>
     <t xml:space="preserve">9.37667560577393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41674709320068</t>
+    <t xml:space="preserve">9.41674613952637</t>
   </si>
   <si>
     <t xml:space="preserve">9.42476081848145</t>
@@ -338,7 +338,7 @@
     <t xml:space="preserve">9.40071773529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24043273925781</t>
+    <t xml:space="preserve">9.2404317855835</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057571411133</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9439058303833</t>
+    <t xml:space="preserve">8.94390487670898</t>
   </si>
   <si>
     <t xml:space="preserve">8.95993423461914</t>
@@ -362,46 +362,46 @@
     <t xml:space="preserve">9.20837497711182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13624668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574817657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89581966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48086071014404</t>
+    <t xml:space="preserve">9.13624572753906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99199199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085975646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.51291751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27248954772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10418891906738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17631912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617710113525</t>
+    <t xml:space="preserve">9.27248859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1041898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17631816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617614746094</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93589019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8878059387207</t>
+    <t xml:space="preserve">8.93589115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88780498504639</t>
   </si>
   <si>
     <t xml:space="preserve">8.97596263885498</t>
@@ -410,31 +410,31 @@
     <t xml:space="preserve">8.87177658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73553466796875</t>
+    <t xml:space="preserve">8.73553371429443</t>
   </si>
   <si>
     <t xml:space="preserve">8.76759147644043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04007625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
+    <t xml:space="preserve">9.04007530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00000381469727</t>
   </si>
   <si>
     <t xml:space="preserve">8.77560520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
+    <t xml:space="preserve">8.67142105102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737892150879</t>
   </si>
   <si>
     <t xml:space="preserve">8.62333583831787</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63936328887939</t>
+    <t xml:space="preserve">8.63936233520508</t>
   </si>
   <si>
     <t xml:space="preserve">8.68745040893555</t>
@@ -443,7 +443,7 @@
     <t xml:space="preserve">8.75156402587891</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54319286346436</t>
+    <t xml:space="preserve">8.54319190979004</t>
   </si>
   <si>
     <t xml:space="preserve">8.52716445922852</t>
@@ -455,13 +455,13 @@
     <t xml:space="preserve">8.69546413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
+    <t xml:space="preserve">8.80766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943572998047</t>
   </si>
   <si>
     <t xml:space="preserve">8.55922222137451</t>
@@ -470,16 +470,16 @@
     <t xml:space="preserve">8.30276489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085010528564</t>
+    <t xml:space="preserve">8.36687850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085105895996</t>
   </si>
   <si>
     <t xml:space="preserve">8.58326435089111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5031213760376</t>
+    <t xml:space="preserve">8.50312042236328</t>
   </si>
   <si>
     <t xml:space="preserve">8.59127902984619</t>
@@ -494,7 +494,7 @@
     <t xml:space="preserve">8.43099308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47106266021729</t>
+    <t xml:space="preserve">8.47106456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510765075684</t>
@@ -509,7 +509,7 @@
     <t xml:space="preserve">8.29475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37489318847656</t>
+    <t xml:space="preserve">8.37489223480225</t>
   </si>
   <si>
     <t xml:space="preserve">8.65425300598145</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">8.22566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28335666656494</t>
+    <t xml:space="preserve">8.28335762023926</t>
   </si>
   <si>
     <t xml:space="preserve">8.57183074951172</t>
@@ -530,19 +530,19 @@
     <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44820022583008</t>
+    <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
     <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77788352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214553833008</t>
+    <t xml:space="preserve">8.7778844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577606201172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
@@ -554,19 +554,19 @@
     <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14323902130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06081771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
+    <t xml:space="preserve">8.1432409286499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06081676483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894411087036</t>
   </si>
   <si>
     <t xml:space="preserve">7.89597511291504</t>
@@ -578,22 +578,22 @@
     <t xml:space="preserve">7.51683616638184</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73113393783569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410007476807</t>
+    <t xml:space="preserve">7.73113298416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74761629104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410150527954</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78058481216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519594192505</t>
+    <t xml:space="preserve">7.78058433532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519546508789</t>
   </si>
   <si>
     <t xml:space="preserve">7.69816493988037</t>
@@ -608,13 +608,13 @@
     <t xml:space="preserve">7.5662899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277273178101</t>
+    <t xml:space="preserve">7.79706954956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277368545532</t>
   </si>
   <si>
     <t xml:space="preserve">7.48386812210083</t>
@@ -623,16 +623,16 @@
     <t xml:space="preserve">7.38496208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30254030227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40144634246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18715047836304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20363569259644</t>
+    <t xml:space="preserve">7.30254077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4014458656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1871509552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
@@ -641,13 +641,13 @@
     <t xml:space="preserve">7.50035285949707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25308752059937</t>
+    <t xml:space="preserve">7.25308799743652</t>
   </si>
   <si>
     <t xml:space="preserve">7.4179310798645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43441534042358</t>
+    <t xml:space="preserve">7.43441581726074</t>
   </si>
   <si>
     <t xml:space="preserve">7.46738433837891</t>
@@ -656,19 +656,19 @@
     <t xml:space="preserve">7.13769817352295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17066669464111</t>
+    <t xml:space="preserve">7.17066621780396</t>
   </si>
   <si>
     <t xml:space="preserve">7.08824491500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92340135574341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90691757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98933839797974</t>
+    <t xml:space="preserve">6.92340183258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90691804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98933887481689</t>
   </si>
   <si>
     <t xml:space="preserve">7.07176113128662</t>
@@ -680,10 +680,10 @@
     <t xml:space="preserve">6.62668466567993</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6596531867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75855922698975</t>
+    <t xml:space="preserve">6.65965366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75855875015259</t>
   </si>
   <si>
     <t xml:space="preserve">6.84098100662231</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">6.69262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7091064453125</t>
+    <t xml:space="preserve">6.70910692214966</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230787277222</t>
@@ -701,22 +701,22 @@
     <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85746479034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00582408905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28605651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36847734451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2366042137146</t>
+    <t xml:space="preserve">6.85746383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00582361221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28605604171753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36847829818726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10472917556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23660326004028</t>
   </si>
   <si>
     <t xml:space="preserve">6.87394905090332</t>
@@ -728,16 +728,16 @@
     <t xml:space="preserve">6.59371662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129531860352</t>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238927841187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67613792419434</t>
+    <t xml:space="preserve">6.41238880157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67613840103149</t>
   </si>
   <si>
     <t xml:space="preserve">7.12121343612671</t>
@@ -749,7 +749,7 @@
     <t xml:space="preserve">6.79152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89043235778809</t>
+    <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
@@ -758,13 +758,13 @@
     <t xml:space="preserve">6.80801200866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2201189994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089912414551</t>
+    <t xml:space="preserve">7.22011947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199308395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089864730835</t>
   </si>
   <si>
     <t xml:space="preserve">7.53332185745239</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">7.64871025085449</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68167924880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54980516433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6457405090332</t>
+    <t xml:space="preserve">7.68167877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705533981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
     <t xml:space="preserve">7.56021881103516</t>
@@ -791,34 +791,34 @@
     <t xml:space="preserve">7.09839534759521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4918007850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57732200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61153221130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30364990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35496425628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33785915374756</t>
+    <t xml:space="preserve">7.49180030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57732343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61153173446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30364942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35496377944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3378586769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21812677383423</t>
+    <t xml:space="preserve">7.21812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">7.20102214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18391799926758</t>
+    <t xml:space="preserve">7.18391752243042</t>
   </si>
   <si>
     <t xml:space="preserve">6.92734956741333</t>
@@ -827,28 +827,28 @@
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23523187637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26944065093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37206888198853</t>
+    <t xml:space="preserve">7.06418609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23523139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2694411277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37206840515137</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287269592285</t>
+    <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
     <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04708099365234</t>
+    <t xml:space="preserve">7.0470814704895</t>
   </si>
   <si>
     <t xml:space="preserve">7.08129024505615</t>
@@ -863,49 +863,49 @@
     <t xml:space="preserve">6.87603569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96155881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314031600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893106460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84182643890381</t>
+    <t xml:space="preserve">6.9615592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314126968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84182691574097</t>
   </si>
   <si>
     <t xml:space="preserve">6.77340841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552610397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263025283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51683950424194</t>
+    <t xml:space="preserve">6.46552658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41421270370483</t>
+    <t xml:space="preserve">6.41421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289930343628</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43131732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38000392913818</t>
+    <t xml:space="preserve">6.43131685256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38000297546387</t>
   </si>
   <si>
     <t xml:space="preserve">6.32868957519531</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07212162017822</t>
+    <t xml:space="preserve">6.07212066650391</t>
   </si>
   <si>
     <t xml:space="preserve">6.10632991790771</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158494949341</t>
+    <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">6.53394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67078113555908</t>
+    <t xml:space="preserve">6.67078065872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.7563042640686</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60236215591431</t>
+    <t xml:space="preserve">6.63657188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
     <t xml:space="preserve">6.82472229003906</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55104875564575</t>
+    <t xml:space="preserve">6.55104923248291</t>
   </si>
   <si>
     <t xml:space="preserve">6.56815338134766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68788623809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7391996383667</t>
+    <t xml:space="preserve">6.68788576126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73919916152954</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44842195510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00370311737061</t>
+    <t xml:space="preserve">6.44842147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
     <t xml:space="preserve">5.86686658859253</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1001,19 +1001,19 @@
     <t xml:space="preserve">5.9865984916687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73002958297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47346162796021</t>
+    <t xml:space="preserve">5.73002910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47346115112305</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453401565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506925582886</t>
+    <t xml:space="preserve">4.99453353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506973266602</t>
   </si>
   <si>
     <t xml:space="preserve">4.53271007537842</t>
@@ -1025,52 +1025,52 @@
     <t xml:space="preserve">4.58402395248413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32745552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4471869468689</t>
+    <t xml:space="preserve">4.32745504379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44718742370605</t>
   </si>
   <si>
     <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7037558555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04584741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26820611953735</t>
+    <t xml:space="preserve">4.70375633239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04584693908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26820659637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056625366211</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90107536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78134393692017</t>
+    <t xml:space="preserve">5.90107583999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
     <t xml:space="preserve">5.69582080841064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67871618270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54187917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52477502822876</t>
+    <t xml:space="preserve">5.67871570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54187965393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5247745513916</t>
   </si>
   <si>
     <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40504312515259</t>
+    <t xml:space="preserve">5.40504360198975</t>
   </si>
   <si>
     <t xml:space="preserve">5.59319305419922</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">5.84976196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12343502044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29447984695435</t>
+    <t xml:space="preserve">6.12343454360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29448080062866</t>
   </si>
   <si>
     <t xml:space="preserve">6.24316692352295</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">6.03791236877441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17474842071533</t>
+    <t xml:space="preserve">6.17474794387817</t>
   </si>
   <si>
     <t xml:space="preserve">6.08922576904297</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">5.9694938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79844856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95238876342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71292495727539</t>
+    <t xml:space="preserve">5.79844808578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95238924026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71292543411255</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74713468551636</t>
+    <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91817951202393</t>
+    <t xml:space="preserve">5.91817998886108</t>
   </si>
   <si>
     <t xml:space="preserve">5.66161155700684</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">6.79051303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72209501266479</t>
+    <t xml:space="preserve">6.72209453582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
@@ -1148,67 +1148,67 @@
     <t xml:space="preserve">7.16681337356567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13260459899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917303085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7483696937561</t>
+    <t xml:space="preserve">7.13260412216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836921691895</t>
   </si>
   <si>
     <t xml:space="preserve">7.76547241210938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7825779914856</t>
+    <t xml:space="preserve">7.78257846832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12466907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914642333984</t>
+    <t xml:space="preserve">8.10756397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12467002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678676605225</t>
+    <t xml:space="preserve">7.98783397674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941404342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126459121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678628921509</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86810159683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79968214035034</t>
+    <t xml:space="preserve">8.0220422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8681001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7996826171875</t>
   </si>
   <si>
     <t xml:space="preserve">8.27861022949219</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">8.3812370300293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36413383483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6378059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.595046043396</t>
+    <t xml:space="preserve">8.36413288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59504413604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41544628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096988677979</t>
+    <t xml:space="preserve">8.55228328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41544723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
     <t xml:space="preserve">8.68056774139404</t>
@@ -1250,31 +1250,31 @@
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161399841309</t>
+    <t xml:space="preserve">8.85161304473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02265930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198810577393</t>
+    <t xml:space="preserve">9.0226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57855606079102</t>
+    <t xml:space="preserve">9.45027351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960231781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6640796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
     <t xml:space="preserve">10.1772165298462</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.51930809021</t>
+    <t xml:space="preserve">10.5193090438843</t>
   </si>
   <si>
     <t xml:space="preserve">10.8613996505737</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9896841049194</t>
+    <t xml:space="preserve">10.9896831512451</t>
   </si>
   <si>
     <t xml:space="preserve">11.0324449539185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4600591659546</t>
+    <t xml:space="preserve">11.4600582122803</t>
   </si>
   <si>
     <t xml:space="preserve">12.1014804840088</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">11.9731969833374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.887674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8021507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7166271209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304342269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883436203003</t>
+    <t xml:space="preserve">11.8876724243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8021516799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883445739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725276947021</t>
+    <t xml:space="preserve">12.2725267410278</t>
   </si>
   <si>
     <t xml:space="preserve">12.0159587860107</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">11.9257192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4380493164062</t>
+    <t xml:space="preserve">11.4380502700806</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
@@ -1379,49 +1379,49 @@
     <t xml:space="preserve">10.7730474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6843795776367</t>
+    <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957136154175</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
+    <t xml:space="preserve">10.6400470733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390491485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7483854293823</t>
   </si>
   <si>
     <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5710515975952</t>
+    <t xml:space="preserve">11.5710506439209</t>
   </si>
   <si>
     <t xml:space="preserve">11.3050498962402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6153841018677</t>
+    <t xml:space="preserve">11.615385055542</t>
   </si>
   <si>
     <t xml:space="preserve">11.349383354187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9503812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
+    <t xml:space="preserve">11.0833826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.950382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060487747192</t>
   </si>
   <si>
     <t xml:space="preserve">10.5513792037964</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
+    <t xml:space="preserve">11.5267171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813858032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2607164382935</t>
+    <t xml:space="preserve">11.2607154846191</t>
   </si>
   <si>
     <t xml:space="preserve">11.3937168121338</t>
@@ -1451,13 +1451,10 @@
     <t xml:space="preserve">11.7927188873291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0587205886841</t>
+    <t xml:space="preserve">12.1030521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2803869247437</t>
   </si>
   <si>
     <t xml:space="preserve">12.014386177063</t>
@@ -1466,7 +1463,7 @@
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
@@ -1484,40 +1481,40 @@
     <t xml:space="preserve">13.1670579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3887252807617</t>
+    <t xml:space="preserve">13.388726234436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6990594863892</t>
+    <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
     <t xml:space="preserve">14.186728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4970645904541</t>
+    <t xml:space="preserve">14.4970636367798</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5857305526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4527292251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2310628890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2753973007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9847316741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
+    <t xml:space="preserve">14.585732460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.452730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2310619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.984733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8517332077026</t>
   </si>
   <si>
     <t xml:space="preserve">14.6300649642944</t>
@@ -1532,13 +1529,13 @@
     <t xml:space="preserve">13.787727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4773931503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3443918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8567228317261</t>
+    <t xml:space="preserve">13.4773921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3443927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8567237854004</t>
   </si>
   <si>
     <t xml:space="preserve">12.147385597229</t>
@@ -1547,10 +1544,10 @@
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
@@ -1559,10 +1556,10 @@
     <t xml:space="preserve">12.5463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4627132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297119140625</t>
+    <t xml:space="preserve">10.4627122879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297109603882</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183788299561</t>
@@ -1571,10 +1568,10 @@
     <t xml:space="preserve">12.6793899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4133882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2715196609497</t>
+    <t xml:space="preserve">12.413387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.271520614624</t>
   </si>
   <si>
     <t xml:space="preserve">11.8281850814819</t>
@@ -1586,7 +1583,7 @@
     <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4735164642334</t>
+    <t xml:space="preserve">11.4735174179077</t>
   </si>
   <si>
     <t xml:space="preserve">11.3848505020142</t>
@@ -1598,16 +1595,16 @@
     <t xml:space="preserve">11.4025831222534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5976505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6685848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.544451713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6508522033691</t>
+    <t xml:space="preserve">11.5976514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6685838699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5444507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6508512496948</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
@@ -1616,13 +1613,13 @@
     <t xml:space="preserve">11.5089836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7572507858276</t>
+    <t xml:space="preserve">11.757251739502</t>
   </si>
   <si>
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139162063599</t>
+    <t xml:space="preserve">11.3139171600342</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1631,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1117238998413</t>
+    <t xml:space="preserve">12.111722946167</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776374816895</t>
+    <t xml:space="preserve">12.2776365280151</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1646,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519027709961</t>
+    <t xml:space="preserve">13.0519018173218</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1661,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491182327271</t>
+    <t xml:space="preserve">12.8491191864014</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1691,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614603042603</t>
+    <t xml:space="preserve">11.7614612579346</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1709,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698120117188</t>
+    <t xml:space="preserve">12.5357255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1727,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122491836548</t>
+    <t xml:space="preserve">13.1072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122482299805</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1739,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625108718872</t>
+    <t xml:space="preserve">13.1625118255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1748,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938146591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569437026978</t>
+    <t xml:space="preserve">12.7938137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569446563721</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1766,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4066820144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.351375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0195484161377</t>
+    <t xml:space="preserve">12.406681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3513765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019549369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1784,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882465362549</t>
+    <t xml:space="preserve">12.3882455825806</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223320007324</t>
+    <t xml:space="preserve">12.2223329544067</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720703125</t>
+    <t xml:space="preserve">11.8720693588257</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1808,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.724591255188</t>
+    <t xml:space="preserve">11.7245903015137</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1829,156 +1826,159 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346731185913</t>
+    <t xml:space="preserve">11.1346740722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8950204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.577112197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3329420089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4251165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2038974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6279001235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8859882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2546863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3099908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3468608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390354156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3837308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4021654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3652963638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1256418228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2407674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0564184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0932884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061548233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536348342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.816764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5033712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005876541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1531095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715440750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1899785995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1162395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9847860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9655485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1002130508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3118295669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424995422363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8950204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.577112197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3329420089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4251155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2038974761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8859882354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2546863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3099908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3468608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127744674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3837308883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4021654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1256418228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2407674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0564184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0932884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536348342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6877212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5033712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1531095504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715440750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1899795532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1162395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9847860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9655485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1002130508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3118295669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503046035767</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.734694480896</t>
   </si>
   <si>
@@ -2475,6 +2475,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.3000001907349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1199998855591</t>
   </si>
 </sst>
 </file>
@@ -41990,7 +41993,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42042,7 +42045,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42068,7 +42071,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42094,7 +42097,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42120,7 +42123,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42146,7 +42149,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42172,7 +42175,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42198,7 +42201,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42224,7 +42227,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42250,7 +42253,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42276,7 +42279,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42302,7 +42305,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42328,7 +42331,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42354,7 +42357,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42380,7 +42383,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42406,7 +42409,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42432,7 +42435,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42458,7 +42461,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42484,7 +42487,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42510,7 +42513,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42536,7 +42539,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42562,7 +42565,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42588,7 +42591,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42614,7 +42617,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42640,7 +42643,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42666,7 +42669,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42692,7 +42695,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42718,7 +42721,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42744,7 +42747,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42770,7 +42773,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42796,7 +42799,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42822,7 +42825,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42848,7 +42851,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42874,7 +42877,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42900,7 +42903,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42926,7 +42929,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42952,7 +42955,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42978,7 +42981,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43004,7 +43007,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43030,7 +43033,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43056,7 +43059,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43082,7 +43085,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43134,7 +43137,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43160,7 +43163,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43212,7 +43215,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43264,7 +43267,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43316,7 +43319,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43342,7 +43345,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43368,7 +43371,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43446,7 +43449,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43472,7 +43475,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43524,7 +43527,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43550,7 +43553,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43654,7 +43657,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43680,7 +43683,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43706,7 +43709,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -43992,7 +43995,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44096,7 +44099,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44122,7 +44125,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44148,7 +44151,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44174,7 +44177,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44200,7 +44203,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44252,7 +44255,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44304,7 +44307,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44330,7 +44333,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44356,7 +44359,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44382,7 +44385,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44408,7 +44411,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44434,7 +44437,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44460,7 +44463,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44512,7 +44515,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44538,7 +44541,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44564,7 +44567,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44616,7 +44619,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44720,7 +44723,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44746,7 +44749,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44798,7 +44801,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44824,7 +44827,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44850,7 +44853,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44876,7 +44879,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44902,7 +44905,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44928,7 +44931,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44954,7 +44957,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44980,7 +44983,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45006,7 +45009,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45032,7 +45035,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45058,7 +45061,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45084,7 +45087,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45110,7 +45113,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45136,7 +45139,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45162,7 +45165,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45188,7 +45191,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45214,7 +45217,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45240,7 +45243,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45266,7 +45269,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45292,7 +45295,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45318,7 +45321,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45344,7 +45347,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45370,7 +45373,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45396,7 +45399,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45422,7 +45425,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45448,7 +45451,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45474,7 +45477,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45500,7 +45503,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45526,7 +45529,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45552,7 +45555,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45578,7 +45581,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45604,7 +45607,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45630,7 +45633,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45656,7 +45659,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45682,7 +45685,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45708,7 +45711,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45734,7 +45737,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45760,7 +45763,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45786,7 +45789,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45812,7 +45815,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45838,7 +45841,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45864,7 +45867,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45890,7 +45893,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45916,7 +45919,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45942,7 +45945,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45968,7 +45971,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -45994,7 +45997,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46020,7 +46023,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46046,7 +46049,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46072,7 +46075,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46098,7 +46101,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46124,7 +46127,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46150,7 +46153,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46176,7 +46179,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46202,7 +46205,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46228,7 +46231,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46254,7 +46257,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46280,7 +46283,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46306,7 +46309,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46332,7 +46335,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46358,7 +46361,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46384,7 +46387,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46410,7 +46413,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46436,7 +46439,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46462,7 +46465,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46488,7 +46491,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46514,7 +46517,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46540,7 +46543,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46566,7 +46569,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46592,7 +46595,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46618,7 +46621,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46644,7 +46647,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46670,7 +46673,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46696,7 +46699,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46722,7 +46725,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46748,7 +46751,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46774,7 +46777,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46800,7 +46803,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46826,7 +46829,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46852,7 +46855,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46878,7 +46881,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46904,7 +46907,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46930,7 +46933,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46956,7 +46959,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -46982,7 +46985,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47008,7 +47011,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47034,7 +47037,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47060,7 +47063,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47086,7 +47089,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47112,7 +47115,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47138,7 +47141,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47164,7 +47167,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47190,7 +47193,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47216,7 +47219,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47242,7 +47245,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47268,7 +47271,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47294,7 +47297,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47320,7 +47323,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47346,7 +47349,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47372,7 +47375,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47398,7 +47401,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47424,7 +47427,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47450,7 +47453,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47476,7 +47479,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47502,7 +47505,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47528,7 +47531,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47554,7 +47557,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47580,7 +47583,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47606,7 +47609,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47632,7 +47635,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47658,7 +47661,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47684,7 +47687,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47710,7 +47713,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47736,7 +47739,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47762,7 +47765,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47788,7 +47791,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47814,7 +47817,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47840,7 +47843,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47866,7 +47869,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47892,7 +47895,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47918,7 +47921,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47944,7 +47947,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47970,7 +47973,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -47996,7 +47999,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48022,7 +48025,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48048,7 +48051,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48074,7 +48077,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48100,7 +48103,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48126,7 +48129,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48152,7 +48155,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48178,7 +48181,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48204,7 +48207,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48230,7 +48233,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48256,7 +48259,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48282,7 +48285,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48308,7 +48311,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48334,7 +48337,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48360,7 +48363,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48386,7 +48389,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48412,7 +48415,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48438,7 +48441,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48464,7 +48467,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48490,7 +48493,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48516,7 +48519,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48542,7 +48545,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48568,7 +48571,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48594,7 +48597,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48620,7 +48623,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48646,7 +48649,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48672,7 +48675,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48698,7 +48701,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48724,7 +48727,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48750,7 +48753,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48776,7 +48779,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48802,7 +48805,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48828,7 +48831,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48854,7 +48857,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48880,7 +48883,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48906,7 +48909,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48932,7 +48935,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48958,7 +48961,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -48984,7 +48987,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49010,7 +49013,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49036,7 +49039,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49062,7 +49065,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49088,7 +49091,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49114,7 +49117,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49140,7 +49143,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49166,7 +49169,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49192,7 +49195,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49218,7 +49221,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49244,7 +49247,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49270,7 +49273,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49296,7 +49299,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49322,7 +49325,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49348,7 +49351,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49374,7 +49377,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49400,7 +49403,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49426,7 +49429,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49452,7 +49455,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49478,7 +49481,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49504,7 +49507,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49530,7 +49533,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49556,7 +49559,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49582,7 +49585,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49608,7 +49611,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49634,7 +49637,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49660,7 +49663,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49686,7 +49689,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49712,7 +49715,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49738,7 +49741,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49764,7 +49767,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49790,7 +49793,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49816,7 +49819,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49842,7 +49845,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49868,7 +49871,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49894,7 +49897,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49920,7 +49923,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49946,7 +49949,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49972,7 +49975,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -49998,7 +50001,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50024,7 +50027,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50050,7 +50053,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50076,7 +50079,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50102,7 +50105,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50128,7 +50131,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50154,7 +50157,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50180,7 +50183,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50206,7 +50209,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50232,7 +50235,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50258,7 +50261,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50284,7 +50287,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50310,7 +50313,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50336,7 +50339,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50362,7 +50365,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50388,7 +50391,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50414,7 +50417,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50440,7 +50443,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50466,7 +50469,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50492,7 +50495,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50518,7 +50521,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50544,7 +50547,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50570,7 +50573,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50596,7 +50599,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50622,7 +50625,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50648,7 +50651,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50674,7 +50677,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50700,7 +50703,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50726,7 +50729,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50752,7 +50755,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50778,7 +50781,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50804,7 +50807,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50830,7 +50833,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50856,7 +50859,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50882,7 +50885,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50908,7 +50911,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50934,7 +50937,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50960,7 +50963,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -50986,7 +50989,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51012,7 +51015,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51038,7 +51041,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51064,7 +51067,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51090,7 +51093,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51116,7 +51119,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51142,7 +51145,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51168,7 +51171,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51194,7 +51197,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51220,7 +51223,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51246,7 +51249,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51272,7 +51275,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51298,7 +51301,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51324,7 +51327,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51350,7 +51353,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51376,7 +51379,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51402,7 +51405,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51428,7 +51431,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51454,7 +51457,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51480,7 +51483,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51506,7 +51509,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51532,7 +51535,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51558,7 +51561,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51584,7 +51587,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51610,7 +51613,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51636,7 +51639,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51662,7 +51665,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51688,7 +51691,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51714,7 +51717,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51818,7 +51821,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51922,7 +51925,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52416,7 +52419,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52650,7 +52653,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56836,7 +56839,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56862,7 +56865,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57096,7 +57099,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57200,7 +57203,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57304,7 +57307,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -58508,7 +58511,7 @@
     </row>
     <row r="2143">
       <c r="A2143" s="1" t="n">
-        <v>45446.6493171296</v>
+        <v>45446.2916666667</v>
       </c>
       <c r="B2143" t="n">
         <v>9078</v>
@@ -58517,7 +58520,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="D2143" t="n">
-        <v>12.1400003433228</v>
+        <v>12.1000003814697</v>
       </c>
       <c r="E2143" t="n">
         <v>12.2600002288818</v>
@@ -58529,6 +58532,32 @@
         <v>818</v>
       </c>
       <c r="H2143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" s="1" t="n">
+        <v>45447.6495023148</v>
+      </c>
+      <c r="B2144" t="n">
+        <v>3669</v>
+      </c>
+      <c r="C2144" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="D2144" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="E2144" t="n">
+        <v>12.2600002288818</v>
+      </c>
+      <c r="F2144" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>821</v>
+      </c>
+      <c r="H2144" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -38,118 +38,118 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677211761475</t>
+    <t xml:space="preserve">7.67677021026611</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728712081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883499145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40788888931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502361297607</t>
+    <t xml:space="preserve">7.65728616714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780307769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883451461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40789031982422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502313613892</t>
   </si>
   <si>
     <t xml:space="preserve">7.63390588760376</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44685697555542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972272872925</t>
+    <t xml:space="preserve">7.44685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089595794678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972320556641</t>
   </si>
   <si>
     <t xml:space="preserve">7.4429612159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75081014633179</t>
+    <t xml:space="preserve">7.7508111000061</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8716139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367685317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71574020385742</t>
+    <t xml:space="preserve">7.87161302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367589950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264350891113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573829650879</t>
   </si>
   <si>
     <t xml:space="preserve">7.76250123977661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91837549209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278911590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94954967498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7897801399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7858829498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748680114746</t>
+    <t xml:space="preserve">7.91837501525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9027886390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94954872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588247299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748584747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.19115447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1677713394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410747528076</t>
+    <t xml:space="preserve">8.16777229309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410556793213</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926465988159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439105987549</t>
+    <t xml:space="preserve">7.80926418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14439010620117</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645584106445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086898803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7547082901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602712631226</t>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602569580078</t>
   </si>
   <si>
     <t xml:space="preserve">7.80147075653076</t>
@@ -158,19 +158,19 @@
     <t xml:space="preserve">7.75860500335693</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74691534042358</t>
+    <t xml:space="preserve">7.74691486358643</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73912000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7040491104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192882537842</t>
+    <t xml:space="preserve">7.7391209602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70405006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192930221558</t>
   </si>
   <si>
     <t xml:space="preserve">7.50531005859375</t>
@@ -179,22 +179,22 @@
     <t xml:space="preserve">7.47803163528442</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45854759216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04307460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98851776123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70015096664429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969242095947</t>
+    <t xml:space="preserve">7.45854711532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98851728439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499473571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969432830811</t>
   </si>
   <si>
     <t xml:space="preserve">8.08204174041748</t>
@@ -203,40 +203,40 @@
     <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129722595215</t>
+    <t xml:space="preserve">8.2457103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129627227783</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49510765075684</t>
+    <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
     <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68215560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53407669067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347881317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74354934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63134956359863</t>
+    <t xml:space="preserve">8.68215656280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74354839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539455413818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
     <t xml:space="preserve">8.42297840118408</t>
@@ -245,19 +245,19 @@
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14247989654541</t>
+    <t xml:space="preserve">8.14248085021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460723876953</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17453575134277</t>
+    <t xml:space="preserve">8.17453670501709</t>
   </si>
   <si>
     <t xml:space="preserve">8.39893531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53517818450928</t>
+    <t xml:space="preserve">8.53517723083496</t>
   </si>
   <si>
     <t xml:space="preserve">8.43900680541992</t>
@@ -275,16 +275,16 @@
     <t xml:space="preserve">9.0561056137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44880294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899429321289</t>
+    <t xml:space="preserve">9.44880199432373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899448394775</t>
   </si>
   <si>
     <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95370006561279</t>
+    <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
     <t xml:space="preserve">9.96171474456787</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61710262298584</t>
+    <t xml:space="preserve">9.61710166931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.73731517791748</t>
@@ -314,34 +314,34 @@
     <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18433284759521</t>
+    <t xml:space="preserve">9.1843318939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42475986480713</t>
+    <t xml:space="preserve">9.37667369842529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674518585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42476081848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.32858943939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30454635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40071868896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057476043701</t>
+    <t xml:space="preserve">9.30454540252686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40071773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2404317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
     <t xml:space="preserve">9.28851890563965</t>
@@ -350,7 +350,7 @@
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94390392303467</t>
+    <t xml:space="preserve">8.9439058303833</t>
   </si>
   <si>
     <t xml:space="preserve">8.95993423461914</t>
@@ -371,85 +371,85 @@
     <t xml:space="preserve">8.85574817657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89582061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660316467285</t>
+    <t xml:space="preserve">8.89581871032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660411834717</t>
   </si>
   <si>
     <t xml:space="preserve">9.48085975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248764038086</t>
+    <t xml:space="preserve">9.51291751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248954772949</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17631816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617614746094</t>
+    <t xml:space="preserve">9.17631912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617710113525</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93589115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88780498504639</t>
+    <t xml:space="preserve">8.93589019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88780689239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.97596263885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87177562713623</t>
+    <t xml:space="preserve">8.87177658081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.73553371429443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76759147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
+    <t xml:space="preserve">8.76759243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0000057220459</t>
   </si>
   <si>
     <t xml:space="preserve">8.77560615539551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67142105102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333583831787</t>
+    <t xml:space="preserve">8.67142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333393096924</t>
   </si>
   <si>
     <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68745040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156211853027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319190979004</t>
+    <t xml:space="preserve">8.68744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.52716445922852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56723594665527</t>
+    <t xml:space="preserve">8.56723499298096</t>
   </si>
   <si>
     <t xml:space="preserve">8.69546318054199</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">8.80766296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79163360595703</t>
+    <t xml:space="preserve">8.79163455963135</t>
   </si>
   <si>
     <t xml:space="preserve">8.67943477630615</t>
@@ -467,16 +467,16 @@
     <t xml:space="preserve">8.5592212677002</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30276489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36687850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5832633972168</t>
+    <t xml:space="preserve">8.30276393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3668794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58326435089111</t>
   </si>
   <si>
     <t xml:space="preserve">8.50312042236328</t>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">8.72752094268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.479079246521</t>
+    <t xml:space="preserve">8.47907829284668</t>
   </si>
   <si>
     <t xml:space="preserve">8.43099403381348</t>
@@ -497,25 +497,25 @@
     <t xml:space="preserve">8.47106456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41496562957764</t>
+    <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
     <t xml:space="preserve">8.45503616333008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29475116729736</t>
+    <t xml:space="preserve">8.29475212097168</t>
   </si>
   <si>
     <t xml:space="preserve">8.37489318847656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65425395965576</t>
+    <t xml:space="preserve">8.65425300598145</t>
   </si>
   <si>
     <t xml:space="preserve">8.3245677947998</t>
   </si>
   <si>
-    <t xml:space="preserve">8.225661277771</t>
+    <t xml:space="preserve">8.22566032409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.28335571289062</t>
@@ -527,16 +527,16 @@
     <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44819831848145</t>
+    <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
     <t xml:space="preserve">8.40698719024658</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7778844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577701568604</t>
+    <t xml:space="preserve">8.77788352966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.24214553833008</t>
@@ -545,67 +545,67 @@
     <t xml:space="preserve">8.19269180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02785015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14323902130127</t>
+    <t xml:space="preserve">8.07730197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0278491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14323997497559</t>
   </si>
   <si>
     <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99487972259521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597463607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464729309082</t>
+    <t xml:space="preserve">7.99488019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464776992798</t>
   </si>
   <si>
     <t xml:space="preserve">7.51683616638184</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73113250732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410150527954</t>
+    <t xml:space="preserve">7.73113203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74761772155762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574268341064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78058385848999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519594192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6981635093689</t>
+    <t xml:space="preserve">7.78058481216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519546508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">7.59925889968872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63222646713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56628942489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706907272339</t>
+    <t xml:space="preserve">7.63222551345825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56628894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79706811904907</t>
   </si>
   <si>
     <t xml:space="preserve">7.81355381011963</t>
@@ -617,25 +617,25 @@
     <t xml:space="preserve">7.48386812210083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38496208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30254030227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40144634246826</t>
+    <t xml:space="preserve">7.38496160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30254077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40144681930542</t>
   </si>
   <si>
     <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20363521575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33550930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035238265991</t>
+    <t xml:space="preserve">7.20363569259644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33550882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035285949707</t>
   </si>
   <si>
     <t xml:space="preserve">7.25308847427368</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">7.43441534042358</t>
   </si>
   <si>
-    <t xml:space="preserve">7.46738433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13769817352295</t>
+    <t xml:space="preserve">7.46738386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13769769668579</t>
   </si>
   <si>
     <t xml:space="preserve">7.17066621780396</t>
@@ -662,13 +662,13 @@
     <t xml:space="preserve">6.92340183258057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90691804885864</t>
+    <t xml:space="preserve">6.90691757202148</t>
   </si>
   <si>
     <t xml:space="preserve">6.98933839797974</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07176065444946</t>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
@@ -677,10 +677,10 @@
     <t xml:space="preserve">6.62668514251709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6596531867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75855922698975</t>
+    <t xml:space="preserve">6.65965366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7585597038269</t>
   </si>
   <si>
     <t xml:space="preserve">6.840980052948</t>
@@ -692,7 +692,7 @@
     <t xml:space="preserve">6.7091064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02230834960938</t>
+    <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559070587158</t>
@@ -707,7 +707,7 @@
     <t xml:space="preserve">7.28605604171753</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36847734451294</t>
+    <t xml:space="preserve">7.3684778213501</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472965240479</t>
@@ -719,13 +719,13 @@
     <t xml:space="preserve">6.87394905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52777910232544</t>
+    <t xml:space="preserve">6.52777862548828</t>
   </si>
   <si>
     <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129484176636</t>
+    <t xml:space="preserve">6.51129531860352</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
@@ -734,13 +734,13 @@
     <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67613840103149</t>
+    <t xml:space="preserve">6.67613792419434</t>
   </si>
   <si>
     <t xml:space="preserve">7.12121391296387</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93988609313965</t>
+    <t xml:space="preserve">6.93988656997681</t>
   </si>
   <si>
     <t xml:space="preserve">6.79152774810791</t>
@@ -752,43 +752,43 @@
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22011947631836</t>
+    <t xml:space="preserve">6.80801200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
     <t xml:space="preserve">7.35199356079102</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45089960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332090377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871072769165</t>
+    <t xml:space="preserve">7.45089912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871120452881</t>
   </si>
   <si>
     <t xml:space="preserve">7.68167924880981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54980516433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705438613892</t>
+    <t xml:space="preserve">7.54980564117432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705486297607</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56021785736084</t>
+    <t xml:space="preserve">7.560218334198</t>
   </si>
   <si>
     <t xml:space="preserve">7.09839487075806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49180030822754</t>
+    <t xml:space="preserve">7.49179983139038</t>
   </si>
   <si>
     <t xml:space="preserve">7.5773229598999</t>
@@ -803,22 +803,22 @@
     <t xml:space="preserve">7.3549633026123</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3378586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233507156372</t>
+    <t xml:space="preserve">7.33785915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
     <t xml:space="preserve">7.21812725067139</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20102262496948</t>
+    <t xml:space="preserve">7.20102214813232</t>
   </si>
   <si>
     <t xml:space="preserve">7.18391752243042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92734956741333</t>
+    <t xml:space="preserve">6.92735004425049</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
@@ -839,7 +839,7 @@
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287221908569</t>
+    <t xml:space="preserve">7.01287269592285</t>
   </si>
   <si>
     <t xml:space="preserve">7.11549949645996</t>
@@ -854,10 +854,10 @@
     <t xml:space="preserve">7.0299768447876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97866296768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87603616714478</t>
+    <t xml:space="preserve">6.97866344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87603569030762</t>
   </si>
   <si>
     <t xml:space="preserve">6.9615592956543</t>
@@ -866,13 +866,13 @@
     <t xml:space="preserve">6.89314079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85893201828003</t>
+    <t xml:space="preserve">6.85893154144287</t>
   </si>
   <si>
     <t xml:space="preserve">6.84182643890381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77340841293335</t>
+    <t xml:space="preserve">6.77340793609619</t>
   </si>
   <si>
     <t xml:space="preserve">6.65367698669434</t>
@@ -896,16 +896,16 @@
     <t xml:space="preserve">6.41421270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36289882659912</t>
+    <t xml:space="preserve">6.36289930343628</t>
   </si>
   <si>
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000297546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32869005203247</t>
+    <t xml:space="preserve">6.38000345230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32868957519531</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
@@ -923,7 +923,7 @@
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158542633057</t>
+    <t xml:space="preserve">6.31158494949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657188415527</t>
+    <t xml:space="preserve">6.63657236099243</t>
   </si>
   <si>
     <t xml:space="preserve">6.60236263275146</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">6.55104875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56815338134766</t>
+    <t xml:space="preserve">6.5681529045105</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
@@ -989,22 +989,22 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9865984916687</t>
+    <t xml:space="preserve">5.98659801483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346115112305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06295204162598</t>
+    <t xml:space="preserve">5.47346162796021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06295156478882</t>
   </si>
   <si>
     <t xml:space="preserve">4.99453353881836</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">4.75506973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061899185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58402347564697</t>
+    <t xml:space="preserve">4.53271007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061851501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58402395248413</t>
   </si>
   <si>
     <t xml:space="preserve">4.32745504379272</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">5.49056577682495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90107583999634</t>
+    <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69582080841064</t>
+    <t xml:space="preserve">5.69582033157349</t>
   </si>
   <si>
     <t xml:space="preserve">5.67871570587158</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">5.54187965393066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35372972488403</t>
+    <t xml:space="preserve">5.35372924804688</t>
   </si>
   <si>
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450645446777</t>
+    <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">5.59319353103638</t>
   </si>
   <si>
-    <t xml:space="preserve">5.84976196289062</t>
+    <t xml:space="preserve">5.84976243972778</t>
   </si>
   <si>
     <t xml:space="preserve">6.12343454360962</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316740036011</t>
+    <t xml:space="preserve">6.24316692352295</t>
   </si>
   <si>
     <t xml:space="preserve">6.03791189193726</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922529220581</t>
+    <t xml:space="preserve">6.08922576904297</t>
   </si>
   <si>
     <t xml:space="preserve">6.26027154922485</t>
@@ -1106,22 +1106,22 @@
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292543411255</t>
+    <t xml:space="preserve">5.71292495727539</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74713373184204</t>
+    <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83265686035156</t>
+    <t xml:space="preserve">5.61029767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
@@ -1133,10 +1133,10 @@
     <t xml:space="preserve">5.57608842849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79051351547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209453582764</t>
+    <t xml:space="preserve">6.79051303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209501266479</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">7.38917303085327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547384262085</t>
+    <t xml:space="preserve">7.74836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547336578369</t>
   </si>
   <si>
     <t xml:space="preserve">7.7825779914856</t>
@@ -1163,25 +1163,25 @@
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12467002868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914642333984</t>
+    <t xml:space="preserve">8.10756492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12466907501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783254623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072792053223</t>
+    <t xml:space="preserve">7.98783302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072744369507</t>
   </si>
   <si>
     <t xml:space="preserve">7.91941356658936</t>
@@ -1190,10 +1190,10 @@
     <t xml:space="preserve">7.90230989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73126459121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8167872428894</t>
+    <t xml:space="preserve">7.73126411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678771972656</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
@@ -1202,19 +1202,19 @@
     <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8681001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7996826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413192749023</t>
+    <t xml:space="preserve">7.86810064315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79968214035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2786111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3812370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413288116455</t>
   </si>
   <si>
     <t xml:space="preserve">8.44965553283691</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504413604736</t>
+    <t xml:space="preserve">8.59504508972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,19 +1235,19 @@
     <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41544818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68056678771973</t>
+    <t xml:space="preserve">8.41544723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096893310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68056774139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161304473877</t>
+    <t xml:space="preserve">8.85161399841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
@@ -1262,10 +1262,10 @@
     <t xml:space="preserve">9.62131881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960136413574</t>
+    <t xml:space="preserve">9.45027256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960231781006</t>
   </si>
   <si>
     <t xml:space="preserve">9.66408061981201</t>
@@ -1277,7 +1277,7 @@
     <t xml:space="preserve">10.1772165298462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344566345215</t>
+    <t xml:space="preserve">10.1344556808472</t>
   </si>
   <si>
     <t xml:space="preserve">10.3910245895386</t>
@@ -1307,31 +1307,31 @@
     <t xml:space="preserve">12.1014804840088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9731969833374</t>
+    <t xml:space="preserve">11.9731960296631</t>
   </si>
   <si>
     <t xml:space="preserve">11.8876733779907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021516799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.716628074646</t>
+    <t xml:space="preserve">11.8021507263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7166271209717</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5883445739746</t>
+    <t xml:space="preserve">11.5883436203003</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725267410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0159578323364</t>
+    <t xml:space="preserve">12.2725276947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0159587860107</t>
   </si>
   <si>
     <t xml:space="preserve">11.844913482666</t>
@@ -1352,31 +1352,31 @@
     <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380502700806</t>
+    <t xml:space="preserve">12.5020551681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257192611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380493164062</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287139892578</t>
+    <t xml:space="preserve">10.7287149429321</t>
   </si>
   <si>
     <t xml:space="preserve">10.8173809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8617143630981</t>
+    <t xml:space="preserve">10.8617153167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.7730474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.684380531311</t>
+    <t xml:space="preserve">10.6843795776367</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957136154175</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">10.6400461196899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1277151107788</t>
+    <t xml:space="preserve">11.1277160644531</t>
   </si>
   <si>
     <t xml:space="preserve">11.0390481948853</t>
@@ -1397,13 +1397,13 @@
     <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5710506439209</t>
+    <t xml:space="preserve">11.5710515975952</t>
   </si>
   <si>
     <t xml:space="preserve">11.3050498962402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.615385055542</t>
+    <t xml:space="preserve">11.6153841018677</t>
   </si>
   <si>
     <t xml:space="preserve">11.349383354187</t>
@@ -1415,7 +1415,7 @@
     <t xml:space="preserve">10.9947147369385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.950382232666</t>
+    <t xml:space="preserve">10.9503812789917</t>
   </si>
   <si>
     <t xml:space="preserve">10.9060478210449</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267171859741</t>
+    <t xml:space="preserve">11.5267181396484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8813848495483</t>
@@ -1439,7 +1439,7 @@
     <t xml:space="preserve">11.6597175598145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2607154846191</t>
+    <t xml:space="preserve">11.2607164382935</t>
   </si>
   <si>
     <t xml:space="preserve">11.3937168121338</t>
@@ -1466,7 +1466,7 @@
     <t xml:space="preserve">12.5907220840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1227235794067</t>
+    <t xml:space="preserve">13.1227245330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2113914489746</t>
@@ -1475,37 +1475,37 @@
     <t xml:space="preserve">13.5217266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1670589447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.388726234436</t>
+    <t xml:space="preserve">13.1670579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3887252807617</t>
   </si>
   <si>
     <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6990604400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1867294311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970636367798</t>
+    <t xml:space="preserve">13.6990594863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.186728477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970645904541</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5857315063477</t>
+    <t xml:space="preserve">14.5857305526733</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527292251587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2310619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2753963470459</t>
+    <t xml:space="preserve">14.2310628890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2753973007202</t>
   </si>
   <si>
     <t xml:space="preserve">14.9847316741943</t>
@@ -1514,7 +1514,7 @@
     <t xml:space="preserve">14.8517322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6300640106201</t>
+    <t xml:space="preserve">14.6300649642944</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">13.787727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4773921966553</t>
+    <t xml:space="preserve">13.4773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
@@ -1535,7 +1535,7 @@
     <t xml:space="preserve">12.8567228317261</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1473865509033</t>
+    <t xml:space="preserve">12.147385597229</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
@@ -1562,13 +1562,13 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.679388999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.413387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.271520614624</t>
+    <t xml:space="preserve">12.6793899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4133882522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2715196609497</t>
   </si>
   <si>
     <t xml:space="preserve">11.8281850814819</t>
@@ -1577,7 +1577,7 @@
     <t xml:space="preserve">11.4557838439941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7217845916748</t>
+    <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
     <t xml:space="preserve">11.4735164642334</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">11.544451713562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6508512496948</t>
+    <t xml:space="preserve">11.6508522033691</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">11.5089836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.757251739502</t>
+    <t xml:space="preserve">11.7572507858276</t>
   </si>
   <si>
     <t xml:space="preserve">11.5799179077148</t>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="822">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,64 +38,64 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677021026611</t>
+    <t xml:space="preserve">7.67677211761475</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728616714478</t>
+    <t xml:space="preserve">7.65728712081909</t>
   </si>
   <si>
     <t xml:space="preserve">7.63780307769775</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55986499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883451461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40789031982422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502313613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089595794678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972320556641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4429612159729</t>
+    <t xml:space="preserve">7.55986595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883499145508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502361297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6339054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685745239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972272872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44296169281006</t>
   </si>
   <si>
     <t xml:space="preserve">7.7508111000061</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77808856964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87161302566528</t>
+    <t xml:space="preserve">7.77808952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87161254882812</t>
   </si>
   <si>
     <t xml:space="preserve">7.79367589950562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83264350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250123977661</t>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250171661377</t>
   </si>
   <si>
     <t xml:space="preserve">7.91837501525879</t>
@@ -104,10 +104,10 @@
     <t xml:space="preserve">7.9027886390686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94954872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977870941162</t>
+    <t xml:space="preserve">7.94955062866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977918624878</t>
   </si>
   <si>
     <t xml:space="preserve">7.78588247299194</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">7.94175624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02748584747314</t>
+    <t xml:space="preserve">8.02748775482178</t>
   </si>
   <si>
     <t xml:space="preserve">8.19115447998047</t>
@@ -128,85 +128,85 @@
     <t xml:space="preserve">8.00410556793213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99631261825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439010620117</t>
+    <t xml:space="preserve">7.9963116645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645584106445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043836593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602569580078</t>
+    <t xml:space="preserve">8.05086803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470685958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.80147075653076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75860500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691486358643</t>
+    <t xml:space="preserve">7.75860452651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691343307495</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7391209602356</t>
+    <t xml:space="preserve">7.73912143707275</t>
   </si>
   <si>
     <t xml:space="preserve">7.70405006408691</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48192930221558</t>
+    <t xml:space="preserve">7.48192977905273</t>
   </si>
   <si>
     <t xml:space="preserve">7.50531005859375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47803163528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854711532593</t>
+    <t xml:space="preserve">7.47803258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4585485458374</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851728439331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70015287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969432830811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08204174041748</t>
+    <t xml:space="preserve">7.98851871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015335083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499425888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0820426940918</t>
   </si>
   <si>
     <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2457103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129627227783</t>
+    <t xml:space="preserve">8.24570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129722595215</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863162994385</t>
+    <t xml:space="preserve">8.58863258361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215656280518</t>
@@ -230,37 +230,37 @@
     <t xml:space="preserve">8.81567764282227</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74354839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539455413818</t>
+    <t xml:space="preserve">8.74354934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539169311523</t>
   </si>
   <si>
     <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42297840118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3348217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14248085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453670501709</t>
+    <t xml:space="preserve">8.4229793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33482265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453765869141</t>
   </si>
   <si>
     <t xml:space="preserve">8.39893531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53517723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900680541992</t>
+    <t xml:space="preserve">8.53517818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900775909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.57524967193604</t>
@@ -269,43 +269,43 @@
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050327301025</t>
+    <t xml:space="preserve">9.28050422668457</t>
   </si>
   <si>
     <t xml:space="preserve">9.0561056137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44880199432373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899448394775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89760112762451</t>
+    <t xml:space="preserve">9.44880390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899438858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760208129883</t>
   </si>
   <si>
     <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96171474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7613582611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107326507568</t>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61710166931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73731517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490188598633</t>
+    <t xml:space="preserve">9.61710262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7373161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490379333496</t>
   </si>
   <si>
     <t xml:space="preserve">9.25646114349365</t>
@@ -314,31 +314,31 @@
     <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1843318939209</t>
+    <t xml:space="preserve">9.18433380126953</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681858062744</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667369842529</t>
+    <t xml:space="preserve">9.37667560577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.41674518585205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42476081848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32858943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30454540252686</t>
+    <t xml:space="preserve">9.42475986480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32859039306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
     <t xml:space="preserve">9.40071773529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2404317855835</t>
+    <t xml:space="preserve">9.24043273925781</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057571411133</t>
@@ -353,34 +353,34 @@
     <t xml:space="preserve">8.9439058303833</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95993423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21638870239258</t>
+    <t xml:space="preserve">8.95993328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638965606689</t>
   </si>
   <si>
     <t xml:space="preserve">9.20837593078613</t>
   </si>
   <si>
-    <t xml:space="preserve">9.13624668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9919900894165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574817657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89581871032715</t>
+    <t xml:space="preserve">9.1362476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99199199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89582061767578</t>
   </si>
   <si>
     <t xml:space="preserve">9.33660411834717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48085975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291751861572</t>
+    <t xml:space="preserve">9.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291656494141</t>
   </si>
   <si>
     <t xml:space="preserve">9.27248954772949</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17631912231445</t>
+    <t xml:space="preserve">9.17631816864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.09617710113525</t>
@@ -401,19 +401,19 @@
     <t xml:space="preserve">8.93589019775391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88780689239502</t>
+    <t xml:space="preserve">8.8878059387207</t>
   </si>
   <si>
     <t xml:space="preserve">8.97596263885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87177658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759243011475</t>
+    <t xml:space="preserve">8.87177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759147644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.04007625579834</t>
@@ -428,10 +428,10 @@
     <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333393096924</t>
+    <t xml:space="preserve">8.64737796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333488464355</t>
   </si>
   <si>
     <t xml:space="preserve">8.63936328887939</t>
@@ -443,19 +443,19 @@
     <t xml:space="preserve">8.75156307220459</t>
   </si>
   <si>
-    <t xml:space="preserve">8.54319381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716445922852</t>
+    <t xml:space="preserve">8.54319286346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5271635055542</t>
   </si>
   <si>
     <t xml:space="preserve">8.56723499298096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69546318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80766296386719</t>
+    <t xml:space="preserve">8.69546413421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766201019287</t>
   </si>
   <si>
     <t xml:space="preserve">8.79163455963135</t>
@@ -464,13 +464,13 @@
     <t xml:space="preserve">8.67943477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5592212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
+    <t xml:space="preserve">8.55922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36687850952148</t>
   </si>
   <si>
     <t xml:space="preserve">8.35085105895996</t>
@@ -479,25 +479,25 @@
     <t xml:space="preserve">8.58326435089111</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50312042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
+    <t xml:space="preserve">8.5031213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127902984619</t>
   </si>
   <si>
     <t xml:space="preserve">8.72752094268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47907829284668</t>
+    <t xml:space="preserve">8.479079246521</t>
   </si>
   <si>
     <t xml:space="preserve">8.43099403381348</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47106456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496467590332</t>
+    <t xml:space="preserve">8.4710636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41496562957764</t>
   </si>
   <si>
     <t xml:space="preserve">8.45503616333008</t>
@@ -506,46 +506,46 @@
     <t xml:space="preserve">8.29475212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37489318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3245677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22566032409668</t>
+    <t xml:space="preserve">8.37489223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32456684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.225661277771</t>
   </si>
   <si>
     <t xml:space="preserve">8.28335571289062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57183074951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062057495117</t>
+    <t xml:space="preserve">8.57183170318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53062152862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40698719024658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77788352966309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214553833008</t>
+    <t xml:space="preserve">8.40698909759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7778844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730197906494</t>
+    <t xml:space="preserve">8.07730293273926</t>
   </si>
   <si>
     <t xml:space="preserve">8.0278491973877</t>
@@ -554,121 +554,121 @@
     <t xml:space="preserve">8.14323997497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597511291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74761772155762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7641019821167</t>
+    <t xml:space="preserve">8.06081676483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9289436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597463607788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683664321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7476167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410055160522</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574268341064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78058481216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519546508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69816398620605</t>
+    <t xml:space="preserve">7.78058576583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519498825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816446304321</t>
   </si>
   <si>
     <t xml:space="preserve">7.59925889968872</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63222551345825</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56628894805908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706811904907</t>
+    <t xml:space="preserve">7.63222646713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5662899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79706907272339</t>
   </si>
   <si>
     <t xml:space="preserve">7.81355381011963</t>
   </si>
   <si>
-    <t xml:space="preserve">7.58277368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386812210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38496160507202</t>
+    <t xml:space="preserve">7.58277320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3849630355835</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40144681930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1871509552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20363569259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33550882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25308847427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41793060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738386154175</t>
+    <t xml:space="preserve">7.4014458656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18715143203735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20363473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33550930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035238265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25308799743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793012619019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4344162940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">7.13769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">7.17066621780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08824443817139</t>
+    <t xml:space="preserve">7.17066669464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0882453918457</t>
   </si>
   <si>
     <t xml:space="preserve">6.92340183258057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90691757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98933839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176113128662</t>
+    <t xml:space="preserve">6.90691804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98933887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176065444946</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
@@ -677,22 +677,22 @@
     <t xml:space="preserve">6.62668514251709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65965366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7585597038269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.840980052948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69262218475342</t>
+    <t xml:space="preserve">6.6596531867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75855922698975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84098052978516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69262170791626</t>
   </si>
   <si>
     <t xml:space="preserve">6.7091064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02230787277222</t>
+    <t xml:space="preserve">7.02230834960938</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559070587158</t>
@@ -701,31 +701,31 @@
     <t xml:space="preserve">6.85746479034424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00582408905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28605604171753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3684778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23660326004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394905090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52777862548828</t>
+    <t xml:space="preserve">7.00582361221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28605699539185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36847734451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10472917556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87394952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
     <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129531860352</t>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
@@ -734,7 +734,7 @@
     <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67613792419434</t>
+    <t xml:space="preserve">6.67613840103149</t>
   </si>
   <si>
     <t xml:space="preserve">7.12121391296387</t>
@@ -743,55 +743,55 @@
     <t xml:space="preserve">6.93988656997681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89043283462524</t>
+    <t xml:space="preserve">6.79152727127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8904333114624</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801200866699</t>
+    <t xml:space="preserve">6.80801248550415</t>
   </si>
   <si>
     <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35199356079102</t>
+    <t xml:space="preserve">7.35199403762817</t>
   </si>
   <si>
     <t xml:space="preserve">7.45089912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53332138061523</t>
+    <t xml:space="preserve">7.53332090377808</t>
   </si>
   <si>
     <t xml:space="preserve">7.64871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68167924880981</t>
+    <t xml:space="preserve">7.68167972564697</t>
   </si>
   <si>
     <t xml:space="preserve">7.54980564117432</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69705486297607</t>
+    <t xml:space="preserve">7.69705533981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.560218334198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09839487075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49179983139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5773229598999</t>
+    <t xml:space="preserve">7.56021881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09839534759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49180030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57732343673706</t>
   </si>
   <si>
     <t xml:space="preserve">7.61153173446655</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3549633026123</t>
+    <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
     <t xml:space="preserve">7.33785915374756</t>
@@ -809,10 +809,10 @@
     <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102214813232</t>
+    <t xml:space="preserve">7.21812677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102262496948</t>
   </si>
   <si>
     <t xml:space="preserve">7.18391752243042</t>
@@ -833,97 +833,97 @@
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206840515137</t>
+    <t xml:space="preserve">7.37206792831421</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287269592285</t>
+    <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
     <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0470814704895</t>
+    <t xml:space="preserve">7.04708099365234</t>
   </si>
   <si>
     <t xml:space="preserve">7.08129024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0299768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97866344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87603569030762</t>
+    <t xml:space="preserve">7.02997732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97866249084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87603616714478</t>
   </si>
   <si>
     <t xml:space="preserve">6.9615592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89314079284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893154144287</t>
+    <t xml:space="preserve">6.89314031600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893201828003</t>
   </si>
   <si>
     <t xml:space="preserve">6.84182643890381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77340793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.77340841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263025283813</t>
+    <t xml:space="preserve">6.46552610397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5852575302124</t>
+    <t xml:space="preserve">6.58525800704956</t>
   </si>
   <si>
     <t xml:space="preserve">6.41421270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36289930343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43131732940674</t>
+    <t xml:space="preserve">6.36289834976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43131685256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.38000345230103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32868957519531</t>
+    <t xml:space="preserve">6.32869005203247</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053964614868</t>
+    <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
     <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10633039474487</t>
+    <t xml:space="preserve">6.10632991790771</t>
   </si>
   <si>
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158494949341</t>
+    <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -941,13 +941,13 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7563042640686</t>
+    <t xml:space="preserve">6.75630378723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657236099243</t>
+    <t xml:space="preserve">6.63657188415527</t>
   </si>
   <si>
     <t xml:space="preserve">6.60236263275146</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">6.55104875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5681529045105</t>
+    <t xml:space="preserve">6.56815338134766</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">6.73919916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34579467773438</t>
+    <t xml:space="preserve">6.34579420089722</t>
   </si>
   <si>
     <t xml:space="preserve">6.44842147827148</t>
@@ -989,34 +989,34 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423931121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88397121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98659801483154</t>
+    <t xml:space="preserve">5.76423835754395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88397073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9865984916687</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346162796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06295156478882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.99453353881836</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53271007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061851501465</t>
+    <t xml:space="preserve">5.47346115112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06295204162598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.99453401565552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53271055221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061899185181</t>
   </si>
   <si>
     <t xml:space="preserve">4.58402395248413</t>
@@ -1025,28 +1025,28 @@
     <t xml:space="preserve">4.32745504379272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4471869468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36166429519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7037558555603</t>
+    <t xml:space="preserve">4.44718742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36166477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70375633239746</t>
   </si>
   <si>
     <t xml:space="preserve">5.04584741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820707321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49056577682495</t>
+    <t xml:space="preserve">5.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056529998779</t>
   </si>
   <si>
     <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78134346008301</t>
+    <t xml:space="preserve">5.78134393692017</t>
   </si>
   <si>
     <t xml:space="preserve">5.69582033157349</t>
@@ -1064,16 +1064,16 @@
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450693130493</t>
+    <t xml:space="preserve">5.64450645446777</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319353103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84976243972778</t>
+    <t xml:space="preserve">5.59319305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84976196289062</t>
   </si>
   <si>
     <t xml:space="preserve">6.12343454360962</t>
@@ -1082,37 +1082,37 @@
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03791189193726</t>
+    <t xml:space="preserve">6.24316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0379114151001</t>
   </si>
   <si>
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922576904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26027154922485</t>
+    <t xml:space="preserve">6.08922529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26027202606201</t>
   </si>
   <si>
     <t xml:space="preserve">5.96949338912964</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79844856262207</t>
+    <t xml:space="preserve">5.79844808578491</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81555318832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7471342086792</t>
+    <t xml:space="preserve">5.71292543411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81555271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.74713373184204</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
@@ -1121,19 +1121,19 @@
     <t xml:space="preserve">5.61029767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83265733718872</t>
+    <t xml:space="preserve">5.83265686035156</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66161155700684</t>
+    <t xml:space="preserve">5.66161108016968</t>
   </si>
   <si>
     <t xml:space="preserve">5.57608842849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79051303863525</t>
+    <t xml:space="preserve">6.79051351547241</t>
   </si>
   <si>
     <t xml:space="preserve">6.72209501266479</t>
@@ -1145,16 +1145,16 @@
     <t xml:space="preserve">7.16681337356567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13260412216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917303085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547336578369</t>
+    <t xml:space="preserve">7.13260459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547384262085</t>
   </si>
   <si>
     <t xml:space="preserve">7.7825779914856</t>
@@ -1163,37 +1163,37 @@
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12466907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05625152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98783302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072744369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941356658936</t>
+    <t xml:space="preserve">8.10756397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12467002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914642333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05625057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98783349990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941452026367</t>
   </si>
   <si>
     <t xml:space="preserve">7.90230989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73126411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678771972656</t>
+    <t xml:space="preserve">7.73126363754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8167872428894</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
@@ -1202,22 +1202,22 @@
     <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86810064315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79968214035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2786111831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3812370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965553283691</t>
+    <t xml:space="preserve">7.8681001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7996826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27861022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38123798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965648651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.63780689239502</t>
@@ -1241,28 +1241,28 @@
     <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68056774139404</t>
+    <t xml:space="preserve">8.68056678771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97989845275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0226583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62131881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45027256011963</t>
+    <t xml:space="preserve">8.85161304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97989749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02265930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62131977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
     <t xml:space="preserve">9.74960231781006</t>
@@ -1274,79 +1274,79 @@
     <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1772165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344556808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910245895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.51930809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.1772174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5193071365356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
+    <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0324449539185</t>
+    <t xml:space="preserve">11.0324440002441</t>
   </si>
   <si>
     <t xml:space="preserve">11.4600591659546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1014804840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8876733779907</t>
+    <t xml:space="preserve">12.1014795303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.887674331665</t>
   </si>
   <si>
     <t xml:space="preserve">11.8021507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7166271209717</t>
+    <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5883436203003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6311063766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725276947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0159587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.844913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5028209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7593898773193</t>
+    <t xml:space="preserve">11.5883445739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6311054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725267410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0159578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5028200149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3317756652832</t>
+    <t xml:space="preserve">11.3317747116089</t>
   </si>
   <si>
     <t xml:space="preserve">12.0587205886841</t>
@@ -1355,7 +1355,7 @@
     <t xml:space="preserve">12.5020551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9257192611694</t>
+    <t xml:space="preserve">11.9257183074951</t>
   </si>
   <si>
     <t xml:space="preserve">11.4380493164062</t>
@@ -1364,19 +1364,19 @@
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287149429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617153167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730474472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843795776367</t>
+    <t xml:space="preserve">10.7287139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173799514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730464935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957136154175</t>
@@ -1385,7 +1385,7 @@
     <t xml:space="preserve">10.6400461196899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1277160644531</t>
+    <t xml:space="preserve">11.1277151107788</t>
   </si>
   <si>
     <t xml:space="preserve">11.0390481948853</t>
@@ -1394,19 +1394,19 @@
     <t xml:space="preserve">11.748384475708</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4823837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710515975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050498962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6153841018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.349383354187</t>
+    <t xml:space="preserve">11.482382774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710506439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050489425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.615385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3493824005127</t>
   </si>
   <si>
     <t xml:space="preserve">11.083381652832</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">10.9060478210449</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5513792037964</t>
+    <t xml:space="preserve">10.5513801574707</t>
   </si>
   <si>
     <t xml:space="preserve">11.1720495223999</t>
@@ -1430,7 +1430,7 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267181396484</t>
+    <t xml:space="preserve">11.5267171859741</t>
   </si>
   <si>
     <t xml:space="preserve">11.8813848495483</t>
@@ -1439,13 +1439,13 @@
     <t xml:space="preserve">11.6597175598145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2607164382935</t>
+    <t xml:space="preserve">11.2607154846191</t>
   </si>
   <si>
     <t xml:space="preserve">11.3937168121338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7927188873291</t>
+    <t xml:space="preserve">11.7927179336548</t>
   </si>
   <si>
     <t xml:space="preserve">12.1030530929565</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.014386177063</t>
+    <t xml:space="preserve">12.0143852233887</t>
   </si>
   <si>
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
@@ -1472,49 +1472,49 @@
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1670579910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3887252807617</t>
+    <t xml:space="preserve">13.5217256546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1670589447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388726234436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6990594863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.186728477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7630653381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5857305526733</t>
+    <t xml:space="preserve">13.6990604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1867294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970636367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7630643844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5857315063477</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527292251587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2310628890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2753973007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9847316741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6300649642944</t>
+    <t xml:space="preserve">14.2310619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9847326278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.851731300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6300640106201</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1526,7 +1526,7 @@
     <t xml:space="preserve">13.787727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4773931503296</t>
+    <t xml:space="preserve">13.4773921966553</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
@@ -1535,22 +1535,22 @@
     <t xml:space="preserve">12.8567228317261</t>
   </si>
   <si>
-    <t xml:space="preserve">12.147385597229</t>
+    <t xml:space="preserve">12.1473865509033</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463886260986</t>
+    <t xml:space="preserve">12.5463876724243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4627132415771</t>
@@ -1562,34 +1562,34 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4133882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2715196609497</t>
+    <t xml:space="preserve">12.679388999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.413387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.271520614624</t>
   </si>
   <si>
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7217855453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848505020142</t>
+    <t xml:space="preserve">11.4557828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735155105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848495483398</t>
   </si>
   <si>
     <t xml:space="preserve">11.3671159744263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4025831222534</t>
+    <t xml:space="preserve">11.4025821685791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5976505279541</t>
@@ -1601,7 +1601,7 @@
     <t xml:space="preserve">11.544451713562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6508522033691</t>
+    <t xml:space="preserve">11.6508512496948</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
@@ -1610,7 +1610,7 @@
     <t xml:space="preserve">11.5089836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7572507858276</t>
+    <t xml:space="preserve">11.757251739502</t>
   </si>
   <si>
     <t xml:space="preserve">11.5799179077148</t>
@@ -2475,6 +2475,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.1400003433228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2200002670288</t>
   </si>
 </sst>
 </file>
@@ -58560,7 +58563,7 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n">
-        <v>45448.6494675926</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B2145" t="n">
         <v>8329</v>
@@ -58581,6 +58584,32 @@
         <v>820</v>
       </c>
       <c r="H2145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" s="1" t="n">
+        <v>45449.6495486111</v>
+      </c>
+      <c r="B2146" t="n">
+        <v>1530</v>
+      </c>
+      <c r="C2146" t="n">
+        <v>12.2799997329712</v>
+      </c>
+      <c r="D2146" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="E2146" t="n">
+        <v>12.1199998855591</v>
+      </c>
+      <c r="F2146" t="n">
+        <v>12.2200002670288</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>821</v>
+      </c>
+      <c r="H2146" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="825">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677116394043</t>
+    <t xml:space="preserve">7.67677164077759</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
@@ -47,34 +47,34 @@
     <t xml:space="preserve">7.65728664398193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6378026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883308410645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40789079666138</t>
+    <t xml:space="preserve">7.63780307769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5988335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40788984298706</t>
   </si>
   <si>
     <t xml:space="preserve">7.36502408981323</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6339054107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685935974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089643478394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972368240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44296073913574</t>
+    <t xml:space="preserve">7.63390731811523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972177505493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4429612159729</t>
   </si>
   <si>
     <t xml:space="preserve">7.7508111000061</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87161350250244</t>
+    <t xml:space="preserve">7.87161302566528</t>
   </si>
   <si>
     <t xml:space="preserve">7.79367685317993</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83264398574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573781967163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837501525879</t>
+    <t xml:space="preserve">7.83264541625977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250123977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837596893311</t>
   </si>
   <si>
     <t xml:space="preserve">7.90278768539429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94954967498779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7897801399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588342666626</t>
+    <t xml:space="preserve">7.94955062866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977966308594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588247299194</t>
   </si>
   <si>
     <t xml:space="preserve">7.94175624847412</t>
@@ -119,94 +119,94 @@
     <t xml:space="preserve">8.02748584747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19115543365479</t>
+    <t xml:space="preserve">8.19115352630615</t>
   </si>
   <si>
     <t xml:space="preserve">8.16777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00410556793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99631261825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439010620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06645393371582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470685958862</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043979644775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184396743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73912048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192930221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531101226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803163528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854806900024</t>
+    <t xml:space="preserve">8.00410747528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9963116645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926513671875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06645584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602474212646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80146980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691390991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184301376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73912143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70405006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531148910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4780330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854711532593</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70015239715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499521255493</t>
+    <t xml:space="preserve">7.98851823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7001519203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499473571777</t>
   </si>
   <si>
     <t xml:space="preserve">8.01969242095947</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0820426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1054220199585</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24570846557617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129722595215</t>
+    <t xml:space="preserve">8.08204174041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10542392730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129627227783</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -218,10 +218,10 @@
     <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68215656280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5340747833252</t>
+    <t xml:space="preserve">8.68215465545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407573699951</t>
   </si>
   <si>
     <t xml:space="preserve">8.70347785949707</t>
@@ -239,16 +239,16 @@
     <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4229793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33482074737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460723876953</t>
+    <t xml:space="preserve">8.42297840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14248085021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
   </si>
   <si>
     <t xml:space="preserve">8.17453765869141</t>
@@ -263,55 +263,55 @@
     <t xml:space="preserve">8.43900680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57525062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532115936279</t>
+    <t xml:space="preserve">8.57524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532020568848</t>
   </si>
   <si>
     <t xml:space="preserve">9.28050422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05610466003418</t>
+    <t xml:space="preserve">9.0561056137085</t>
   </si>
   <si>
     <t xml:space="preserve">9.44880294799805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0899438858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89760112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171569824219</t>
+    <t xml:space="preserve">10.0899448394775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171474456787</t>
   </si>
   <si>
     <t xml:space="preserve">9.76135921478271</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53695964813232</t>
+    <t xml:space="preserve">9.60107326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53695869445801</t>
   </si>
   <si>
     <t xml:space="preserve">9.61710166931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7373161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29653358459473</t>
+    <t xml:space="preserve">9.73731517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646018981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.18433284759521</t>
@@ -323,13 +323,13 @@
     <t xml:space="preserve">9.37667465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41674518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42475986480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32858943939209</t>
+    <t xml:space="preserve">9.41674613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42476081848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32859039306641</t>
   </si>
   <si>
     <t xml:space="preserve">9.30454635620117</t>
@@ -338,28 +338,28 @@
     <t xml:space="preserve">9.40071678161621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.2404317855835</t>
+    <t xml:space="preserve">9.24043273925781</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851985931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94390487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21639060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
+    <t xml:space="preserve">9.28851890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9439058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638870239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837593078613</t>
   </si>
   <si>
     <t xml:space="preserve">9.13624668121338</t>
@@ -368,52 +368,52 @@
     <t xml:space="preserve">8.99199104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85574913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89581871032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248859405518</t>
+    <t xml:space="preserve">8.85574817657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89581966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660221099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291847229004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248954772949</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17631816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617614746094</t>
+    <t xml:space="preserve">9.17631912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617710113525</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93589019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8878059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759147644043</t>
+    <t xml:space="preserve">8.93589115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759243011475</t>
   </si>
   <si>
     <t xml:space="preserve">9.04007625579834</t>
@@ -428,34 +428,34 @@
     <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333583831787</t>
+    <t xml:space="preserve">8.64737701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333393096924</t>
   </si>
   <si>
     <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68744850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319286346436</t>
+    <t xml:space="preserve">8.68744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319381713867</t>
   </si>
   <si>
     <t xml:space="preserve">8.5271635055542</t>
   </si>
   <si>
-    <t xml:space="preserve">8.56723499298096</t>
+    <t xml:space="preserve">8.56723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">8.69546413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80766296386719</t>
+    <t xml:space="preserve">8.8076639175415</t>
   </si>
   <si>
     <t xml:space="preserve">8.79163455963135</t>
@@ -464,25 +464,25 @@
     <t xml:space="preserve">8.67943382263184</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55922222137451</t>
+    <t xml:space="preserve">8.5592212677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.30276393890381</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36687850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50312042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
+    <t xml:space="preserve">8.3668794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58326435089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312232971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127712249756</t>
   </si>
   <si>
     <t xml:space="preserve">8.72752094268799</t>
@@ -497,58 +497,58 @@
     <t xml:space="preserve">8.4710636138916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503616333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489223480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425395965576</t>
+    <t xml:space="preserve">8.41496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503520965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425300598145</t>
   </si>
   <si>
     <t xml:space="preserve">8.32456684112549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.225661277771</t>
+    <t xml:space="preserve">8.22566032409668</t>
   </si>
   <si>
     <t xml:space="preserve">8.28335571289062</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57183074951172</t>
+    <t xml:space="preserve">8.57183170318604</t>
   </si>
   <si>
     <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44819831848145</t>
+    <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
     <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.7778844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214458465576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19269180297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730293273926</t>
+    <t xml:space="preserve">8.36577796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19269275665283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730197906494</t>
   </si>
   <si>
     <t xml:space="preserve">8.0278491973877</t>
@@ -560,46 +560,46 @@
     <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99488067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597368240356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683712005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113346099854</t>
+    <t xml:space="preserve">7.99488115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003711700439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597606658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113203048706</t>
   </si>
   <si>
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410150527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574220657349</t>
+    <t xml:space="preserve">7.76410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574268341064</t>
   </si>
   <si>
     <t xml:space="preserve">7.78058481216431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66519594192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69816446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5992579460144</t>
+    <t xml:space="preserve">7.66519546508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925889968872</t>
   </si>
   <si>
     <t xml:space="preserve">7.63222646713257</t>
@@ -611,34 +611,34 @@
     <t xml:space="preserve">7.79706907272339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81355285644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386812210083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38496208190918</t>
+    <t xml:space="preserve">7.81355381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38496160507202</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4014458656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18715047836304</t>
+    <t xml:space="preserve">7.40144634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18715143203735</t>
   </si>
   <si>
     <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33550930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035238265991</t>
+    <t xml:space="preserve">7.33550834655762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035285949707</t>
   </si>
   <si>
     <t xml:space="preserve">7.25308799743652</t>
@@ -647,43 +647,43 @@
     <t xml:space="preserve">7.41793060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43441534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738338470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13769769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17066621780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08824443817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92340183258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90691804885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98933839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176065444946</t>
+    <t xml:space="preserve">7.4344162940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13769817352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17066669464111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08824491500854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92340230941772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90691757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98933887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62668514251709</t>
+    <t xml:space="preserve">6.62668466567993</t>
   </si>
   <si>
     <t xml:space="preserve">6.6596531867981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75855922698975</t>
+    <t xml:space="preserve">6.7585597038269</t>
   </si>
   <si>
     <t xml:space="preserve">6.84098052978516</t>
@@ -692,16 +692,16 @@
     <t xml:space="preserve">6.69262170791626</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7091064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02230834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72559070587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85746479034424</t>
+    <t xml:space="preserve">6.70910596847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02230787277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72559022903442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85746431350708</t>
   </si>
   <si>
     <t xml:space="preserve">7.00582408905029</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">7.28605651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3684778213501</t>
+    <t xml:space="preserve">7.36847829818726</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472917556763</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59371662139893</t>
+    <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
     <t xml:space="preserve">6.51129484176636</t>
@@ -734,94 +734,94 @@
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238880157471</t>
+    <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
     <t xml:space="preserve">6.67613792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12121438980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93988609313965</t>
+    <t xml:space="preserve">7.12121391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93988656997681</t>
   </si>
   <si>
     <t xml:space="preserve">6.79152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89043235778809</t>
+    <t xml:space="preserve">6.8904333114624</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2201189994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332090377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6816782951355</t>
+    <t xml:space="preserve">6.80801200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22011995315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199308395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871120452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68167924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.54980516433716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69705438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64574098587036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56021785736084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09839487075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49180030822754</t>
+    <t xml:space="preserve">7.69705486297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64574146270752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56021881103516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09839534759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4918007850647</t>
   </si>
   <si>
     <t xml:space="preserve">7.5773229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61153173446655</t>
+    <t xml:space="preserve">7.61153125762939</t>
   </si>
   <si>
     <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3549633026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3378586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233507156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102262496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18391752243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92734956741333</t>
+    <t xml:space="preserve">7.35496377944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33785963058472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233602523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102214813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18391799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92735004425049</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
@@ -836,40 +836,40 @@
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206840515137</t>
+    <t xml:space="preserve">7.37206792831421</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287221908569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11549949645996</t>
+    <t xml:space="preserve">7.01287269592285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1154990196228</t>
   </si>
   <si>
     <t xml:space="preserve">7.0470814704895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08129024505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0299768447876</t>
+    <t xml:space="preserve">7.08129072189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
     <t xml:space="preserve">6.97866296768188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87603616714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9615592956543</t>
+    <t xml:space="preserve">6.87603521347046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96155881881714</t>
   </si>
   <si>
     <t xml:space="preserve">6.89314079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85893201828003</t>
+    <t xml:space="preserve">6.85893154144287</t>
   </si>
   <si>
     <t xml:space="preserve">6.84182643890381</t>
@@ -884,16 +884,16 @@
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263025283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5168399810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5852575302124</t>
+    <t xml:space="preserve">6.46552610397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51683950424194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.58525800704956</t>
   </si>
   <si>
     <t xml:space="preserve">6.41421270370483</t>
@@ -905,19 +905,19 @@
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000297546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32869005203247</t>
+    <t xml:space="preserve">6.38000392913818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32868957519531</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053964614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07212114334106</t>
+    <t xml:space="preserve">6.14053916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07212162017822</t>
   </si>
   <si>
     <t xml:space="preserve">6.10633039474487</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158542633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2773756980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185256958008</t>
+    <t xml:space="preserve">6.31158494949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27737617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185304641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.39710807800293</t>
@@ -944,16 +944,16 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7563042640686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70499038696289</t>
+    <t xml:space="preserve">6.75630378723145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70499086380005</t>
   </si>
   <si>
     <t xml:space="preserve">6.63657188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60236263275146</t>
+    <t xml:space="preserve">6.60236215591431</t>
   </si>
   <si>
     <t xml:space="preserve">6.8247218132019</t>
@@ -962,16 +962,16 @@
     <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55104875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.56815338134766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68788576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73919916152954</t>
+    <t xml:space="preserve">6.55104827880859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5681529045105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68788623809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7391996383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">6.44842147827148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00370264053345</t>
+    <t xml:space="preserve">6.00370311737061</t>
   </si>
   <si>
     <t xml:space="preserve">5.86686658859253</t>
@@ -989,10 +989,10 @@
     <t xml:space="preserve">6.02080726623535</t>
   </si>
   <si>
-    <t xml:space="preserve">5.93528461456299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.93528413772583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1004,34 +1004,34 @@
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346115112305</t>
+    <t xml:space="preserve">5.47346162796021</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453353881836</t>
+    <t xml:space="preserve">4.99453401565552</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061899185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58402347564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32745504379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4471869468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36166429519653</t>
+    <t xml:space="preserve">4.53270959854126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061851501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58402395248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32745552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44718742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.7037558555603</t>
@@ -1040,25 +1040,25 @@
     <t xml:space="preserve">5.04584741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820707321167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49056577682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90107583999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78134346008301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69582080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67871570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54187965393066</t>
+    <t xml:space="preserve">5.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056625366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90107536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78134393692017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69582033157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67871618270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54187917709351</t>
   </si>
   <si>
     <t xml:space="preserve">5.35372972488403</t>
@@ -1067,13 +1067,13 @@
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450645446777</t>
+    <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319353103638</t>
+    <t xml:space="preserve">5.59319305419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
@@ -1085,46 +1085,46 @@
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03791189193726</t>
+    <t xml:space="preserve">6.24316644668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03791236877441</t>
   </si>
   <si>
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26027154922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96949338912964</t>
+    <t xml:space="preserve">6.08922576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2602710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9694938659668</t>
   </si>
   <si>
     <t xml:space="preserve">5.79844856262207</t>
   </si>
   <si>
-    <t xml:space="preserve">5.95238924026489</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71292543411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81555318832397</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74713373184204</t>
+    <t xml:space="preserve">5.95238876342773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71292495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81555271148682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83265686035156</t>
+    <t xml:space="preserve">5.61029767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">5.66161155700684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57608842849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79051351547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94445419311523</t>
+    <t xml:space="preserve">5.57608890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79051303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94445371627808</t>
   </si>
   <si>
     <t xml:space="preserve">7.16681337356567</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">7.38917303085327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547384262085</t>
+    <t xml:space="preserve">7.74836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547241210938</t>
   </si>
   <si>
     <t xml:space="preserve">7.7825779914856</t>
@@ -1166,37 +1166,37 @@
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12467002868652</t>
+    <t xml:space="preserve">8.10756492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12466812133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.03914642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05625152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98783254623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072792053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941356658936</t>
+    <t xml:space="preserve">8.05625057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98783206939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072744369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941452026367</t>
   </si>
   <si>
     <t xml:space="preserve">7.90230989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73126459121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8167872428894</t>
+    <t xml:space="preserve">7.73126411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678676605225</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
@@ -1205,28 +1205,28 @@
     <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8681001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7996826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965553283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63780689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59504413604736</t>
+    <t xml:space="preserve">7.86810159683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79968214035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2786111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3812370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4496545791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6378059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59504508972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41544818878174</t>
+    <t xml:space="preserve">8.55228424072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41544628143311</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096988677979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68056678771973</t>
+    <t xml:space="preserve">8.68056774139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161304473877</t>
+    <t xml:space="preserve">8.85161399841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
@@ -1265,10 +1265,10 @@
     <t xml:space="preserve">9.62131881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960136413574</t>
+    <t xml:space="preserve">9.45027256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960327148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.66408061981201</t>
@@ -1280,22 +1280,22 @@
     <t xml:space="preserve">10.1772165298462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910245895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.51930809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.1344556808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5193090438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
+    <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
@@ -1316,28 +1316,28 @@
     <t xml:space="preserve">11.8876733779907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021516799927</t>
+    <t xml:space="preserve">11.8021507263184</t>
   </si>
   <si>
     <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304342269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6311063766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725267410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0159578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.844913482666</t>
+    <t xml:space="preserve">11.9304351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883436203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6311054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725276947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0159587860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8449125289917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5028209686279</t>
@@ -1352,22 +1352,22 @@
     <t xml:space="preserve">11.3317756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0587205886841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380502700806</t>
+    <t xml:space="preserve">12.0587196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5020551681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257192611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380493164062</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287139892578</t>
+    <t xml:space="preserve">10.7287149429321</t>
   </si>
   <si>
     <t xml:space="preserve">10.8173809051514</t>
@@ -1382,25 +1382,25 @@
     <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957136154175</t>
+    <t xml:space="preserve">10.5957126617432</t>
   </si>
   <si>
     <t xml:space="preserve">10.6400461196899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1277151107788</t>
+    <t xml:space="preserve">11.1277160644531</t>
   </si>
   <si>
     <t xml:space="preserve">11.0390481948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.748384475708</t>
+    <t xml:space="preserve">11.7483854293823</t>
   </si>
   <si>
     <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5710506439209</t>
+    <t xml:space="preserve">11.5710515975952</t>
   </si>
   <si>
     <t xml:space="preserve">11.3050498962402</t>
@@ -1421,7 +1421,7 @@
     <t xml:space="preserve">10.950382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9060478210449</t>
+    <t xml:space="preserve">10.9060487747192</t>
   </si>
   <si>
     <t xml:space="preserve">10.5513792037964</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
+    <t xml:space="preserve">11.5267181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813858032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">11.7927188873291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1030530929565</t>
+    <t xml:space="preserve">12.1030521392822</t>
   </si>
   <si>
     <t xml:space="preserve">12.280387878418</t>
@@ -1460,16 +1460,16 @@
     <t xml:space="preserve">12.014386177063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3690538406372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3690547943115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1227235794067</t>
+    <t xml:space="preserve">13.1227245330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2113914489746</t>
@@ -1478,22 +1478,22 @@
     <t xml:space="preserve">13.5217266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1670589447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.388726234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330587387085</t>
+    <t xml:space="preserve">13.1670579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3887252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330596923828</t>
   </si>
   <si>
     <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1867294311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970636367798</t>
+    <t xml:space="preserve">14.186728477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970645904541</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">14.2310619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2753963470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9847316741943</t>
+    <t xml:space="preserve">14.2753973007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9847326278687</t>
   </si>
   <si>
     <t xml:space="preserve">14.8517322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6300640106201</t>
+    <t xml:space="preserve">14.6300649642944</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">14.0980615615845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.787727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4773921966553</t>
+    <t xml:space="preserve">13.7877264022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8567228317261</t>
+    <t xml:space="preserve">12.8567237854004</t>
   </si>
   <si>
     <t xml:space="preserve">12.1473865509033</t>
@@ -1544,7 +1544,7 @@
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
+    <t xml:space="preserve">12.6350555419922</t>
   </si>
   <si>
     <t xml:space="preserve">11.9700527191162</t>
@@ -1553,7 +1553,7 @@
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463886260986</t>
+    <t xml:space="preserve">12.5463876724243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4627132415771</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.679388999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.413387298584</t>
+    <t xml:space="preserve">12.6793899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4133882522583</t>
   </si>
   <si>
     <t xml:space="preserve">12.271520614624</t>
@@ -1580,7 +1580,7 @@
     <t xml:space="preserve">11.4557838439941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7217845916748</t>
+    <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
     <t xml:space="preserve">11.4735164642334</t>
@@ -1589,7 +1589,7 @@
     <t xml:space="preserve">11.3848505020142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3671159744263</t>
+    <t xml:space="preserve">11.3671169281006</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025831222534</t>
@@ -1598,7 +1598,7 @@
     <t xml:space="preserve">11.5976505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6685848236084</t>
+    <t xml:space="preserve">11.6685838699341</t>
   </si>
   <si>
     <t xml:space="preserve">11.544451713562</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139162063599</t>
+    <t xml:space="preserve">11.3139171600342</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1117238998413</t>
+    <t xml:space="preserve">12.111722946167</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776374816895</t>
+    <t xml:space="preserve">12.2776365280151</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519027709961</t>
+    <t xml:space="preserve">13.0519018173218</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491182327271</t>
+    <t xml:space="preserve">12.8491191864014</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614603042603</t>
+    <t xml:space="preserve">11.7614612579346</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698120117188</t>
+    <t xml:space="preserve">12.5357255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122491836548</t>
+    <t xml:space="preserve">13.1072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122482299805</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625108718872</t>
+    <t xml:space="preserve">13.1625118255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938146591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569437026978</t>
+    <t xml:space="preserve">12.7938137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569446563721</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4066820144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.351375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0195484161377</t>
+    <t xml:space="preserve">12.406681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3513765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019549369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882465362549</t>
+    <t xml:space="preserve">12.3882455825806</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223320007324</t>
+    <t xml:space="preserve">12.2223329544067</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720703125</t>
+    <t xml:space="preserve">11.8720693588257</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.724591255188</t>
+    <t xml:space="preserve">11.7245903015137</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1826,154 +1826,157 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346731185913</t>
+    <t xml:space="preserve">11.1346740722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8950204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.577112197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3329420089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4251165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2038974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6279001235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8859882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2546863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3099908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3468608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390354156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3837308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4021654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3652963638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1256418228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2407674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0564184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0932884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061548233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536348342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.816764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5033712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005876541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1531095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715440750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1899785995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1162395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9847860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9655485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1002130508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3118295669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8950204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.577112197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3329420089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4251155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2038974761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8859882354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2546863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3099908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3468608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127744674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3837308883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4021654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1256418228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2407674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0564184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0932884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536348342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6877212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5033712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1531095504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715440750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1899795532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1162395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9847860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9655485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1002130508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3118295669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">10.734694480896</t>
@@ -16129,7 +16132,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16155,7 +16158,7 @@
         <v>10.5</v>
       </c>
       <c r="G513" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16181,7 +16184,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G514" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16207,7 +16210,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16233,7 +16236,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16285,7 +16288,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16441,7 +16444,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16467,7 +16470,7 @@
         <v>10.5</v>
       </c>
       <c r="G525" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16493,7 +16496,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17091,7 +17094,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G549" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17221,7 +17224,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G554" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17247,7 +17250,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17325,7 +17328,7 @@
         <v>10.5</v>
       </c>
       <c r="G558" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17351,7 +17354,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17403,7 +17406,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17429,7 +17432,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G562" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17455,7 +17458,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G563" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17481,7 +17484,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17533,7 +17536,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17585,7 +17588,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17715,7 +17718,7 @@
         <v>10.5</v>
       </c>
       <c r="G573" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17767,7 +17770,7 @@
         <v>10.5</v>
       </c>
       <c r="G575" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17793,7 +17796,7 @@
         <v>10.5</v>
       </c>
       <c r="G576" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17819,7 +17822,7 @@
         <v>10.5</v>
       </c>
       <c r="G577" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18365,7 +18368,7 @@
         <v>10.5</v>
       </c>
       <c r="G598" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18391,7 +18394,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18417,7 +18420,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G600" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18443,7 +18446,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18469,7 +18472,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G602" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18495,7 +18498,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18521,7 +18524,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18547,7 +18550,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G605" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18573,7 +18576,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G606" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18599,7 +18602,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G607" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18625,7 +18628,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G608" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18651,7 +18654,7 @@
         <v>10.5</v>
       </c>
       <c r="G609" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18677,7 +18680,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18703,7 +18706,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G611" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18755,7 +18758,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18781,7 +18784,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18859,7 +18862,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18885,7 +18888,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19067,7 +19070,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19093,7 +19096,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19119,7 +19122,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G627" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19145,7 +19148,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19171,7 +19174,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19457,7 +19460,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G640" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19535,7 +19538,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -51723,7 +51726,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51749,7 +51752,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51775,7 +51778,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51801,7 +51804,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51853,7 +51856,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51879,7 +51882,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51905,7 +51908,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51931,7 +51934,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51957,7 +51960,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51983,7 +51986,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52009,7 +52012,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52035,7 +52038,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52061,7 +52064,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52087,7 +52090,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52113,7 +52116,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52139,7 +52142,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52165,7 +52168,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52191,7 +52194,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52217,7 +52220,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52243,7 +52246,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52269,7 +52272,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52295,7 +52298,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52321,7 +52324,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52347,7 +52350,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52373,7 +52376,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52399,7 +52402,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52451,7 +52454,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52477,7 +52480,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52503,7 +52506,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52529,7 +52532,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52555,7 +52558,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52581,7 +52584,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52607,7 +52610,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52633,7 +52636,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52685,7 +52688,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52711,7 +52714,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52737,7 +52740,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52763,7 +52766,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52789,7 +52792,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52815,7 +52818,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52841,7 +52844,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52867,7 +52870,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52893,7 +52896,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52919,7 +52922,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52945,7 +52948,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52971,7 +52974,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -52997,7 +53000,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53023,7 +53026,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53049,7 +53052,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53075,7 +53078,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53101,7 +53104,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53127,7 +53130,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53153,7 +53156,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53179,7 +53182,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53205,7 +53208,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53231,7 +53234,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53257,7 +53260,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53283,7 +53286,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53309,7 +53312,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53335,7 +53338,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53361,7 +53364,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53387,7 +53390,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53413,7 +53416,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53439,7 +53442,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53465,7 +53468,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53491,7 +53494,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53517,7 +53520,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53543,7 +53546,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53569,7 +53572,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53595,7 +53598,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53621,7 +53624,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53647,7 +53650,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53673,7 +53676,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53699,7 +53702,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53725,7 +53728,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53751,7 +53754,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53777,7 +53780,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53803,7 +53806,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53829,7 +53832,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53855,7 +53858,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53881,7 +53884,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53907,7 +53910,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53933,7 +53936,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53959,7 +53962,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53985,7 +53988,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54011,7 +54014,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54037,7 +54040,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54063,7 +54066,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54089,7 +54092,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54115,7 +54118,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54141,7 +54144,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54167,7 +54170,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54193,7 +54196,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54219,7 +54222,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54245,7 +54248,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54271,7 +54274,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54297,7 +54300,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54323,7 +54326,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54349,7 +54352,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54375,7 +54378,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54401,7 +54404,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54427,7 +54430,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54453,7 +54456,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54479,7 +54482,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54505,7 +54508,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54531,7 +54534,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54557,7 +54560,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54583,7 +54586,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54609,7 +54612,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54635,7 +54638,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54661,7 +54664,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54687,7 +54690,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54713,7 +54716,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54739,7 +54742,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54765,7 +54768,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54791,7 +54794,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54817,7 +54820,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54843,7 +54846,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54869,7 +54872,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54895,7 +54898,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54921,7 +54924,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54947,7 +54950,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54973,7 +54976,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -54999,7 +55002,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55025,7 +55028,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55051,7 +55054,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55077,7 +55080,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55103,7 +55106,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55129,7 +55132,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55155,7 +55158,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55181,7 +55184,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55207,7 +55210,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55233,7 +55236,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55259,7 +55262,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55285,7 +55288,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55311,7 +55314,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55337,7 +55340,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55363,7 +55366,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55389,7 +55392,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55415,7 +55418,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55441,7 +55444,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55467,7 +55470,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55493,7 +55496,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55519,7 +55522,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55545,7 +55548,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55571,7 +55574,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55597,7 +55600,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55623,7 +55626,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55649,7 +55652,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55675,7 +55678,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55701,7 +55704,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55727,7 +55730,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55753,7 +55756,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55779,7 +55782,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55805,7 +55808,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55831,7 +55834,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55857,7 +55860,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55883,7 +55886,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55909,7 +55912,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55935,7 +55938,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55961,7 +55964,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55987,7 +55990,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56013,7 +56016,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56039,7 +56042,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56065,7 +56068,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56091,7 +56094,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56117,7 +56120,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56143,7 +56146,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56169,7 +56172,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56195,7 +56198,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56221,7 +56224,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56247,7 +56250,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56273,7 +56276,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56299,7 +56302,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56325,7 +56328,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56351,7 +56354,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56377,7 +56380,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56403,7 +56406,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56429,7 +56432,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56455,7 +56458,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56481,7 +56484,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56507,7 +56510,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56533,7 +56536,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56559,7 +56562,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56585,7 +56588,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56611,7 +56614,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56637,7 +56640,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56663,7 +56666,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56689,7 +56692,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56715,7 +56718,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56741,7 +56744,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56767,7 +56770,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56793,7 +56796,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56819,7 +56822,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56871,7 +56874,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56897,7 +56900,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56923,7 +56926,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56949,7 +56952,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56975,7 +56978,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57001,7 +57004,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57027,7 +57030,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57053,7 +57056,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57079,7 +57082,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57131,7 +57134,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57157,7 +57160,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57183,7 +57186,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57235,7 +57238,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57261,7 +57264,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57287,7 +57290,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57339,7 +57342,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57365,7 +57368,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57391,7 +57394,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57417,7 +57420,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57443,7 +57446,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57469,7 +57472,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57495,7 +57498,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57521,7 +57524,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57547,7 +57550,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57573,7 +57576,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57599,7 +57602,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57625,7 +57628,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57651,7 +57654,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57677,7 +57680,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57703,7 +57706,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57729,7 +57732,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57755,7 +57758,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57781,7 +57784,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57807,7 +57810,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57833,7 +57836,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57859,7 +57862,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57885,7 +57888,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57911,7 +57914,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57937,7 +57940,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57963,7 +57966,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57989,7 +57992,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58015,7 +58018,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58041,7 +58044,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58067,7 +58070,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58093,7 +58096,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58119,7 +58122,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58145,7 +58148,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58171,7 +58174,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58197,7 +58200,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58223,7 +58226,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58249,7 +58252,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58275,7 +58278,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58301,7 +58304,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58327,7 +58330,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58353,7 +58356,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58379,7 +58382,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58405,7 +58408,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58431,7 +58434,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58457,7 +58460,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58483,7 +58486,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58509,7 +58512,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58535,7 +58538,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58561,7 +58564,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58587,7 +58590,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58613,7 +58616,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58621,7 +58624,7 @@
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n">
-        <v>45450.649375</v>
+        <v>45450.2916666667</v>
       </c>
       <c r="B2147" t="n">
         <v>3471</v>
@@ -58639,9 +58642,35 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" s="1" t="n">
+        <v>45453.6494675926</v>
+      </c>
+      <c r="B2148" t="n">
+        <v>7588</v>
+      </c>
+      <c r="C2148" t="n">
+        <v>12.2399997711182</v>
+      </c>
+      <c r="D2148" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="E2148" t="n">
+        <v>12.2200002670288</v>
+      </c>
+      <c r="F2148" t="n">
+        <v>12.1400003433228</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>822</v>
+      </c>
+      <c r="H2148" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -38,94 +38,94 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677021026611</t>
+    <t xml:space="preserve">7.67677116394043</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986642837524</t>
+    <t xml:space="preserve">7.65728664398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6378026008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986547470093</t>
   </si>
   <si>
     <t xml:space="preserve">7.59883403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40789031982422</t>
+    <t xml:space="preserve">7.4078893661499</t>
   </si>
   <si>
     <t xml:space="preserve">7.36502361297607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685792922974</t>
+    <t xml:space="preserve">7.6339054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">7.52089691162109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48972177505493</t>
+    <t xml:space="preserve">7.48972320556641</t>
   </si>
   <si>
     <t xml:space="preserve">7.44296026229858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7508111000061</t>
+    <t xml:space="preserve">7.75081014633179</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87161302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367542266846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71574068069458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837596893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278911590576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94954919815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7858829498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175672531128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115447998047</t>
+    <t xml:space="preserve">7.8716139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367589950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264446258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250123977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837501525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278673171997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94955062866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588151931763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175481796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748775482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115543365479</t>
   </si>
   <si>
     <t xml:space="preserve">8.16777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00410652160645</t>
+    <t xml:space="preserve">8.00410556793213</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
@@ -134,46 +134,46 @@
     <t xml:space="preserve">7.80926418304443</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14439105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06645488739014</t>
+    <t xml:space="preserve">8.14439296722412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06645679473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.05086708068848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75470876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84044027328491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602617263794</t>
+    <t xml:space="preserve">7.75470733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602474212646</t>
   </si>
   <si>
     <t xml:space="preserve">7.80146980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75860500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691343307495</t>
+    <t xml:space="preserve">7.75860404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691390991211</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184301376343</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73912000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50530958175659</t>
+    <t xml:space="preserve">7.7391209602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70405006408691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531148910522</t>
   </si>
   <si>
     <t xml:space="preserve">7.47803211212158</t>
@@ -182,25 +182,25 @@
     <t xml:space="preserve">7.4585485458374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0430736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98851823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001519203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08204174041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10542297363281</t>
+    <t xml:space="preserve">8.04307270050049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98851919174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204078674316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10542488098145</t>
   </si>
   <si>
     <t xml:space="preserve">8.2457103729248</t>
@@ -209,22 +209,22 @@
     <t xml:space="preserve">8.26129722595215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41716957092285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58863067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5340747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347881317139</t>
+    <t xml:space="preserve">8.41717147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510765075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863162994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215656280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407669067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347785949707</t>
   </si>
   <si>
     <t xml:space="preserve">8.81567668914795</t>
@@ -239,37 +239,37 @@
     <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4229793548584</t>
+    <t xml:space="preserve">8.42297840118408</t>
   </si>
   <si>
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14247894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893627166748</t>
+    <t xml:space="preserve">8.14248085021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893531799316</t>
   </si>
   <si>
     <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43900775909424</t>
+    <t xml:space="preserve">8.43900680541992</t>
   </si>
   <si>
     <t xml:space="preserve">8.57524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28050422668457</t>
+    <t xml:space="preserve">8.61532020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28050327301025</t>
   </si>
   <si>
     <t xml:space="preserve">9.05610466003418</t>
@@ -278,25 +278,25 @@
     <t xml:space="preserve">9.44880294799805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89760112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136016845703</t>
+    <t xml:space="preserve">10.0899438858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
   </si>
   <si>
     <t xml:space="preserve">9.60107326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53696060180664</t>
+    <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
     <t xml:space="preserve">9.61710166931152</t>
@@ -308,13 +308,13 @@
     <t xml:space="preserve">9.50490283966064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25646114349365</t>
+    <t xml:space="preserve">9.25646018981934</t>
   </si>
   <si>
     <t xml:space="preserve">9.29653167724609</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18433380126953</t>
+    <t xml:space="preserve">9.18433284759521</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681762695312</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">9.41674613952637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42476081848145</t>
+    <t xml:space="preserve">9.42476177215576</t>
   </si>
   <si>
     <t xml:space="preserve">9.32858943939209</t>
@@ -344,55 +344,55 @@
     <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851795196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
+    <t xml:space="preserve">9.28851890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.94390487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95993328094482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21638965606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13624668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9919900894165</t>
+    <t xml:space="preserve">8.95993518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638870239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1362476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99199199676514</t>
   </si>
   <si>
     <t xml:space="preserve">8.85574817657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89581966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660316467285</t>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660221099854</t>
   </si>
   <si>
     <t xml:space="preserve">9.48085880279541</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248859405518</t>
+    <t xml:space="preserve">9.51291656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248954772949</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17631816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617614746094</t>
+    <t xml:space="preserve">9.17631912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
@@ -404,28 +404,28 @@
     <t xml:space="preserve">8.8878059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97596168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553562164307</t>
+    <t xml:space="preserve">8.97596263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177562713623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.76759243011475</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04007530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000381469727</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67142105102539</t>
+    <t xml:space="preserve">9.04007625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00000476837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560615539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
     <t xml:space="preserve">8.64737796783447</t>
@@ -434,10 +434,10 @@
     <t xml:space="preserve">8.62333488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63936424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68744945526123</t>
+    <t xml:space="preserve">8.63936328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68744850158691</t>
   </si>
   <si>
     <t xml:space="preserve">8.75156402587891</t>
@@ -452,97 +452,97 @@
     <t xml:space="preserve">8.56723594665527</t>
   </si>
   <si>
+    <t xml:space="preserve">8.69546413421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55922317504883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3668794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58326435089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312232971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127712249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72752094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47907829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4710636138916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503616333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475212097168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3245677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22565937042236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57183170318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53062152862549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44819927215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40698909759521</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.69546318054199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8076639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5592212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36687850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35084915161133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5031213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72752094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.479079246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099403381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4710636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3245677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22566032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57183074951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44819927215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4069881439209</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.7778844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214458465576</t>
+    <t xml:space="preserve">8.36577796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269275665283</t>
@@ -557,67 +557,67 @@
     <t xml:space="preserve">8.14323902130127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003664016724</t>
+    <t xml:space="preserve">8.06081867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003711700439</t>
   </si>
   <si>
     <t xml:space="preserve">7.92894315719604</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89597511291504</t>
+    <t xml:space="preserve">7.89597606658936</t>
   </si>
   <si>
     <t xml:space="preserve">7.71464776992798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51683712005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74761629104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410007476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574172973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058528900146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519594192505</t>
+    <t xml:space="preserve">7.51683616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113298416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7476167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574268341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058481216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519498825073</t>
   </si>
   <si>
     <t xml:space="preserve">7.69816398620605</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59925889968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222694396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5662899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706954956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355428695679</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386716842651</t>
+    <t xml:space="preserve">7.59925842285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222646713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56628894805908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79706907272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277416229248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386764526367</t>
   </si>
   <si>
     <t xml:space="preserve">7.38496160507202</t>
@@ -629,37 +629,37 @@
     <t xml:space="preserve">7.4014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18715143203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20363473892212</t>
+    <t xml:space="preserve">7.1871509552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50035238265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25308847427368</t>
+    <t xml:space="preserve">7.50035333633423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25308799743652</t>
   </si>
   <si>
     <t xml:space="preserve">7.41793060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43441534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13769769668579</t>
+    <t xml:space="preserve">7.43441581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738338470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13769817352295</t>
   </si>
   <si>
     <t xml:space="preserve">7.1706657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0882453918457</t>
+    <t xml:space="preserve">7.08824491500854</t>
   </si>
   <si>
     <t xml:space="preserve">6.92340230941772</t>
@@ -674,10 +674,10 @@
     <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97285509109497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.62668466567993</t>
+    <t xml:space="preserve">6.97285556793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.62668514251709</t>
   </si>
   <si>
     <t xml:space="preserve">6.6596531867981</t>
@@ -689,16 +689,16 @@
     <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69262170791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7091064453125</t>
+    <t xml:space="preserve">6.69262218475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70910596847534</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72559070587158</t>
+    <t xml:space="preserve">6.72559022903442</t>
   </si>
   <si>
     <t xml:space="preserve">6.85746383666992</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36847829818726</t>
+    <t xml:space="preserve">7.36847734451294</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472917556763</t>
@@ -722,31 +722,31 @@
     <t xml:space="preserve">6.87394905090332</t>
   </si>
   <si>
-    <t xml:space="preserve">6.52777910232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59371614456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51129484176636</t>
+    <t xml:space="preserve">6.5277795791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59371662139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5112943649292</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238975524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67613792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12121391296387</t>
+    <t xml:space="preserve">6.41238880157471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67613840103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12121343612671</t>
   </si>
   <si>
     <t xml:space="preserve">6.93988609313965</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79152822494507</t>
+    <t xml:space="preserve">6.79152774810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.8904333114624</t>
@@ -755,28 +755,28 @@
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801200866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22011947631836</t>
+    <t xml:space="preserve">6.80801153182983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
     <t xml:space="preserve">7.35199403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45089960098267</t>
+    <t xml:space="preserve">7.45089912414551</t>
   </si>
   <si>
     <t xml:space="preserve">7.53332090377808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64871072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68167877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54980421066284</t>
+    <t xml:space="preserve">7.64871168136597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6816782951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54980516433716</t>
   </si>
   <si>
     <t xml:space="preserve">7.69705486297607</t>
@@ -788,13 +788,13 @@
     <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09839534759521</t>
+    <t xml:space="preserve">7.09839487075806</t>
   </si>
   <si>
     <t xml:space="preserve">7.49180030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5773229598999</t>
+    <t xml:space="preserve">7.57732343673706</t>
   </si>
   <si>
     <t xml:space="preserve">7.61153173446655</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33785915374756</t>
+    <t xml:space="preserve">7.33785963058472</t>
   </si>
   <si>
     <t xml:space="preserve">7.25233602523804</t>
@@ -815,28 +815,28 @@
     <t xml:space="preserve">7.21812677383423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20102262496948</t>
+    <t xml:space="preserve">7.20102214813232</t>
   </si>
   <si>
     <t xml:space="preserve">7.18391799926758</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92734956741333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.99576854705811</t>
+    <t xml:space="preserve">6.92735004425049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
     <t xml:space="preserve">7.06418609619141</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23523139953613</t>
+    <t xml:space="preserve">7.23523187637329</t>
   </si>
   <si>
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206840515137</t>
+    <t xml:space="preserve">7.37206792831421</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1154990196228</t>
+    <t xml:space="preserve">7.11549854278564</t>
   </si>
   <si>
     <t xml:space="preserve">7.0470814704895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08129024505615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0299768447876</t>
+    <t xml:space="preserve">7.08129072189331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
     <t xml:space="preserve">6.97866296768188</t>
@@ -866,19 +866,19 @@
     <t xml:space="preserve">6.96155881881714</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89314126968384</t>
+    <t xml:space="preserve">6.89314079284668</t>
   </si>
   <si>
     <t xml:space="preserve">6.85893154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84182691574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77340841293335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65367650985718</t>
+    <t xml:space="preserve">6.84182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77340888977051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
@@ -887,16 +887,16 @@
     <t xml:space="preserve">6.46552610397339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48263025283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5168399810791</t>
+    <t xml:space="preserve">6.48263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51683950424194</t>
   </si>
   <si>
     <t xml:space="preserve">6.58525800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41421270370483</t>
+    <t xml:space="preserve">6.41421222686768</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289882659912</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000345230103</t>
+    <t xml:space="preserve">6.38000392913818</t>
   </si>
   <si>
     <t xml:space="preserve">6.32868957519531</t>
@@ -914,19 +914,19 @@
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053964614868</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07212114334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10632991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22606229782104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31158542633057</t>
+    <t xml:space="preserve">6.14053916931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07212162017822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10633039474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2260627746582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31158494949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.27737617492676</t>
@@ -938,10 +938,10 @@
     <t xml:space="preserve">6.39710760116577</t>
   </si>
   <si>
-    <t xml:space="preserve">6.53394460678101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67078113555908</t>
+    <t xml:space="preserve">6.53394412994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67078161239624</t>
   </si>
   <si>
     <t xml:space="preserve">6.75630378723145</t>
@@ -950,13 +950,13 @@
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657188415527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60236263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82472229003906</t>
+    <t xml:space="preserve">6.63657236099243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60236215591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8247218132019</t>
   </si>
   <si>
     <t xml:space="preserve">6.61946725845337</t>
@@ -965,19 +965,19 @@
     <t xml:space="preserve">6.55104827880859</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56815338134766</t>
+    <t xml:space="preserve">6.5681529045105</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73919916152954</t>
+    <t xml:space="preserve">6.7391996383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44842195510864</t>
+    <t xml:space="preserve">6.44842147827148</t>
   </si>
   <si>
     <t xml:space="preserve">6.00370264053345</t>
@@ -992,19 +992,19 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9865984916687</t>
+    <t xml:space="preserve">5.98659801483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346115112305</t>
+    <t xml:space="preserve">5.47346162796021</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
@@ -1013,13 +1013,13 @@
     <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75507020950317</t>
+    <t xml:space="preserve">4.75506925582886</t>
   </si>
   <si>
     <t xml:space="preserve">4.53271007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19061899185181</t>
+    <t xml:space="preserve">4.19061851501465</t>
   </si>
   <si>
     <t xml:space="preserve">4.58402395248413</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">4.32745552062988</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44718742370605</t>
+    <t xml:space="preserve">4.4471869468689</t>
   </si>
   <si>
     <t xml:space="preserve">4.36166477203369</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">5.04584693908691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820611953735</t>
+    <t xml:space="preserve">5.26820659637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056625366211</t>
@@ -1049,7 +1049,7 @@
     <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78134346008301</t>
+    <t xml:space="preserve">5.78134393692017</t>
   </si>
   <si>
     <t xml:space="preserve">5.69582033157349</t>
@@ -1058,22 +1058,22 @@
     <t xml:space="preserve">5.67871618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187917709351</t>
+    <t xml:space="preserve">5.54187965393066</t>
   </si>
   <si>
     <t xml:space="preserve">5.35372924804688</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52477502822876</t>
+    <t xml:space="preserve">5.52477550506592</t>
   </si>
   <si>
     <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40504360198975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.59319353103638</t>
+    <t xml:space="preserve">5.40504312515259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.59319305419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">6.12343454360962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29448080062866</t>
+    <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
     <t xml:space="preserve">6.24316692352295</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">6.03791236877441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17474794387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08922529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26027154922485</t>
+    <t xml:space="preserve">6.17474842071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08922576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2602710723877</t>
   </si>
   <si>
     <t xml:space="preserve">5.9694938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79844808578491</t>
+    <t xml:space="preserve">5.79844856262207</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
@@ -1112,13 +1112,13 @@
     <t xml:space="preserve">5.71292495727539</t>
   </si>
   <si>
-    <t xml:space="preserve">5.81555271148682</t>
+    <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
     <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62740182876587</t>
+    <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
     <t xml:space="preserve">5.61029767990112</t>
@@ -1127,10 +1127,10 @@
     <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91817998886108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66161155700684</t>
+    <t xml:space="preserve">5.91818046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66161108016968</t>
   </si>
   <si>
     <t xml:space="preserve">5.57608890533447</t>
@@ -1142,7 +1142,7 @@
     <t xml:space="preserve">6.72209501266479</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94445371627808</t>
+    <t xml:space="preserve">6.94445419311523</t>
   </si>
   <si>
     <t xml:space="preserve">7.16681337356567</t>
@@ -1151,16 +1151,16 @@
     <t xml:space="preserve">7.13260412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38917303085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547336578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78257846832275</t>
+    <t xml:space="preserve">7.38917255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836778640747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547241210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7825779914856</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">8.10756492614746</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12466907501221</t>
+    <t xml:space="preserve">8.12466812133789</t>
   </si>
   <si>
     <t xml:space="preserve">8.03914642333984</t>
@@ -1178,43 +1178,43 @@
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362424850464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072696685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941404342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126459121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678628921509</t>
+    <t xml:space="preserve">7.98783302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072744369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941452026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230989456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678676605225</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0220422744751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8681001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79968309402466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123798370361</t>
+    <t xml:space="preserve">8.02204132080078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86810064315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79968214035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2786111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3812370300293</t>
   </si>
   <si>
     <t xml:space="preserve">8.36413288116455</t>
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">8.44965553283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63780689239502</t>
+    <t xml:space="preserve">8.6378059387207</t>
   </si>
   <si>
     <t xml:space="preserve">8.59504508972168</t>
@@ -1241,7 +1241,7 @@
     <t xml:space="preserve">8.41544723510742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50096893310547</t>
+    <t xml:space="preserve">8.50096988677979</t>
   </si>
   <si>
     <t xml:space="preserve">8.68056774139404</t>
@@ -1256,19 +1256,19 @@
     <t xml:space="preserve">8.97989845275879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02265930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198905944824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62131881713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45027351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960231781006</t>
+    <t xml:space="preserve">9.0226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198810577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62131977081299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45027256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960327148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.66408061981201</t>
@@ -1277,25 +1277,25 @@
     <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1772165298462</t>
+    <t xml:space="preserve">10.1772174835205</t>
   </si>
   <si>
     <t xml:space="preserve">10.1344556808472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3910245895386</t>
+    <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
     <t xml:space="preserve">10.5193090438843</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186378479004</t>
+    <t xml:space="preserve">10.8186388015747</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
@@ -1307,13 +1307,13 @@
     <t xml:space="preserve">11.4600591659546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1014814376831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8876724243164</t>
+    <t xml:space="preserve">12.1014804840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.887674331665</t>
   </si>
   <si>
     <t xml:space="preserve">11.8021507263184</t>
@@ -1328,22 +1328,22 @@
     <t xml:space="preserve">11.5883436203003</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6311054229736</t>
+    <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
     <t xml:space="preserve">12.2725276947021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0159578323364</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8449115753174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5028219223022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.759388923645</t>
+    <t xml:space="preserve">12.0159587860107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5028209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7593898773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">11.9257192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4380502700806</t>
+    <t xml:space="preserve">11.4380493164062</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">10.8173809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8617153167725</t>
+    <t xml:space="preserve">10.8617143630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.7730474472046</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400470733643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277151107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390491485596</t>
+    <t xml:space="preserve">10.5957126617432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6400461196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390481948853</t>
   </si>
   <si>
     <t xml:space="preserve">11.7483854293823</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5710506439209</t>
+    <t xml:space="preserve">11.5710515975952</t>
   </si>
   <si>
     <t xml:space="preserve">11.3050498962402</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">11.349383354187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0833826065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947156906128</t>
+    <t xml:space="preserve">11.083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947147369385</t>
   </si>
   <si>
     <t xml:space="preserve">10.950382232666</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267171859741</t>
+    <t xml:space="preserve">11.5267181396484</t>
   </si>
   <si>
     <t xml:space="preserve">11.8813858032227</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">12.1030521392822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2803869247437</t>
+    <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
     <t xml:space="preserve">12.014386177063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3690538406372</t>
+    <t xml:space="preserve">12.3690547943115</t>
   </si>
   <si>
     <t xml:space="preserve">12.3247203826904</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">13.1670579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">13.388726234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330587387085</t>
+    <t xml:space="preserve">13.3887252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330596923828</t>
   </si>
   <si>
     <t xml:space="preserve">13.6990604400635</t>
@@ -1493,28 +1493,28 @@
     <t xml:space="preserve">14.186728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4970636367798</t>
+    <t xml:space="preserve">14.4970645904541</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.585732460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.452730178833</t>
+    <t xml:space="preserve">14.5857315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4527292251587</t>
   </si>
   <si>
     <t xml:space="preserve">14.2310619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2753963470459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.984733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517332077026</t>
+    <t xml:space="preserve">14.2753973007202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9847326278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8517322540283</t>
   </si>
   <si>
     <t xml:space="preserve">14.6300649642944</t>
@@ -1526,40 +1526,40 @@
     <t xml:space="preserve">14.0980615615845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.787727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4773921966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3443927764893</t>
+    <t xml:space="preserve">13.7877264022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4773931503296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3443918228149</t>
   </si>
   <si>
     <t xml:space="preserve">12.8567237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.147385597229</t>
+    <t xml:space="preserve">12.1473865509033</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700517654419</t>
+    <t xml:space="preserve">12.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700527191162</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463886260986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4627122879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297109603882</t>
+    <t xml:space="preserve">12.5463876724243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4627132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297119140625</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183788299561</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">12.6793899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.413387298584</t>
+    <t xml:space="preserve">12.4133882522583</t>
   </si>
   <si>
     <t xml:space="preserve">12.271520614624</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4735174179077</t>
+    <t xml:space="preserve">11.4735164642334</t>
   </si>
   <si>
     <t xml:space="preserve">11.3848505020142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3671159744263</t>
+    <t xml:space="preserve">11.3671169281006</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025831222534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5976514816284</t>
+    <t xml:space="preserve">11.5976505279541</t>
   </si>
   <si>
     <t xml:space="preserve">11.6685838699341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5444507598877</t>
+    <t xml:space="preserve">11.544451713562</t>
   </si>
   <si>
     <t xml:space="preserve">11.6508512496948</t>
@@ -16135,7 +16135,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16161,7 +16161,7 @@
         <v>10.5</v>
       </c>
       <c r="G513" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16187,7 +16187,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G514" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16213,7 +16213,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16239,7 +16239,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16291,7 +16291,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16447,7 +16447,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16473,7 +16473,7 @@
         <v>10.5</v>
       </c>
       <c r="G525" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16499,7 +16499,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17097,7 +17097,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G549" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17227,7 +17227,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G554" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17253,7 +17253,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17331,7 +17331,7 @@
         <v>10.5</v>
       </c>
       <c r="G558" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17357,7 +17357,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17409,7 +17409,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17435,7 +17435,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G562" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17461,7 +17461,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G563" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17487,7 +17487,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17539,7 +17539,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17591,7 +17591,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17721,7 +17721,7 @@
         <v>10.5</v>
       </c>
       <c r="G573" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17773,7 +17773,7 @@
         <v>10.5</v>
       </c>
       <c r="G575" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17799,7 +17799,7 @@
         <v>10.5</v>
       </c>
       <c r="G576" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17825,7 +17825,7 @@
         <v>10.5</v>
       </c>
       <c r="G577" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18371,7 +18371,7 @@
         <v>10.5</v>
       </c>
       <c r="G598" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18397,7 +18397,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18423,7 +18423,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G600" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18449,7 +18449,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18475,7 +18475,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G602" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18501,7 +18501,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18527,7 +18527,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18553,7 +18553,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G605" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18579,7 +18579,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G606" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18605,7 +18605,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G607" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18631,7 +18631,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G608" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18657,7 +18657,7 @@
         <v>10.5</v>
       </c>
       <c r="G609" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18683,7 +18683,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18709,7 +18709,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G611" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18761,7 +18761,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18787,7 +18787,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18865,7 +18865,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18891,7 +18891,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19073,7 +19073,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19099,7 +19099,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19125,7 +19125,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G627" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19151,7 +19151,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19177,7 +19177,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19463,7 +19463,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G640" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19541,7 +19541,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -58679,27 +58679,79 @@
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n">
-        <v>45455.649375</v>
+        <v>45454.2916666667</v>
       </c>
       <c r="B2149" t="n">
+        <v>28955</v>
+      </c>
+      <c r="C2149" t="n">
+        <v>12.8000001907349</v>
+      </c>
+      <c r="D2149" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="E2149" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="F2149" t="n">
+        <v>12.1400003433228</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>822</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" s="1" t="n">
+        <v>45455.2916666667</v>
+      </c>
+      <c r="B2150" t="n">
         <v>4930</v>
       </c>
-      <c r="C2149" t="n">
+      <c r="C2150" t="n">
         <v>12.3800001144409</v>
       </c>
-      <c r="D2149" t="n">
+      <c r="D2150" t="n">
         <v>12.1400003433228</v>
       </c>
-      <c r="E2149" t="n">
+      <c r="E2150" t="n">
         <v>12.1400003433228</v>
       </c>
-      <c r="F2149" t="n">
+      <c r="F2150" t="n">
         <v>12.2600002288818</v>
       </c>
-      <c r="G2149" t="s">
+      <c r="G2150" t="s">
         <v>825</v>
       </c>
-      <c r="H2149" t="s">
+      <c r="H2150" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" s="1" t="n">
+        <v>45456.6495833333</v>
+      </c>
+      <c r="B2151" t="n">
+        <v>3177</v>
+      </c>
+      <c r="C2151" t="n">
+        <v>12.3800001144409</v>
+      </c>
+      <c r="D2151" t="n">
+        <v>12.1400003433228</v>
+      </c>
+      <c r="E2151" t="n">
+        <v>12.3599996566772</v>
+      </c>
+      <c r="F2151" t="n">
+        <v>12.1000003814697</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>818</v>
+      </c>
+      <c r="H2151" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -38,40 +38,40 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677116394043</t>
+    <t xml:space="preserve">7.67677211761475</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6378026008606</t>
+    <t xml:space="preserve">7.65728712081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780355453491</t>
   </si>
   <si>
     <t xml:space="preserve">7.55986547470093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59883403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6339054107666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972320556641</t>
+    <t xml:space="preserve">7.5988335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40788888931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502408981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390588760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685745239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
     <t xml:space="preserve">7.44296026229858</t>
@@ -86,79 +86,79 @@
     <t xml:space="preserve">7.8716139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79367589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250123977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837501525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278673171997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94955062866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977870941162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588151931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175481796265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748775482178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115543365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16777229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410556793213</t>
+    <t xml:space="preserve">7.79367685317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573829650879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250219345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837644577026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94955110549927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7858829498291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748680114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16777324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410652160645</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439296722412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06645679473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086708068848</t>
+    <t xml:space="preserve">7.80926370620728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14439105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06645584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086803436279</t>
   </si>
   <si>
     <t xml:space="preserve">7.75470733642578</t>
   </si>
   <si>
-    <t xml:space="preserve">7.84043836593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80146980285645</t>
+    <t xml:space="preserve">7.84043884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80147075653076</t>
   </si>
   <si>
     <t xml:space="preserve">7.75860404968262</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74691390991211</t>
+    <t xml:space="preserve">7.74691343307495</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184301376343</t>
@@ -167,336 +167,339 @@
     <t xml:space="preserve">7.7391209602356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70405006408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531148910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4585485458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04307270050049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98851919174194</t>
+    <t xml:space="preserve">7.7040491104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531005859375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98851871490479</t>
   </si>
   <si>
     <t xml:space="preserve">7.70015287399292</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89499378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969242095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08204078674316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10542488098145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2457103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129722595215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41717147827148</t>
+    <t xml:space="preserve">7.89499521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204364776611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10542297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129627227783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41717052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510669708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407669067383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567668914795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74354934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63134860992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42297840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14248085021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57524871826172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532020568848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28050327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05610466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899438858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760112762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370006561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171474456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53695964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61710262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73731422424316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646114349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29653167724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18433284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45681762695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37667560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42476081848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32858943939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30454635620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40071773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24043273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057476043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9439058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21639060974121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13624668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99199199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574817657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248764038086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1041898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17631816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617614746094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98397636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93589115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88780498504639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00000476837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560615539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333583831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936233520508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68745040893555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52716541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546413421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163360595703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3668794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085010528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58326435089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127807617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72752094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47907829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47106456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510765075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215656280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53407669067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74354839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63135051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42297840118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3348217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14248085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57524967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532020568848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28050327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05610466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899438858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89760208129883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76135921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53695964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61710166931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7373161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646018981934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29653167724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18433284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45681762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37667465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42476177215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32858943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30454635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40071678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94390487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21638870239258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837593078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1362476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574817657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89582061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660221099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248954772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1041898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17631912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617805480957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98397636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93589019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8878059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177562713623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560615539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68744850158691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716445922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922317504883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58326435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50312232971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127712249756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72752094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47907829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4710636138916</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
@@ -506,22 +509,22 @@
     <t xml:space="preserve">8.29475212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37489223480225</t>
+    <t xml:space="preserve">8.37489318847656</t>
   </si>
   <si>
     <t xml:space="preserve">8.65425300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3245677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22565937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57183170318604</t>
+    <t xml:space="preserve">8.32456684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22566032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335571289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57183074951172</t>
   </si>
   <si>
     <t xml:space="preserve">8.53062152862549</t>
@@ -533,85 +536,82 @@
     <t xml:space="preserve">8.40698909759521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69546318054199</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.7778844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19269275665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730197906494</t>
+    <t xml:space="preserve">8.36577701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214553833008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19269180297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730388641357</t>
   </si>
   <si>
     <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14323902130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06081867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003711700439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597606658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113298416138</t>
+    <t xml:space="preserve">8.14323997497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06081676483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9289436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8959755897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683568954468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113250732422</t>
   </si>
   <si>
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574268341064</t>
+    <t xml:space="preserve">7.76410150527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574172973633</t>
   </si>
   <si>
     <t xml:space="preserve">7.78058481216431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66519498825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59925842285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222646713257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56628894805908</t>
+    <t xml:space="preserve">7.66519594192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925889968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222742080688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56628942489624</t>
   </si>
   <si>
     <t xml:space="preserve">7.79706907272339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81355476379395</t>
+    <t xml:space="preserve">7.81355381011963</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277416229248</t>
@@ -620,7 +620,7 @@
     <t xml:space="preserve">7.48386764526367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38496160507202</t>
+    <t xml:space="preserve">7.38496208190918</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
@@ -629,13 +629,13 @@
     <t xml:space="preserve">7.4014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1871509552002</t>
+    <t xml:space="preserve">7.18715143203735</t>
   </si>
   <si>
     <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33550882339478</t>
+    <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
     <t xml:space="preserve">7.50035333633423</t>
@@ -644,37 +644,37 @@
     <t xml:space="preserve">7.25308799743652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41793060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738338470459</t>
+    <t xml:space="preserve">7.4179310798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4344162940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">7.13769817352295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1706657409668</t>
+    <t xml:space="preserve">7.17066621780396</t>
   </si>
   <si>
     <t xml:space="preserve">7.08824491500854</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92340230941772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90691757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98933935165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176113128662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97285556793213</t>
+    <t xml:space="preserve">6.92340183258057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90691804885864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98933839797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176065444946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
     <t xml:space="preserve">6.62668514251709</t>
@@ -689,52 +689,52 @@
     <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69262218475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70910596847534</t>
+    <t xml:space="preserve">6.69262170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7091064453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72559022903442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85746383666992</t>
+    <t xml:space="preserve">6.72559070587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85746431350708</t>
   </si>
   <si>
     <t xml:space="preserve">7.00582361221313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28605699539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36847734451294</t>
+    <t xml:space="preserve">7.28605651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3684778213501</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472917556763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23660278320312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394905090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5277795791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59371662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5112943649292</t>
+    <t xml:space="preserve">7.23660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87394952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52777910232544</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59371614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238880157471</t>
+    <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
     <t xml:space="preserve">6.67613840103149</t>
@@ -743,43 +743,43 @@
     <t xml:space="preserve">7.12121343612671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93988609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8904333114624</t>
+    <t xml:space="preserve">6.93988656997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79152727127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801153182983</t>
+    <t xml:space="preserve">6.80801248550415</t>
   </si>
   <si>
     <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35199403762817</t>
+    <t xml:space="preserve">7.35199308395386</t>
   </si>
   <si>
     <t xml:space="preserve">7.45089912414551</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53332090377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871168136597</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6816782951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54980516433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705486297607</t>
+    <t xml:space="preserve">7.53332185745239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871025085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68167877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705533981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
@@ -800,28 +800,28 @@
     <t xml:space="preserve">7.61153173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30364990234375</t>
+    <t xml:space="preserve">7.30364942550659</t>
   </si>
   <si>
     <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33785963058472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233602523804</t>
+    <t xml:space="preserve">7.33785915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
     <t xml:space="preserve">7.21812677383423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20102214813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18391799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92735004425049</t>
+    <t xml:space="preserve">7.20102262496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18391752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92734956741333</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206792831421</t>
+    <t xml:space="preserve">7.37206840515137</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
@@ -845,40 +845,40 @@
     <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11549854278564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0470814704895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08129072189331</t>
+    <t xml:space="preserve">7.11549997329712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.04708099365234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08129024505615</t>
   </si>
   <si>
     <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97866296768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87603569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96155881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314079284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893154144287</t>
+    <t xml:space="preserve">6.97866249084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87603616714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9615592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314031600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893201828003</t>
   </si>
   <si>
     <t xml:space="preserve">6.84182643890381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77340888977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.77340841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
@@ -890,58 +890,58 @@
     <t xml:space="preserve">6.48263072967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51683950424194</t>
+    <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.58525800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41421222686768</t>
+    <t xml:space="preserve">6.41421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289882659912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43131732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38000392913818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32868957519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15764379501343</t>
+    <t xml:space="preserve">6.43131685256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38000297546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32869005203247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15764427185059</t>
   </si>
   <si>
     <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07212162017822</t>
+    <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
     <t xml:space="preserve">6.10633039474487</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2260627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31158494949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27737617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185304641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39710760116577</t>
+    <t xml:space="preserve">6.22606229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31158542633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2773756980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710807800293</t>
   </si>
   <si>
     <t xml:space="preserve">6.53394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67078161239624</t>
+    <t xml:space="preserve">6.67078065872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.75630378723145</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60236215591431</t>
+    <t xml:space="preserve">6.63657188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
     <t xml:space="preserve">6.8247218132019</t>
@@ -962,19 +962,19 @@
     <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55104827880859</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5681529045105</t>
+    <t xml:space="preserve">6.55104875564575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56815338134766</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7391996383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34579467773438</t>
+    <t xml:space="preserve">6.73919916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34579420089722</t>
   </si>
   <si>
     <t xml:space="preserve">6.44842147827148</t>
@@ -983,7 +983,7 @@
     <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86686658859253</t>
+    <t xml:space="preserve">5.86686706542969</t>
   </si>
   <si>
     <t xml:space="preserve">6.02080726623535</t>
@@ -992,49 +992,49 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423931121826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88397121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98659801483154</t>
+    <t xml:space="preserve">5.7642388343811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88397073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9865984916687</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346162796021</t>
+    <t xml:space="preserve">5.47346115112305</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453353881836</t>
+    <t xml:space="preserve">4.99453401565552</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506925582886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061851501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58402395248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32745552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4471869468689</t>
+    <t xml:space="preserve">4.53271055221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061899185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58402347564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32745504379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44718742370605</t>
   </si>
   <si>
     <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7037558555603</t>
+    <t xml:space="preserve">4.70375633239746</t>
   </si>
   <si>
     <t xml:space="preserve">5.04584693908691</t>
@@ -1043,34 +1043,34 @@
     <t xml:space="preserve">5.26820659637451</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49056625366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90107536315918</t>
+    <t xml:space="preserve">5.49056577682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90107583999634</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134393692017</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69582033157349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67871618270874</t>
+    <t xml:space="preserve">5.69582080841064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
     <t xml:space="preserve">5.54187965393066</t>
   </si>
   <si>
-    <t xml:space="preserve">5.35372924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52477550506592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64450693130493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40504312515259</t>
+    <t xml:space="preserve">5.35372972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52477502822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64450645446777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40504360198975</t>
   </si>
   <si>
     <t xml:space="preserve">5.59319305419922</t>
@@ -1085,31 +1085,31 @@
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03791236877441</t>
+    <t xml:space="preserve">6.24316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03791189193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922576904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2602710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9694938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79844856262207</t>
+    <t xml:space="preserve">6.08922529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26027202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96949338912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79844808578491</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292495727539</t>
+    <t xml:space="preserve">5.71292543411255</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
@@ -1121,55 +1121,55 @@
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029767990112</t>
+    <t xml:space="preserve">5.61029815673828</t>
   </si>
   <si>
     <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91818046569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66161108016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57608890533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79051303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209501266479</t>
+    <t xml:space="preserve">5.91817951202393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66161155700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57608842849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79051351547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209453582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16681337356567</t>
+    <t xml:space="preserve">7.16681385040283</t>
   </si>
   <si>
     <t xml:space="preserve">7.13260412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38917255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836778640747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547241210938</t>
+    <t xml:space="preserve">7.38917350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547288894653</t>
   </si>
   <si>
     <t xml:space="preserve">7.7825779914856</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17598342895508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10756492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12466812133789</t>
+    <t xml:space="preserve">8.17598247528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10756397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12466907501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.03914642333984</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072744369507</t>
+    <t xml:space="preserve">7.98783349990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072792053223</t>
   </si>
   <si>
     <t xml:space="preserve">7.91941452026367</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">7.90230989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73126411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678676605225</t>
+    <t xml:space="preserve">7.73126459121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8167872428894</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
@@ -1205,28 +1205,28 @@
     <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86810064315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79968214035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2786111831665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3812370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413288116455</t>
+    <t xml:space="preserve">7.8681001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7996826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27861022949219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.38123798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413192749023</t>
   </si>
   <si>
     <t xml:space="preserve">8.44965553283691</t>
   </si>
   <si>
-    <t xml:space="preserve">8.6378059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59504508972168</t>
+    <t xml:space="preserve">8.63780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59504413604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,25 +1235,25 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228424072266</t>
+    <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
     <t xml:space="preserve">8.41544723510742</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50096988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68056774139404</t>
+    <t xml:space="preserve">8.50096893310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68056678771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161399841309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97989845275879</t>
+    <t xml:space="preserve">8.85161304473877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97989749908447</t>
   </si>
   <si>
     <t xml:space="preserve">9.0226583480835</t>
@@ -1262,13 +1262,13 @@
     <t xml:space="preserve">9.32198810577393</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62131977081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45027256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960327148438</t>
+    <t xml:space="preserve">9.62131881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45027351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960136413574</t>
   </si>
   <si>
     <t xml:space="preserve">9.66408061981201</t>
@@ -1280,16 +1280,16 @@
     <t xml:space="preserve">10.1772174835205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344556808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5193090438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8613986968994</t>
+    <t xml:space="preserve">10.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910245895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.51930809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8613996505737</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
@@ -1310,40 +1310,40 @@
     <t xml:space="preserve">12.1014804840088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9731960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.887674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8021507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7166271209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883436203003</t>
+    <t xml:space="preserve">11.9731969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8876733779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8021516799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304342269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883445739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725276947021</t>
+    <t xml:space="preserve">12.2725267410278</t>
   </si>
   <si>
     <t xml:space="preserve">12.0159587860107</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8449125289917</t>
+    <t xml:space="preserve">11.844913482666</t>
   </si>
   <si>
     <t xml:space="preserve">11.5028209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7593898773193</t>
+    <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">11.3317756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0587196350098</t>
+    <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.5020551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9257192611694</t>
+    <t xml:space="preserve">11.9257183074951</t>
   </si>
   <si>
     <t xml:space="preserve">11.4380493164062</t>
@@ -1367,49 +1367,49 @@
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287149429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730474472046</t>
+    <t xml:space="preserve">10.7287139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173799514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730464935303</t>
   </si>
   <si>
     <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957126617432</t>
+    <t xml:space="preserve">10.5957136154175</t>
   </si>
   <si>
     <t xml:space="preserve">10.6400461196899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1277160644531</t>
+    <t xml:space="preserve">11.1277151107788</t>
   </si>
   <si>
     <t xml:space="preserve">11.0390481948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7483854293823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4823837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710515975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050498962402</t>
+    <t xml:space="preserve">11.748384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.482382774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710506439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050489425659</t>
   </si>
   <si>
     <t xml:space="preserve">11.615385055542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.349383354187</t>
+    <t xml:space="preserve">11.3493824005127</t>
   </si>
   <si>
     <t xml:space="preserve">11.083381652832</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">10.9947147369385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060487747192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513792037964</t>
+    <t xml:space="preserve">10.9503812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513801574707</t>
   </si>
   <si>
     <t xml:space="preserve">11.1720495223999</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813858032227</t>
+    <t xml:space="preserve">11.5267171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813848495483</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
@@ -1448,19 +1448,19 @@
     <t xml:space="preserve">11.3937168121338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7927188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030521392822</t>
+    <t xml:space="preserve">11.7927179336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030530929565</t>
   </si>
   <si>
     <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.014386177063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3690547943115</t>
+    <t xml:space="preserve">12.0143852233887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
     <t xml:space="preserve">12.3247203826904</t>
@@ -1475,28 +1475,28 @@
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1670579910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3887252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330596923828</t>
+    <t xml:space="preserve">13.5217256546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1670589447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388726234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
     <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.186728477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7630653381348</t>
+    <t xml:space="preserve">14.1867294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970636367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7630643844604</t>
   </si>
   <si>
     <t xml:space="preserve">14.5857315063477</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">14.2310619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2753973007202</t>
+    <t xml:space="preserve">14.2753963470459</t>
   </si>
   <si>
     <t xml:space="preserve">14.9847326278687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.8517322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6300649642944</t>
+    <t xml:space="preserve">14.851731300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6300640106201</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">14.0980615615845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7877264022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4773931503296</t>
+    <t xml:space="preserve">13.787727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4773921966553</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8567237854004</t>
+    <t xml:space="preserve">12.8567228317261</t>
   </si>
   <si>
     <t xml:space="preserve">12.1473865509033</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">12.6350555419922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4133882522583</t>
+    <t xml:space="preserve">12.679388999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.413387298584</t>
   </si>
   <si>
     <t xml:space="preserve">12.271520614624</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7217855453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848505020142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3671169281006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4025831222534</t>
+    <t xml:space="preserve">11.4557828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735155105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848495483398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3671159744263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4025821685791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5976505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6685838699341</t>
+    <t xml:space="preserve">11.6685848236084</t>
   </si>
   <si>
     <t xml:space="preserve">11.544451713562</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139171600342</t>
+    <t xml:space="preserve">11.3139162063599</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.111722946167</t>
+    <t xml:space="preserve">12.1117238998413</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776365280151</t>
+    <t xml:space="preserve">12.2776374816895</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519018173218</t>
+    <t xml:space="preserve">13.0519027709961</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491191864014</t>
+    <t xml:space="preserve">12.8491182327271</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614612579346</t>
+    <t xml:space="preserve">11.7614603042603</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357255935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698110580444</t>
+    <t xml:space="preserve">12.5357265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698120117188</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122482299805</t>
+    <t xml:space="preserve">13.1072072982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122491836548</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625118255615</t>
+    <t xml:space="preserve">13.1625108718872</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569446563721</t>
+    <t xml:space="preserve">12.7938146591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569437026978</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.406681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3513765335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.019549369812</t>
+    <t xml:space="preserve">12.4066820144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.351375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0195484161377</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882455825806</t>
+    <t xml:space="preserve">12.3882465362549</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223329544067</t>
+    <t xml:space="preserve">12.2223320007324</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720693588257</t>
+    <t xml:space="preserve">11.8720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7245903015137</t>
+    <t xml:space="preserve">11.724591255188</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346740722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.042498588562</t>
+    <t xml:space="preserve">11.1346731185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0424995422363</t>
   </si>
   <si>
     <t xml:space="preserve">10.8950204849243</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">12.3329420089722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4251165390015</t>
+    <t xml:space="preserve">12.4251155853271</t>
   </si>
   <si>
     <t xml:space="preserve">12.2038974761963</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6279001235962</t>
+    <t xml:space="preserve">12.6278991699219</t>
   </si>
   <si>
     <t xml:space="preserve">12.8859882354736</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">13.2546863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178163528442</t>
+    <t xml:space="preserve">13.2178173065186</t>
   </si>
   <si>
     <t xml:space="preserve">13.3099908828735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">13.3468608856201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4390354156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127754211426</t>
+    <t xml:space="preserve">13.4390344619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127744674683</t>
   </si>
   <si>
     <t xml:space="preserve">13.3837308883667</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">13.4021654129028</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3652963638306</t>
+    <t xml:space="preserve">13.3652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">13.1256418228149</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">12.5172910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0748538970947</t>
+    <t xml:space="preserve">12.0748529434204</t>
   </si>
   <si>
     <t xml:space="preserve">12.2407674789429</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">12.0932884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7061548233032</t>
+    <t xml:space="preserve">11.7061557769775</t>
   </si>
   <si>
     <t xml:space="preserve">11.8536348342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.816764831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402421951294</t>
+    <t xml:space="preserve">11.8167638778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402412414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.6877212524414</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">11.5033712387085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3005876541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374586105347</t>
+    <t xml:space="preserve">11.3005886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374576568604</t>
   </si>
   <si>
     <t xml:space="preserve">11.1531095504761</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">11.1715440750122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1899785995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637186050415</t>
+    <t xml:space="preserve">11.1899795532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637176513672</t>
   </si>
   <si>
     <t xml:space="preserve">11.1162395477295</t>
@@ -1976,9 +1976,6 @@
     <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0424995422363</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.734694480896</t>
   </si>
   <si>
@@ -2490,6 +2487,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.2600002288818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9799995422363</t>
   </si>
 </sst>
 </file>
@@ -16135,7 +16135,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16161,7 +16161,7 @@
         <v>10.5</v>
       </c>
       <c r="G513" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16187,7 +16187,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G514" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16213,7 +16213,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16239,7 +16239,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16291,7 +16291,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16447,7 +16447,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16473,7 +16473,7 @@
         <v>10.5</v>
       </c>
       <c r="G525" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16499,7 +16499,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17097,7 +17097,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G549" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17227,7 +17227,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G554" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17253,7 +17253,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17331,7 +17331,7 @@
         <v>10.5</v>
       </c>
       <c r="G558" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17357,7 +17357,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17409,7 +17409,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17435,7 +17435,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G562" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17461,7 +17461,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G563" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17487,7 +17487,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17539,7 +17539,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17591,7 +17591,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17721,7 +17721,7 @@
         <v>10.5</v>
       </c>
       <c r="G573" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17773,7 +17773,7 @@
         <v>10.5</v>
       </c>
       <c r="G575" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17799,7 +17799,7 @@
         <v>10.5</v>
       </c>
       <c r="G576" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17825,7 +17825,7 @@
         <v>10.5</v>
       </c>
       <c r="G577" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18371,7 +18371,7 @@
         <v>10.5</v>
       </c>
       <c r="G598" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18397,7 +18397,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18423,7 +18423,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G600" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18449,7 +18449,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18475,7 +18475,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G602" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18501,7 +18501,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18527,7 +18527,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18553,7 +18553,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G605" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18579,7 +18579,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G606" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18605,7 +18605,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G607" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18631,7 +18631,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G608" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18657,7 +18657,7 @@
         <v>10.5</v>
       </c>
       <c r="G609" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18683,7 +18683,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18709,7 +18709,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G611" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18761,7 +18761,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18787,7 +18787,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18865,7 +18865,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18891,7 +18891,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19073,7 +19073,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19099,7 +19099,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19125,7 +19125,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G627" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19151,7 +19151,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19177,7 +19177,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19463,7 +19463,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G640" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19541,7 +19541,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -51729,7 +51729,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51755,7 +51755,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51781,7 +51781,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51807,7 +51807,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51859,7 +51859,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51885,7 +51885,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51911,7 +51911,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51937,7 +51937,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51963,7 +51963,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51989,7 +51989,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52015,7 +52015,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52041,7 +52041,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52067,7 +52067,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52093,7 +52093,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52119,7 +52119,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52145,7 +52145,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52171,7 +52171,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52197,7 +52197,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52223,7 +52223,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52249,7 +52249,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52275,7 +52275,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52301,7 +52301,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52327,7 +52327,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52353,7 +52353,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52379,7 +52379,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52405,7 +52405,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52457,7 +52457,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52483,7 +52483,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52509,7 +52509,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52535,7 +52535,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52561,7 +52561,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52587,7 +52587,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52613,7 +52613,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52639,7 +52639,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52691,7 +52691,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52717,7 +52717,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52743,7 +52743,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52769,7 +52769,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52795,7 +52795,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52821,7 +52821,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52847,7 +52847,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52873,7 +52873,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52899,7 +52899,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52925,7 +52925,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52951,7 +52951,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52977,7 +52977,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53003,7 +53003,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53029,7 +53029,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53055,7 +53055,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53081,7 +53081,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53107,7 +53107,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53133,7 +53133,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53159,7 +53159,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53185,7 +53185,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53211,7 +53211,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53237,7 +53237,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53263,7 +53263,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53289,7 +53289,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53315,7 +53315,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53341,7 +53341,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53367,7 +53367,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53393,7 +53393,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53419,7 +53419,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53445,7 +53445,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53471,7 +53471,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53497,7 +53497,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53523,7 +53523,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53549,7 +53549,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53575,7 +53575,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53601,7 +53601,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53627,7 +53627,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53653,7 +53653,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53679,7 +53679,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53705,7 +53705,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53731,7 +53731,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53757,7 +53757,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53783,7 +53783,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53809,7 +53809,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53835,7 +53835,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53861,7 +53861,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53887,7 +53887,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53913,7 +53913,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53939,7 +53939,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53965,7 +53965,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53991,7 +53991,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54017,7 +54017,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54043,7 +54043,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54069,7 +54069,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54095,7 +54095,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54121,7 +54121,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54147,7 +54147,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54173,7 +54173,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54199,7 +54199,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54225,7 +54225,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54251,7 +54251,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54277,7 +54277,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54303,7 +54303,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54329,7 +54329,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54355,7 +54355,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54381,7 +54381,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54407,7 +54407,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54433,7 +54433,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54459,7 +54459,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54485,7 +54485,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54511,7 +54511,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54537,7 +54537,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54563,7 +54563,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54589,7 +54589,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54615,7 +54615,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54641,7 +54641,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54667,7 +54667,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54693,7 +54693,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54719,7 +54719,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54745,7 +54745,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54771,7 +54771,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54797,7 +54797,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54823,7 +54823,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54849,7 +54849,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54875,7 +54875,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54901,7 +54901,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54927,7 +54927,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54953,7 +54953,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54979,7 +54979,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55005,7 +55005,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55031,7 +55031,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55057,7 +55057,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55083,7 +55083,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55109,7 +55109,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55135,7 +55135,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55161,7 +55161,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55187,7 +55187,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55213,7 +55213,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55239,7 +55239,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55265,7 +55265,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55291,7 +55291,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55317,7 +55317,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55343,7 +55343,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55369,7 +55369,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55395,7 +55395,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55421,7 +55421,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55447,7 +55447,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55473,7 +55473,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55499,7 +55499,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55525,7 +55525,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55551,7 +55551,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55577,7 +55577,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55603,7 +55603,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55629,7 +55629,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55655,7 +55655,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55681,7 +55681,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55707,7 +55707,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55733,7 +55733,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55759,7 +55759,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55785,7 +55785,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55811,7 +55811,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55837,7 +55837,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55863,7 +55863,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55889,7 +55889,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55915,7 +55915,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55941,7 +55941,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55967,7 +55967,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55993,7 +55993,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56019,7 +56019,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56045,7 +56045,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56071,7 +56071,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56097,7 +56097,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56123,7 +56123,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56149,7 +56149,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56175,7 +56175,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56201,7 +56201,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56227,7 +56227,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56253,7 +56253,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56279,7 +56279,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56305,7 +56305,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56331,7 +56331,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56357,7 +56357,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56383,7 +56383,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56409,7 +56409,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56435,7 +56435,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56461,7 +56461,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56487,7 +56487,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56513,7 +56513,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56539,7 +56539,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56565,7 +56565,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56591,7 +56591,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56617,7 +56617,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56643,7 +56643,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56669,7 +56669,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56695,7 +56695,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56721,7 +56721,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56747,7 +56747,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56773,7 +56773,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56799,7 +56799,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56825,7 +56825,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56877,7 +56877,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56903,7 +56903,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56929,7 +56929,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56955,7 +56955,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56981,7 +56981,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57007,7 +57007,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57033,7 +57033,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57059,7 +57059,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57085,7 +57085,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57137,7 +57137,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57163,7 +57163,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57189,7 +57189,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57241,7 +57241,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57267,7 +57267,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57293,7 +57293,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57345,7 +57345,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57371,7 +57371,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57397,7 +57397,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57423,7 +57423,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57449,7 +57449,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57475,7 +57475,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57501,7 +57501,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57527,7 +57527,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57553,7 +57553,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57579,7 +57579,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57605,7 +57605,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57631,7 +57631,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57657,7 +57657,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57683,7 +57683,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57709,7 +57709,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57735,7 +57735,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57761,7 +57761,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57787,7 +57787,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57813,7 +57813,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57839,7 +57839,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57865,7 +57865,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57891,7 +57891,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57917,7 +57917,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57943,7 +57943,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57969,7 +57969,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57995,7 +57995,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58021,7 +58021,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58047,7 +58047,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58073,7 +58073,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58099,7 +58099,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58125,7 +58125,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58151,7 +58151,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58177,7 +58177,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58203,7 +58203,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58229,7 +58229,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58255,7 +58255,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58281,7 +58281,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58307,7 +58307,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58333,7 +58333,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58359,7 +58359,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58385,7 +58385,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58411,7 +58411,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58437,7 +58437,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58463,7 +58463,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58489,7 +58489,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58515,7 +58515,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58541,7 +58541,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58567,7 +58567,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58593,7 +58593,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58619,7 +58619,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58645,7 +58645,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58671,7 +58671,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58697,7 +58697,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58723,7 +58723,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58731,7 +58731,7 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n">
-        <v>45456.6495833333</v>
+        <v>45456.2916666667</v>
       </c>
       <c r="B2151" t="n">
         <v>3177</v>
@@ -58740,7 +58740,7 @@
         <v>12.3800001144409</v>
       </c>
       <c r="D2151" t="n">
-        <v>12.1400003433228</v>
+        <v>12.1000003814697</v>
       </c>
       <c r="E2151" t="n">
         <v>12.3599996566772</v>
@@ -58749,9 +58749,35 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2151" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" s="1" t="n">
+        <v>45457.6496296296</v>
+      </c>
+      <c r="B2152" t="n">
+        <v>9257</v>
+      </c>
+      <c r="C2152" t="n">
+        <v>12.3199996948242</v>
+      </c>
+      <c r="D2152" t="n">
+        <v>11.8599996566772</v>
+      </c>
+      <c r="E2152" t="n">
+        <v>12.3199996948242</v>
+      </c>
+      <c r="F2152" t="n">
+        <v>11.9799995422363</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2152" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="827">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,85 +38,85 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677211761475</t>
+    <t xml:space="preserve">7.67677116394043</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728712081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986547470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5988335609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40788888931274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502408981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685745239258</t>
+    <t xml:space="preserve">7.65728807449341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6378026008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40789079666138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502361297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685792922974</t>
   </si>
   <si>
     <t xml:space="preserve">7.52089786529541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48972272872925</t>
+    <t xml:space="preserve">7.48972225189209</t>
   </si>
   <si>
     <t xml:space="preserve">7.44296026229858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75081014633179</t>
+    <t xml:space="preserve">7.75081062316895</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8716139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367685317993</t>
+    <t xml:space="preserve">7.87161254882812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367637634277</t>
   </si>
   <si>
     <t xml:space="preserve">7.83264493942261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71573829650879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837644577026</t>
+    <t xml:space="preserve">7.71573972702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837596893311</t>
   </si>
   <si>
     <t xml:space="preserve">7.90278816223145</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94955110549927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977918624878</t>
+    <t xml:space="preserve">7.94954919815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977966308594</t>
   </si>
   <si>
     <t xml:space="preserve">7.7858829498291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94175624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748680114746</t>
+    <t xml:space="preserve">7.94175672531128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748584747314</t>
   </si>
   <si>
     <t xml:space="preserve">8.19115447998047</t>
@@ -125,79 +125,79 @@
     <t xml:space="preserve">8.16777324676514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00410652160645</t>
+    <t xml:space="preserve">8.00410556793213</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926370620728</t>
+    <t xml:space="preserve">7.80926418304443</t>
   </si>
   <si>
     <t xml:space="preserve">8.14439105987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06645584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043884277344</t>
+    <t xml:space="preserve">8.06645488739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7547082901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84044027328491</t>
   </si>
   <si>
     <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860404968262</t>
+    <t xml:space="preserve">7.80146980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860500335693</t>
   </si>
   <si>
     <t xml:space="preserve">7.74691343307495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71184301376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7391209602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7040491104126</t>
+    <t xml:space="preserve">7.71184396743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73912000656128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404958724976</t>
   </si>
   <si>
     <t xml:space="preserve">7.48192977905273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50531005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854759216309</t>
+    <t xml:space="preserve">7.50530910491943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4585485458374</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70015287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499521255493</t>
+    <t xml:space="preserve">7.98851823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7001519203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499282836914</t>
   </si>
   <si>
     <t xml:space="preserve">8.01969337463379</t>
   </si>
   <si>
-    <t xml:space="preserve">8.08204364776611</t>
+    <t xml:space="preserve">8.08204174041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.10542297363281</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">8.24570941925049</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26129627227783</t>
+    <t xml:space="preserve">8.26129722595215</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -215,58 +215,58 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53407669067383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74354934692383</t>
+    <t xml:space="preserve">8.58863162994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215656280518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347881317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74354839324951</t>
   </si>
   <si>
     <t xml:space="preserve">8.65539169311523</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63134860992432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42297840118408</t>
+    <t xml:space="preserve">8.63135051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4229793548584</t>
   </si>
   <si>
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14248085021973</t>
+    <t xml:space="preserve">8.14247894287109</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460819244385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17453765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893531799316</t>
+    <t xml:space="preserve">8.17453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893627166748</t>
   </si>
   <si>
     <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43900585174561</t>
+    <t xml:space="preserve">8.43900775909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.57524871826172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61532020568848</t>
+    <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
     <t xml:space="preserve">9.28050327301025</t>
@@ -275,13 +275,13 @@
     <t xml:space="preserve">9.05610466003418</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44880390167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899438858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89760112762451</t>
+    <t xml:space="preserve">9.44880294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8976001739502</t>
   </si>
   <si>
     <t xml:space="preserve">9.95370006561279</t>
@@ -290,28 +290,28 @@
     <t xml:space="preserve">9.96171474456787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76135921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53695964813232</t>
+    <t xml:space="preserve">9.76136016845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107326507568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53696060180664</t>
   </si>
   <si>
     <t xml:space="preserve">9.61710262298584</t>
   </si>
   <si>
-    <t xml:space="preserve">9.73731422424316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490188598633</t>
+    <t xml:space="preserve">9.7373161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490283966064</t>
   </si>
   <si>
     <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29653167724609</t>
+    <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.18433284759521</t>
@@ -320,10 +320,10 @@
     <t xml:space="preserve">9.45681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667560577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674613952637</t>
+    <t xml:space="preserve">9.37667465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674518585205</t>
   </si>
   <si>
     <t xml:space="preserve">9.42476081848145</t>
@@ -332,31 +332,31 @@
     <t xml:space="preserve">9.32858943939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30454635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40071773529053</t>
+    <t xml:space="preserve">9.30454730987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40071678161621</t>
   </si>
   <si>
     <t xml:space="preserve">9.24043273925781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32057476043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9439058303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21639060974121</t>
+    <t xml:space="preserve">9.32057571411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851795196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993328094482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638965606689</t>
   </si>
   <si>
     <t xml:space="preserve">9.20837497711182</t>
@@ -365,25 +365,25 @@
     <t xml:space="preserve">9.13624668121338</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99199199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574817657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89582061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48086071014404</t>
+    <t xml:space="preserve">8.99199104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89581966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085975646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.51291656494141</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27248764038086</t>
+    <t xml:space="preserve">9.27248859405518</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
@@ -398,22 +398,22 @@
     <t xml:space="preserve">8.98397636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93589115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88780498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759147644043</t>
+    <t xml:space="preserve">8.93589019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8878059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759338378906</t>
   </si>
   <si>
     <t xml:space="preserve">9.04007530212402</t>
@@ -425,46 +425,46 @@
     <t xml:space="preserve">8.77560615539551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67142009735107</t>
+    <t xml:space="preserve">8.67142105102539</t>
   </si>
   <si>
     <t xml:space="preserve">8.64737796783447</t>
   </si>
   <si>
-    <t xml:space="preserve">8.62333583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936233520508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68745040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319190979004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716541290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723403930664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80766201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163360595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922222137451</t>
+    <t xml:space="preserve">8.62333488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319286346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8076639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5592212677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.30276489257812</t>
@@ -473,19 +473,19 @@
     <t xml:space="preserve">8.3668794631958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35085010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58326435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50312042236328</t>
+    <t xml:space="preserve">8.35084915161133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5031213760376</t>
   </si>
   <si>
     <t xml:space="preserve">8.59127807617188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72752094268799</t>
+    <t xml:space="preserve">8.72751998901367</t>
   </si>
   <si>
     <t xml:space="preserve">8.47907829284668</t>
@@ -503,13 +503,13 @@
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45503616333008</t>
+    <t xml:space="preserve">8.45503520965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.29475212097168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37489318847656</t>
+    <t xml:space="preserve">8.37489414215088</t>
   </si>
   <si>
     <t xml:space="preserve">8.65425300598145</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">8.22566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28335571289062</t>
+    <t xml:space="preserve">8.28335666656494</t>
   </si>
   <si>
     <t xml:space="preserve">8.57183074951172</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40698909759521</t>
+    <t xml:space="preserve">8.40698719024658</t>
   </si>
   <si>
     <t xml:space="preserve">8.7778844833374</t>
@@ -548,7 +548,7 @@
     <t xml:space="preserve">8.19269180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730388641357</t>
+    <t xml:space="preserve">8.07730197906494</t>
   </si>
   <si>
     <t xml:space="preserve">8.0278491973877</t>
@@ -557,64 +557,64 @@
     <t xml:space="preserve">8.14323997497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081676483154</t>
+    <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
     <t xml:space="preserve">7.99488067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8959755897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464729309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683568954468</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113250732422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410150527954</t>
+    <t xml:space="preserve">7.83003759384155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894411087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113203048706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74761629104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410102844238</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574172973633</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78058481216431</t>
+    <t xml:space="preserve">7.78058433532715</t>
   </si>
   <si>
     <t xml:space="preserve">7.66519594192505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69816446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59925889968872</t>
+    <t xml:space="preserve">7.69816398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925842285156</t>
   </si>
   <si>
     <t xml:space="preserve">7.63222742080688</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56628942489624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277416229248</t>
+    <t xml:space="preserve">7.5662899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79706954956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277368545532</t>
   </si>
   <si>
     <t xml:space="preserve">7.48386764526367</t>
@@ -629,16 +629,16 @@
     <t xml:space="preserve">7.4014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18715143203735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20363521575928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33550930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035333633423</t>
+    <t xml:space="preserve">7.1871509552002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20363473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33550882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035285949707</t>
   </si>
   <si>
     <t xml:space="preserve">7.25308799743652</t>
@@ -647,37 +647,37 @@
     <t xml:space="preserve">7.4179310798645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4344162940979</t>
+    <t xml:space="preserve">7.43441581726074</t>
   </si>
   <si>
     <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13769817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17066621780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08824491500854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92340183258057</t>
+    <t xml:space="preserve">7.13769769668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1706657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0882453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92340230941772</t>
   </si>
   <si>
     <t xml:space="preserve">6.90691804885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176065444946</t>
+    <t xml:space="preserve">6.98933935165405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62668514251709</t>
+    <t xml:space="preserve">6.62668466567993</t>
   </si>
   <si>
     <t xml:space="preserve">6.6596531867981</t>
@@ -689,10 +689,10 @@
     <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69262170791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7091064453125</t>
+    <t xml:space="preserve">6.69262218475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70910692214966</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230787277222</t>
@@ -701,25 +701,25 @@
     <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85746431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00582361221313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28605651855469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3684778213501</t>
+    <t xml:space="preserve">6.85746383666992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00582408905029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.286057472229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36847829818726</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472917556763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23660373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394952774048</t>
+    <t xml:space="preserve">7.23660278320312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87394905090332</t>
   </si>
   <si>
     <t xml:space="preserve">6.52777910232544</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129484176636</t>
+    <t xml:space="preserve">6.5112943649292</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
@@ -737,37 +737,37 @@
     <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67613840103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12121343612671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93988656997681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79152727127075</t>
+    <t xml:space="preserve">6.67613792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12121391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93988609313965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79152774810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64316940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80801248550415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.2201189994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199308395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332185745239</t>
+    <t xml:space="preserve">6.64316987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80801200866699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22011995315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332090377808</t>
   </si>
   <si>
     <t xml:space="preserve">7.64871025085449</t>
@@ -779,7 +779,7 @@
     <t xml:space="preserve">7.5498046875</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69705533981323</t>
+    <t xml:space="preserve">7.69705486297607</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09839487075806</t>
+    <t xml:space="preserve">7.09839534759521</t>
   </si>
   <si>
     <t xml:space="preserve">7.49180030822754</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">7.61153173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30364942550659</t>
+    <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
     <t xml:space="preserve">7.35496377944946</t>
@@ -809,25 +809,25 @@
     <t xml:space="preserve">7.33785915374756</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25233554840088</t>
+    <t xml:space="preserve">7.25233602523804</t>
   </si>
   <si>
     <t xml:space="preserve">7.21812677383423</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20102262496948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18391752243042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92734956741333</t>
+    <t xml:space="preserve">7.20102214813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18391799926758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92735004425049</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418609619141</t>
+    <t xml:space="preserve">7.06418561935425</t>
   </si>
   <si>
     <t xml:space="preserve">7.23523187637329</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206840515137</t>
+    <t xml:space="preserve">7.37206792831421</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
@@ -845,37 +845,37 @@
     <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11549997329712</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04708099365234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08129024505615</t>
+    <t xml:space="preserve">7.1154990196228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0470814704895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08129072189331</t>
   </si>
   <si>
     <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97866249084473</t>
+    <t xml:space="preserve">6.97866296768188</t>
   </si>
   <si>
     <t xml:space="preserve">6.87603616714478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9615592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314031600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893201828003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84182643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77340841293335</t>
+    <t xml:space="preserve">6.96155881881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314126968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84182691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77340888977051</t>
   </si>
   <si>
     <t xml:space="preserve">6.65367650985718</t>
@@ -890,28 +890,28 @@
     <t xml:space="preserve">6.48263072967529</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5168399810791</t>
+    <t xml:space="preserve">6.51683950424194</t>
   </si>
   <si>
     <t xml:space="preserve">6.58525800704956</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41421318054199</t>
+    <t xml:space="preserve">6.41421270370483</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289882659912</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43131685256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38000297546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32869005203247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15764427185059</t>
+    <t xml:space="preserve">6.43131732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38000345230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32868957519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
     <t xml:space="preserve">6.14053916931152</t>
@@ -920,28 +920,28 @@
     <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10633039474487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.22606229782104</t>
+    <t xml:space="preserve">6.10632991790771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2260627746582</t>
   </si>
   <si>
     <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2773756980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185256958008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39710807800293</t>
+    <t xml:space="preserve">6.27737617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185304641724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710760116577</t>
   </si>
   <si>
     <t xml:space="preserve">6.53394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67078065872192</t>
+    <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
     <t xml:space="preserve">6.75630378723145</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">6.63657188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60236263275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8247218132019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61946725845337</t>
+    <t xml:space="preserve">6.60236215591431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82472229003906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61946773529053</t>
   </si>
   <si>
     <t xml:space="preserve">6.55104875564575</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">6.73919916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34579420089722</t>
+    <t xml:space="preserve">6.34579467773438</t>
   </si>
   <si>
     <t xml:space="preserve">6.44842147827148</t>
@@ -983,19 +983,19 @@
     <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86686706542969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02080726623535</t>
+    <t xml:space="preserve">5.86686658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02080774307251</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.88397073745728</t>
+    <t xml:space="preserve">5.76423931121826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.88397121429443</t>
   </si>
   <si>
     <t xml:space="preserve">5.9865984916687</t>
@@ -1010,22 +1010,22 @@
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453401565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506925582886</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53271055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061899185181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58402347564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32745504379272</t>
+    <t xml:space="preserve">4.99453353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506973266602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53271007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061851501465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58402395248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32745552062988</t>
   </si>
   <si>
     <t xml:space="preserve">4.44718742370605</t>
@@ -1034,43 +1034,43 @@
     <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70375633239746</t>
+    <t xml:space="preserve">4.7037558555603</t>
   </si>
   <si>
     <t xml:space="preserve">5.04584693908691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49056577682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90107583999634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78134393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69582080841064</t>
+    <t xml:space="preserve">5.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056625366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90107536315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78134346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69582033157349</t>
   </si>
   <si>
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372972488403</t>
+    <t xml:space="preserve">5.54187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372924804688</t>
   </si>
   <si>
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450645446777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.40504360198975</t>
+    <t xml:space="preserve">5.64450693130493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
     <t xml:space="preserve">5.59319305419922</t>
@@ -1082,25 +1082,25 @@
     <t xml:space="preserve">6.12343454360962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2944803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24316740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03791189193726</t>
+    <t xml:space="preserve">6.29448080062866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24316692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03791236877441</t>
   </si>
   <si>
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26027202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96949338912964</t>
+    <t xml:space="preserve">6.08922576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2602710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9694938659668</t>
   </si>
   <si>
     <t xml:space="preserve">5.79844808578491</t>
@@ -1121,88 +1121,88 @@
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029815673828</t>
+    <t xml:space="preserve">5.61029767990112</t>
   </si>
   <si>
     <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91817951202393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66161155700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57608842849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79051351547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209453582764</t>
+    <t xml:space="preserve">5.91818046569824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66161108016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57608890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79051303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209501266479</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
   </si>
   <si>
-    <t xml:space="preserve">7.16681385040283</t>
+    <t xml:space="preserve">7.16681337356567</t>
   </si>
   <si>
     <t xml:space="preserve">7.13260412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38917350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547288894653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7825779914856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17598247528076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10756397247314</t>
+    <t xml:space="preserve">7.38917255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547241210938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78257846832275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17598342895508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10756492614746</t>
   </si>
   <si>
     <t xml:space="preserve">8.12466907501221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03914642333984</t>
+    <t xml:space="preserve">8.03914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783349990845</t>
+    <t xml:space="preserve">7.98783302307129</t>
   </si>
   <si>
     <t xml:space="preserve">7.95362329483032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97072792053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
+    <t xml:space="preserve">7.97072696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941404342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230941772461</t>
   </si>
   <si>
     <t xml:space="preserve">7.73126459121704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8167872428894</t>
+    <t xml:space="preserve">7.81678628921509</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02204132080078</t>
+    <t xml:space="preserve">8.0220422744751</t>
   </si>
   <si>
     <t xml:space="preserve">7.8681001663208</t>
@@ -1214,19 +1214,19 @@
     <t xml:space="preserve">8.27861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38123798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965553283691</t>
+    <t xml:space="preserve">8.3812370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965648651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504413604736</t>
+    <t xml:space="preserve">8.59504508972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1244,22 +1244,22 @@
     <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68056678771973</t>
+    <t xml:space="preserve">8.68056774139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97989749908447</t>
+    <t xml:space="preserve">8.85161399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97989845275879</t>
   </si>
   <si>
     <t xml:space="preserve">9.0226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32198810577393</t>
+    <t xml:space="preserve">9.32198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
@@ -1268,37 +1268,37 @@
     <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74960136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66408061981201</t>
+    <t xml:space="preserve">9.74960231781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6640796661377</t>
   </si>
   <si>
     <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1772174835205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910245895386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.51930809021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.1772165298462</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344556808472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910236358643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5193090438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9896841049194</t>
+    <t xml:space="preserve">10.8186378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9896831512451</t>
   </si>
   <si>
     <t xml:space="preserve">11.0324449539185</t>
@@ -1316,34 +1316,34 @@
     <t xml:space="preserve">11.8876733779907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021516799927</t>
+    <t xml:space="preserve">11.8021507263184</t>
   </si>
   <si>
     <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304342269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883445739746</t>
+    <t xml:space="preserve">11.9304351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883436203003</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725267410278</t>
+    <t xml:space="preserve">12.2725276947021</t>
   </si>
   <si>
     <t xml:space="preserve">12.0159587860107</t>
   </si>
   <si>
-    <t xml:space="preserve">11.844913482666</t>
+    <t xml:space="preserve">11.8449125289917</t>
   </si>
   <si>
     <t xml:space="preserve">11.5028209686279</t>
   </si>
   <si>
-    <t xml:space="preserve">11.759388923645</t>
+    <t xml:space="preserve">11.7593898773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
@@ -1352,31 +1352,31 @@
     <t xml:space="preserve">11.3317756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0587205886841</t>
+    <t xml:space="preserve">12.0587196350098</t>
   </si>
   <si>
     <t xml:space="preserve">12.5020551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9257183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380493164062</t>
+    <t xml:space="preserve">11.9257192611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380502700806</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173799514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730464935303</t>
+    <t xml:space="preserve">10.7287149429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730474472046</t>
   </si>
   <si>
     <t xml:space="preserve">10.684380531311</t>
@@ -1385,46 +1385,46 @@
     <t xml:space="preserve">10.5957136154175</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6400461196899</t>
+    <t xml:space="preserve">10.6400470733643</t>
   </si>
   <si>
     <t xml:space="preserve">11.1277151107788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.482382774353</t>
+    <t xml:space="preserve">11.0390491485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7483854293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
     <t xml:space="preserve">11.5710506439209</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3050489425659</t>
+    <t xml:space="preserve">11.3050498962402</t>
   </si>
   <si>
     <t xml:space="preserve">11.615385055542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3493824005127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9503812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513801574707</t>
+    <t xml:space="preserve">11.349383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0833826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.950382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060487747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513792037964</t>
   </si>
   <si>
     <t xml:space="preserve">11.1720495223999</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">11.5267171859741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8813848495483</t>
+    <t xml:space="preserve">11.8813858032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
@@ -1448,16 +1448,16 @@
     <t xml:space="preserve">11.3937168121338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7927179336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0143852233887</t>
+    <t xml:space="preserve">11.7927188873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2803869247437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.014386177063</t>
   </si>
   <si>
     <t xml:space="preserve">12.3690538406372</t>
@@ -1475,10 +1475,10 @@
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217256546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1670589447021</t>
+    <t xml:space="preserve">13.5217266082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1670579910278</t>
   </si>
   <si>
     <t xml:space="preserve">13.388726234436</t>
@@ -1490,19 +1490,19 @@
     <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1867294311523</t>
+    <t xml:space="preserve">14.186728477478</t>
   </si>
   <si>
     <t xml:space="preserve">14.4970636367798</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7630643844604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5857315063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4527292251587</t>
+    <t xml:space="preserve">14.7630653381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.585732460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.452730178833</t>
   </si>
   <si>
     <t xml:space="preserve">14.2310619354248</t>
@@ -1511,13 +1511,13 @@
     <t xml:space="preserve">14.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9847326278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.851731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6300640106201</t>
+    <t xml:space="preserve">14.984733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8517332077026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6300649642944</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1532,19 +1532,19 @@
     <t xml:space="preserve">13.4773921966553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3443918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8567228317261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1473865509033</t>
+    <t xml:space="preserve">13.3443927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8567237854004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.147385597229</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350555419922</t>
+    <t xml:space="preserve">12.6350564956665</t>
   </si>
   <si>
     <t xml:space="preserve">11.9700517654419</t>
@@ -1553,19 +1553,19 @@
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463876724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4627132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297119140625</t>
+    <t xml:space="preserve">12.5463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4627122879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297109603882</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.679388999939</t>
+    <t xml:space="preserve">12.6793899536133</t>
   </si>
   <si>
     <t xml:space="preserve">12.413387298584</t>
@@ -1577,31 +1577,31 @@
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7217845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735155105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848495483398</t>
+    <t xml:space="preserve">11.4557838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7217855453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735174179077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848505020142</t>
   </si>
   <si>
     <t xml:space="preserve">11.3671159744263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4025821685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5976505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6685848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.544451713562</t>
+    <t xml:space="preserve">11.4025831222534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5976514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6685838699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5444507598877</t>
   </si>
   <si>
     <t xml:space="preserve">11.6508512496948</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139162063599</t>
+    <t xml:space="preserve">11.3139171600342</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1117238998413</t>
+    <t xml:space="preserve">12.111722946167</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776374816895</t>
+    <t xml:space="preserve">12.2776365280151</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519027709961</t>
+    <t xml:space="preserve">13.0519018173218</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491182327271</t>
+    <t xml:space="preserve">12.8491191864014</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614603042603</t>
+    <t xml:space="preserve">11.7614612579346</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698120117188</t>
+    <t xml:space="preserve">12.5357255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122491836548</t>
+    <t xml:space="preserve">13.1072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122482299805</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625108718872</t>
+    <t xml:space="preserve">13.1625118255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938146591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569437026978</t>
+    <t xml:space="preserve">12.7938137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569446563721</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4066820144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.351375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0195484161377</t>
+    <t xml:space="preserve">12.406681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3513765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019549369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882465362549</t>
+    <t xml:space="preserve">12.3882455825806</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223320007324</t>
+    <t xml:space="preserve">12.2223329544067</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720703125</t>
+    <t xml:space="preserve">11.8720693588257</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.724591255188</t>
+    <t xml:space="preserve">11.7245903015137</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1826,154 +1826,157 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346731185913</t>
+    <t xml:space="preserve">11.1346740722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8950204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.577112197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3329420089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4251165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2038974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6279001235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8859882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2546863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3099908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3468608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390354156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3837308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4021654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3652963638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1256418228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2407674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0564184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0932884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061548233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536348342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.816764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5033712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005876541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1531095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715440750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1899785995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1162395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9847860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9655485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1002130508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3118295669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8950204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.577112197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3329420089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4251155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2038974761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8859882354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2546863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3099908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3468608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127744674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3837308883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4021654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1256418228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2407674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0564184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0932884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536348342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6877212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5033712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1531095504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715440750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1899795532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1162395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9847860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9655485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1002130508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3118295669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">10.734694480896</t>
@@ -51729,7 +51732,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51755,7 +51758,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51781,7 +51784,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51807,7 +51810,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51859,7 +51862,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51885,7 +51888,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51911,7 +51914,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51937,7 +51940,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51963,7 +51966,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51989,7 +51992,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52015,7 +52018,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52041,7 +52044,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52067,7 +52070,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52093,7 +52096,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52119,7 +52122,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52145,7 +52148,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52171,7 +52174,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52197,7 +52200,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52223,7 +52226,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52249,7 +52252,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52275,7 +52278,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52301,7 +52304,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52327,7 +52330,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52353,7 +52356,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52379,7 +52382,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52405,7 +52408,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52457,7 +52460,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52483,7 +52486,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52509,7 +52512,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52535,7 +52538,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52561,7 +52564,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52587,7 +52590,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52613,7 +52616,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52639,7 +52642,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52691,7 +52694,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52717,7 +52720,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52743,7 +52746,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52769,7 +52772,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52795,7 +52798,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52821,7 +52824,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52847,7 +52850,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52873,7 +52876,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52899,7 +52902,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52925,7 +52928,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52951,7 +52954,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52977,7 +52980,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53003,7 +53006,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53029,7 +53032,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53055,7 +53058,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53081,7 +53084,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53107,7 +53110,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53133,7 +53136,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53159,7 +53162,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53185,7 +53188,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53211,7 +53214,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53237,7 +53240,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53263,7 +53266,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53289,7 +53292,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53315,7 +53318,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53341,7 +53344,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53367,7 +53370,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53393,7 +53396,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53419,7 +53422,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53445,7 +53448,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53471,7 +53474,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53497,7 +53500,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53523,7 +53526,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53549,7 +53552,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53575,7 +53578,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53601,7 +53604,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53627,7 +53630,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53653,7 +53656,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53679,7 +53682,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53705,7 +53708,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53731,7 +53734,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53757,7 +53760,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53783,7 +53786,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53809,7 +53812,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53835,7 +53838,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53861,7 +53864,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53887,7 +53890,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53913,7 +53916,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53939,7 +53942,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53965,7 +53968,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53991,7 +53994,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54017,7 +54020,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54043,7 +54046,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54069,7 +54072,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54095,7 +54098,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54121,7 +54124,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54147,7 +54150,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54173,7 +54176,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54199,7 +54202,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54225,7 +54228,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54251,7 +54254,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54277,7 +54280,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54303,7 +54306,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54329,7 +54332,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54355,7 +54358,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54381,7 +54384,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54407,7 +54410,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54433,7 +54436,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54459,7 +54462,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54485,7 +54488,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54511,7 +54514,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54537,7 +54540,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54563,7 +54566,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54589,7 +54592,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54615,7 +54618,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54641,7 +54644,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54667,7 +54670,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54693,7 +54696,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54719,7 +54722,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54745,7 +54748,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54771,7 +54774,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54797,7 +54800,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54823,7 +54826,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54849,7 +54852,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54875,7 +54878,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54901,7 +54904,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54927,7 +54930,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54953,7 +54956,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54979,7 +54982,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55005,7 +55008,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55031,7 +55034,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55057,7 +55060,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55083,7 +55086,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55109,7 +55112,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55135,7 +55138,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55161,7 +55164,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55187,7 +55190,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55213,7 +55216,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55239,7 +55242,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55265,7 +55268,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55291,7 +55294,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55317,7 +55320,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55343,7 +55346,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55369,7 +55372,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55395,7 +55398,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55421,7 +55424,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55447,7 +55450,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55473,7 +55476,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55499,7 +55502,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55525,7 +55528,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55551,7 +55554,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55577,7 +55580,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55603,7 +55606,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55629,7 +55632,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55655,7 +55658,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55681,7 +55684,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55707,7 +55710,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55733,7 +55736,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55759,7 +55762,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55785,7 +55788,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55811,7 +55814,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55837,7 +55840,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55863,7 +55866,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55889,7 +55892,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55915,7 +55918,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55941,7 +55944,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55967,7 +55970,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55993,7 +55996,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56019,7 +56022,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56045,7 +56048,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56071,7 +56074,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56097,7 +56100,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56123,7 +56126,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56149,7 +56152,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56175,7 +56178,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56201,7 +56204,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56227,7 +56230,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56253,7 +56256,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56279,7 +56282,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56305,7 +56308,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56331,7 +56334,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56357,7 +56360,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56383,7 +56386,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56409,7 +56412,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56435,7 +56438,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56461,7 +56464,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56487,7 +56490,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56513,7 +56516,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56539,7 +56542,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56565,7 +56568,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56591,7 +56594,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56617,7 +56620,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56643,7 +56646,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56669,7 +56672,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56695,7 +56698,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56721,7 +56724,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56747,7 +56750,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56773,7 +56776,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56799,7 +56802,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56825,7 +56828,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56877,7 +56880,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56903,7 +56906,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56929,7 +56932,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56955,7 +56958,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56981,7 +56984,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57007,7 +57010,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57033,7 +57036,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57059,7 +57062,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57085,7 +57088,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57137,7 +57140,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57163,7 +57166,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57189,7 +57192,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57241,7 +57244,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57267,7 +57270,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57293,7 +57296,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57345,7 +57348,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57371,7 +57374,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57397,7 +57400,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57423,7 +57426,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57449,7 +57452,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57475,7 +57478,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57501,7 +57504,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57527,7 +57530,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57553,7 +57556,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57579,7 +57582,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57605,7 +57608,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57631,7 +57634,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57657,7 +57660,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57683,7 +57686,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57709,7 +57712,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57735,7 +57738,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57761,7 +57764,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57787,7 +57790,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57813,7 +57816,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57839,7 +57842,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57865,7 +57868,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57891,7 +57894,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57917,7 +57920,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57943,7 +57946,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57969,7 +57972,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57995,7 +57998,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58021,7 +58024,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58047,7 +58050,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58073,7 +58076,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58099,7 +58102,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58125,7 +58128,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58151,7 +58154,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58177,7 +58180,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58203,7 +58206,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58229,7 +58232,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58255,7 +58258,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58281,7 +58284,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58307,7 +58310,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58333,7 +58336,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58359,7 +58362,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58385,7 +58388,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58411,7 +58414,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58437,7 +58440,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58463,7 +58466,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58489,7 +58492,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58515,7 +58518,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58541,7 +58544,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58567,7 +58570,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58593,7 +58596,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58619,7 +58622,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58645,7 +58648,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58671,7 +58674,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58697,7 +58700,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58723,7 +58726,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58749,7 +58752,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58757,7 +58760,7 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n">
-        <v>45457.6496296296</v>
+        <v>45457.2916666667</v>
       </c>
       <c r="B2152" t="n">
         <v>9257</v>
@@ -58775,9 +58778,35 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2152" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" s="1" t="n">
+        <v>45460.649537037</v>
+      </c>
+      <c r="B2153" t="n">
+        <v>7496</v>
+      </c>
+      <c r="C2153" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="D2153" t="n">
+        <v>11.9799995422363</v>
+      </c>
+      <c r="E2153" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="F2153" t="n">
+        <v>11.9799995422363</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2153" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -44,85 +44,85 @@
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728807449341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6378026008606</t>
+    <t xml:space="preserve">7.65728759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780355453491</t>
   </si>
   <si>
     <t xml:space="preserve">7.55986595153809</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59883403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40789079666138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685792922974</t>
+    <t xml:space="preserve">7.5988335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40788984298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502313613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6339054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685745239258</t>
   </si>
   <si>
     <t xml:space="preserve">7.52089786529541</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48972225189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44296026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75081062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77808856964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87161254882812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367637634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837596893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94954919815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7858829498291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175672531128</t>
+    <t xml:space="preserve">7.48972272872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44296169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75081014633179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77808952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87161350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367589950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264398574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250219345093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837406158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94955062866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588247299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175624847412</t>
   </si>
   <si>
     <t xml:space="preserve">8.02748584747314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19115447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16777324676514</t>
+    <t xml:space="preserve">8.19115543365479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16777229309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.00410556793213</t>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926418304443</t>
+    <t xml:space="preserve">7.80926322937012</t>
   </si>
   <si>
     <t xml:space="preserve">8.14439105987549</t>
@@ -140,73 +140,73 @@
     <t xml:space="preserve">8.06645488739014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7547082901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84044027328491</t>
+    <t xml:space="preserve">8.05086898803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043788909912</t>
   </si>
   <si>
     <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80146980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691343307495</t>
+    <t xml:space="preserve">7.80147075653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860452651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691438674927</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73912000656128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192977905273</t>
+    <t xml:space="preserve">7.73912048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7040491104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48193025588989</t>
   </si>
   <si>
     <t xml:space="preserve">7.50530910491943</t>
   </si>
   <si>
-    <t xml:space="preserve">7.47803211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4585485458374</t>
+    <t xml:space="preserve">7.47803258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854806900024</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001519203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499282836914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08204174041748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10542297363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129722595215</t>
+    <t xml:space="preserve">7.98851871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015144348145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499521255493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0820426940918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1054220199585</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24570846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129817962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -215,25 +215,25 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215656280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5340747833252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347881317139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567764282227</t>
+    <t xml:space="preserve">8.58863258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407382965088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567668914795</t>
   </si>
   <si>
     <t xml:space="preserve">8.74354839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65539169311523</t>
+    <t xml:space="preserve">8.65539264678955</t>
   </si>
   <si>
     <t xml:space="preserve">8.63135051727295</t>
@@ -242,16 +242,16 @@
     <t xml:space="preserve">8.4229793548584</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3348217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453670501709</t>
+    <t xml:space="preserve">8.33482074737549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453765869141</t>
   </si>
   <si>
     <t xml:space="preserve">8.39893627166748</t>
@@ -260,16 +260,16 @@
     <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43900775909424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57524871826172</t>
+    <t xml:space="preserve">8.43900680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57525062561035</t>
   </si>
   <si>
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050327301025</t>
+    <t xml:space="preserve">9.28050422668457</t>
   </si>
   <si>
     <t xml:space="preserve">9.05610466003418</t>
@@ -278,28 +278,28 @@
     <t xml:space="preserve">9.44880294799805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8976001739502</t>
+    <t xml:space="preserve">10.0899438858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
     <t xml:space="preserve">9.95370006561279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96171474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136016845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53696060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61710262298584</t>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53695964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61710166931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.7373161315918</t>
@@ -308,16 +308,16 @@
     <t xml:space="preserve">9.50490283966064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25646114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29653263092041</t>
+    <t xml:space="preserve">9.25646209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29653358459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.18433284759521</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45681762695312</t>
+    <t xml:space="preserve">9.45681858062744</t>
   </si>
   <si>
     <t xml:space="preserve">9.37667465209961</t>
@@ -326,28 +326,28 @@
     <t xml:space="preserve">9.41674518585205</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42476081848145</t>
+    <t xml:space="preserve">9.42475986480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.32858943939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30454730987549</t>
+    <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
     <t xml:space="preserve">9.40071678161621</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24043273925781</t>
+    <t xml:space="preserve">9.2404317855835</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851795196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
+    <t xml:space="preserve">9.28851985931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.94390487670898</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">8.95993328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21638965606689</t>
+    <t xml:space="preserve">9.21639060974121</t>
   </si>
   <si>
     <t xml:space="preserve">9.20837497711182</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">8.85574913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89581966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085975646973</t>
+    <t xml:space="preserve">8.89581871032715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085880279541</t>
   </si>
   <si>
     <t xml:space="preserve">9.51291656494141</t>
@@ -410,82 +410,82 @@
     <t xml:space="preserve">8.87177753448486</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73553466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759338378906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007530212402</t>
+    <t xml:space="preserve">8.73553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007625579834</t>
   </si>
   <si>
     <t xml:space="preserve">9.00000476837158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77560615539551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67142105102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333488464355</t>
+    <t xml:space="preserve">8.77560520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737606048584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333583831787</t>
   </si>
   <si>
     <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68744945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156402587891</t>
+    <t xml:space="preserve">8.68744850158691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156307220459</t>
   </si>
   <si>
     <t xml:space="preserve">8.54319286346436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52716445922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8076639175415</t>
+    <t xml:space="preserve">8.5271635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546413421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766296386719</t>
   </si>
   <si>
     <t xml:space="preserve">8.79163455963135</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5592212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35084915161133</t>
+    <t xml:space="preserve">8.67943382263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36687850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085010528564</t>
   </si>
   <si>
     <t xml:space="preserve">8.5832633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5031213760376</t>
+    <t xml:space="preserve">8.50312042236328</t>
   </si>
   <si>
     <t xml:space="preserve">8.59127807617188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72751998901367</t>
+    <t xml:space="preserve">8.72752094268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.47907829284668</t>
@@ -494,46 +494,46 @@
     <t xml:space="preserve">8.43099308013916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47106456756592</t>
+    <t xml:space="preserve">8.4710636138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510765075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489414215088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425300598145</t>
+    <t xml:space="preserve">8.41496562957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503616333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425395965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.32456684112549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.22566032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335666656494</t>
+    <t xml:space="preserve">8.225661277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335571289062</t>
   </si>
   <si>
     <t xml:space="preserve">8.57183074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53062152862549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44819927215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40698719024658</t>
+    <t xml:space="preserve">8.53062057495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44819831848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
     <t xml:space="preserve">8.7778844833374</t>
@@ -542,19 +542,19 @@
     <t xml:space="preserve">8.36577701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24214553833008</t>
+    <t xml:space="preserve">8.24214458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730197906494</t>
+    <t xml:space="preserve">8.07730293273926</t>
   </si>
   <si>
     <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14323997497559</t>
+    <t xml:space="preserve">8.14323902130127</t>
   </si>
   <si>
     <t xml:space="preserve">8.06081771850586</t>
@@ -563,61 +563,61 @@
     <t xml:space="preserve">7.99488067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83003759384155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597511291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74761629104614</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574172973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058433532715</t>
+    <t xml:space="preserve">7.83003807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9289436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597368240356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464729309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683712005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113346099854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7476167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410150527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574220657349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058481216431</t>
   </si>
   <si>
     <t xml:space="preserve">7.66519594192505</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59925842285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222742080688</t>
+    <t xml:space="preserve">7.69816446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5992579460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222646713257</t>
   </si>
   <si>
     <t xml:space="preserve">7.5662899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79706954956055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355333328247</t>
+    <t xml:space="preserve">7.79706907272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355285644531</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48386764526367</t>
+    <t xml:space="preserve">7.48386812210083</t>
   </si>
   <si>
     <t xml:space="preserve">7.38496208190918</t>
@@ -629,55 +629,55 @@
     <t xml:space="preserve">7.4014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1871509552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20363473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33550882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035285949707</t>
+    <t xml:space="preserve">7.18715047836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20363521575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33550930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035238265991</t>
   </si>
   <si>
     <t xml:space="preserve">7.25308799743652</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4179310798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441581726074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738433837891</t>
+    <t xml:space="preserve">7.41793060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43441534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738338470459</t>
   </si>
   <si>
     <t xml:space="preserve">7.13769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1706657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0882453918457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92340230941772</t>
+    <t xml:space="preserve">7.17066621780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08824443817139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92340183258057</t>
   </si>
   <si>
     <t xml:space="preserve">6.90691804885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933935165405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176113128662</t>
+    <t xml:space="preserve">6.98933839797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176065444946</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62668466567993</t>
+    <t xml:space="preserve">6.62668514251709</t>
   </si>
   <si>
     <t xml:space="preserve">6.6596531867981</t>
@@ -689,34 +689,34 @@
     <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69262218475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70910692214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02230787277222</t>
+    <t xml:space="preserve">6.69262170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7091064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02230834960938</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85746383666992</t>
+    <t xml:space="preserve">6.85746479034424</t>
   </si>
   <si>
     <t xml:space="preserve">7.00582408905029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.286057472229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36847829818726</t>
+    <t xml:space="preserve">7.28605651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3684778213501</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472917556763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23660278320312</t>
+    <t xml:space="preserve">7.23660326004028</t>
   </si>
   <si>
     <t xml:space="preserve">6.87394905090332</t>
@@ -725,22 +725,22 @@
     <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59371614456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5112943649292</t>
+    <t xml:space="preserve">6.59371662139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238927841187</t>
+    <t xml:space="preserve">6.41238880157471</t>
   </si>
   <si>
     <t xml:space="preserve">6.67613792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12121391296387</t>
+    <t xml:space="preserve">7.12121438980103</t>
   </si>
   <si>
     <t xml:space="preserve">6.93988609313965</t>
@@ -749,16 +749,16 @@
     <t xml:space="preserve">6.79152774810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89043283462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64316987991333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80801200866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22011995315552</t>
+    <t xml:space="preserve">6.89043235778809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64316940307617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80801248550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
     <t xml:space="preserve">7.35199403762817</t>
@@ -770,31 +770,31 @@
     <t xml:space="preserve">7.53332090377808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64871025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68167877197266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705486297607</t>
+    <t xml:space="preserve">7.64871072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6816782951355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54980516433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705438613892</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56021881103516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09839534759521</t>
+    <t xml:space="preserve">7.56021785736084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.09839487075806</t>
   </si>
   <si>
     <t xml:space="preserve">7.49180030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57732343673706</t>
+    <t xml:space="preserve">7.5773229598999</t>
   </si>
   <si>
     <t xml:space="preserve">7.61153173446655</t>
@@ -803,31 +803,31 @@
     <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35496377944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33785915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233602523804</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812677383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102214813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18391799926758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92735004425049</t>
+    <t xml:space="preserve">7.3549633026123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3378586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233507156372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102262496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18391752243042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92734956741333</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418561935425</t>
+    <t xml:space="preserve">7.06418609619141</t>
   </si>
   <si>
     <t xml:space="preserve">7.23523187637329</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206792831421</t>
+    <t xml:space="preserve">7.37206840515137</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
@@ -845,16 +845,16 @@
     <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1154990196228</t>
+    <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
     <t xml:space="preserve">7.0470814704895</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08129072189331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02997732162476</t>
+    <t xml:space="preserve">7.08129024505615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0299768447876</t>
   </si>
   <si>
     <t xml:space="preserve">6.97866296768188</t>
@@ -863,37 +863,37 @@
     <t xml:space="preserve">6.87603616714478</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96155881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314126968384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893154144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84182691574097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77340888977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65367650985718</t>
+    <t xml:space="preserve">6.9615592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893201828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84182643890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77340841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552610397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263072967529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51683950424194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.58525800704956</t>
+    <t xml:space="preserve">6.46552658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263025283813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5168399810791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5852575302124</t>
   </si>
   <si>
     <t xml:space="preserve">6.41421270370483</t>
@@ -905,37 +905,37 @@
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000345230103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32868957519531</t>
+    <t xml:space="preserve">6.38000297546387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32869005203247</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053916931152</t>
+    <t xml:space="preserve">6.14053964614868</t>
   </si>
   <si>
     <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10632991790771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2260627746582</t>
+    <t xml:space="preserve">6.10633039474487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
     <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.27737617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185304641724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.39710760116577</t>
+    <t xml:space="preserve">6.2773756980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185256958008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.39710807800293</t>
   </si>
   <si>
     <t xml:space="preserve">6.53394412994385</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75630378723145</t>
+    <t xml:space="preserve">6.7563042640686</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
@@ -953,13 +953,13 @@
     <t xml:space="preserve">6.63657188415527</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60236215591431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.82472229003906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.61946773529053</t>
+    <t xml:space="preserve">6.60236263275146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8247218132019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
     <t xml:space="preserve">6.55104875564575</t>
@@ -986,13 +986,13 @@
     <t xml:space="preserve">5.86686658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02080774307251</t>
+    <t xml:space="preserve">6.02080726623535</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423931121826</t>
+    <t xml:space="preserve">5.7642388343811</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1016,64 +1016,64 @@
     <t xml:space="preserve">4.75506973266602</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061851501465</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58402395248413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32745552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.44718742370605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36166477203369</t>
+    <t xml:space="preserve">4.53271055221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061899185181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58402347564697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32745504379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4471869468689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36166429519653</t>
   </si>
   <si>
     <t xml:space="preserve">4.7037558555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04584693908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26820611953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49056625366211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90107536315918</t>
+    <t xml:space="preserve">5.04584741592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26820707321167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056577682495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90107583999634</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69582033157349</t>
+    <t xml:space="preserve">5.69582080841064</t>
   </si>
   <si>
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372924804688</t>
+    <t xml:space="preserve">5.54187965393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372972488403</t>
   </si>
   <si>
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450693130493</t>
+    <t xml:space="preserve">5.64450645446777</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319305419922</t>
+    <t xml:space="preserve">5.59319353103638</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
@@ -1082,28 +1082,28 @@
     <t xml:space="preserve">6.12343454360962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.29448080062866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24316692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03791236877441</t>
+    <t xml:space="preserve">6.2944803237915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03791189193726</t>
   </si>
   <si>
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922576904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2602710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9694938659668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79844808578491</t>
+    <t xml:space="preserve">6.08922529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26027154922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96949338912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79844856262207</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
@@ -1115,31 +1115,31 @@
     <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7471342086792</t>
+    <t xml:space="preserve">5.74713373184204</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029767990112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83265733718872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91818046569824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.66161108016968</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57608890533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79051303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209501266479</t>
+    <t xml:space="preserve">5.61029815673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83265686035156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91817998886108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.66161155700684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57608842849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79051351547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209453582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
@@ -1151,58 +1151,58 @@
     <t xml:space="preserve">7.13260412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38917255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836874008179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547241210938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78257846832275</t>
+    <t xml:space="preserve">7.38917303085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836921691895</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547384262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7825779914856</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12466907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914737701416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05625057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98783302307129</t>
+    <t xml:space="preserve">8.10756397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12467002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914642333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05625152587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98783254623413</t>
   </si>
   <si>
     <t xml:space="preserve">7.95362329483032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97072696685791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941404342651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230941772461</t>
+    <t xml:space="preserve">7.97072792053223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941356658936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230989456177</t>
   </si>
   <si>
     <t xml:space="preserve">7.73126459121704</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81678628921509</t>
+    <t xml:space="preserve">7.8167872428894</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0220422744751</t>
+    <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
     <t xml:space="preserve">7.8681001663208</t>
@@ -1214,19 +1214,19 @@
     <t xml:space="preserve">8.27861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3812370300293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413288116455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965648651123</t>
+    <t xml:space="preserve">8.38123798370361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413192749023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965553283691</t>
   </si>
   <si>
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504508972168</t>
+    <t xml:space="preserve">8.59504413604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41544723510742</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096893310547</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68056774139404</t>
+    <t xml:space="preserve">8.41544818878174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096988677979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68056678771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161399841309</t>
+    <t xml:space="preserve">8.85161304473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
@@ -1259,7 +1259,7 @@
     <t xml:space="preserve">9.0226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32198905944824</t>
+    <t xml:space="preserve">9.32198810577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74960231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6640796661377</t>
+    <t xml:space="preserve">9.74960136413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66408061981201</t>
   </si>
   <si>
     <t xml:space="preserve">9.57855701446533</t>
@@ -1280,25 +1280,25 @@
     <t xml:space="preserve">10.1772165298462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344556808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910236358643</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5193090438843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8613986968994</t>
+    <t xml:space="preserve">10.1344566345215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910245895386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.51930809021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8613996505737</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186378479004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9896831512451</t>
+    <t xml:space="preserve">10.8186388015747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9896841049194</t>
   </si>
   <si>
     <t xml:space="preserve">11.0324449539185</t>
@@ -1316,28 +1316,28 @@
     <t xml:space="preserve">11.8876733779907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021507263184</t>
+    <t xml:space="preserve">11.8021516799927</t>
   </si>
   <si>
     <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883436203003</t>
+    <t xml:space="preserve">11.9304342269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883445739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725276947021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0159587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8449125289917</t>
+    <t xml:space="preserve">12.2725267410278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0159578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.844913482666</t>
   </si>
   <si>
     <t xml:space="preserve">11.5028209686279</t>
@@ -1352,13 +1352,13 @@
     <t xml:space="preserve">11.3317756652832</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0587196350098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5020551681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257192611694</t>
+    <t xml:space="preserve">12.0587205886841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5020561218262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257183074951</t>
   </si>
   <si>
     <t xml:space="preserve">11.4380502700806</t>
@@ -1367,13 +1367,13 @@
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287149429321</t>
+    <t xml:space="preserve">10.7287139892578</t>
   </si>
   <si>
     <t xml:space="preserve">10.8173809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8617153167725</t>
+    <t xml:space="preserve">10.8617143630981</t>
   </si>
   <si>
     <t xml:space="preserve">10.7730474472046</t>
@@ -1385,16 +1385,16 @@
     <t xml:space="preserve">10.5957136154175</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6400470733643</t>
+    <t xml:space="preserve">10.6400461196899</t>
   </si>
   <si>
     <t xml:space="preserve">11.1277151107788</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0390491485596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7483854293823</t>
+    <t xml:space="preserve">11.0390481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.748384475708</t>
   </si>
   <si>
     <t xml:space="preserve">11.4823837280273</t>
@@ -1412,16 +1412,16 @@
     <t xml:space="preserve">11.349383354187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0833826065063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947156906128</t>
+    <t xml:space="preserve">11.083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947147369385</t>
   </si>
   <si>
     <t xml:space="preserve">10.950382232666</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9060487747192</t>
+    <t xml:space="preserve">10.9060478210449</t>
   </si>
   <si>
     <t xml:space="preserve">10.5513792037964</t>
@@ -1436,7 +1436,7 @@
     <t xml:space="preserve">11.5267171859741</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8813858032227</t>
+    <t xml:space="preserve">11.8813848495483</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
@@ -1451,10 +1451,10 @@
     <t xml:space="preserve">11.7927188873291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1030521392822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2803869247437</t>
+    <t xml:space="preserve">12.1030530929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
     <t xml:space="preserve">12.014386177063</t>
@@ -1463,13 +1463,13 @@
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247203826904</t>
+    <t xml:space="preserve">12.3247213363647</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1227245330811</t>
+    <t xml:space="preserve">13.1227235794067</t>
   </si>
   <si>
     <t xml:space="preserve">13.2113914489746</t>
@@ -1478,7 +1478,7 @@
     <t xml:space="preserve">13.5217266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1670579910278</t>
+    <t xml:space="preserve">13.1670589447021</t>
   </si>
   <si>
     <t xml:space="preserve">13.388726234436</t>
@@ -1490,7 +1490,7 @@
     <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.186728477478</t>
+    <t xml:space="preserve">14.1867294311523</t>
   </si>
   <si>
     <t xml:space="preserve">14.4970636367798</t>
@@ -1499,10 +1499,10 @@
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.585732460022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.452730178833</t>
+    <t xml:space="preserve">14.5857315063477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4527292251587</t>
   </si>
   <si>
     <t xml:space="preserve">14.2310619354248</t>
@@ -1511,13 +1511,13 @@
     <t xml:space="preserve">14.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.984733581543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517332077026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6300649642944</t>
+    <t xml:space="preserve">14.9847316741943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8517322540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6300640106201</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1532,22 +1532,22 @@
     <t xml:space="preserve">13.4773921966553</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3443927764893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8567237854004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.147385597229</t>
+    <t xml:space="preserve">13.3443918228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8567228317261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1473865509033</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350564956665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700517654419</t>
+    <t xml:space="preserve">12.6350545883179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700527191162</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
@@ -1556,16 +1556,16 @@
     <t xml:space="preserve">12.5463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4627122879028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297109603882</t>
+    <t xml:space="preserve">10.4627132415771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297119140625</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793899536133</t>
+    <t xml:space="preserve">12.679388999939</t>
   </si>
   <si>
     <t xml:space="preserve">12.413387298584</t>
@@ -1580,10 +1580,10 @@
     <t xml:space="preserve">11.4557838439941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7217855453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735174179077</t>
+    <t xml:space="preserve">11.7217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735164642334</t>
   </si>
   <si>
     <t xml:space="preserve">11.3848505020142</t>
@@ -1595,13 +1595,13 @@
     <t xml:space="preserve">11.4025831222534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5976514816284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6685838699341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5444507598877</t>
+    <t xml:space="preserve">11.5976505279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6685848236084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.544451713562</t>
   </si>
   <si>
     <t xml:space="preserve">11.6508512496948</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139171600342</t>
+    <t xml:space="preserve">11.3139162063599</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.111722946167</t>
+    <t xml:space="preserve">12.1117238998413</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776365280151</t>
+    <t xml:space="preserve">12.2776374816895</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519018173218</t>
+    <t xml:space="preserve">13.0519027709961</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491191864014</t>
+    <t xml:space="preserve">12.8491182327271</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614612579346</t>
+    <t xml:space="preserve">11.7614603042603</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357255935669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698110580444</t>
+    <t xml:space="preserve">12.5357265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698120117188</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072082519531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122482299805</t>
+    <t xml:space="preserve">13.1072072982788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122491836548</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625118255615</t>
+    <t xml:space="preserve">13.1625108718872</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938137054443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569446563721</t>
+    <t xml:space="preserve">12.7938146591187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569437026978</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.406681060791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3513765335083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301574707031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.019549369812</t>
+    <t xml:space="preserve">12.4066820144653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.351375579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301584243774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0195484161377</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882455825806</t>
+    <t xml:space="preserve">12.3882465362549</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223329544067</t>
+    <t xml:space="preserve">12.2223320007324</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720693588257</t>
+    <t xml:space="preserve">11.8720703125</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7245903015137</t>
+    <t xml:space="preserve">11.724591255188</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1826,10 +1826,10 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346740722656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.042498588562</t>
+    <t xml:space="preserve">11.1346731185913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0424995422363</t>
   </si>
   <si>
     <t xml:space="preserve">10.8950204849243</t>
@@ -1844,13 +1844,13 @@
     <t xml:space="preserve">12.3329420089722</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4251165390015</t>
+    <t xml:space="preserve">12.4251155853271</t>
   </si>
   <si>
     <t xml:space="preserve">12.2038974761963</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6279001235962</t>
+    <t xml:space="preserve">12.6278991699219</t>
   </si>
   <si>
     <t xml:space="preserve">12.8859882354736</t>
@@ -1865,7 +1865,7 @@
     <t xml:space="preserve">13.2546863555908</t>
   </si>
   <si>
-    <t xml:space="preserve">13.2178163528442</t>
+    <t xml:space="preserve">13.2178173065186</t>
   </si>
   <si>
     <t xml:space="preserve">13.3099908828735</t>
@@ -1874,10 +1874,10 @@
     <t xml:space="preserve">13.3468608856201</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4390354156494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127754211426</t>
+    <t xml:space="preserve">13.4390344619751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127744674683</t>
   </si>
   <si>
     <t xml:space="preserve">13.3837308883667</t>
@@ -1886,7 +1886,7 @@
     <t xml:space="preserve">13.4021654129028</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3652963638306</t>
+    <t xml:space="preserve">13.3652954101562</t>
   </si>
   <si>
     <t xml:space="preserve">13.1256418228149</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">12.5172910690308</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0748538970947</t>
+    <t xml:space="preserve">12.0748529434204</t>
   </si>
   <si>
     <t xml:space="preserve">12.2407674789429</t>
@@ -1916,16 +1916,16 @@
     <t xml:space="preserve">12.0932884216309</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7061548233032</t>
+    <t xml:space="preserve">11.7061557769775</t>
   </si>
   <si>
     <t xml:space="preserve">11.8536348342896</t>
   </si>
   <si>
-    <t xml:space="preserve">11.816764831543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402421951294</t>
+    <t xml:space="preserve">11.8167638778687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402412414551</t>
   </si>
   <si>
     <t xml:space="preserve">11.6877212524414</t>
@@ -1937,10 +1937,10 @@
     <t xml:space="preserve">11.5033712387085</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3005876541138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374586105347</t>
+    <t xml:space="preserve">11.3005886077881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374576568604</t>
   </si>
   <si>
     <t xml:space="preserve">11.1531095504761</t>
@@ -1949,10 +1949,10 @@
     <t xml:space="preserve">11.1715440750122</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1899785995483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637186050415</t>
+    <t xml:space="preserve">11.1899795532227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637176513672</t>
   </si>
   <si>
     <t xml:space="preserve">11.1162395477295</t>
@@ -1976,9 +1976,6 @@
     <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0424995422363</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.734694480896</t>
   </si>
   <si>
@@ -2493,6 +2490,9 @@
   </si>
   <si>
     <t xml:space="preserve">11.9799995422363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3999996185303</t>
   </si>
 </sst>
 </file>
@@ -51732,7 +51732,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51758,7 +51758,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51784,7 +51784,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51810,7 +51810,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51862,7 +51862,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51888,7 +51888,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51914,7 +51914,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51940,7 +51940,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51966,7 +51966,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51992,7 +51992,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52018,7 +52018,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52044,7 +52044,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52070,7 +52070,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52096,7 +52096,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52122,7 +52122,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52148,7 +52148,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52174,7 +52174,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52200,7 +52200,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52226,7 +52226,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52252,7 +52252,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52278,7 +52278,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52304,7 +52304,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52330,7 +52330,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52356,7 +52356,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52382,7 +52382,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52408,7 +52408,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52460,7 +52460,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52486,7 +52486,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52512,7 +52512,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52538,7 +52538,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52564,7 +52564,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52590,7 +52590,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52616,7 +52616,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52642,7 +52642,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52694,7 +52694,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52720,7 +52720,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52746,7 +52746,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52772,7 +52772,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52798,7 +52798,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52824,7 +52824,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52850,7 +52850,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52876,7 +52876,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52902,7 +52902,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52928,7 +52928,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52954,7 +52954,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52980,7 +52980,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53006,7 +53006,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53032,7 +53032,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53058,7 +53058,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53084,7 +53084,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53110,7 +53110,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53136,7 +53136,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53162,7 +53162,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53188,7 +53188,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53214,7 +53214,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53240,7 +53240,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53266,7 +53266,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53292,7 +53292,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53318,7 +53318,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53344,7 +53344,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53370,7 +53370,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53396,7 +53396,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53422,7 +53422,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53448,7 +53448,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53474,7 +53474,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53500,7 +53500,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53526,7 +53526,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53552,7 +53552,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53578,7 +53578,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53604,7 +53604,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53630,7 +53630,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53656,7 +53656,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53682,7 +53682,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53708,7 +53708,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53734,7 +53734,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53760,7 +53760,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53786,7 +53786,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53812,7 +53812,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53838,7 +53838,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53864,7 +53864,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53890,7 +53890,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53916,7 +53916,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53942,7 +53942,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53968,7 +53968,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53994,7 +53994,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54020,7 +54020,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54046,7 +54046,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54072,7 +54072,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54098,7 +54098,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54124,7 +54124,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54150,7 +54150,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54176,7 +54176,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54202,7 +54202,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54228,7 +54228,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54254,7 +54254,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54280,7 +54280,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54306,7 +54306,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54332,7 +54332,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54358,7 +54358,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54384,7 +54384,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54410,7 +54410,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54436,7 +54436,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54462,7 +54462,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54488,7 +54488,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54514,7 +54514,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54540,7 +54540,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54566,7 +54566,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54592,7 +54592,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54618,7 +54618,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54644,7 +54644,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54670,7 +54670,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54696,7 +54696,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54722,7 +54722,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54748,7 +54748,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54774,7 +54774,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54800,7 +54800,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54826,7 +54826,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54852,7 +54852,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54878,7 +54878,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54904,7 +54904,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54930,7 +54930,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54956,7 +54956,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54982,7 +54982,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55008,7 +55008,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55034,7 +55034,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55060,7 +55060,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55086,7 +55086,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55112,7 +55112,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55138,7 +55138,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55164,7 +55164,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55190,7 +55190,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55216,7 +55216,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55242,7 +55242,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55268,7 +55268,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55294,7 +55294,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55320,7 +55320,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55346,7 +55346,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55372,7 +55372,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55398,7 +55398,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55424,7 +55424,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55450,7 +55450,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55476,7 +55476,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55502,7 +55502,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55528,7 +55528,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55554,7 +55554,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55580,7 +55580,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55606,7 +55606,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55632,7 +55632,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55658,7 +55658,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55684,7 +55684,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55710,7 +55710,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55736,7 +55736,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55762,7 +55762,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55788,7 +55788,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55814,7 +55814,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55840,7 +55840,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55866,7 +55866,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55892,7 +55892,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55918,7 +55918,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55944,7 +55944,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55970,7 +55970,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55996,7 +55996,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56022,7 +56022,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56048,7 +56048,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56074,7 +56074,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56100,7 +56100,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56126,7 +56126,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56152,7 +56152,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56178,7 +56178,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56204,7 +56204,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56230,7 +56230,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56256,7 +56256,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56282,7 +56282,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56308,7 +56308,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56334,7 +56334,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56360,7 +56360,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56386,7 +56386,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56412,7 +56412,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56438,7 +56438,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56464,7 +56464,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56490,7 +56490,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56516,7 +56516,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56542,7 +56542,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56568,7 +56568,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56594,7 +56594,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56620,7 +56620,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56646,7 +56646,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56672,7 +56672,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56698,7 +56698,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56724,7 +56724,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56750,7 +56750,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56776,7 +56776,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56802,7 +56802,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56828,7 +56828,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56880,7 +56880,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>654</v>
+        <v>605</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56906,7 +56906,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56932,7 +56932,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56958,7 +56958,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56984,7 +56984,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57010,7 +57010,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57036,7 +57036,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57062,7 +57062,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57088,7 +57088,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57140,7 +57140,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57166,7 +57166,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57192,7 +57192,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57244,7 +57244,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57270,7 +57270,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57296,7 +57296,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57348,7 +57348,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57374,7 +57374,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57400,7 +57400,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57426,7 +57426,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57452,7 +57452,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57478,7 +57478,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57504,7 +57504,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57530,7 +57530,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57556,7 +57556,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57582,7 +57582,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57608,7 +57608,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57634,7 +57634,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57660,7 +57660,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57686,7 +57686,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57712,7 +57712,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57738,7 +57738,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57764,7 +57764,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57790,7 +57790,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57816,7 +57816,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57842,7 +57842,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57868,7 +57868,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57894,7 +57894,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57920,7 +57920,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57946,7 +57946,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57972,7 +57972,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57998,7 +57998,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58024,7 +58024,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58050,7 +58050,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58076,7 +58076,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58102,7 +58102,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58128,7 +58128,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58154,7 +58154,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58180,7 +58180,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58206,7 +58206,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58232,7 +58232,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58258,7 +58258,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58284,7 +58284,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58310,7 +58310,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58336,7 +58336,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58362,7 +58362,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58388,7 +58388,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58414,7 +58414,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58440,7 +58440,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58466,7 +58466,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58492,7 +58492,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58518,7 +58518,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58544,7 +58544,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58570,7 +58570,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58596,7 +58596,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58622,7 +58622,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58648,7 +58648,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58674,7 +58674,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58700,7 +58700,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58726,7 +58726,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58752,7 +58752,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58778,7 +58778,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58786,7 +58786,7 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n">
-        <v>45460.649537037</v>
+        <v>45460.2916666667</v>
       </c>
       <c r="B2153" t="n">
         <v>7496</v>
@@ -58804,9 +58804,35 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
+        <v>825</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" s="1" t="n">
+        <v>45461.649375</v>
+      </c>
+      <c r="B2154" t="n">
+        <v>3913</v>
+      </c>
+      <c r="C2154" t="n">
+        <v>12.2600002288818</v>
+      </c>
+      <c r="D2154" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2154" t="n">
+        <v>12.039999961853</v>
+      </c>
+      <c r="F2154" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="G2154" t="s">
         <v>826</v>
       </c>
-      <c r="H2153" t="s">
+      <c r="H2154" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="828">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,175 +38,175 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677116394043</t>
+    <t xml:space="preserve">7.67677307128906</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728759765625</t>
+    <t xml:space="preserve">7.65728569030762</t>
   </si>
   <si>
     <t xml:space="preserve">7.63780355453491</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55986595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5988335609436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40788984298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502313613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6339054107666</t>
+    <t xml:space="preserve">7.55986642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883451461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40788888931274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502408981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390588760376</t>
   </si>
   <si>
     <t xml:space="preserve">7.44685745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52089786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972272872925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44296169281006</t>
+    <t xml:space="preserve">7.52089834213257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972320556641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44296073913574</t>
   </si>
   <si>
     <t xml:space="preserve">7.75081014633179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.77808952331543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87161350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264398574829</t>
+    <t xml:space="preserve">7.77808856964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8716139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367733001709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264541625977</t>
   </si>
   <si>
     <t xml:space="preserve">7.71573877334595</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76250219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837406158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94955062866211</t>
+    <t xml:space="preserve">7.76250267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837692260742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9027886390686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94954967498779</t>
   </si>
   <si>
     <t xml:space="preserve">7.78977918624878</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78588247299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115543365479</t>
+    <t xml:space="preserve">7.78588342666626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175577163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748680114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115257263184</t>
   </si>
   <si>
     <t xml:space="preserve">8.16777229309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00410556793213</t>
+    <t xml:space="preserve">8.00410652160645</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926322937012</t>
+    <t xml:space="preserve">7.80926418304443</t>
   </si>
   <si>
     <t xml:space="preserve">8.14439105987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06645488739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086898803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043788909912</t>
+    <t xml:space="preserve">8.06645393371582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8404393196106</t>
   </si>
   <si>
     <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860452651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691438674927</t>
+    <t xml:space="preserve">7.8014702796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691295623779</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73912048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7040491104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48193025588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50530910491943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854806900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0430736541748</t>
+    <t xml:space="preserve">7.73912143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803354263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854902267456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04307460784912</t>
   </si>
   <si>
     <t xml:space="preserve">7.98851871490479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70015144348145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499521255493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969242095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0820426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1054220199585</t>
+    <t xml:space="preserve">7.70015287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499568939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204174041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
     <t xml:space="preserve">8.24570846557617</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26129817962646</t>
+    <t xml:space="preserve">8.26129722595215</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -215,40 +215,40 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863258361816</t>
+    <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215560913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53407382965088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347785949707</t>
+    <t xml:space="preserve">8.5340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347690582275</t>
   </si>
   <si>
     <t xml:space="preserve">8.81567668914795</t>
   </si>
   <si>
-    <t xml:space="preserve">8.74354839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539264678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63135051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4229793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33482074737549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460723876953</t>
+    <t xml:space="preserve">8.74354934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63134860992432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42297840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14248085021973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
   </si>
   <si>
     <t xml:space="preserve">8.17453765869141</t>
@@ -257,40 +257,40 @@
     <t xml:space="preserve">8.39893627166748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53517818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57525062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532115936279</t>
+    <t xml:space="preserve">8.53517627716064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532020568848</t>
   </si>
   <si>
     <t xml:space="preserve">9.28050422668457</t>
   </si>
   <si>
-    <t xml:space="preserve">9.05610466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899438858032</t>
+    <t xml:space="preserve">9.0561056137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899429321289</t>
   </si>
   <si>
     <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95370006561279</t>
+    <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
     <t xml:space="preserve">9.96171569824219</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76135921478271</t>
+    <t xml:space="preserve">9.76136016845703</t>
   </si>
   <si>
     <t xml:space="preserve">9.60107421875</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61710166931152</t>
+    <t xml:space="preserve">9.61710262298584</t>
   </si>
   <si>
     <t xml:space="preserve">9.7373161315918</t>
@@ -311,40 +311,40 @@
     <t xml:space="preserve">9.25646209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29653358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18433284759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45681858062744</t>
+    <t xml:space="preserve">9.29653167724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1843318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45681667327881</t>
   </si>
   <si>
     <t xml:space="preserve">9.37667465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41674518585205</t>
+    <t xml:space="preserve">9.41674709320068</t>
   </si>
   <si>
     <t xml:space="preserve">9.42475986480713</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32858943939209</t>
+    <t xml:space="preserve">9.32858848571777</t>
   </si>
   <si>
     <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40071678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2404317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851985931396</t>
+    <t xml:space="preserve">9.40071773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24043273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057476043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851795196533</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234752655029</t>
@@ -356,10 +356,10 @@
     <t xml:space="preserve">8.95993328094482</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21639060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
+    <t xml:space="preserve">9.21638965606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837593078613</t>
   </si>
   <si>
     <t xml:space="preserve">9.13624668121338</t>
@@ -368,22 +368,22 @@
     <t xml:space="preserve">8.99199104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85574913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89581871032715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291656494141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248859405518</t>
+    <t xml:space="preserve">8.85574817657471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248954772949</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
@@ -395,49 +395,49 @@
     <t xml:space="preserve">9.09617614746094</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98397636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93589019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8878059387207</t>
+    <t xml:space="preserve">8.98397541046143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93589115142822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88780498504639</t>
   </si>
   <si>
     <t xml:space="preserve">8.97596168518066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87177753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553371429443</t>
+    <t xml:space="preserve">8.87177658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
   </si>
   <si>
     <t xml:space="preserve">8.76759147644043</t>
   </si>
   <si>
-    <t xml:space="preserve">9.04007625579834</t>
+    <t xml:space="preserve">9.04007530212402</t>
   </si>
   <si>
     <t xml:space="preserve">9.00000476837158</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77560520172119</t>
+    <t xml:space="preserve">8.77560615539551</t>
   </si>
   <si>
     <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737606048584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333583831787</t>
+    <t xml:space="preserve">8.64737701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333488464355</t>
   </si>
   <si>
     <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68744850158691</t>
+    <t xml:space="preserve">8.68744945526123</t>
   </si>
   <si>
     <t xml:space="preserve">8.75156307220459</t>
@@ -446,103 +446,103 @@
     <t xml:space="preserve">8.54319286346436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5271635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723499298096</t>
+    <t xml:space="preserve">8.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723403930664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163265228271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5592212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36687850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127807617188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72751998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47907733917236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47106266021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.414963722229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503616333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425109863281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3245677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22566032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57183074951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53061962127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44819927215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
     <t xml:space="preserve">8.69546413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943382263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36687850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50312042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72752094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47907829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4710636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503616333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475116729736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489223480225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32456684112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.225661277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335571289062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57183074951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062057495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44819831848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4069881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.7778844833374</t>
+    <t xml:space="preserve">8.77788257598877</t>
   </si>
   <si>
     <t xml:space="preserve">8.36577701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24214458465576</t>
+    <t xml:space="preserve">8.24214553833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
@@ -551,40 +551,40 @@
     <t xml:space="preserve">8.07730293273926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0278491973877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14323902130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06081771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597368240356</t>
+    <t xml:space="preserve">8.02785015106201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14323997497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06081867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8959755897522</t>
   </si>
   <si>
     <t xml:space="preserve">7.71464729309082</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51683712005615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113346099854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410150527954</t>
+    <t xml:space="preserve">7.51683664321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113250732422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74761629104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7641019821167</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574220657349</t>
@@ -593,25 +593,25 @@
     <t xml:space="preserve">7.78058481216431</t>
   </si>
   <si>
-    <t xml:space="preserve">7.66519594192505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69816446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5992579460144</t>
+    <t xml:space="preserve">7.66519498825073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6981635093689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925889968872</t>
   </si>
   <si>
     <t xml:space="preserve">7.63222646713257</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5662899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355285644531</t>
+    <t xml:space="preserve">7.56629037857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707050323486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355381011963</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277368545532</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">7.48386812210083</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38496208190918</t>
+    <t xml:space="preserve">7.38496160507202</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4014458656311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18715047836304</t>
+    <t xml:space="preserve">7.40144634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
     <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33550930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035238265991</t>
+    <t xml:space="preserve">7.33550977706909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035333633423</t>
   </si>
   <si>
     <t xml:space="preserve">7.25308799743652</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">7.41793060302734</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43441534042358</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738338470459</t>
+    <t xml:space="preserve">7.43441581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">7.13769769668579</t>
@@ -659,19 +659,19 @@
     <t xml:space="preserve">7.17066621780396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08824443817139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.92340183258057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.90691804885864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98933839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176065444946</t>
+    <t xml:space="preserve">7.0882453918457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.92340135574341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.90691757202148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98933887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
@@ -686,13 +686,13 @@
     <t xml:space="preserve">6.75855922698975</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84098052978516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.69262170791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7091064453125</t>
+    <t xml:space="preserve">6.84098100662231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.69262218475342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.70910692214966</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230834960938</t>
@@ -701,37 +701,37 @@
     <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85746479034424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00582408905029</t>
+    <t xml:space="preserve">6.85746431350708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00582361221313</t>
   </si>
   <si>
     <t xml:space="preserve">7.28605651855469</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3684778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472917556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23660326004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394905090332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.52777910232544</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.59371662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51129484176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74207496643066</t>
+    <t xml:space="preserve">7.36847734451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10472965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87394952774048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.52777862548828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.59371614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5112943649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74207544326782</t>
   </si>
   <si>
     <t xml:space="preserve">6.41238880157471</t>
@@ -740,16 +740,16 @@
     <t xml:space="preserve">6.67613792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12121438980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93988609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89043235778809</t>
+    <t xml:space="preserve">7.12121343612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93988656997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79152727127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
@@ -758,61 +758,61 @@
     <t xml:space="preserve">6.80801248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2201189994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199403762817</t>
+    <t xml:space="preserve">7.22011947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199308395386</t>
   </si>
   <si>
     <t xml:space="preserve">7.45089960098267</t>
   </si>
   <si>
-    <t xml:space="preserve">7.53332090377808</t>
+    <t xml:space="preserve">7.53332185745239</t>
   </si>
   <si>
     <t xml:space="preserve">7.64871072769165</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6816782951355</t>
+    <t xml:space="preserve">7.68167924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.54980516433716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69705438613892</t>
+    <t xml:space="preserve">7.69705533981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56021785736084</t>
+    <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
     <t xml:space="preserve">7.09839487075806</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49180030822754</t>
+    <t xml:space="preserve">7.49179983139038</t>
   </si>
   <si>
     <t xml:space="preserve">7.5773229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61153173446655</t>
+    <t xml:space="preserve">7.61153221130371</t>
   </si>
   <si>
     <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3549633026123</t>
+    <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
     <t xml:space="preserve">7.3378586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25233507156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812725067139</t>
+    <t xml:space="preserve">7.25233602523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812677383423</t>
   </si>
   <si>
     <t xml:space="preserve">7.20102262496948</t>
@@ -821,7 +821,7 @@
     <t xml:space="preserve">7.18391752243042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92734956741333</t>
+    <t xml:space="preserve">6.92735004425049</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">7.23523187637329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2694411277771</t>
+    <t xml:space="preserve">7.26944065093994</t>
   </si>
   <si>
     <t xml:space="preserve">7.37206840515137</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0470814704895</t>
+    <t xml:space="preserve">7.04708099365234</t>
   </si>
   <si>
     <t xml:space="preserve">7.08129024505615</t>
@@ -857,13 +857,13 @@
     <t xml:space="preserve">7.0299768447876</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97866296768188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87603616714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9615592956543</t>
+    <t xml:space="preserve">6.97866344451904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87603569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96155881881714</t>
   </si>
   <si>
     <t xml:space="preserve">6.89314079284668</t>
@@ -872,19 +872,19 @@
     <t xml:space="preserve">6.85893201828003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84182643890381</t>
+    <t xml:space="preserve">6.84182691574097</t>
   </si>
   <si>
     <t xml:space="preserve">6.77340841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552658081055</t>
+    <t xml:space="preserve">6.46552610397339</t>
   </si>
   <si>
     <t xml:space="preserve">6.48263025283813</t>
@@ -893,10 +893,10 @@
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5852575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41421270370483</t>
+    <t xml:space="preserve">6.58525848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41421222686768</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289882659912</t>
@@ -905,16 +905,16 @@
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000297546387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.32869005203247</t>
+    <t xml:space="preserve">6.38000345230103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.32868957519531</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053964614868</t>
+    <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
     <t xml:space="preserve">6.07212114334106</t>
@@ -926,13 +926,13 @@
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158542633057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2773756980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185256958008</t>
+    <t xml:space="preserve">6.31158494949341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.27737617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185304641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.39710807800293</t>
@@ -944,7 +944,7 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7563042640686</t>
+    <t xml:space="preserve">6.75630378723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8247218132019</t>
+    <t xml:space="preserve">6.82472229003906</t>
   </si>
   <si>
     <t xml:space="preserve">6.61946725845337</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">6.55104875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56815338134766</t>
+    <t xml:space="preserve">6.5681529045105</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73919916152954</t>
+    <t xml:space="preserve">6.7391996383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
@@ -983,22 +983,22 @@
     <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86686658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02080726623535</t>
+    <t xml:space="preserve">5.86686611175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02080678939819</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.76423835754395</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9865984916687</t>
+    <t xml:space="preserve">5.98659801483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53271055221558</t>
+    <t xml:space="preserve">4.75506925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53271102905273</t>
   </si>
   <si>
     <t xml:space="preserve">4.19061899185181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58402347564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32745504379272</t>
+    <t xml:space="preserve">4.58402395248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32745552062988</t>
   </si>
   <si>
     <t xml:space="preserve">4.4471869468689</t>
@@ -1040,76 +1040,76 @@
     <t xml:space="preserve">5.04584741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820707321167</t>
+    <t xml:space="preserve">5.26820611953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056577682495</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90107583999634</t>
+    <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69582080841064</t>
+    <t xml:space="preserve">5.69582033157349</t>
   </si>
   <si>
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187965393066</t>
+    <t xml:space="preserve">5.54187917709351</t>
   </si>
   <si>
     <t xml:space="preserve">5.35372972488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52477502822876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64450645446777</t>
+    <t xml:space="preserve">5.5247745513916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319353103638</t>
+    <t xml:space="preserve">5.59319305419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12343454360962</t>
+    <t xml:space="preserve">6.12343502044678</t>
   </si>
   <si>
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316740036011</t>
+    <t xml:space="preserve">6.24316692352295</t>
   </si>
   <si>
     <t xml:space="preserve">6.03791189193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17474842071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08922529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26027154922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96949338912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79844856262207</t>
+    <t xml:space="preserve">6.17474794387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08922576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2602710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9694938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79844808578491</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292543411255</t>
+    <t xml:space="preserve">5.71292495727539</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
@@ -1121,10 +1121,10 @@
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83265686035156</t>
+    <t xml:space="preserve">5.61029767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
@@ -1133,34 +1133,34 @@
     <t xml:space="preserve">5.66161155700684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57608842849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79051351547241</t>
+    <t xml:space="preserve">5.57608890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7905125617981</t>
   </si>
   <si>
     <t xml:space="preserve">6.72209453582764</t>
   </si>
   <si>
-    <t xml:space="preserve">6.94445419311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16681337356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13260412216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917303085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836921691895</t>
+    <t xml:space="preserve">6.94445371627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16681385040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13260507583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917350769043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836874008179</t>
   </si>
   <si>
     <t xml:space="preserve">7.76547384262085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7825779914856</t>
+    <t xml:space="preserve">7.78257846832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">8.10756397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12467002868652</t>
+    <t xml:space="preserve">8.12466907501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.03914642333984</t>
@@ -1178,58 +1178,58 @@
     <t xml:space="preserve">8.05625152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783254623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072792053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941356658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126459121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8167872428894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93651914596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02204132080078</t>
+    <t xml:space="preserve">7.98783206939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072744369507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941452026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678676605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93651819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0220422744751</t>
   </si>
   <si>
     <t xml:space="preserve">7.8681001663208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7996826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27861022949219</t>
+    <t xml:space="preserve">7.79968214035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2786111831665</t>
   </si>
   <si>
     <t xml:space="preserve">8.38123798370361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36413192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965553283691</t>
+    <t xml:space="preserve">8.36413288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965648651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504413604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46676063537598</t>
+    <t xml:space="preserve">8.595046043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46675968170166</t>
   </si>
   <si>
     <t xml:space="preserve">8.48386478424072</t>
@@ -1238,28 +1238,28 @@
     <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41544818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096988677979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68056678771973</t>
+    <t xml:space="preserve">8.41544628143311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096893310547</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68056774139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161304473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97989845275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0226583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198810577393</t>
+    <t xml:space="preserve">8.85161399841309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97989749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02265930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
@@ -1268,34 +1268,34 @@
     <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74960136413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57855701446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1772165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910245895386</t>
+    <t xml:space="preserve">9.74960327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66408157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57855796813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1772174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
     <t xml:space="preserve">10.51930809021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
+    <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
@@ -1310,172 +1310,175 @@
     <t xml:space="preserve">12.1014804840088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9731969833374</t>
+    <t xml:space="preserve">11.9731960296631</t>
   </si>
   <si>
     <t xml:space="preserve">11.8876733779907</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021516799927</t>
+    <t xml:space="preserve">11.8021507263184</t>
   </si>
   <si>
     <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304342269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883445739746</t>
+    <t xml:space="preserve">11.9304351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.588342666626</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725267410278</t>
+    <t xml:space="preserve">12.2725276947021</t>
   </si>
   <si>
     <t xml:space="preserve">12.0159578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.844913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5028209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7593898773193</t>
+    <t xml:space="preserve">11.8449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5028200149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3317756652832</t>
+    <t xml:space="preserve">11.3317747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0587196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5020551681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2163820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7287139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173799514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730464935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.684380531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6400461196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.748384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.482382774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710506439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050489425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.615385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3493824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9503812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1720495223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7040510177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5267171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813848495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6597175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2607154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3937168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7927179336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030530929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
     <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380502700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2163820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7287139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730474472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684380531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277151107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4823837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710506439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050498962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.615385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.349383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1720495223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7040510177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5267171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6597175598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2607154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3937168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7927188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014386177063</t>
+    <t xml:space="preserve">12.0143852233887</t>
   </si>
   <si>
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1227235794067</t>
+    <t xml:space="preserve">13.1227245330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217266082764</t>
+    <t xml:space="preserve">13.5217256546021</t>
   </si>
   <si>
     <t xml:space="preserve">13.1670589447021</t>
@@ -1496,7 +1499,7 @@
     <t xml:space="preserve">14.4970636367798</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7630653381348</t>
+    <t xml:space="preserve">14.7630643844604</t>
   </si>
   <si>
     <t xml:space="preserve">14.5857315063477</t>
@@ -1511,10 +1514,10 @@
     <t xml:space="preserve">14.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9847316741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
+    <t xml:space="preserve">14.9847326278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.851731300354</t>
   </si>
   <si>
     <t xml:space="preserve">14.6300640106201</t>
@@ -1544,16 +1547,16 @@
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463886260986</t>
+    <t xml:space="preserve">12.5463876724243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4627132415771</t>
@@ -1577,22 +1580,22 @@
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557838439941</t>
+    <t xml:space="preserve">11.4557828903198</t>
   </si>
   <si>
     <t xml:space="preserve">11.7217845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4735164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848505020142</t>
+    <t xml:space="preserve">11.4735155105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848495483398</t>
   </si>
   <si>
     <t xml:space="preserve">11.3671159744263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4025831222534</t>
+    <t xml:space="preserve">11.4025821685791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5976505279541</t>
@@ -16138,7 +16141,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16164,7 +16167,7 @@
         <v>10.5</v>
       </c>
       <c r="G513" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16190,7 +16193,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G514" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16216,7 +16219,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16242,7 +16245,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16294,7 +16297,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16450,7 +16453,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16476,7 +16479,7 @@
         <v>10.5</v>
       </c>
       <c r="G525" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16502,7 +16505,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17100,7 +17103,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G549" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17230,7 +17233,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G554" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17256,7 +17259,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17334,7 +17337,7 @@
         <v>10.5</v>
       </c>
       <c r="G558" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17360,7 +17363,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17412,7 +17415,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17438,7 +17441,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G562" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17464,7 +17467,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G563" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17490,7 +17493,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17542,7 +17545,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17594,7 +17597,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17724,7 +17727,7 @@
         <v>10.5</v>
       </c>
       <c r="G573" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17776,7 +17779,7 @@
         <v>10.5</v>
       </c>
       <c r="G575" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17802,7 +17805,7 @@
         <v>10.5</v>
       </c>
       <c r="G576" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17828,7 +17831,7 @@
         <v>10.5</v>
       </c>
       <c r="G577" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18374,7 +18377,7 @@
         <v>10.5</v>
       </c>
       <c r="G598" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18400,7 +18403,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18426,7 +18429,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G600" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18452,7 +18455,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18478,7 +18481,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G602" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18504,7 +18507,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18530,7 +18533,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18556,7 +18559,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G605" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18582,7 +18585,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G606" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18608,7 +18611,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G607" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18634,7 +18637,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G608" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18660,7 +18663,7 @@
         <v>10.5</v>
       </c>
       <c r="G609" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18686,7 +18689,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18712,7 +18715,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G611" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18764,7 +18767,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18790,7 +18793,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18868,7 +18871,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18894,7 +18897,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19076,7 +19079,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19102,7 +19105,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19128,7 +19131,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G627" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19154,7 +19157,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19180,7 +19183,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19466,7 +19469,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G640" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19544,7 +19547,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -42008,7 +42011,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42060,7 +42063,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42086,7 +42089,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42112,7 +42115,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42138,7 +42141,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42164,7 +42167,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42190,7 +42193,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42216,7 +42219,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42242,7 +42245,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42268,7 +42271,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42294,7 +42297,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42320,7 +42323,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42346,7 +42349,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42372,7 +42375,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42398,7 +42401,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42424,7 +42427,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42450,7 +42453,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42476,7 +42479,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42502,7 +42505,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42528,7 +42531,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42554,7 +42557,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42580,7 +42583,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42606,7 +42609,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42632,7 +42635,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42658,7 +42661,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42684,7 +42687,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42710,7 +42713,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42736,7 +42739,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42762,7 +42765,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42788,7 +42791,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42814,7 +42817,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42840,7 +42843,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42866,7 +42869,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42892,7 +42895,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42918,7 +42921,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42944,7 +42947,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42970,7 +42973,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -42996,7 +42999,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43022,7 +43025,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43048,7 +43051,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43074,7 +43077,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43100,7 +43103,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43152,7 +43155,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43178,7 +43181,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43230,7 +43233,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43282,7 +43285,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43334,7 +43337,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43360,7 +43363,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43386,7 +43389,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43464,7 +43467,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43490,7 +43493,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43542,7 +43545,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43568,7 +43571,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43672,7 +43675,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43698,7 +43701,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43724,7 +43727,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44010,7 +44013,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44114,7 +44117,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44140,7 +44143,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44166,7 +44169,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44192,7 +44195,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44218,7 +44221,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44270,7 +44273,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44322,7 +44325,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44348,7 +44351,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44374,7 +44377,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44400,7 +44403,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44426,7 +44429,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44452,7 +44455,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44478,7 +44481,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44530,7 +44533,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44556,7 +44559,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44582,7 +44585,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44634,7 +44637,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44738,7 +44741,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44764,7 +44767,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44816,7 +44819,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44842,7 +44845,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44868,7 +44871,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44894,7 +44897,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44920,7 +44923,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44946,7 +44949,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44972,7 +44975,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -44998,7 +45001,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45024,7 +45027,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45050,7 +45053,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45076,7 +45079,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45102,7 +45105,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45128,7 +45131,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45154,7 +45157,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45180,7 +45183,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45206,7 +45209,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45232,7 +45235,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45258,7 +45261,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45284,7 +45287,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45310,7 +45313,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45336,7 +45339,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45362,7 +45365,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45388,7 +45391,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45414,7 +45417,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45440,7 +45443,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45466,7 +45469,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45492,7 +45495,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45518,7 +45521,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45544,7 +45547,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45570,7 +45573,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45596,7 +45599,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45622,7 +45625,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45648,7 +45651,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45674,7 +45677,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45700,7 +45703,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45726,7 +45729,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45752,7 +45755,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45778,7 +45781,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45804,7 +45807,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45830,7 +45833,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45856,7 +45859,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45882,7 +45885,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45908,7 +45911,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45934,7 +45937,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45960,7 +45963,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45986,7 +45989,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46012,7 +46015,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46038,7 +46041,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46064,7 +46067,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46090,7 +46093,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46116,7 +46119,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46142,7 +46145,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46168,7 +46171,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46194,7 +46197,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46220,7 +46223,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46246,7 +46249,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46272,7 +46275,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46298,7 +46301,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46324,7 +46327,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46350,7 +46353,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46376,7 +46379,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46402,7 +46405,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46428,7 +46431,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46454,7 +46457,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46480,7 +46483,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46506,7 +46509,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46532,7 +46535,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46558,7 +46561,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46584,7 +46587,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46610,7 +46613,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46636,7 +46639,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46662,7 +46665,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46688,7 +46691,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46714,7 +46717,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46740,7 +46743,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46766,7 +46769,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46792,7 +46795,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46818,7 +46821,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46844,7 +46847,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46870,7 +46873,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46896,7 +46899,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46922,7 +46925,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46948,7 +46951,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46974,7 +46977,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47000,7 +47003,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47026,7 +47029,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47052,7 +47055,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47078,7 +47081,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47104,7 +47107,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47130,7 +47133,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47156,7 +47159,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47182,7 +47185,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47208,7 +47211,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47234,7 +47237,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47260,7 +47263,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47286,7 +47289,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47312,7 +47315,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47338,7 +47341,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47364,7 +47367,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47390,7 +47393,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47416,7 +47419,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47442,7 +47445,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47468,7 +47471,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47494,7 +47497,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47520,7 +47523,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47546,7 +47549,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47572,7 +47575,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47598,7 +47601,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47624,7 +47627,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47650,7 +47653,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47676,7 +47679,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47702,7 +47705,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47728,7 +47731,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47754,7 +47757,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47780,7 +47783,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47806,7 +47809,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47832,7 +47835,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47858,7 +47861,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47884,7 +47887,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47910,7 +47913,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47936,7 +47939,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47962,7 +47965,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -47988,7 +47991,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48014,7 +48017,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48040,7 +48043,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48066,7 +48069,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48092,7 +48095,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48118,7 +48121,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48144,7 +48147,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48170,7 +48173,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48196,7 +48199,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48222,7 +48225,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48248,7 +48251,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48274,7 +48277,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48300,7 +48303,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48326,7 +48329,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48352,7 +48355,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48378,7 +48381,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48404,7 +48407,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48430,7 +48433,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48456,7 +48459,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48482,7 +48485,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48508,7 +48511,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48534,7 +48537,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48560,7 +48563,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48586,7 +48589,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48612,7 +48615,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48638,7 +48641,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48664,7 +48667,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48690,7 +48693,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48716,7 +48719,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48742,7 +48745,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48768,7 +48771,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48794,7 +48797,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48820,7 +48823,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48846,7 +48849,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48872,7 +48875,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48898,7 +48901,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48924,7 +48927,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48950,7 +48953,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48976,7 +48979,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49002,7 +49005,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49028,7 +49031,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49054,7 +49057,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49080,7 +49083,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49106,7 +49109,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49132,7 +49135,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49158,7 +49161,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49184,7 +49187,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49210,7 +49213,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49236,7 +49239,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49262,7 +49265,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49288,7 +49291,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49314,7 +49317,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49340,7 +49343,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49366,7 +49369,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49392,7 +49395,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49418,7 +49421,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49444,7 +49447,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49470,7 +49473,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49496,7 +49499,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49522,7 +49525,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49548,7 +49551,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49574,7 +49577,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49600,7 +49603,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49626,7 +49629,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49652,7 +49655,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49678,7 +49681,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49704,7 +49707,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49730,7 +49733,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49756,7 +49759,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49782,7 +49785,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49808,7 +49811,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49834,7 +49837,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49860,7 +49863,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49886,7 +49889,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49912,7 +49915,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49938,7 +49941,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49964,7 +49967,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -49990,7 +49993,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50016,7 +50019,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50042,7 +50045,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50068,7 +50071,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50094,7 +50097,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50120,7 +50123,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50146,7 +50149,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50172,7 +50175,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50198,7 +50201,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50224,7 +50227,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50250,7 +50253,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50276,7 +50279,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50302,7 +50305,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50328,7 +50331,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50354,7 +50357,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50380,7 +50383,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50406,7 +50409,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50432,7 +50435,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50458,7 +50461,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50484,7 +50487,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50510,7 +50513,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50536,7 +50539,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50562,7 +50565,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50588,7 +50591,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50614,7 +50617,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50640,7 +50643,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50666,7 +50669,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50692,7 +50695,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50718,7 +50721,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50744,7 +50747,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50770,7 +50773,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50796,7 +50799,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50822,7 +50825,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50848,7 +50851,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50874,7 +50877,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50900,7 +50903,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50926,7 +50929,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50952,7 +50955,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50978,7 +50981,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51004,7 +51007,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51030,7 +51033,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51056,7 +51059,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51082,7 +51085,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51108,7 +51111,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51134,7 +51137,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51160,7 +51163,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51186,7 +51189,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51212,7 +51215,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51238,7 +51241,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51264,7 +51267,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51290,7 +51293,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51316,7 +51319,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51342,7 +51345,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51368,7 +51371,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51394,7 +51397,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51420,7 +51423,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51446,7 +51449,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51472,7 +51475,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51498,7 +51501,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51524,7 +51527,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51550,7 +51553,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51576,7 +51579,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51602,7 +51605,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51628,7 +51631,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51654,7 +51657,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51680,7 +51683,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51706,7 +51709,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51732,7 +51735,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51758,7 +51761,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51784,7 +51787,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51810,7 +51813,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51836,7 +51839,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51862,7 +51865,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51888,7 +51891,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51914,7 +51917,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51940,7 +51943,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51966,7 +51969,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -51992,7 +51995,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52018,7 +52021,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52044,7 +52047,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52070,7 +52073,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52096,7 +52099,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52122,7 +52125,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52148,7 +52151,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52174,7 +52177,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52200,7 +52203,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52226,7 +52229,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52252,7 +52255,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52278,7 +52281,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52304,7 +52307,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52330,7 +52333,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52356,7 +52359,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52382,7 +52385,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52408,7 +52411,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52434,7 +52437,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52460,7 +52463,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52486,7 +52489,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52512,7 +52515,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52538,7 +52541,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52564,7 +52567,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52590,7 +52593,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52616,7 +52619,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52642,7 +52645,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52668,7 +52671,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52694,7 +52697,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52720,7 +52723,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52746,7 +52749,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52772,7 +52775,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52798,7 +52801,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52824,7 +52827,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52850,7 +52853,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52876,7 +52879,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52902,7 +52905,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52928,7 +52931,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52954,7 +52957,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52980,7 +52983,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53006,7 +53009,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53032,7 +53035,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53058,7 +53061,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53084,7 +53087,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53110,7 +53113,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53136,7 +53139,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53162,7 +53165,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53188,7 +53191,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53214,7 +53217,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53240,7 +53243,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53266,7 +53269,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53292,7 +53295,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53318,7 +53321,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53344,7 +53347,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53370,7 +53373,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53396,7 +53399,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53422,7 +53425,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53448,7 +53451,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53474,7 +53477,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53500,7 +53503,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53526,7 +53529,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53552,7 +53555,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53578,7 +53581,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53604,7 +53607,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53630,7 +53633,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53656,7 +53659,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53682,7 +53685,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53708,7 +53711,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53734,7 +53737,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53760,7 +53763,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53786,7 +53789,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53812,7 +53815,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53838,7 +53841,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53864,7 +53867,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53890,7 +53893,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53916,7 +53919,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53942,7 +53945,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53968,7 +53971,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -53994,7 +53997,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54020,7 +54023,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54046,7 +54049,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54072,7 +54075,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54098,7 +54101,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54124,7 +54127,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54150,7 +54153,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54176,7 +54179,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54202,7 +54205,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54228,7 +54231,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54254,7 +54257,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54280,7 +54283,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54306,7 +54309,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54332,7 +54335,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54358,7 +54361,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54384,7 +54387,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54410,7 +54413,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54436,7 +54439,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54462,7 +54465,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54488,7 +54491,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54514,7 +54517,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54540,7 +54543,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54566,7 +54569,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54592,7 +54595,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54618,7 +54621,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54644,7 +54647,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54670,7 +54673,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54696,7 +54699,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54722,7 +54725,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54748,7 +54751,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54774,7 +54777,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54800,7 +54803,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54826,7 +54829,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54852,7 +54855,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54878,7 +54881,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54904,7 +54907,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54930,7 +54933,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54956,7 +54959,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54982,7 +54985,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55008,7 +55011,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55034,7 +55037,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55060,7 +55063,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55086,7 +55089,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55112,7 +55115,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55138,7 +55141,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55164,7 +55167,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55190,7 +55193,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55216,7 +55219,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55242,7 +55245,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55268,7 +55271,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55294,7 +55297,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55320,7 +55323,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55346,7 +55349,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55372,7 +55375,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55398,7 +55401,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55424,7 +55427,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55450,7 +55453,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55476,7 +55479,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55502,7 +55505,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55528,7 +55531,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55554,7 +55557,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55580,7 +55583,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55606,7 +55609,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55632,7 +55635,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55658,7 +55661,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55684,7 +55687,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55710,7 +55713,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55736,7 +55739,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55762,7 +55765,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55788,7 +55791,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55814,7 +55817,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55840,7 +55843,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55866,7 +55869,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55892,7 +55895,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55918,7 +55921,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55944,7 +55947,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55970,7 +55973,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -55996,7 +55999,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56022,7 +56025,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56048,7 +56051,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56074,7 +56077,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56100,7 +56103,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56126,7 +56129,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56152,7 +56155,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56178,7 +56181,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56204,7 +56207,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56230,7 +56233,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56256,7 +56259,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56282,7 +56285,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56308,7 +56311,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56334,7 +56337,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56360,7 +56363,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56386,7 +56389,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56412,7 +56415,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56438,7 +56441,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56464,7 +56467,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56490,7 +56493,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56516,7 +56519,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56542,7 +56545,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56568,7 +56571,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56594,7 +56597,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56620,7 +56623,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56646,7 +56649,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56672,7 +56675,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56698,7 +56701,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56724,7 +56727,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56750,7 +56753,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56776,7 +56779,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56802,7 +56805,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56828,7 +56831,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56854,7 +56857,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56880,7 +56883,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56906,7 +56909,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56932,7 +56935,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56958,7 +56961,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56984,7 +56987,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57010,7 +57013,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57036,7 +57039,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57062,7 +57065,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57088,7 +57091,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57114,7 +57117,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57140,7 +57143,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57166,7 +57169,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57192,7 +57195,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57218,7 +57221,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57244,7 +57247,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57270,7 +57273,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57296,7 +57299,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57322,7 +57325,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57348,7 +57351,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57374,7 +57377,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57400,7 +57403,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57426,7 +57429,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57452,7 +57455,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57478,7 +57481,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57504,7 +57507,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57530,7 +57533,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57556,7 +57559,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57582,7 +57585,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57608,7 +57611,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57634,7 +57637,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57660,7 +57663,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57686,7 +57689,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57712,7 +57715,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57738,7 +57741,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57764,7 +57767,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57790,7 +57793,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57816,7 +57819,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57842,7 +57845,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57868,7 +57871,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57894,7 +57897,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57920,7 +57923,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57946,7 +57949,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57972,7 +57975,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -57998,7 +58001,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58024,7 +58027,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58050,7 +58053,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58076,7 +58079,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58102,7 +58105,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58128,7 +58131,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58154,7 +58157,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58180,7 +58183,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58206,7 +58209,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58232,7 +58235,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58258,7 +58261,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58284,7 +58287,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58310,7 +58313,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58336,7 +58339,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58362,7 +58365,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58388,7 +58391,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58414,7 +58417,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58440,7 +58443,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58466,7 +58469,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58492,7 +58495,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58518,7 +58521,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58544,7 +58547,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58570,7 +58573,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58596,7 +58599,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58622,7 +58625,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58648,7 +58651,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58674,7 +58677,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58700,7 +58703,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58726,7 +58729,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58752,7 +58755,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58778,7 +58781,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58804,7 +58807,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58812,13 +58815,13 @@
     </row>
     <row r="2154">
       <c r="A2154" s="1" t="n">
-        <v>45461.649375</v>
+        <v>45461.2916666667</v>
       </c>
       <c r="B2154" t="n">
         <v>3913</v>
       </c>
       <c r="C2154" t="n">
-        <v>12.2600002288818</v>
+        <v>12.3999996185303</v>
       </c>
       <c r="D2154" t="n">
         <v>12</v>
@@ -58830,9 +58833,35 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2154" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2154" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" s="1" t="n">
+        <v>45462.6494097222</v>
+      </c>
+      <c r="B2155" t="n">
+        <v>5157</v>
+      </c>
+      <c r="C2155" t="n">
+        <v>12.3400001525879</v>
+      </c>
+      <c r="D2155" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2155" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="F2155" t="n">
+        <v>12.2799997329712</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>819</v>
+      </c>
+      <c r="H2155" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="833">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,88 +38,88 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677068710327</t>
+    <t xml:space="preserve">7.67677211761475</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728616714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6378026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986547470093</t>
+    <t xml:space="preserve">7.65728712081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780307769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986499786377</t>
   </si>
   <si>
     <t xml:space="preserve">7.59883403778076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40788984298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502313613892</t>
+    <t xml:space="preserve">7.4078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502408981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.63390636444092</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089738845825</t>
+    <t xml:space="preserve">7.44685792922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089691162109</t>
   </si>
   <si>
     <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44295978546143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75081062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77808809280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8716139793396</t>
+    <t xml:space="preserve">7.44296169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7508111000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77808952331543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87161350250244</t>
   </si>
   <si>
     <t xml:space="preserve">7.79367589950562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83264350891113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573877334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837644577026</t>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573972702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837501525879</t>
   </si>
   <si>
     <t xml:space="preserve">7.9027886390686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94954919815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7897801399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588199615479</t>
+    <t xml:space="preserve">7.94954967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977918624878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588342666626</t>
   </si>
   <si>
     <t xml:space="preserve">7.94175624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02748584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115543365479</t>
+    <t xml:space="preserve">8.02748680114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115352630615</t>
   </si>
   <si>
     <t xml:space="preserve">8.16777229309082</t>
@@ -128,25 +128,25 @@
     <t xml:space="preserve">8.00410556793213</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99631357192993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926370620728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439105987549</t>
+    <t xml:space="preserve">7.99631261825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645488739014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470638275146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8404393196106</t>
+    <t xml:space="preserve">8.05086803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470685958862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043979644775</t>
   </si>
   <si>
     <t xml:space="preserve">7.85602617263794</t>
@@ -158,40 +158,40 @@
     <t xml:space="preserve">7.75860548019409</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74691438674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184396743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73912048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70405006408691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531053543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803163528442</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854806900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0430736541748</t>
+    <t xml:space="preserve">7.74691534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184301376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73912143707275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7040491104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48193025588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803258895874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04307460784912</t>
   </si>
   <si>
     <t xml:space="preserve">7.98851776123047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70015287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499473571777</t>
+    <t xml:space="preserve">7.70015239715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499521255493</t>
   </si>
   <si>
     <t xml:space="preserve">8.01969337463379</t>
@@ -203,16 +203,16 @@
     <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129722595215</t>
+    <t xml:space="preserve">8.24570846557617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129817962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49510669708252</t>
+    <t xml:space="preserve">8.49510765075684</t>
   </si>
   <si>
     <t xml:space="preserve">8.58863258361816</t>
@@ -221,46 +221,46 @@
     <t xml:space="preserve">8.68215656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5340747833252</t>
+    <t xml:space="preserve">8.53407573699951</t>
   </si>
   <si>
     <t xml:space="preserve">8.70347785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81567668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74354839324951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539264678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63134956359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42298030853271</t>
+    <t xml:space="preserve">8.81567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74355030059814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63135051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4229793548584</t>
   </si>
   <si>
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14247894287109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460723876953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893436431885</t>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893627166748</t>
   </si>
   <si>
     <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43900775909424</t>
+    <t xml:space="preserve">8.43900680541992</t>
   </si>
   <si>
     <t xml:space="preserve">8.57525062561035</t>
@@ -269,13 +269,13 @@
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05610466003418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880390167236</t>
+    <t xml:space="preserve">9.28050422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0561056137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880485534668</t>
   </si>
   <si>
     <t xml:space="preserve">10.0899429321289</t>
@@ -284,31 +284,31 @@
     <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95370006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7613582611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107517242432</t>
+    <t xml:space="preserve">9.95370101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107421875</t>
   </si>
   <si>
     <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61710166931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7373161315918</t>
+    <t xml:space="preserve">9.61710262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73731517791748</t>
   </si>
   <si>
     <t xml:space="preserve">9.50490283966064</t>
   </si>
   <si>
-    <t xml:space="preserve">9.25646209716797</t>
+    <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.29653358459473</t>
@@ -320,28 +320,28 @@
     <t xml:space="preserve">9.45681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674613952637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42475986480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32858943939209</t>
+    <t xml:space="preserve">9.37667560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674518585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42476081848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32859039306641</t>
   </si>
   <si>
     <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40071773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057476043701</t>
+    <t xml:space="preserve">9.40071678161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2404317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
     <t xml:space="preserve">9.28851795196533</t>
@@ -350,58 +350,58 @@
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.94390392303467</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993518829346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21639060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13624572753906</t>
+    <t xml:space="preserve">8.94390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638965606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837688446045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1362476348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.99199104309082</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85574817657471</t>
+    <t xml:space="preserve">8.85574913024902</t>
   </si>
   <si>
     <t xml:space="preserve">8.89581966400146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085880279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291656494141</t>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291751861572</t>
   </si>
   <si>
     <t xml:space="preserve">9.27248859405518</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10419082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17631816864014</t>
+    <t xml:space="preserve">9.1041898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17631912231445</t>
   </si>
   <si>
     <t xml:space="preserve">9.09617710113525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98397636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93588924407959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88780498504639</t>
+    <t xml:space="preserve">8.98397731781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93589019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8878059387207</t>
   </si>
   <si>
     <t xml:space="preserve">8.97596168518066</t>
@@ -413,22 +413,22 @@
     <t xml:space="preserve">8.73553466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76759243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560615539551</t>
+    <t xml:space="preserve">8.76759147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007720947266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0000057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560520172119</t>
   </si>
   <si>
     <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737796783447</t>
+    <t xml:space="preserve">8.64737892150879</t>
   </si>
   <si>
     <t xml:space="preserve">8.62333583831787</t>
@@ -440,70 +440,70 @@
     <t xml:space="preserve">8.68744945526123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75156211853027</t>
+    <t xml:space="preserve">8.75156307220459</t>
   </si>
   <si>
     <t xml:space="preserve">8.54319286346436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5271635055542</t>
+    <t xml:space="preserve">8.52716445922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.56723594665527</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69546413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8076639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163360595703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943382263184</t>
+    <t xml:space="preserve">8.69546508789062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
   </si>
   <si>
     <t xml:space="preserve">8.55922222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30276584625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
+    <t xml:space="preserve">8.30276489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36687850952148</t>
   </si>
   <si>
     <t xml:space="preserve">8.35085105895996</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5031213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
+    <t xml:space="preserve">8.58326435089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312232971191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127902984619</t>
   </si>
   <si>
     <t xml:space="preserve">8.72752094268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47907829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099403381348</t>
+    <t xml:space="preserve">8.479079246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.47106456756592</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496562957764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503616333008</t>
+    <t xml:space="preserve">8.49510860443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503520965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.29475116729736</t>
@@ -512,16 +512,16 @@
     <t xml:space="preserve">8.37489223480225</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65425395965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3245677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22566032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335571289062</t>
+    <t xml:space="preserve">8.65425300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32456684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.225661277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335666656494</t>
   </si>
   <si>
     <t xml:space="preserve">8.57183074951172</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44819831848145</t>
+    <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
     <t xml:space="preserve">8.4069881439209</t>
@@ -539,13 +539,13 @@
     <t xml:space="preserve">8.69546318054199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77788543701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214553833008</t>
+    <t xml:space="preserve">8.7778844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269275665283</t>
@@ -554,91 +554,91 @@
     <t xml:space="preserve">8.07730293273926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02785015106201</t>
+    <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
     <t xml:space="preserve">8.14323902130127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081676483154</t>
+    <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
     <t xml:space="preserve">7.99488067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
+    <t xml:space="preserve">7.83003807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9289436340332</t>
   </si>
   <si>
     <t xml:space="preserve">7.89597463607788</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71464824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683664321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113203048706</t>
+    <t xml:space="preserve">7.71464920043945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113346099854</t>
   </si>
   <si>
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410150527954</t>
+    <t xml:space="preserve">7.76410245895386</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574220657349</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78058433532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519498825073</t>
+    <t xml:space="preserve">7.78058576583862</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519546508789</t>
   </si>
   <si>
     <t xml:space="preserve">7.6981635093689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59925889968872</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222599029541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5662899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355333328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38496208190918</t>
+    <t xml:space="preserve">7.5992579460144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222694396973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.56628942489624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79707002639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355476379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386812210083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38496255874634</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.40144681930542</t>
+    <t xml:space="preserve">7.40144634246826</t>
   </si>
   <si>
     <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20363569259644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33550882339478</t>
+    <t xml:space="preserve">7.20363473892212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
     <t xml:space="preserve">7.50035238265991</t>
@@ -647,31 +647,31 @@
     <t xml:space="preserve">7.25308847427368</t>
   </si>
   <si>
-    <t xml:space="preserve">7.41793012619019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441438674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738433837891</t>
+    <t xml:space="preserve">7.4179310798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43441534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738386154175</t>
   </si>
   <si>
     <t xml:space="preserve">7.13769817352295</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1706657409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08824443817139</t>
+    <t xml:space="preserve">7.17066621780396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08824491500854</t>
   </si>
   <si>
     <t xml:space="preserve">6.92340183258057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90691757202148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.98933792114258</t>
+    <t xml:space="preserve">6.9069185256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.98933887481689</t>
   </si>
   <si>
     <t xml:space="preserve">7.0717601776123</t>
@@ -683,10 +683,10 @@
     <t xml:space="preserve">6.62668514251709</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65965366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75855922698975</t>
+    <t xml:space="preserve">6.6596531867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75855875015259</t>
   </si>
   <si>
     <t xml:space="preserve">6.84098052978516</t>
@@ -695,13 +695,13 @@
     <t xml:space="preserve">6.69262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70910692214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02230834960938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72559022903442</t>
+    <t xml:space="preserve">6.7091064453125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02230787277222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
     <t xml:space="preserve">6.85746479034424</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">7.00582361221313</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28605604171753</t>
+    <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
     <t xml:space="preserve">7.3684778213501</t>
@@ -719,10 +719,10 @@
     <t xml:space="preserve">7.10472965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23660326004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394905090332</t>
+    <t xml:space="preserve">7.23660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87394952774048</t>
   </si>
   <si>
     <t xml:space="preserve">6.52777910232544</t>
@@ -731,16 +731,16 @@
     <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129531860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74207496643066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41238975524902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67613792419434</t>
+    <t xml:space="preserve">6.51129484176636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74207544326782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41238927841187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67613840103149</t>
   </si>
   <si>
     <t xml:space="preserve">7.12121391296387</t>
@@ -749,13 +749,13 @@
     <t xml:space="preserve">6.93988656997681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89043283462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64316940307617</t>
+    <t xml:space="preserve">6.79152727127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8904333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64316987991333</t>
   </si>
   <si>
     <t xml:space="preserve">6.80801200866699</t>
@@ -764,31 +764,31 @@
     <t xml:space="preserve">7.22011947631836</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35199356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332090377808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871120452881</t>
+    <t xml:space="preserve">7.35199403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871025085449</t>
   </si>
   <si>
     <t xml:space="preserve">7.68167924880981</t>
   </si>
   <si>
-    <t xml:space="preserve">7.54980564117432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705438613892</t>
+    <t xml:space="preserve">7.5498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705533981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.56021785736084</t>
+    <t xml:space="preserve">7.56021928787231</t>
   </si>
   <si>
     <t xml:space="preserve">7.09839487075806</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">7.49180030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5773229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61153173446655</t>
+    <t xml:space="preserve">7.57732343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61153221130371</t>
   </si>
   <si>
     <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3549633026123</t>
+    <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
     <t xml:space="preserve">7.3378586769104</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25233507156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812725067139</t>
+    <t xml:space="preserve">7.25233554840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812677383423</t>
   </si>
   <si>
     <t xml:space="preserve">7.20102262496948</t>
@@ -824,7 +824,7 @@
     <t xml:space="preserve">7.18391752243042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92734956741333</t>
+    <t xml:space="preserve">6.92735004425049</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">7.23523187637329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2694411277771</t>
+    <t xml:space="preserve">7.26944065093994</t>
   </si>
   <si>
     <t xml:space="preserve">7.37206840515137</t>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">7.08129024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0299768447876</t>
+    <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
     <t xml:space="preserve">6.97866296768188</t>
@@ -875,28 +875,28 @@
     <t xml:space="preserve">6.85893201828003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84182643890381</t>
+    <t xml:space="preserve">6.84182691574097</t>
   </si>
   <si>
     <t xml:space="preserve">6.77340841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263025283813</t>
+    <t xml:space="preserve">6.46552610397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5852575302124</t>
+    <t xml:space="preserve">6.58525800704956</t>
   </si>
   <si>
     <t xml:space="preserve">6.41421270370483</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000297546387</t>
+    <t xml:space="preserve">6.38000345230103</t>
   </si>
   <si>
     <t xml:space="preserve">6.32869005203247</t>
@@ -917,19 +917,19 @@
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053964614868</t>
+    <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
     <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10633039474487</t>
+    <t xml:space="preserve">6.10632991790771</t>
   </si>
   <si>
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158542633057</t>
+    <t xml:space="preserve">6.31158494949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -947,7 +947,7 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7563042640686</t>
+    <t xml:space="preserve">6.75630378723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
@@ -995,7 +995,7 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.76423835754395</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1016,7 +1016,7 @@
     <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506973266602</t>
+    <t xml:space="preserve">4.75506925582886</t>
   </si>
   <si>
     <t xml:space="preserve">4.53271055221558</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">4.19061899185181</t>
   </si>
   <si>
-    <t xml:space="preserve">4.58402347564697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32745504379272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4471869468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36166429519653</t>
+    <t xml:space="preserve">4.58402395248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.32745552062988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44718742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.7037558555603</t>
@@ -1043,7 +1043,7 @@
     <t xml:space="preserve">5.04584741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820707321167</t>
+    <t xml:space="preserve">5.26820611953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056577682495</t>
@@ -1055,13 +1055,13 @@
     <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69582080841064</t>
+    <t xml:space="preserve">5.69582033157349</t>
   </si>
   <si>
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187965393066</t>
+    <t xml:space="preserve">5.54187917709351</t>
   </si>
   <si>
     <t xml:space="preserve">5.35372972488403</t>
@@ -1076,7 +1076,7 @@
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319353103638</t>
+    <t xml:space="preserve">5.59319305419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
@@ -1088,7 +1088,7 @@
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316740036011</t>
+    <t xml:space="preserve">6.24316692352295</t>
   </si>
   <si>
     <t xml:space="preserve">6.03791189193726</t>
@@ -1103,16 +1103,16 @@
     <t xml:space="preserve">6.26027154922485</t>
   </si>
   <si>
-    <t xml:space="preserve">5.96949338912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79844856262207</t>
+    <t xml:space="preserve">5.9694938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79844808578491</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292543411255</t>
+    <t xml:space="preserve">5.71292495727539</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83265686035156</t>
+    <t xml:space="preserve">5.61029767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66161155700684</t>
+    <t xml:space="preserve">5.66161108016968</t>
   </si>
   <si>
     <t xml:space="preserve">5.57608842849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79051351547241</t>
+    <t xml:space="preserve">6.79051303863525</t>
   </si>
   <si>
     <t xml:space="preserve">6.72209453582764</t>
@@ -1151,10 +1151,10 @@
     <t xml:space="preserve">7.16681337356567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13260412216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917303085327</t>
+    <t xml:space="preserve">7.13260459899902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917350769043</t>
   </si>
   <si>
     <t xml:space="preserve">7.74836921691895</t>
@@ -1187,13 +1187,13 @@
     <t xml:space="preserve">7.95362329483032</t>
   </si>
   <si>
-    <t xml:space="preserve">7.97072792053223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941356658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
+    <t xml:space="preserve">7.97072696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941452026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230894088745</t>
   </si>
   <si>
     <t xml:space="preserve">7.73126459121704</t>
@@ -1202,13 +1202,13 @@
     <t xml:space="preserve">7.8167872428894</t>
   </si>
   <si>
-    <t xml:space="preserve">7.93651914596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8681001663208</t>
+    <t xml:space="preserve">7.93651819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0220422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.86810064315796</t>
   </si>
   <si>
     <t xml:space="preserve">7.7996826171875</t>
@@ -1220,7 +1220,7 @@
     <t xml:space="preserve">8.38123798370361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36413192749023</t>
+    <t xml:space="preserve">8.36413288116455</t>
   </si>
   <si>
     <t xml:space="preserve">8.44965553283691</t>
@@ -1229,22 +1229,22 @@
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504413604736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46676063537598</t>
+    <t xml:space="preserve">8.59504508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46675968170166</t>
   </si>
   <si>
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41544818878174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096988677979</t>
+    <t xml:space="preserve">8.55228424072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41544723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
     <t xml:space="preserve">8.68056678771973</t>
@@ -1256,61 +1256,61 @@
     <t xml:space="preserve">8.85161304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97989845275879</t>
+    <t xml:space="preserve">8.97989749908447</t>
   </si>
   <si>
     <t xml:space="preserve">9.0226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32198810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62131881713867</t>
+    <t xml:space="preserve">9.32198905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62131977081299</t>
   </si>
   <si>
     <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74960136413574</t>
+    <t xml:space="preserve">9.74960327148438</t>
   </si>
   <si>
     <t xml:space="preserve">9.66408061981201</t>
   </si>
   <si>
-    <t xml:space="preserve">9.57855701446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1772165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344566345215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910245895386</t>
+    <t xml:space="preserve">9.57855796813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1772174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
     <t xml:space="preserve">10.51930809021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
+    <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0324449539185</t>
+    <t xml:space="preserve">11.0324440002441</t>
   </si>
   <si>
     <t xml:space="preserve">11.4600591659546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1014804840088</t>
+    <t xml:space="preserve">12.1014795303345</t>
   </si>
   <si>
     <t xml:space="preserve">11.9731969833374</t>
@@ -1328,7 +1328,7 @@
     <t xml:space="preserve">11.9304342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5883445739746</t>
+    <t xml:space="preserve">11.5883436203003</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
@@ -1340,10 +1340,10 @@
     <t xml:space="preserve">12.0159578323364</t>
   </si>
   <si>
-    <t xml:space="preserve">11.844913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5028209686279</t>
+    <t xml:space="preserve">11.8449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5028200149536</t>
   </si>
   <si>
     <t xml:space="preserve">11.7593898773193</t>
@@ -1352,133 +1352,136 @@
     <t xml:space="preserve">11.2462520599365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3317756652832</t>
+    <t xml:space="preserve">11.3317747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0587196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5020551681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2163820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7287139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173799514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730464935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.684380531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6400461196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.748384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.482382774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710506439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050489425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.615385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3493824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9503812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1720495223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7040510177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5267171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813848495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6597175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2607154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3937168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7927179336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030530929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
     <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380502700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2163820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7287139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730474472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684380531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277151107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4823837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710506439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050498962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.615385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.349383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1720495223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7040510177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5267171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6597175598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2607154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3937168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7927188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014386177063</t>
+    <t xml:space="preserve">12.0143852233887</t>
   </si>
   <si>
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1227235794067</t>
+    <t xml:space="preserve">13.1227245330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217266082764</t>
+    <t xml:space="preserve">13.5217256546021</t>
   </si>
   <si>
     <t xml:space="preserve">13.1670589447021</t>
@@ -1499,7 +1502,7 @@
     <t xml:space="preserve">14.4970636367798</t>
   </si>
   <si>
-    <t xml:space="preserve">14.7630653381348</t>
+    <t xml:space="preserve">14.7630643844604</t>
   </si>
   <si>
     <t xml:space="preserve">14.5857315063477</t>
@@ -1514,10 +1517,10 @@
     <t xml:space="preserve">14.2753963470459</t>
   </si>
   <si>
-    <t xml:space="preserve">14.9847316741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
+    <t xml:space="preserve">14.9847326278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.851731300354</t>
   </si>
   <si>
     <t xml:space="preserve">14.6300640106201</t>
@@ -1547,16 +1550,16 @@
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463886260986</t>
+    <t xml:space="preserve">12.5463876724243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4627132415771</t>
@@ -1580,22 +1583,22 @@
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557838439941</t>
+    <t xml:space="preserve">11.4557828903198</t>
   </si>
   <si>
     <t xml:space="preserve">11.7217845916748</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4735164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848505020142</t>
+    <t xml:space="preserve">11.4735155105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848495483398</t>
   </si>
   <si>
     <t xml:space="preserve">11.3671159744263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4025831222534</t>
+    <t xml:space="preserve">11.4025821685791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5976505279541</t>
@@ -2505,6 +2508,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.8999996185303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8599996566772</t>
   </si>
 </sst>
 </file>
@@ -42020,7 +42026,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42072,7 +42078,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42098,7 +42104,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42124,7 +42130,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42150,7 +42156,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42176,7 +42182,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42202,7 +42208,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42228,7 +42234,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42254,7 +42260,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42280,7 +42286,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42306,7 +42312,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42332,7 +42338,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42358,7 +42364,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42384,7 +42390,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42410,7 +42416,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42436,7 +42442,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42462,7 +42468,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42488,7 +42494,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42514,7 +42520,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42540,7 +42546,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42566,7 +42572,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42592,7 +42598,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42618,7 +42624,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42644,7 +42650,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42670,7 +42676,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42696,7 +42702,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42722,7 +42728,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42748,7 +42754,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42774,7 +42780,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42800,7 +42806,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42826,7 +42832,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42852,7 +42858,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42878,7 +42884,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42904,7 +42910,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42930,7 +42936,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42956,7 +42962,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42982,7 +42988,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43008,7 +43014,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43034,7 +43040,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43060,7 +43066,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43086,7 +43092,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43112,7 +43118,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43164,7 +43170,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43190,7 +43196,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43242,7 +43248,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43294,7 +43300,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43346,7 +43352,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43372,7 +43378,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43398,7 +43404,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43476,7 +43482,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43502,7 +43508,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43554,7 +43560,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43580,7 +43586,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>447</v>
+        <v>482</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43684,7 +43690,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43710,7 +43716,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43736,7 +43742,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44022,7 +44028,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44126,7 +44132,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44152,7 +44158,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44178,7 +44184,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44204,7 +44210,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44230,7 +44236,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44282,7 +44288,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44334,7 +44340,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44360,7 +44366,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44386,7 +44392,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44412,7 +44418,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44438,7 +44444,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44464,7 +44470,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44490,7 +44496,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44542,7 +44548,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44568,7 +44574,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44594,7 +44600,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44646,7 +44652,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44750,7 +44756,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44776,7 +44782,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44828,7 +44834,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44854,7 +44860,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44880,7 +44886,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44906,7 +44912,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44932,7 +44938,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44958,7 +44964,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44984,7 +44990,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45010,7 +45016,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45036,7 +45042,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45062,7 +45068,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45088,7 +45094,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45114,7 +45120,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45140,7 +45146,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45166,7 +45172,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45192,7 +45198,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45218,7 +45224,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45244,7 +45250,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45270,7 +45276,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45296,7 +45302,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45322,7 +45328,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45348,7 +45354,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45374,7 +45380,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45400,7 +45406,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45426,7 +45432,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45452,7 +45458,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45478,7 +45484,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45504,7 +45510,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45530,7 +45536,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45556,7 +45562,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45582,7 +45588,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45608,7 +45614,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45634,7 +45640,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45660,7 +45666,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45686,7 +45692,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45712,7 +45718,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45738,7 +45744,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45764,7 +45770,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45790,7 +45796,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45816,7 +45822,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45842,7 +45848,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45868,7 +45874,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45894,7 +45900,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45920,7 +45926,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45946,7 +45952,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45972,7 +45978,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -45998,7 +46004,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46024,7 +46030,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46050,7 +46056,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46076,7 +46082,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46102,7 +46108,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46128,7 +46134,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46154,7 +46160,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46180,7 +46186,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46206,7 +46212,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46232,7 +46238,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46258,7 +46264,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46284,7 +46290,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46310,7 +46316,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46336,7 +46342,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46362,7 +46368,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46388,7 +46394,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46414,7 +46420,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46440,7 +46446,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46466,7 +46472,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46492,7 +46498,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46518,7 +46524,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46544,7 +46550,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46570,7 +46576,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46596,7 +46602,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46622,7 +46628,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46648,7 +46654,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46674,7 +46680,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46700,7 +46706,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46726,7 +46732,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46752,7 +46758,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46778,7 +46784,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46804,7 +46810,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46830,7 +46836,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46856,7 +46862,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46882,7 +46888,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46908,7 +46914,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46934,7 +46940,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46960,7 +46966,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46986,7 +46992,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47012,7 +47018,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47038,7 +47044,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47064,7 +47070,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47090,7 +47096,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47116,7 +47122,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47142,7 +47148,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47168,7 +47174,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47194,7 +47200,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47220,7 +47226,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47246,7 +47252,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47272,7 +47278,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47298,7 +47304,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47324,7 +47330,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47350,7 +47356,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47376,7 +47382,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47402,7 +47408,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47428,7 +47434,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47454,7 +47460,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47480,7 +47486,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47506,7 +47512,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47532,7 +47538,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47558,7 +47564,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47584,7 +47590,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47610,7 +47616,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47636,7 +47642,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47662,7 +47668,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47688,7 +47694,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47714,7 +47720,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47740,7 +47746,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47766,7 +47772,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47792,7 +47798,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47818,7 +47824,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47844,7 +47850,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47870,7 +47876,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47896,7 +47902,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47922,7 +47928,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47948,7 +47954,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47974,7 +47980,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48000,7 +48006,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48026,7 +48032,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48052,7 +48058,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48078,7 +48084,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48104,7 +48110,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48130,7 +48136,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48156,7 +48162,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48182,7 +48188,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48208,7 +48214,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48234,7 +48240,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48260,7 +48266,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48286,7 +48292,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48312,7 +48318,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48338,7 +48344,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48364,7 +48370,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48390,7 +48396,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48416,7 +48422,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48442,7 +48448,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48468,7 +48474,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48494,7 +48500,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48520,7 +48526,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48546,7 +48552,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48572,7 +48578,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48598,7 +48604,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48624,7 +48630,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48650,7 +48656,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48676,7 +48682,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48702,7 +48708,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48728,7 +48734,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48754,7 +48760,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48780,7 +48786,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48806,7 +48812,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48832,7 +48838,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48858,7 +48864,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48884,7 +48890,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48910,7 +48916,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48936,7 +48942,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48962,7 +48968,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48988,7 +48994,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49014,7 +49020,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49040,7 +49046,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49066,7 +49072,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49092,7 +49098,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49118,7 +49124,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49144,7 +49150,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49170,7 +49176,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49196,7 +49202,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49222,7 +49228,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49248,7 +49254,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49274,7 +49280,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49300,7 +49306,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49326,7 +49332,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49352,7 +49358,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49378,7 +49384,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49404,7 +49410,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49430,7 +49436,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49456,7 +49462,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49482,7 +49488,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49508,7 +49514,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49534,7 +49540,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49560,7 +49566,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49586,7 +49592,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49612,7 +49618,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49638,7 +49644,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49664,7 +49670,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49690,7 +49696,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49716,7 +49722,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49742,7 +49748,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49768,7 +49774,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49794,7 +49800,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49820,7 +49826,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49846,7 +49852,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49872,7 +49878,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49898,7 +49904,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49924,7 +49930,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49950,7 +49956,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49976,7 +49982,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50002,7 +50008,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50028,7 +50034,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50054,7 +50060,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50080,7 +50086,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50106,7 +50112,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50132,7 +50138,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50158,7 +50164,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50184,7 +50190,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50210,7 +50216,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50236,7 +50242,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50262,7 +50268,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50288,7 +50294,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50314,7 +50320,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50340,7 +50346,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50366,7 +50372,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50392,7 +50398,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50418,7 +50424,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50444,7 +50450,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50470,7 +50476,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50496,7 +50502,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50522,7 +50528,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50548,7 +50554,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50574,7 +50580,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50600,7 +50606,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50626,7 +50632,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50652,7 +50658,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50678,7 +50684,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50704,7 +50710,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50730,7 +50736,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50756,7 +50762,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50782,7 +50788,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50808,7 +50814,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50834,7 +50840,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50860,7 +50866,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50886,7 +50892,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50912,7 +50918,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50938,7 +50944,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50964,7 +50970,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50990,7 +50996,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51016,7 +51022,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51042,7 +51048,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51068,7 +51074,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51094,7 +51100,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51120,7 +51126,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51146,7 +51152,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51172,7 +51178,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51198,7 +51204,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51224,7 +51230,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51250,7 +51256,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51276,7 +51282,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51302,7 +51308,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51328,7 +51334,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51354,7 +51360,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51380,7 +51386,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51406,7 +51412,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51432,7 +51438,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51458,7 +51464,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51484,7 +51490,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51510,7 +51516,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51536,7 +51542,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51562,7 +51568,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51588,7 +51594,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51614,7 +51620,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51640,7 +51646,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51666,7 +51672,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51692,7 +51698,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51718,7 +51724,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51744,7 +51750,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51770,7 +51776,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51796,7 +51802,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51822,7 +51828,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51848,7 +51854,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51874,7 +51880,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51900,7 +51906,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51926,7 +51932,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51952,7 +51958,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51978,7 +51984,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52004,7 +52010,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52030,7 +52036,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52056,7 +52062,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52082,7 +52088,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52108,7 +52114,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52134,7 +52140,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52160,7 +52166,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52186,7 +52192,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52212,7 +52218,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52238,7 +52244,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52264,7 +52270,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52290,7 +52296,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52316,7 +52322,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52342,7 +52348,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52368,7 +52374,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52394,7 +52400,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52420,7 +52426,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52446,7 +52452,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52472,7 +52478,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52498,7 +52504,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52524,7 +52530,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52550,7 +52556,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52576,7 +52582,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52602,7 +52608,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52628,7 +52634,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52654,7 +52660,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52680,7 +52686,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52706,7 +52712,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52732,7 +52738,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52758,7 +52764,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52784,7 +52790,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52810,7 +52816,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52836,7 +52842,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52862,7 +52868,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52888,7 +52894,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52914,7 +52920,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52940,7 +52946,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52966,7 +52972,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52992,7 +52998,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53018,7 +53024,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53044,7 +53050,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53070,7 +53076,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53096,7 +53102,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53122,7 +53128,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53148,7 +53154,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53174,7 +53180,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53200,7 +53206,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53226,7 +53232,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53252,7 +53258,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53278,7 +53284,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53304,7 +53310,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53330,7 +53336,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53356,7 +53362,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53382,7 +53388,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53408,7 +53414,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53434,7 +53440,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53460,7 +53466,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53486,7 +53492,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53512,7 +53518,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53538,7 +53544,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53564,7 +53570,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53590,7 +53596,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53616,7 +53622,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53642,7 +53648,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53668,7 +53674,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53694,7 +53700,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53720,7 +53726,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53746,7 +53752,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53772,7 +53778,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53798,7 +53804,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53824,7 +53830,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53850,7 +53856,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53876,7 +53882,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53902,7 +53908,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53928,7 +53934,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53954,7 +53960,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53980,7 +53986,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54006,7 +54012,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54032,7 +54038,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54058,7 +54064,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54084,7 +54090,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54110,7 +54116,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54136,7 +54142,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54162,7 +54168,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54188,7 +54194,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54214,7 +54220,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54240,7 +54246,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54266,7 +54272,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54292,7 +54298,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54318,7 +54324,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54344,7 +54350,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54370,7 +54376,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54396,7 +54402,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54422,7 +54428,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54448,7 +54454,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54474,7 +54480,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54500,7 +54506,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54526,7 +54532,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54552,7 +54558,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54578,7 +54584,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54604,7 +54610,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54630,7 +54636,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54656,7 +54662,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54682,7 +54688,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54708,7 +54714,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54734,7 +54740,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54760,7 +54766,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54786,7 +54792,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54812,7 +54818,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54838,7 +54844,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54864,7 +54870,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54890,7 +54896,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54916,7 +54922,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54942,7 +54948,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54968,7 +54974,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -54994,7 +55000,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55020,7 +55026,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55046,7 +55052,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55072,7 +55078,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55098,7 +55104,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55124,7 +55130,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55150,7 +55156,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55176,7 +55182,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55202,7 +55208,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55228,7 +55234,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55254,7 +55260,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55280,7 +55286,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55306,7 +55312,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55332,7 +55338,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55358,7 +55364,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55384,7 +55390,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55410,7 +55416,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55436,7 +55442,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55462,7 +55468,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55488,7 +55494,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55514,7 +55520,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55540,7 +55546,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55566,7 +55572,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55592,7 +55598,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55618,7 +55624,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55644,7 +55650,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55670,7 +55676,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55696,7 +55702,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55722,7 +55728,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55748,7 +55754,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55774,7 +55780,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55800,7 +55806,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55826,7 +55832,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55852,7 +55858,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55878,7 +55884,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55904,7 +55910,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55930,7 +55936,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55956,7 +55962,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55982,7 +55988,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56008,7 +56014,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56034,7 +56040,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56060,7 +56066,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56086,7 +56092,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56112,7 +56118,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56138,7 +56144,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56164,7 +56170,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56190,7 +56196,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56216,7 +56222,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56242,7 +56248,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56268,7 +56274,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56294,7 +56300,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56320,7 +56326,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56346,7 +56352,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56372,7 +56378,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56398,7 +56404,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56424,7 +56430,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56450,7 +56456,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56476,7 +56482,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56502,7 +56508,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56528,7 +56534,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56554,7 +56560,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56580,7 +56586,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56606,7 +56612,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56632,7 +56638,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56658,7 +56664,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56684,7 +56690,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56710,7 +56716,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56736,7 +56742,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56762,7 +56768,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56788,7 +56794,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56814,7 +56820,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56840,7 +56846,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56866,7 +56872,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56892,7 +56898,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56918,7 +56924,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56944,7 +56950,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56970,7 +56976,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -56996,7 +57002,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57022,7 +57028,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57048,7 +57054,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57074,7 +57080,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57100,7 +57106,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57126,7 +57132,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57152,7 +57158,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57178,7 +57184,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57204,7 +57210,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57230,7 +57236,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57256,7 +57262,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57282,7 +57288,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57308,7 +57314,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57334,7 +57340,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57360,7 +57366,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57386,7 +57392,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57412,7 +57418,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57438,7 +57444,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57464,7 +57470,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57490,7 +57496,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57516,7 +57522,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57542,7 +57548,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57568,7 +57574,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57594,7 +57600,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57620,7 +57626,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57646,7 +57652,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57672,7 +57678,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57698,7 +57704,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57724,7 +57730,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57750,7 +57756,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57776,7 +57782,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57802,7 +57808,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57828,7 +57834,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57854,7 +57860,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57880,7 +57886,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57906,7 +57912,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57932,7 +57938,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57958,7 +57964,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57984,7 +57990,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58010,7 +58016,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58036,7 +58042,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58062,7 +58068,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58088,7 +58094,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58114,7 +58120,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58140,7 +58146,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58166,7 +58172,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58192,7 +58198,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58218,7 +58224,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58244,7 +58250,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58270,7 +58276,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58296,7 +58302,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58322,7 +58328,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58348,7 +58354,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58374,7 +58380,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58400,7 +58406,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58426,7 +58432,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58452,7 +58458,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58478,7 +58484,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58504,7 +58510,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58530,7 +58536,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58556,7 +58562,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58582,7 +58588,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58608,7 +58614,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58634,7 +58640,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58660,7 +58666,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58686,7 +58692,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58712,7 +58718,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58738,7 +58744,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58764,7 +58770,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58790,7 +58796,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58816,7 +58822,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58842,7 +58848,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2154" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58868,7 +58874,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2155" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58894,7 +58900,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2156" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58920,7 +58926,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2157" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58928,7 +58934,7 @@
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n">
-        <v>45467.6494560185</v>
+        <v>45467.2916666667</v>
       </c>
       <c r="B2158" t="n">
         <v>7780</v>
@@ -58946,9 +58952,35 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2158" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2158" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" s="1" t="n">
+        <v>45468.6493402778</v>
+      </c>
+      <c r="B2159" t="n">
+        <v>159344</v>
+      </c>
+      <c r="C2159" t="n">
+        <v>12.9399995803833</v>
+      </c>
+      <c r="D2159" t="n">
+        <v>12.6999998092651</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>12.7399997711182</v>
+      </c>
+      <c r="F2159" t="n">
+        <v>12.8599996566772</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>832</v>
+      </c>
+      <c r="H2159" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="835">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,13 +38,13 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677211761475</t>
+    <t xml:space="preserve">7.67677116394043</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728712081909</t>
+    <t xml:space="preserve">7.65728759765625</t>
   </si>
   <si>
     <t xml:space="preserve">7.63780307769775</t>
@@ -53,67 +53,67 @@
     <t xml:space="preserve">7.55986499786377</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59883451461792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40788841247559</t>
+    <t xml:space="preserve">7.59883403778076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4078893661499</t>
   </si>
   <si>
     <t xml:space="preserve">7.36502408981323</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63390684127808</t>
+    <t xml:space="preserve">7.63390636444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.44685745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52089834213257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972320556641</t>
+    <t xml:space="preserve">7.52089738845825</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
     <t xml:space="preserve">7.44296073913574</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75081014633179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7780876159668</t>
+    <t xml:space="preserve">7.75081157684326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77808809280396</t>
   </si>
   <si>
     <t xml:space="preserve">7.87161302566528</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79367685317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264541625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573829650879</t>
+    <t xml:space="preserve">7.79367589950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264446258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573877334595</t>
   </si>
   <si>
     <t xml:space="preserve">7.76250219345093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91837501525879</t>
+    <t xml:space="preserve">7.91837549209595</t>
   </si>
   <si>
     <t xml:space="preserve">7.9027886390686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94955062866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588151931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175624847412</t>
+    <t xml:space="preserve">7.94954919815063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7897801399231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175720214844</t>
   </si>
   <si>
     <t xml:space="preserve">8.02748584747314</t>
@@ -122,79 +122,79 @@
     <t xml:space="preserve">8.19115447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.1677713394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410556793213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99631071090698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439105987549</t>
+    <t xml:space="preserve">8.16777229309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410747528076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99631261825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926275253296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645584106445</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043788909912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8560266494751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80146980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860404968262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691295623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184301376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7391209602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70405101776123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48193025588989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803258895874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4585485458374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0430736541748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98851823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70015287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7547082901001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602521896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80147075653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860548019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691438674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184396743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73912048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7040491104126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50530958175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.04307460784912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98851776123047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7001519203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499282836914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
   </si>
   <si>
     <t xml:space="preserve">8.0820426940918</t>
@@ -206,16 +206,16 @@
     <t xml:space="preserve">8.24570941925049</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26129627227783</t>
+    <t xml:space="preserve">8.26129531860352</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717147827148</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49510669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58863258361816</t>
+    <t xml:space="preserve">8.49510765075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215560913086</t>
@@ -233,10 +233,10 @@
     <t xml:space="preserve">8.74354934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65539264678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63134956359863</t>
+    <t xml:space="preserve">8.65539360046387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
     <t xml:space="preserve">8.4229793548584</t>
@@ -245,25 +245,25 @@
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14248085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453765869141</t>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453670501709</t>
   </si>
   <si>
     <t xml:space="preserve">8.39893531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53517818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57524967193604</t>
+    <t xml:space="preserve">8.53517913818359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900585174561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57525062561035</t>
   </si>
   <si>
     <t xml:space="preserve">8.61532115936279</t>
@@ -275,10 +275,10 @@
     <t xml:space="preserve">9.0561056137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44880294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899438858032</t>
+    <t xml:space="preserve">9.44880485534668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899429321289</t>
   </si>
   <si>
     <t xml:space="preserve">9.89760112762451</t>
@@ -287,16 +287,16 @@
     <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96171474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76135921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107421875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53696060180664</t>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7613582611084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107517242432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
     <t xml:space="preserve">9.61710166931152</t>
@@ -311,43 +311,43 @@
     <t xml:space="preserve">9.25646209716797</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29653167724609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18433284759521</t>
+    <t xml:space="preserve">9.29653358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18433380126953</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667560577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674613952637</t>
+    <t xml:space="preserve">9.37667465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674709320068</t>
   </si>
   <si>
     <t xml:space="preserve">9.42476081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32859039306641</t>
+    <t xml:space="preserve">9.32858943939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40071773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2404317855835</t>
+    <t xml:space="preserve">9.40071678161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24043273925781</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851985931396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234848022461</t>
+    <t xml:space="preserve">9.28851890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
     <t xml:space="preserve">8.9439058303833</t>
@@ -359,10 +359,10 @@
     <t xml:space="preserve">9.21638965606689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20837497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13624668121338</t>
+    <t xml:space="preserve">9.20837593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1362476348877</t>
   </si>
   <si>
     <t xml:space="preserve">8.99199104309082</t>
@@ -371,55 +371,55 @@
     <t xml:space="preserve">8.85574817657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89581966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085975646973</t>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48086071014404</t>
   </si>
   <si>
     <t xml:space="preserve">9.51291751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27248859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1041898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17631912231445</t>
+    <t xml:space="preserve">9.27248954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.10419082641602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17631816864014</t>
   </si>
   <si>
     <t xml:space="preserve">9.09617710113525</t>
   </si>
   <si>
-    <t xml:space="preserve">8.98397636413574</t>
+    <t xml:space="preserve">8.98397731781006</t>
   </si>
   <si>
     <t xml:space="preserve">8.93589019775391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8878059387207</t>
+    <t xml:space="preserve">8.88780498504639</t>
   </si>
   <si>
     <t xml:space="preserve">8.97596263885498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87177658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553371429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007720947266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
+    <t xml:space="preserve">8.87177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0000057220459</t>
   </si>
   <si>
     <t xml:space="preserve">8.77560520172119</t>
@@ -428,28 +428,28 @@
     <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936424255371</t>
+    <t xml:space="preserve">8.64737796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
     <t xml:space="preserve">8.68744945526123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75156402587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5271635055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723499298096</t>
+    <t xml:space="preserve">8.75156307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319381713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52716541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723594665527</t>
   </si>
   <si>
     <t xml:space="preserve">8.69546413421631</t>
@@ -485,49 +485,49 @@
     <t xml:space="preserve">8.59127807617188</t>
   </si>
   <si>
-    <t xml:space="preserve">8.72751998901367</t>
+    <t xml:space="preserve">8.72752094268799</t>
   </si>
   <si>
     <t xml:space="preserve">8.47907829284668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4710636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510765075684</t>
+    <t xml:space="preserve">8.43099403381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47106456756592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510860443115</t>
   </si>
   <si>
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45503520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475212097168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489223480225</t>
+    <t xml:space="preserve">8.45503616333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489318847656</t>
   </si>
   <si>
     <t xml:space="preserve">8.65425300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32456684112549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22565937042236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335666656494</t>
+    <t xml:space="preserve">8.3245677947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.225661277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335762023926</t>
   </si>
   <si>
     <t xml:space="preserve">8.57183074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53062057495117</t>
+    <t xml:space="preserve">8.53062152862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.44819927215576</t>
@@ -536,10 +536,10 @@
     <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.7778844833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577701568604</t>
+    <t xml:space="preserve">8.77788543701172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577796936035</t>
   </si>
   <si>
     <t xml:space="preserve">8.24214553833008</t>
@@ -551,7 +551,7 @@
     <t xml:space="preserve">8.07730293273926</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02784824371338</t>
+    <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
     <t xml:space="preserve">8.14323997497559</t>
@@ -560,22 +560,22 @@
     <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99488019943237</t>
+    <t xml:space="preserve">7.99488067626953</t>
   </si>
   <si>
     <t xml:space="preserve">7.83003807067871</t>
   </si>
   <si>
-    <t xml:space="preserve">7.92894315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597511291504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464776992798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683664321899</t>
+    <t xml:space="preserve">7.92894411087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8959755897522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464824676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
   </si>
   <si>
     <t xml:space="preserve">7.73113298416138</t>
@@ -584,43 +584,43 @@
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574220657349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058481216431</t>
+    <t xml:space="preserve">7.76410150527954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574172973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058528900146</t>
   </si>
   <si>
     <t xml:space="preserve">7.66519546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69816493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5992579460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222742080688</t>
+    <t xml:space="preserve">7.69816303253174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925842285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222694396973</t>
   </si>
   <si>
     <t xml:space="preserve">7.5662899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355285644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386764526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38496160507202</t>
+    <t xml:space="preserve">7.79707002639771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355333328247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277320861816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386859893799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38496255874634</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
@@ -632,34 +632,34 @@
     <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20363521575928</t>
+    <t xml:space="preserve">7.20363473892212</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50035238265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25308799743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41793060302734</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4344162940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13769865036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17066621780396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08824443817139</t>
+    <t xml:space="preserve">7.50035285949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25308847427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4179310798645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43441534042358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738386154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13769769668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1706657409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.08824491500854</t>
   </si>
   <si>
     <t xml:space="preserve">6.92340183258057</t>
@@ -668,16 +668,16 @@
     <t xml:space="preserve">6.90691804885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176113128662</t>
+    <t xml:space="preserve">6.98933887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0717601776123</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62668514251709</t>
+    <t xml:space="preserve">6.62668466567993</t>
   </si>
   <si>
     <t xml:space="preserve">6.65965366363525</t>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">6.75855922698975</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84098100662231</t>
+    <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
     <t xml:space="preserve">6.69262170791626</t>
@@ -695,19 +695,19 @@
     <t xml:space="preserve">6.7091064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02230787277222</t>
+    <t xml:space="preserve">7.02230834960938</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85746431350708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00582408905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28605604171753</t>
+    <t xml:space="preserve">6.85746479034424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00582313537598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
     <t xml:space="preserve">7.3684778213501</t>
@@ -716,10 +716,10 @@
     <t xml:space="preserve">7.10472965240479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.23660326004028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394905090332</t>
+    <t xml:space="preserve">7.23660373687744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87395000457764</t>
   </si>
   <si>
     <t xml:space="preserve">6.52777910232544</t>
@@ -728,7 +728,7 @@
     <t xml:space="preserve">6.59371662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129531860352</t>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
@@ -737,19 +737,19 @@
     <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67613792419434</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12121343612671</t>
+    <t xml:space="preserve">6.67613840103149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12121438980103</t>
   </si>
   <si>
     <t xml:space="preserve">6.93988656997681</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89043235778809</t>
+    <t xml:space="preserve">6.79152727127075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8904333114624</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
@@ -761,31 +761,31 @@
     <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35199308395386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332185745239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871120452881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6816782951355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705486297607</t>
+    <t xml:space="preserve">7.35199403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871025085449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68167877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54980516433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705533981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
-    <t xml:space="preserve">7.560218334198</t>
+    <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
     <t xml:space="preserve">7.09839487075806</t>
@@ -797,25 +797,25 @@
     <t xml:space="preserve">7.5773229598999</t>
   </si>
   <si>
-    <t xml:space="preserve">7.61153173446655</t>
+    <t xml:space="preserve">7.61153221130371</t>
   </si>
   <si>
     <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3549633026123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33785915374756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233554840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102214813232</t>
+    <t xml:space="preserve">7.35496377944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3378586769104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233602523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102262496948</t>
   </si>
   <si>
     <t xml:space="preserve">7.18391752243042</t>
@@ -833,7 +833,7 @@
     <t xml:space="preserve">7.23523187637329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2694411277771</t>
+    <t xml:space="preserve">7.26944065093994</t>
   </si>
   <si>
     <t xml:space="preserve">7.37206840515137</t>
@@ -842,13 +842,13 @@
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287269592285</t>
+    <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
     <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0470814704895</t>
+    <t xml:space="preserve">7.04708099365234</t>
   </si>
   <si>
     <t xml:space="preserve">7.08129024505615</t>
@@ -863,28 +863,28 @@
     <t xml:space="preserve">6.87603569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9615592956543</t>
+    <t xml:space="preserve">6.96155881881714</t>
   </si>
   <si>
     <t xml:space="preserve">6.89314079284668</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85893154144287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84182643890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.77340793609619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.85893201828003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84182691574097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.77340841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552658081055</t>
+    <t xml:space="preserve">6.46552610397339</t>
   </si>
   <si>
     <t xml:space="preserve">6.48263025283813</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5852575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41421270370483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36289930343628</t>
+    <t xml:space="preserve">6.58525848388672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41421222686768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36289882659912</t>
   </si>
   <si>
     <t xml:space="preserve">6.43131732940674</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053964614868</t>
+    <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
     <t xml:space="preserve">6.07212114334106</t>
@@ -929,10 +929,10 @@
     <t xml:space="preserve">6.31158494949341</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2773756980896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185256958008</t>
+    <t xml:space="preserve">6.27737617492676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185304641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.39710807800293</t>
@@ -944,19 +944,19 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7563042640686</t>
+    <t xml:space="preserve">6.75630378723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657236099243</t>
+    <t xml:space="preserve">6.63657188415527</t>
   </si>
   <si>
     <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8247218132019</t>
+    <t xml:space="preserve">6.82472229003906</t>
   </si>
   <si>
     <t xml:space="preserve">6.61946725845337</t>
@@ -971,7 +971,7 @@
     <t xml:space="preserve">6.68788576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.73919916152954</t>
+    <t xml:space="preserve">6.7391996383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
@@ -983,16 +983,16 @@
     <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86686658859253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02080726623535</t>
+    <t xml:space="preserve">5.86686611175537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02080678939819</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423931121826</t>
+    <t xml:space="preserve">5.76423835754395</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1004,28 +1004,28 @@
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346162796021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06295156478882</t>
+    <t xml:space="preserve">5.47346115112305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
     <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506973266602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53271007537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061851501465</t>
+    <t xml:space="preserve">4.75506925582886</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53271102905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061899185181</t>
   </si>
   <si>
     <t xml:space="preserve">4.58402395248413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32745504379272</t>
+    <t xml:space="preserve">4.32745552062988</t>
   </si>
   <si>
     <t xml:space="preserve">4.4471869468689</t>
@@ -1040,7 +1040,7 @@
     <t xml:space="preserve">5.04584741592407</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820707321167</t>
+    <t xml:space="preserve">5.26820611953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056577682495</t>
@@ -1058,13 +1058,13 @@
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52477502822876</t>
+    <t xml:space="preserve">5.54187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5247745513916</t>
   </si>
   <si>
     <t xml:space="preserve">5.64450693130493</t>
@@ -1073,13 +1073,13 @@
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319353103638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.84976243972778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.12343454360962</t>
+    <t xml:space="preserve">5.59319305419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.84976196289062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.12343502044678</t>
   </si>
   <si>
     <t xml:space="preserve">6.2944803237915</t>
@@ -1091,19 +1091,19 @@
     <t xml:space="preserve">6.03791189193726</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17474842071533</t>
+    <t xml:space="preserve">6.17474794387817</t>
   </si>
   <si>
     <t xml:space="preserve">6.08922576904297</t>
   </si>
   <si>
-    <t xml:space="preserve">6.26027154922485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96949338912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79844856262207</t>
+    <t xml:space="preserve">6.2602710723877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9694938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79844808578491</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
@@ -1115,7 +1115,7 @@
     <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7471342086792</t>
+    <t xml:space="preserve">5.74713373184204</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
@@ -1133,52 +1133,52 @@
     <t xml:space="preserve">5.66161155700684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57608842849731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79051303863525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209501266479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94445419311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16681337356567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13260412216187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917303085327</t>
+    <t xml:space="preserve">5.57608890533447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7905125617981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209453582764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94445371627808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16681385040283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13260507583618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917350769043</t>
   </si>
   <si>
     <t xml:space="preserve">7.74836874008179</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76547336578369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7825779914856</t>
+    <t xml:space="preserve">7.76547384262085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78257846832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756492614746</t>
+    <t xml:space="preserve">8.10756397247314</t>
   </si>
   <si>
     <t xml:space="preserve">8.12466907501221</t>
   </si>
   <si>
-    <t xml:space="preserve">8.03914737701416</t>
+    <t xml:space="preserve">8.03914642333984</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625152587891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783302307129</t>
+    <t xml:space="preserve">7.98783206939697</t>
   </si>
   <si>
     <t xml:space="preserve">7.95362377166748</t>
@@ -1187,25 +1187,25 @@
     <t xml:space="preserve">7.97072744369507</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91941356658936</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
+    <t xml:space="preserve">7.91941452026367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230941772461</t>
   </si>
   <si>
     <t xml:space="preserve">7.73126411437988</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81678771972656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93651914596558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86810064315796</t>
+    <t xml:space="preserve">7.81678676605225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93651819229126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0220422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8681001663208</t>
   </si>
   <si>
     <t xml:space="preserve">7.79968214035034</t>
@@ -1214,22 +1214,22 @@
     <t xml:space="preserve">8.2786111831665</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3812370300293</t>
+    <t xml:space="preserve">8.38123798370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.36413288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44965553283691</t>
+    <t xml:space="preserve">8.44965648651123</t>
   </si>
   <si>
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504508972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46676063537598</t>
+    <t xml:space="preserve">8.595046043396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46675968170166</t>
   </si>
   <si>
     <t xml:space="preserve">8.48386478424072</t>
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41544723510742</t>
+    <t xml:space="preserve">8.41544628143311</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096893310547</t>
@@ -1253,49 +1253,49 @@
     <t xml:space="preserve">8.85161399841309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97989845275879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0226583480835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198810577393</t>
+    <t xml:space="preserve">8.97989749908447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.02265930175781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57855701446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1772165298462</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1344556808472</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3910245895386</t>
+    <t xml:space="preserve">9.45027351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66408157348633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57855796813965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1772174835205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1344575881958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
     <t xml:space="preserve">10.51930809021</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8613996505737</t>
+    <t xml:space="preserve">10.8613986968994</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
+    <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
@@ -1319,13 +1319,13 @@
     <t xml:space="preserve">11.8021507263184</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7166271209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304342269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883436203003</t>
+    <t xml:space="preserve">11.716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.588342666626</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
@@ -1334,136 +1334,139 @@
     <t xml:space="preserve">12.2725276947021</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0159587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.844913482666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5028209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7593898773193</t>
+    <t xml:space="preserve">12.0159578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8449125289917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5028200149536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3317756652832</t>
+    <t xml:space="preserve">11.3317747116089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0587196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5020551681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257183074951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2163820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7287139892578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173799514771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617134094238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730464935303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.684380531311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6400461196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.748384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.482382774353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710506439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050489425659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.615385055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3493824005127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9503812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513801574707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1720495223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7040510177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5267171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813848495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6597175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2607154846191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3937168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7927179336548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030530929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
     <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5020551681519</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257192611694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380493164062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2163820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7287149429321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617153167725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730474472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6843795776367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4823837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710515975952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050498962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6153841018677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.349383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9503812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1720495223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7040510177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5267181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6597175598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2607164382935</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3937168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7927188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.014386177063</t>
+    <t xml:space="preserve">12.0143852233887</t>
   </si>
   <si>
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
@@ -1475,49 +1478,49 @@
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217266082764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1670579910278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3887252807617</t>
+    <t xml:space="preserve">13.5217256546021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1670589447021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.388726234436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6990594863892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.186728477478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970645904541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7630653381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.5857305526733</t>
+    <t xml:space="preserve">13.6990604400635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.1867294311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970636367798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7630643844604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5857315063477</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527292251587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2310628890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2753973007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9847316741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6300649642944</t>
+    <t xml:space="preserve">14.2310619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.9847326278687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.851731300354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6300640106201</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1529,7 +1532,7 @@
     <t xml:space="preserve">13.787727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4773931503296</t>
+    <t xml:space="preserve">13.4773921966553</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
@@ -1538,22 +1541,22 @@
     <t xml:space="preserve">12.8567228317261</t>
   </si>
   <si>
-    <t xml:space="preserve">12.147385597229</t>
+    <t xml:space="preserve">12.1473865509033</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350555419922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463886260986</t>
+    <t xml:space="preserve">12.5463876724243</t>
   </si>
   <si>
     <t xml:space="preserve">10.4627132415771</t>
@@ -1565,34 +1568,34 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6793899536133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4133882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2715196609497</t>
+    <t xml:space="preserve">12.679388999939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.413387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.271520614624</t>
   </si>
   <si>
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557838439941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7217855453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735164642334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848505020142</t>
+    <t xml:space="preserve">11.4557828903198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7217845916748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735155105591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848495483398</t>
   </si>
   <si>
     <t xml:space="preserve">11.3671159744263</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4025831222534</t>
+    <t xml:space="preserve">11.4025821685791</t>
   </si>
   <si>
     <t xml:space="preserve">11.5976505279541</t>
@@ -1604,7 +1607,7 @@
     <t xml:space="preserve">11.544451713562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6508522033691</t>
+    <t xml:space="preserve">11.6508512496948</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
@@ -1613,7 +1616,7 @@
     <t xml:space="preserve">11.5089836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7572507858276</t>
+    <t xml:space="preserve">11.757251739502</t>
   </si>
   <si>
     <t xml:space="preserve">11.5799179077148</t>
@@ -2511,6 +2514,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.8199996948242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8800001144409</t>
   </si>
 </sst>
 </file>
@@ -42026,7 +42032,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42078,7 +42084,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42104,7 +42110,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42130,7 +42136,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42156,7 +42162,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42182,7 +42188,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42208,7 +42214,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42234,7 +42240,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42260,7 +42266,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42286,7 +42292,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42312,7 +42318,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42338,7 +42344,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42364,7 +42370,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42390,7 +42396,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42416,7 +42422,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42442,7 +42448,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42468,7 +42474,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42494,7 +42500,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42520,7 +42526,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42546,7 +42552,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42572,7 +42578,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42598,7 +42604,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42624,7 +42630,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42650,7 +42656,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42676,7 +42682,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42702,7 +42708,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42728,7 +42734,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42754,7 +42760,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42780,7 +42786,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42806,7 +42812,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42832,7 +42838,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42858,7 +42864,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42884,7 +42890,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42910,7 +42916,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42936,7 +42942,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42962,7 +42968,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42988,7 +42994,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43014,7 +43020,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43040,7 +43046,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43066,7 +43072,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43092,7 +43098,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43118,7 +43124,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43170,7 +43176,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43196,7 +43202,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43248,7 +43254,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43300,7 +43306,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43352,7 +43358,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43378,7 +43384,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43404,7 +43410,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43482,7 +43488,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43508,7 +43514,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43560,7 +43566,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43586,7 +43592,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43690,7 +43696,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43716,7 +43722,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43742,7 +43748,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44028,7 +44034,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44132,7 +44138,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44158,7 +44164,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44184,7 +44190,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44210,7 +44216,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44236,7 +44242,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44288,7 +44294,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44340,7 +44346,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44366,7 +44372,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44392,7 +44398,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44418,7 +44424,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44444,7 +44450,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44470,7 +44476,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44496,7 +44502,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44548,7 +44554,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44574,7 +44580,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44600,7 +44606,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44652,7 +44658,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44756,7 +44762,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44782,7 +44788,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44834,7 +44840,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44860,7 +44866,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44886,7 +44892,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44912,7 +44918,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44938,7 +44944,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44964,7 +44970,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44990,7 +44996,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45016,7 +45022,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45042,7 +45048,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45068,7 +45074,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45094,7 +45100,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45120,7 +45126,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45146,7 +45152,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45172,7 +45178,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45198,7 +45204,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45224,7 +45230,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45250,7 +45256,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45276,7 +45282,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45302,7 +45308,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45328,7 +45334,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45354,7 +45360,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45380,7 +45386,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45406,7 +45412,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45432,7 +45438,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45458,7 +45464,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45484,7 +45490,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45510,7 +45516,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45536,7 +45542,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45562,7 +45568,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45588,7 +45594,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45614,7 +45620,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45640,7 +45646,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45666,7 +45672,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45692,7 +45698,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45718,7 +45724,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45744,7 +45750,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45770,7 +45776,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45796,7 +45802,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45822,7 +45828,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45848,7 +45854,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45874,7 +45880,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45900,7 +45906,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45926,7 +45932,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45952,7 +45958,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45978,7 +45984,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46004,7 +46010,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46030,7 +46036,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46056,7 +46062,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46082,7 +46088,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46108,7 +46114,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46134,7 +46140,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46160,7 +46166,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46186,7 +46192,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46212,7 +46218,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46238,7 +46244,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46264,7 +46270,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46290,7 +46296,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46316,7 +46322,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46342,7 +46348,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46368,7 +46374,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46394,7 +46400,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46420,7 +46426,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46446,7 +46452,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46472,7 +46478,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46498,7 +46504,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46524,7 +46530,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46550,7 +46556,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46576,7 +46582,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46602,7 +46608,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46628,7 +46634,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46654,7 +46660,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46680,7 +46686,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46706,7 +46712,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46732,7 +46738,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46758,7 +46764,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46784,7 +46790,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46810,7 +46816,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46836,7 +46842,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46862,7 +46868,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46888,7 +46894,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46914,7 +46920,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46940,7 +46946,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46966,7 +46972,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46992,7 +46998,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47018,7 +47024,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47044,7 +47050,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47070,7 +47076,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47096,7 +47102,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47122,7 +47128,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47148,7 +47154,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47174,7 +47180,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47200,7 +47206,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47226,7 +47232,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47252,7 +47258,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47278,7 +47284,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47304,7 +47310,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47330,7 +47336,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47356,7 +47362,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47382,7 +47388,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47408,7 +47414,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47434,7 +47440,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47460,7 +47466,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47486,7 +47492,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47512,7 +47518,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47538,7 +47544,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47564,7 +47570,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47590,7 +47596,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47616,7 +47622,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47642,7 +47648,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47668,7 +47674,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47694,7 +47700,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47720,7 +47726,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47746,7 +47752,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47772,7 +47778,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47798,7 +47804,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47824,7 +47830,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47850,7 +47856,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47876,7 +47882,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47902,7 +47908,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47928,7 +47934,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47954,7 +47960,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47980,7 +47986,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48006,7 +48012,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48032,7 +48038,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48058,7 +48064,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48084,7 +48090,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48110,7 +48116,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48136,7 +48142,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48162,7 +48168,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48188,7 +48194,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48214,7 +48220,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48240,7 +48246,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48266,7 +48272,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48292,7 +48298,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48318,7 +48324,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48344,7 +48350,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48370,7 +48376,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48396,7 +48402,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48422,7 +48428,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48448,7 +48454,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48474,7 +48480,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48500,7 +48506,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48526,7 +48532,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48552,7 +48558,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48578,7 +48584,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48604,7 +48610,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48630,7 +48636,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48656,7 +48662,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48682,7 +48688,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48708,7 +48714,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48734,7 +48740,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48760,7 +48766,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48786,7 +48792,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48812,7 +48818,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48838,7 +48844,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48864,7 +48870,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48890,7 +48896,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48916,7 +48922,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48942,7 +48948,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48968,7 +48974,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -48994,7 +49000,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49020,7 +49026,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49046,7 +49052,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49072,7 +49078,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49098,7 +49104,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49124,7 +49130,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49150,7 +49156,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49176,7 +49182,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49202,7 +49208,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49228,7 +49234,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49254,7 +49260,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49280,7 +49286,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49306,7 +49312,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49332,7 +49338,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49358,7 +49364,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49384,7 +49390,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49410,7 +49416,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49436,7 +49442,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49462,7 +49468,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49488,7 +49494,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49514,7 +49520,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49540,7 +49546,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49566,7 +49572,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49592,7 +49598,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49618,7 +49624,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49644,7 +49650,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49670,7 +49676,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49696,7 +49702,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49722,7 +49728,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49748,7 +49754,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49774,7 +49780,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49800,7 +49806,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49826,7 +49832,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49852,7 +49858,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49878,7 +49884,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49904,7 +49910,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49930,7 +49936,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49956,7 +49962,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49982,7 +49988,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50008,7 +50014,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50034,7 +50040,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50060,7 +50066,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50086,7 +50092,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50112,7 +50118,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50138,7 +50144,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50164,7 +50170,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50190,7 +50196,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50216,7 +50222,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50242,7 +50248,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50268,7 +50274,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50294,7 +50300,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50320,7 +50326,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50346,7 +50352,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50372,7 +50378,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50398,7 +50404,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50424,7 +50430,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50450,7 +50456,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50476,7 +50482,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50502,7 +50508,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50528,7 +50534,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50554,7 +50560,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50580,7 +50586,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50606,7 +50612,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50632,7 +50638,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50658,7 +50664,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50684,7 +50690,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50710,7 +50716,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50736,7 +50742,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50762,7 +50768,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50788,7 +50794,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50814,7 +50820,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50840,7 +50846,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50866,7 +50872,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50892,7 +50898,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50918,7 +50924,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50944,7 +50950,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50970,7 +50976,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -50996,7 +51002,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51022,7 +51028,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51048,7 +51054,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51074,7 +51080,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51100,7 +51106,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51126,7 +51132,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51152,7 +51158,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51178,7 +51184,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51204,7 +51210,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51230,7 +51236,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51256,7 +51262,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51282,7 +51288,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51308,7 +51314,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51334,7 +51340,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51360,7 +51366,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51386,7 +51392,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51412,7 +51418,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51438,7 +51444,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51464,7 +51470,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51490,7 +51496,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51516,7 +51522,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51542,7 +51548,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51568,7 +51574,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51594,7 +51600,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51620,7 +51626,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51646,7 +51652,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51672,7 +51678,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51698,7 +51704,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51724,7 +51730,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51750,7 +51756,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51776,7 +51782,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51802,7 +51808,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51828,7 +51834,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51854,7 +51860,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51880,7 +51886,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51906,7 +51912,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51932,7 +51938,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51958,7 +51964,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51984,7 +51990,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52010,7 +52016,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52036,7 +52042,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52062,7 +52068,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52088,7 +52094,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52114,7 +52120,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52140,7 +52146,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52166,7 +52172,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52192,7 +52198,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52218,7 +52224,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52244,7 +52250,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52270,7 +52276,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52296,7 +52302,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52322,7 +52328,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52348,7 +52354,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52374,7 +52380,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52400,7 +52406,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52426,7 +52432,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52452,7 +52458,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52478,7 +52484,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52504,7 +52510,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52530,7 +52536,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52556,7 +52562,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52582,7 +52588,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52608,7 +52614,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52634,7 +52640,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52660,7 +52666,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52686,7 +52692,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52712,7 +52718,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52738,7 +52744,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52764,7 +52770,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52790,7 +52796,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52816,7 +52822,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52842,7 +52848,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52868,7 +52874,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52894,7 +52900,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52920,7 +52926,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52946,7 +52952,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52972,7 +52978,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -52998,7 +53004,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53024,7 +53030,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53050,7 +53056,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53076,7 +53082,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53102,7 +53108,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53128,7 +53134,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53154,7 +53160,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53180,7 +53186,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53206,7 +53212,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53232,7 +53238,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53258,7 +53264,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53284,7 +53290,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53310,7 +53316,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53336,7 +53342,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53362,7 +53368,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53388,7 +53394,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53414,7 +53420,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53440,7 +53446,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53466,7 +53472,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53492,7 +53498,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53518,7 +53524,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53544,7 +53550,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53570,7 +53576,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53596,7 +53602,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53622,7 +53628,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53648,7 +53654,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53674,7 +53680,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53700,7 +53706,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53726,7 +53732,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53752,7 +53758,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53778,7 +53784,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53804,7 +53810,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53830,7 +53836,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53856,7 +53862,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53882,7 +53888,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53908,7 +53914,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53934,7 +53940,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53960,7 +53966,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53986,7 +53992,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54012,7 +54018,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54038,7 +54044,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54064,7 +54070,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54090,7 +54096,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54116,7 +54122,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54142,7 +54148,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54168,7 +54174,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54194,7 +54200,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54220,7 +54226,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54246,7 +54252,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54272,7 +54278,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54298,7 +54304,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54324,7 +54330,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54350,7 +54356,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54376,7 +54382,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54402,7 +54408,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54428,7 +54434,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54454,7 +54460,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54480,7 +54486,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54506,7 +54512,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54532,7 +54538,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54558,7 +54564,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54584,7 +54590,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54610,7 +54616,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54636,7 +54642,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54662,7 +54668,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54688,7 +54694,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54714,7 +54720,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54740,7 +54746,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54766,7 +54772,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54792,7 +54798,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54818,7 +54824,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54844,7 +54850,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54870,7 +54876,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54896,7 +54902,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54922,7 +54928,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54948,7 +54954,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54974,7 +54980,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55000,7 +55006,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55026,7 +55032,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55052,7 +55058,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55078,7 +55084,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55104,7 +55110,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55130,7 +55136,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55156,7 +55162,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55182,7 +55188,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55208,7 +55214,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55234,7 +55240,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55260,7 +55266,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55286,7 +55292,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55312,7 +55318,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55338,7 +55344,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55364,7 +55370,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55390,7 +55396,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55416,7 +55422,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55442,7 +55448,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55468,7 +55474,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55494,7 +55500,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55520,7 +55526,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55546,7 +55552,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55572,7 +55578,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55598,7 +55604,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55624,7 +55630,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55650,7 +55656,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55676,7 +55682,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55702,7 +55708,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55728,7 +55734,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55754,7 +55760,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55780,7 +55786,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55806,7 +55812,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55832,7 +55838,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55858,7 +55864,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55884,7 +55890,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55910,7 +55916,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55936,7 +55942,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55962,7 +55968,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55988,7 +55994,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56014,7 +56020,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56040,7 +56046,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56066,7 +56072,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56092,7 +56098,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56118,7 +56124,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56144,7 +56150,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56170,7 +56176,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56196,7 +56202,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56222,7 +56228,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56248,7 +56254,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56274,7 +56280,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56300,7 +56306,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56326,7 +56332,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56352,7 +56358,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56378,7 +56384,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56404,7 +56410,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56430,7 +56436,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56456,7 +56462,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56482,7 +56488,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56508,7 +56514,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56534,7 +56540,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56560,7 +56566,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56586,7 +56592,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56612,7 +56618,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56638,7 +56644,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56664,7 +56670,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56690,7 +56696,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56716,7 +56722,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56742,7 +56748,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56768,7 +56774,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56794,7 +56800,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56820,7 +56826,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56846,7 +56852,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56872,7 +56878,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56898,7 +56904,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56924,7 +56930,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56950,7 +56956,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56976,7 +56982,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57002,7 +57008,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57028,7 +57034,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57054,7 +57060,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57080,7 +57086,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57106,7 +57112,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57132,7 +57138,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57158,7 +57164,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57184,7 +57190,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57210,7 +57216,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57236,7 +57242,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57262,7 +57268,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57288,7 +57294,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57314,7 +57320,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57340,7 +57346,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57366,7 +57372,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57392,7 +57398,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57418,7 +57424,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57444,7 +57450,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57470,7 +57476,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57496,7 +57502,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57522,7 +57528,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57548,7 +57554,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57574,7 +57580,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57600,7 +57606,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57626,7 +57632,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57652,7 +57658,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57678,7 +57684,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57704,7 +57710,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57730,7 +57736,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57756,7 +57762,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57782,7 +57788,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57808,7 +57814,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57834,7 +57840,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57860,7 +57866,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57886,7 +57892,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57912,7 +57918,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57938,7 +57944,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57964,7 +57970,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57990,7 +57996,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58016,7 +58022,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58042,7 +58048,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58068,7 +58074,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58094,7 +58100,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58120,7 +58126,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58146,7 +58152,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58172,7 +58178,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58198,7 +58204,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58224,7 +58230,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58250,7 +58256,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58276,7 +58282,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58302,7 +58308,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58328,7 +58334,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58354,7 +58360,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58380,7 +58386,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58406,7 +58412,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58432,7 +58438,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58458,7 +58464,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58484,7 +58490,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58510,7 +58516,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58536,7 +58542,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58562,7 +58568,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58588,7 +58594,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58614,7 +58620,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58640,7 +58646,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58666,7 +58672,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58692,7 +58698,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58718,7 +58724,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58744,7 +58750,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58770,7 +58776,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58796,7 +58802,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58822,7 +58828,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58848,7 +58854,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2154" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58874,7 +58880,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2155" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58900,7 +58906,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2156" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58926,7 +58932,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2157" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58952,7 +58958,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2158" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58978,7 +58984,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2159" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59004,7 +59010,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G2160" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59012,7 +59018,7 @@
     </row>
     <row r="2161">
       <c r="A2161" s="1" t="n">
-        <v>45470.6493634259</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B2161" t="n">
         <v>10978</v>
@@ -59030,9 +59036,35 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G2161" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2161" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" s="1" t="n">
+        <v>45471.6493981481</v>
+      </c>
+      <c r="B2162" t="n">
+        <v>62195</v>
+      </c>
+      <c r="C2162" t="n">
+        <v>13.039999961853</v>
+      </c>
+      <c r="D2162" t="n">
+        <v>12.3000001907349</v>
+      </c>
+      <c r="E2162" t="n">
+        <v>13.0200004577637</v>
+      </c>
+      <c r="F2162" t="n">
+        <v>12.8800001144409</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>834</v>
+      </c>
+      <c r="H2162" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="834">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,130 +38,130 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677116394043</t>
+    <t xml:space="preserve">7.6767725944519</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728759765625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883403778076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4078893661499</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502408981323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390636444092</t>
+    <t xml:space="preserve">7.65728664398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6378026008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883451461792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40788984298706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502361297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390588760376</t>
   </si>
   <si>
     <t xml:space="preserve">7.44685745239258</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52089738845825</t>
+    <t xml:space="preserve">7.52089691162109</t>
   </si>
   <si>
     <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44296073913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75081157684326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77808809280396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.87161302566528</t>
+    <t xml:space="preserve">7.4429612159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7508111000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.77808856964111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87161350250244</t>
   </si>
   <si>
     <t xml:space="preserve">7.79367589950562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83264446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573877334595</t>
+    <t xml:space="preserve">7.83264589309692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573972702026</t>
   </si>
   <si>
     <t xml:space="preserve">7.76250219345093</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91837549209595</t>
+    <t xml:space="preserve">7.91837501525879</t>
   </si>
   <si>
     <t xml:space="preserve">7.9027886390686</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94954919815063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7897801399231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588199615479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748584747314</t>
+    <t xml:space="preserve">7.94955062866211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977823257446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588247299194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748680114746</t>
   </si>
   <si>
     <t xml:space="preserve">8.19115447998047</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16777229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410747528076</t>
+    <t xml:space="preserve">8.1677713394165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410652160645</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926275253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1443920135498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06645584106445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7547082901001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043836593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602521896362</t>
+    <t xml:space="preserve">7.80926418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14439105987549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06645488739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.80147075653076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75860548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691438674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184396743774</t>
+    <t xml:space="preserve">7.75860452651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691343307495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184301376343</t>
   </si>
   <si>
     <t xml:space="preserve">7.73912048339844</t>
@@ -173,25 +173,25 @@
     <t xml:space="preserve">7.48192977905273</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50530958175659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854759216309</t>
+    <t xml:space="preserve">7.50531148910522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4780330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854806900024</t>
   </si>
   <si>
     <t xml:space="preserve">8.04307460784912</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851776123047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001519203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499282836914</t>
+    <t xml:space="preserve">7.98851871490479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015239715576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8949933052063</t>
   </si>
   <si>
     <t xml:space="preserve">8.01969242095947</t>
@@ -200,306 +200,306 @@
     <t xml:space="preserve">8.0820426940918</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10542297363281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129531860352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41717147827148</t>
+    <t xml:space="preserve">8.10542392730713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2457103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129817962646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41717052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510669708252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863162994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407573699951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567764282227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74354934692383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63135051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4229793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.33482265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453765869141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900775909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532115936279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28050422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0561056137085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880390167236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899438858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760208129883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53696060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61710262298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.73731517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490379333496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646209716797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29653263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18433284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45681762695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37667560577393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674518585205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42475986480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32859039306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30454635620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40071773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24043273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057571411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851795196533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234657287598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9439058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638965606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1362476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99199199676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660411834717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48086071014404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291751861572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248954772949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1041898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17631912231445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617710113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98397636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93589019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8878059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007625579834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0000057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560615539551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67142009735107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333583831787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156307220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319286346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546413421631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36687850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085201263428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58326435089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5031213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127902984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72751998901367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.479079246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099403381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4710636138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510765075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53407573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74354934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539360046387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63135051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4229793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3348217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453670501709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900585174561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57525062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28050327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0561056137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880485534668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899429321289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.89760112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7613582611084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107517242432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53695964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61710166931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73731517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29653358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18433380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45681762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37667465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674709320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42476081848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32858943939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30454635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40071678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851890563965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.9439058303833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21638965606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837593078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1362476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574817657471</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89582061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48086071014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248954772949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.10419082641602</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17631816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617710113525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98397731781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93589019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88780498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759243011475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0000057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560520172119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68744945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716541290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723594665527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276393890381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58326435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5031213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72752094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47907829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099403381348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47106456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510860443115</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
@@ -509,40 +509,40 @@
     <t xml:space="preserve">8.29475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37489318847656</t>
+    <t xml:space="preserve">8.37489223480225</t>
   </si>
   <si>
     <t xml:space="preserve">8.65425300598145</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3245677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.225661277771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335762023926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57183074951172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062152862549</t>
+    <t xml:space="preserve">8.32456684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22566032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57183170318604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
     <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.4069881439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77788543701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577796936035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214553833008</t>
+    <t xml:space="preserve">8.40698909759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.7778844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577701568604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214458465576</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
@@ -557,61 +557,61 @@
     <t xml:space="preserve">8.14323997497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081771850586</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488067626953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8959755897522</t>
+    <t xml:space="preserve">8.06081676483154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003902435303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9289436340332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597463607788</t>
   </si>
   <si>
     <t xml:space="preserve">7.71464824676514</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113298416138</t>
+    <t xml:space="preserve">7.51683664321899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113250732422</t>
   </si>
   <si>
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410150527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574172973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058528900146</t>
+    <t xml:space="preserve">7.76410055160522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574268341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058481216431</t>
   </si>
   <si>
     <t xml:space="preserve">7.66519546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69816303253174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59925842285156</t>
+    <t xml:space="preserve">7.69816446304321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5992579460144</t>
   </si>
   <si>
     <t xml:space="preserve">7.63222694396973</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5662899017334</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79707002639771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355333328247</t>
+    <t xml:space="preserve">7.56629037857056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79706907272339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355381011963</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277320861816</t>
@@ -620,25 +620,25 @@
     <t xml:space="preserve">7.48386859893799</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38496255874634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30254077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40144634246826</t>
+    <t xml:space="preserve">7.3849630355835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30254125595093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4014458656311</t>
   </si>
   <si>
     <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20363473892212</t>
+    <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550930023193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50035285949707</t>
+    <t xml:space="preserve">7.50035238265991</t>
   </si>
   <si>
     <t xml:space="preserve">7.25308847427368</t>
@@ -647,7 +647,7 @@
     <t xml:space="preserve">7.4179310798645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43441534042358</t>
+    <t xml:space="preserve">7.43441581726074</t>
   </si>
   <si>
     <t xml:space="preserve">7.46738386154175</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">7.13769769668579</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1706657409668</t>
+    <t xml:space="preserve">7.17066621780396</t>
   </si>
   <si>
     <t xml:space="preserve">7.08824491500854</t>
@@ -668,19 +668,19 @@
     <t xml:space="preserve">6.90691804885864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933887481689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0717601776123</t>
+    <t xml:space="preserve">6.98933839797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176065444946</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62668466567993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65965366363525</t>
+    <t xml:space="preserve">6.62668514251709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6596531867981</t>
   </si>
   <si>
     <t xml:space="preserve">6.75855922698975</t>
@@ -689,7 +689,7 @@
     <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69262170791626</t>
+    <t xml:space="preserve">6.69262218475342</t>
   </si>
   <si>
     <t xml:space="preserve">6.7091064453125</t>
@@ -698,40 +698,40 @@
     <t xml:space="preserve">7.02230834960938</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72559070587158</t>
+    <t xml:space="preserve">6.72559022903442</t>
   </si>
   <si>
     <t xml:space="preserve">6.85746479034424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00582313537598</t>
+    <t xml:space="preserve">7.00582408905029</t>
   </si>
   <si>
     <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3684778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472965240479</t>
+    <t xml:space="preserve">7.36847734451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10472917556763</t>
   </si>
   <si>
     <t xml:space="preserve">7.23660373687744</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87395000457764</t>
+    <t xml:space="preserve">6.87394952774048</t>
   </si>
   <si>
     <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59371662139893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51129484176636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74207496643066</t>
+    <t xml:space="preserve">6.59371614456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5112943649292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74207544326782</t>
   </si>
   <si>
     <t xml:space="preserve">6.41238927841187</t>
@@ -740,40 +740,40 @@
     <t xml:space="preserve">6.67613840103149</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12121438980103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93988656997681</t>
+    <t xml:space="preserve">7.12121391296387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93988609313965</t>
   </si>
   <si>
     <t xml:space="preserve">6.79152727127075</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8904333114624</t>
+    <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801200866699</t>
+    <t xml:space="preserve">6.80801248550415</t>
   </si>
   <si>
     <t xml:space="preserve">7.2201189994812</t>
   </si>
   <si>
-    <t xml:space="preserve">7.35199403762817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332042694092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871025085449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68167877197266</t>
+    <t xml:space="preserve">7.35199451446533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089864730835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332138061523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871072769165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68167972564697</t>
   </si>
   <si>
     <t xml:space="preserve">7.54980516433716</t>
@@ -788,16 +788,16 @@
     <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09839487075806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.49179983139038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5773229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61153221130371</t>
+    <t xml:space="preserve">7.09839534759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.49180030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57732343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61153173446655</t>
   </si>
   <si>
     <t xml:space="preserve">7.30364990234375</t>
@@ -806,10 +806,10 @@
     <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3378586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233602523804</t>
+    <t xml:space="preserve">7.33785915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
     <t xml:space="preserve">7.21812677383423</t>
@@ -833,10 +833,10 @@
     <t xml:space="preserve">7.23523187637329</t>
   </si>
   <si>
-    <t xml:space="preserve">7.26944065093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37206840515137</t>
+    <t xml:space="preserve">7.2694411277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37206792831421</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
@@ -854,25 +854,25 @@
     <t xml:space="preserve">7.08129024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0299768447876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.97866344451904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87603569030762</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.96155881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314079284668</t>
+    <t xml:space="preserve">7.02997732162476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.97866249084473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87603616714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.9615592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314031600952</t>
   </si>
   <si>
     <t xml:space="preserve">6.85893201828003</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84182691574097</t>
+    <t xml:space="preserve">6.84182643890381</t>
   </si>
   <si>
     <t xml:space="preserve">6.77340841293335</t>
@@ -887,28 +887,28 @@
     <t xml:space="preserve">6.46552610397339</t>
   </si>
   <si>
-    <t xml:space="preserve">6.48263025283813</t>
+    <t xml:space="preserve">6.48263072967529</t>
   </si>
   <si>
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58525848388672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41421222686768</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36289882659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43131732940674</t>
+    <t xml:space="preserve">6.58525800704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41421270370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36289834976196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43131685256958</t>
   </si>
   <si>
     <t xml:space="preserve">6.38000345230103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32868957519531</t>
+    <t xml:space="preserve">6.32869005203247</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10633039474487</t>
+    <t xml:space="preserve">6.10632991790771</t>
   </si>
   <si>
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158494949341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.27737617492676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.19185304641724</t>
+    <t xml:space="preserve">6.31158542633057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2773756980896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.19185256958008</t>
   </si>
   <si>
     <t xml:space="preserve">6.39710807800293</t>
@@ -956,7 +956,7 @@
     <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.82472229003906</t>
+    <t xml:space="preserve">6.8247218132019</t>
   </si>
   <si>
     <t xml:space="preserve">6.61946725845337</t>
@@ -965,16 +965,16 @@
     <t xml:space="preserve">6.55104875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5681529045105</t>
+    <t xml:space="preserve">6.56815338134766</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7391996383667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.34579467773438</t>
+    <t xml:space="preserve">6.73919916152954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.34579420089722</t>
   </si>
   <si>
     <t xml:space="preserve">6.44842147827148</t>
@@ -983,10 +983,10 @@
     <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
-    <t xml:space="preserve">5.86686611175537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02080678939819</t>
+    <t xml:space="preserve">5.86686658859253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.02080726623535</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
@@ -995,10 +995,10 @@
     <t xml:space="preserve">5.76423835754395</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88397121429443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98659801483154</t>
+    <t xml:space="preserve">5.88397073745728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9865984916687</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
@@ -1010,13 +1010,13 @@
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453353881836</t>
+    <t xml:space="preserve">4.99453401565552</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506925582886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271102905273</t>
+    <t xml:space="preserve">4.53271055221558</t>
   </si>
   <si>
     <t xml:space="preserve">4.19061899185181</t>
@@ -1025,16 +1025,16 @@
     <t xml:space="preserve">4.58402395248413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32745552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4471869468689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.36166429519653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7037558555603</t>
+    <t xml:space="preserve">4.32745504379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44718742370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.36166477203369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.70375633239746</t>
   </si>
   <si>
     <t xml:space="preserve">5.04584741592407</t>
@@ -1043,13 +1043,13 @@
     <t xml:space="preserve">5.26820611953735</t>
   </si>
   <si>
-    <t xml:space="preserve">5.49056577682495</t>
+    <t xml:space="preserve">5.49056529998779</t>
   </si>
   <si>
     <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78134346008301</t>
+    <t xml:space="preserve">5.78134393692017</t>
   </si>
   <si>
     <t xml:space="preserve">5.69582033157349</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372972488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5247745513916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.64450693130493</t>
+    <t xml:space="preserve">5.54187965393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52477502822876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.64450645446777</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
@@ -1079,28 +1079,28 @@
     <t xml:space="preserve">5.84976196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12343502044678</t>
+    <t xml:space="preserve">6.12343454360962</t>
   </si>
   <si>
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316692352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03791189193726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17474794387817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08922576904297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.2602710723877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.9694938659668</t>
+    <t xml:space="preserve">6.24316740036011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0379114151001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17474842071533</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08922529220581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26027202606201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.96949338912964</t>
   </si>
   <si>
     <t xml:space="preserve">5.79844808578491</t>
@@ -1109,10 +1109,10 @@
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292495727539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81555318832397</t>
+    <t xml:space="preserve">5.71292543411255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81555271148682</t>
   </si>
   <si>
     <t xml:space="preserve">5.74713373184204</t>
@@ -1124,43 +1124,43 @@
     <t xml:space="preserve">5.61029767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83265733718872</t>
+    <t xml:space="preserve">5.83265686035156</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66161155700684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.57608890533447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7905125617981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94445371627808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.16681385040283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13260507583618</t>
+    <t xml:space="preserve">5.66161108016968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.57608842849731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79051351547241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94445419311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.16681337356567</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13260459899902</t>
   </si>
   <si>
     <t xml:space="preserve">7.38917350769043</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74836874008179</t>
+    <t xml:space="preserve">7.74836921691895</t>
   </si>
   <si>
     <t xml:space="preserve">7.76547384262085</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78257846832275</t>
+    <t xml:space="preserve">7.7825779914856</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
@@ -1169,55 +1169,55 @@
     <t xml:space="preserve">8.10756397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12466907501221</t>
+    <t xml:space="preserve">8.12467002868652</t>
   </si>
   <si>
     <t xml:space="preserve">8.03914642333984</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05625152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98783206939697</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072744369507</t>
+    <t xml:space="preserve">8.05625057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98783349990845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072792053223</t>
   </si>
   <si>
     <t xml:space="preserve">7.91941452026367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90230941772461</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678676605225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.93651819229126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0220422744751</t>
+    <t xml:space="preserve">7.90230989456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126363754272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8167872428894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.93651914596558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
     <t xml:space="preserve">7.8681001663208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79968214035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2786111831665</t>
+    <t xml:space="preserve">7.7996826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27861022949219</t>
   </si>
   <si>
     <t xml:space="preserve">8.38123798370361</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36413288116455</t>
+    <t xml:space="preserve">8.36413192749023</t>
   </si>
   <si>
     <t xml:space="preserve">8.44965648651123</t>
@@ -1226,10 +1226,10 @@
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.595046043396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.46675968170166</t>
+    <t xml:space="preserve">8.59504508972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.46676063537598</t>
   </si>
   <si>
     <t xml:space="preserve">8.48386478424072</t>
@@ -1238,19 +1238,19 @@
     <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41544628143311</t>
+    <t xml:space="preserve">8.41544723510742</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68056774139404</t>
+    <t xml:space="preserve">8.68056678771973</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161399841309</t>
+    <t xml:space="preserve">8.85161304473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989749908447</t>
@@ -1262,31 +1262,31 @@
     <t xml:space="preserve">9.32198905944824</t>
   </si>
   <si>
-    <t xml:space="preserve">9.62131881713867</t>
+    <t xml:space="preserve">9.62131977081299</t>
   </si>
   <si>
     <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
-    <t xml:space="preserve">9.74960327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66408157348633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57855796813965</t>
+    <t xml:space="preserve">9.74960231781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66408061981201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
     <t xml:space="preserve">10.1772174835205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344575881958</t>
+    <t xml:space="preserve">10.1344566345215</t>
   </si>
   <si>
     <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.51930809021</t>
+    <t xml:space="preserve">10.5193071365356</t>
   </si>
   <si>
     <t xml:space="preserve">10.8613986968994</t>
@@ -1301,19 +1301,19 @@
     <t xml:space="preserve">10.9896841049194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0324449539185</t>
+    <t xml:space="preserve">11.0324440002441</t>
   </si>
   <si>
     <t xml:space="preserve">11.4600591659546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1014804840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8876733779907</t>
+    <t xml:space="preserve">12.1014795303345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.887674331665</t>
   </si>
   <si>
     <t xml:space="preserve">11.8021507263184</t>
@@ -1322,16 +1322,16 @@
     <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9304351806641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.588342666626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6311063766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725276947021</t>
+    <t xml:space="preserve">11.9304342269897</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883445739746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6311054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725267410278</t>
   </si>
   <si>
     <t xml:space="preserve">12.0159578323364</t>
@@ -1352,7 +1352,7 @@
     <t xml:space="preserve">11.3317747116089</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0587196350098</t>
+    <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.5020551681519</t>
@@ -1455,9 +1455,6 @@
   </si>
   <si>
     <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
     <t xml:space="preserve">12.0143852233887</t>
@@ -42032,7 +42029,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42084,7 +42081,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42110,7 +42107,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42136,7 +42133,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42162,7 +42159,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42188,7 +42185,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42214,7 +42211,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42240,7 +42237,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42266,7 +42263,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42292,7 +42289,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42318,7 +42315,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42344,7 +42341,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42370,7 +42367,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42396,7 +42393,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42422,7 +42419,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42448,7 +42445,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42474,7 +42471,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42500,7 +42497,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42526,7 +42523,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42552,7 +42549,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42578,7 +42575,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42604,7 +42601,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42630,7 +42627,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42656,7 +42653,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42682,7 +42679,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42708,7 +42705,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42734,7 +42731,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42760,7 +42757,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42786,7 +42783,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42812,7 +42809,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42838,7 +42835,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42864,7 +42861,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42890,7 +42887,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42916,7 +42913,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42942,7 +42939,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42968,7 +42965,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -42994,7 +42991,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43020,7 +43017,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43046,7 +43043,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43072,7 +43069,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43098,7 +43095,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43124,7 +43121,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43176,7 +43173,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43202,7 +43199,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43254,7 +43251,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43306,7 +43303,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43358,7 +43355,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43384,7 +43381,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43410,7 +43407,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43488,7 +43485,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43514,7 +43511,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43566,7 +43563,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43592,7 +43589,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43696,7 +43693,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43722,7 +43719,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43748,7 +43745,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44034,7 +44031,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44138,7 +44135,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44164,7 +44161,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44190,7 +44187,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44216,7 +44213,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44242,7 +44239,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44294,7 +44291,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44346,7 +44343,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44372,7 +44369,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44398,7 +44395,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44424,7 +44421,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44450,7 +44447,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44476,7 +44473,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44502,7 +44499,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44554,7 +44551,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44580,7 +44577,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44606,7 +44603,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44658,7 +44655,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44762,7 +44759,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44788,7 +44785,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44840,7 +44837,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44866,7 +44863,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44892,7 +44889,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44918,7 +44915,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44944,7 +44941,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44970,7 +44967,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -44996,7 +44993,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45022,7 +45019,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45048,7 +45045,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45074,7 +45071,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45100,7 +45097,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45126,7 +45123,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45152,7 +45149,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45178,7 +45175,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45204,7 +45201,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45230,7 +45227,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45256,7 +45253,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45282,7 +45279,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45308,7 +45305,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45334,7 +45331,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45360,7 +45357,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45386,7 +45383,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45412,7 +45409,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45438,7 +45435,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45464,7 +45461,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45490,7 +45487,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45516,7 +45513,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45542,7 +45539,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45568,7 +45565,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45594,7 +45591,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45620,7 +45617,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45646,7 +45643,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45672,7 +45669,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45698,7 +45695,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45724,7 +45721,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45750,7 +45747,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45776,7 +45773,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45802,7 +45799,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45828,7 +45825,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45854,7 +45851,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45880,7 +45877,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45906,7 +45903,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45932,7 +45929,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45958,7 +45955,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45984,7 +45981,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46010,7 +46007,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46036,7 +46033,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46062,7 +46059,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46088,7 +46085,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46114,7 +46111,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46140,7 +46137,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46166,7 +46163,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46192,7 +46189,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46218,7 +46215,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46244,7 +46241,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46270,7 +46267,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46296,7 +46293,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46322,7 +46319,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46348,7 +46345,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46374,7 +46371,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46400,7 +46397,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46426,7 +46423,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46452,7 +46449,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46478,7 +46475,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46504,7 +46501,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46530,7 +46527,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46556,7 +46553,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46582,7 +46579,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46608,7 +46605,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46634,7 +46631,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46660,7 +46657,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46686,7 +46683,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46712,7 +46709,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46738,7 +46735,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46764,7 +46761,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46790,7 +46787,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46816,7 +46813,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46842,7 +46839,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46868,7 +46865,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46894,7 +46891,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46920,7 +46917,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46946,7 +46943,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46972,7 +46969,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -46998,7 +46995,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47024,7 +47021,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47050,7 +47047,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47076,7 +47073,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47102,7 +47099,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47128,7 +47125,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47154,7 +47151,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47180,7 +47177,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47206,7 +47203,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47232,7 +47229,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47258,7 +47255,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47284,7 +47281,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47310,7 +47307,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47336,7 +47333,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47362,7 +47359,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47388,7 +47385,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47414,7 +47411,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47440,7 +47437,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47466,7 +47463,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47492,7 +47489,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47518,7 +47515,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47544,7 +47541,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47570,7 +47567,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47596,7 +47593,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47622,7 +47619,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47648,7 +47645,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47674,7 +47671,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47700,7 +47697,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47726,7 +47723,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47752,7 +47749,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47778,7 +47775,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47804,7 +47801,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47830,7 +47827,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47856,7 +47853,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47882,7 +47879,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47908,7 +47905,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47934,7 +47931,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47960,7 +47957,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -47986,7 +47983,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48012,7 +48009,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48038,7 +48035,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48064,7 +48061,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48090,7 +48087,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48116,7 +48113,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48142,7 +48139,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48168,7 +48165,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48194,7 +48191,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48220,7 +48217,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48246,7 +48243,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48272,7 +48269,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48298,7 +48295,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48324,7 +48321,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48350,7 +48347,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48376,7 +48373,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48402,7 +48399,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48428,7 +48425,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48454,7 +48451,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48480,7 +48477,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48506,7 +48503,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48532,7 +48529,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48558,7 +48555,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48584,7 +48581,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48610,7 +48607,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48636,7 +48633,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48662,7 +48659,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48688,7 +48685,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48714,7 +48711,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48740,7 +48737,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48766,7 +48763,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48792,7 +48789,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48818,7 +48815,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48844,7 +48841,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48870,7 +48867,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48896,7 +48893,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48922,7 +48919,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48948,7 +48945,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48974,7 +48971,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49000,7 +48997,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49026,7 +49023,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49052,7 +49049,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49078,7 +49075,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49104,7 +49101,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49130,7 +49127,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49156,7 +49153,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49182,7 +49179,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49208,7 +49205,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49234,7 +49231,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49260,7 +49257,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49286,7 +49283,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49312,7 +49309,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49338,7 +49335,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49364,7 +49361,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49390,7 +49387,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49416,7 +49413,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49442,7 +49439,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49468,7 +49465,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49494,7 +49491,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49520,7 +49517,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49546,7 +49543,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49572,7 +49569,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49598,7 +49595,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49624,7 +49621,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49650,7 +49647,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49676,7 +49673,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49702,7 +49699,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49728,7 +49725,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49754,7 +49751,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49780,7 +49777,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49806,7 +49803,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49832,7 +49829,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49858,7 +49855,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49884,7 +49881,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49910,7 +49907,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49936,7 +49933,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49962,7 +49959,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -49988,7 +49985,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50014,7 +50011,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50040,7 +50037,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50066,7 +50063,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50092,7 +50089,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50118,7 +50115,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50144,7 +50141,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50170,7 +50167,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50196,7 +50193,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50222,7 +50219,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50248,7 +50245,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50274,7 +50271,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50300,7 +50297,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50326,7 +50323,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50352,7 +50349,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50378,7 +50375,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50404,7 +50401,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50430,7 +50427,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50456,7 +50453,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50482,7 +50479,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50508,7 +50505,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50534,7 +50531,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50560,7 +50557,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50586,7 +50583,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50612,7 +50609,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50638,7 +50635,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50664,7 +50661,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50690,7 +50687,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50716,7 +50713,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50742,7 +50739,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50768,7 +50765,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50794,7 +50791,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50820,7 +50817,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50846,7 +50843,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50872,7 +50869,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50898,7 +50895,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50924,7 +50921,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50950,7 +50947,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50976,7 +50973,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51002,7 +50999,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51028,7 +51025,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51054,7 +51051,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51080,7 +51077,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51106,7 +51103,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51132,7 +51129,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51158,7 +51155,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51184,7 +51181,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51210,7 +51207,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51236,7 +51233,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51262,7 +51259,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51288,7 +51285,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51314,7 +51311,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51340,7 +51337,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51366,7 +51363,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51392,7 +51389,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51418,7 +51415,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51444,7 +51441,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51470,7 +51467,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51496,7 +51493,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51522,7 +51519,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51548,7 +51545,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51574,7 +51571,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51600,7 +51597,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51626,7 +51623,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51652,7 +51649,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51678,7 +51675,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51704,7 +51701,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51730,7 +51727,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51756,7 +51753,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51782,7 +51779,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51808,7 +51805,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51834,7 +51831,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51860,7 +51857,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51886,7 +51883,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51912,7 +51909,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51938,7 +51935,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51964,7 +51961,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51990,7 +51987,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52016,7 +52013,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52042,7 +52039,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52068,7 +52065,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52094,7 +52091,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52120,7 +52117,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52146,7 +52143,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52172,7 +52169,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52198,7 +52195,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52224,7 +52221,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52250,7 +52247,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52276,7 +52273,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52302,7 +52299,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52328,7 +52325,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52354,7 +52351,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52380,7 +52377,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52406,7 +52403,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52432,7 +52429,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52458,7 +52455,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52484,7 +52481,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52510,7 +52507,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52536,7 +52533,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52562,7 +52559,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52588,7 +52585,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52614,7 +52611,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52640,7 +52637,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52666,7 +52663,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52692,7 +52689,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52718,7 +52715,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52744,7 +52741,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52770,7 +52767,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52796,7 +52793,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52822,7 +52819,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52848,7 +52845,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52874,7 +52871,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52900,7 +52897,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52926,7 +52923,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52952,7 +52949,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52978,7 +52975,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53004,7 +53001,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53030,7 +53027,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53056,7 +53053,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53082,7 +53079,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53108,7 +53105,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53134,7 +53131,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53160,7 +53157,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53186,7 +53183,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53212,7 +53209,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53238,7 +53235,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53264,7 +53261,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53290,7 +53287,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53316,7 +53313,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53342,7 +53339,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53368,7 +53365,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53394,7 +53391,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53420,7 +53417,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53446,7 +53443,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53472,7 +53469,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53498,7 +53495,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53524,7 +53521,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53550,7 +53547,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53576,7 +53573,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53602,7 +53599,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53628,7 +53625,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53654,7 +53651,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53680,7 +53677,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53706,7 +53703,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53732,7 +53729,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53758,7 +53755,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53784,7 +53781,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53810,7 +53807,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53836,7 +53833,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53862,7 +53859,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53888,7 +53885,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53914,7 +53911,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53940,7 +53937,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53966,7 +53963,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53992,7 +53989,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54018,7 +54015,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54044,7 +54041,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54070,7 +54067,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54096,7 +54093,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54122,7 +54119,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54148,7 +54145,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54174,7 +54171,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54200,7 +54197,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54226,7 +54223,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54252,7 +54249,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54278,7 +54275,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54304,7 +54301,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54330,7 +54327,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54356,7 +54353,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54382,7 +54379,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54408,7 +54405,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54434,7 +54431,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54460,7 +54457,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54486,7 +54483,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54512,7 +54509,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54538,7 +54535,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54564,7 +54561,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54590,7 +54587,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54616,7 +54613,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54642,7 +54639,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54668,7 +54665,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54694,7 +54691,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54720,7 +54717,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54746,7 +54743,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54772,7 +54769,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54798,7 +54795,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54824,7 +54821,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54850,7 +54847,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54876,7 +54873,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54902,7 +54899,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54928,7 +54925,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54954,7 +54951,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54980,7 +54977,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55006,7 +55003,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55032,7 +55029,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55058,7 +55055,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55084,7 +55081,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55110,7 +55107,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55136,7 +55133,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55162,7 +55159,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55188,7 +55185,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55214,7 +55211,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55240,7 +55237,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55266,7 +55263,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55292,7 +55289,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55318,7 +55315,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55344,7 +55341,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55370,7 +55367,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55396,7 +55393,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55422,7 +55419,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55448,7 +55445,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55474,7 +55471,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55500,7 +55497,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55526,7 +55523,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55552,7 +55549,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55578,7 +55575,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55604,7 +55601,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55630,7 +55627,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55656,7 +55653,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55682,7 +55679,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55708,7 +55705,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55734,7 +55731,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55760,7 +55757,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55786,7 +55783,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55812,7 +55809,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55838,7 +55835,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55864,7 +55861,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55890,7 +55887,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55916,7 +55913,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55942,7 +55939,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55968,7 +55965,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55994,7 +55991,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56020,7 +56017,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56046,7 +56043,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56072,7 +56069,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56098,7 +56095,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56124,7 +56121,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56150,7 +56147,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56176,7 +56173,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56202,7 +56199,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56228,7 +56225,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56254,7 +56251,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56280,7 +56277,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56306,7 +56303,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56332,7 +56329,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56358,7 +56355,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56384,7 +56381,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56410,7 +56407,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56436,7 +56433,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56462,7 +56459,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56488,7 +56485,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56514,7 +56511,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56540,7 +56537,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56566,7 +56563,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56592,7 +56589,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56618,7 +56615,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56644,7 +56641,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56670,7 +56667,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56696,7 +56693,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56722,7 +56719,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56748,7 +56745,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56774,7 +56771,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56800,7 +56797,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56826,7 +56823,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56852,7 +56849,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56878,7 +56875,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56904,7 +56901,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56930,7 +56927,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56956,7 +56953,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56982,7 +56979,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57008,7 +57005,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57034,7 +57031,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57060,7 +57057,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57086,7 +57083,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57112,7 +57109,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57138,7 +57135,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57164,7 +57161,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57190,7 +57187,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57216,7 +57213,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57242,7 +57239,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57268,7 +57265,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57294,7 +57291,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57320,7 +57317,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57346,7 +57343,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57372,7 +57369,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57398,7 +57395,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57424,7 +57421,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57450,7 +57447,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57476,7 +57473,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57502,7 +57499,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57528,7 +57525,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57554,7 +57551,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57580,7 +57577,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57606,7 +57603,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57632,7 +57629,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57658,7 +57655,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57684,7 +57681,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57710,7 +57707,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57736,7 +57733,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57762,7 +57759,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57788,7 +57785,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57814,7 +57811,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57840,7 +57837,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57866,7 +57863,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57892,7 +57889,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57918,7 +57915,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57944,7 +57941,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57970,7 +57967,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57996,7 +57993,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58022,7 +58019,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58048,7 +58045,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58074,7 +58071,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58100,7 +58097,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58126,7 +58123,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58152,7 +58149,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58178,7 +58175,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58204,7 +58201,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58230,7 +58227,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58256,7 +58253,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58282,7 +58279,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58308,7 +58305,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58334,7 +58331,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58360,7 +58357,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58386,7 +58383,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58412,7 +58409,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58438,7 +58435,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58464,7 +58461,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58490,7 +58487,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58516,7 +58513,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58542,7 +58539,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58568,7 +58565,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58594,7 +58591,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58620,7 +58617,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58646,7 +58643,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58672,7 +58669,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58698,7 +58695,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58724,7 +58721,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58750,7 +58747,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58776,7 +58773,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58802,7 +58799,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58828,7 +58825,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58854,7 +58851,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2154" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58880,7 +58877,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2155" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58906,7 +58903,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2156" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58932,7 +58929,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2157" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58958,7 +58955,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2158" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58984,7 +58981,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2159" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59010,7 +59007,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G2160" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59036,7 +59033,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G2161" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59044,7 +59041,7 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n">
-        <v>45471.6493981481</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B2162" t="n">
         <v>62195</v>
@@ -59062,9 +59059,35 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G2162" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" s="1" t="n">
+        <v>45474.6493402778</v>
+      </c>
+      <c r="B2163" t="n">
+        <v>10412</v>
+      </c>
+      <c r="C2163" t="n">
+        <v>12.7799997329712</v>
+      </c>
+      <c r="D2163" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="E2163" t="n">
+        <v>12.7799997329712</v>
+      </c>
+      <c r="F2163" t="n">
+        <v>12.3999996185303</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2163" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,34 +38,34 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.6767725944519</t>
+    <t xml:space="preserve">7.67677164077759</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728664398193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6378026008606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986642837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883451461792</t>
+    <t xml:space="preserve">7.65728712081909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780307769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986547470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5988335609436</t>
   </si>
   <si>
     <t xml:space="preserve">7.40788984298706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685745239258</t>
+    <t xml:space="preserve">7.36502313613892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685840606689</t>
   </si>
   <si>
     <t xml:space="preserve">7.52089691162109</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4429612159729</t>
+    <t xml:space="preserve">7.44296026229858</t>
   </si>
   <si>
     <t xml:space="preserve">7.7508111000061</t>
@@ -83,31 +83,31 @@
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87161350250244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264589309692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837501525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9027886390686</t>
+    <t xml:space="preserve">7.87161302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367685317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264446258545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250123977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837596893311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278768539429</t>
   </si>
   <si>
     <t xml:space="preserve">7.94955062866211</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78977823257446</t>
+    <t xml:space="preserve">7.78977966308594</t>
   </si>
   <si>
     <t xml:space="preserve">7.78588247299194</t>
@@ -116,97 +116,97 @@
     <t xml:space="preserve">7.94175624847412</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02748680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115447998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1677713394165</t>
+    <t xml:space="preserve">8.02748584747314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115352630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16777229309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.00410652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99631261825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926418304443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439105987549</t>
+    <t xml:space="preserve">7.9963116645813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926561355591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645488739014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470781326294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043884277344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860452651978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691343307495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184301376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73912048339844</t>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043836593628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602569580078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80146980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860500335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691390991211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184396743774</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73912143707275</t>
   </si>
   <si>
     <t xml:space="preserve">7.7040491104126</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48192977905273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531148910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4780330657959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854806900024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04307460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98851871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70015239715576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8949933052063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969242095947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0820426940918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10542392730713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2457103729248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129817962646</t>
+    <t xml:space="preserve">7.48192882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531053543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803354263306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854711532593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98851823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015287399292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499568939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969337463379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204174041748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10542297363281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24570941925049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129627227783</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863162994385</t>
+    <t xml:space="preserve">8.58863258361816</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215560913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53407573699951</t>
+    <t xml:space="preserve">8.53407669067383</t>
   </si>
   <si>
     <t xml:space="preserve">8.70347785949707</t>
@@ -233,19 +233,19 @@
     <t xml:space="preserve">8.74354934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65539169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63135051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4229793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33482265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
+    <t xml:space="preserve">8.65539264678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63134956359863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42297840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14248085021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460819244385</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">8.17453765869141</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39893531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517818450928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900775909424</t>
+    <t xml:space="preserve">8.39893627166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900680541992</t>
   </si>
   <si>
     <t xml:space="preserve">8.57524967193604</t>
@@ -269,25 +269,25 @@
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050422668457</t>
+    <t xml:space="preserve">9.28050231933594</t>
   </si>
   <si>
     <t xml:space="preserve">9.0561056137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44880390167236</t>
+    <t xml:space="preserve">9.44880199432373</t>
   </si>
   <si>
     <t xml:space="preserve">10.0899438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89760208129883</t>
+    <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
     <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96171569824219</t>
+    <t xml:space="preserve">9.96171474456787</t>
   </si>
   <si>
     <t xml:space="preserve">9.76135921478271</t>
@@ -296,40 +296,40 @@
     <t xml:space="preserve">9.60107421875</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53696060180664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61710262298584</t>
+    <t xml:space="preserve">9.53695964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61710166931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.73731517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50490379333496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646209716797</t>
+    <t xml:space="preserve">9.50490283966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18433284759521</t>
+    <t xml:space="preserve">9.1843318939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667560577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674518585205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42475986480713</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32859039306641</t>
+    <t xml:space="preserve">9.37667465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42476081848145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32858943939209</t>
   </si>
   <si>
     <t xml:space="preserve">9.30454635620117</t>
@@ -338,16 +338,16 @@
     <t xml:space="preserve">9.40071773529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057571411133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851795196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
+    <t xml:space="preserve">9.2404317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057476043701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
     <t xml:space="preserve">8.9439058303833</t>
@@ -359,25 +359,25 @@
     <t xml:space="preserve">9.21638965606689</t>
   </si>
   <si>
-    <t xml:space="preserve">9.20837593078613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1362476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199199676514</t>
+    <t xml:space="preserve">9.20837497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13624668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9919900894165</t>
   </si>
   <si>
     <t xml:space="preserve">8.85574913024902</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89582061767578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48086071014404</t>
+    <t xml:space="preserve">8.89581966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085975646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.51291751861572</t>
@@ -401,22 +401,22 @@
     <t xml:space="preserve">8.93589019775391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.8878059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177753448486</t>
+    <t xml:space="preserve">8.88780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596263885498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177658081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.73553466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76759147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007625579834</t>
+    <t xml:space="preserve">8.76759243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007530212402</t>
   </si>
   <si>
     <t xml:space="preserve">9.0000057220459</t>
@@ -425,19 +425,19 @@
     <t xml:space="preserve">8.77560615539551</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67142009735107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333583831787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68744945526123</t>
+    <t xml:space="preserve">8.67142105102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333393096924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936424255371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68745040893555</t>
   </si>
   <si>
     <t xml:space="preserve">8.75156307220459</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">8.54319286346436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52716445922852</t>
+    <t xml:space="preserve">8.5271635055542</t>
   </si>
   <si>
     <t xml:space="preserve">8.56723499298096</t>
@@ -455,10 +455,10 @@
     <t xml:space="preserve">8.69546413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163551330566</t>
+    <t xml:space="preserve">8.8076639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163455963135</t>
   </si>
   <si>
     <t xml:space="preserve">8.67943477630615</t>
@@ -467,49 +467,46 @@
     <t xml:space="preserve">8.55922222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30276489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36687850952148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085201263428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58326435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5031213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127902984619</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72751998901367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.479079246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099403381348</t>
+    <t xml:space="preserve">8.30276393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3668794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085010528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127712249756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72752094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47907829284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.4710636138916</t>
   </si>
   <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45503616333008</t>
+    <t xml:space="preserve">8.45503520965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.29475116729736</t>
   </si>
   <si>
-    <t xml:space="preserve">8.37489223480225</t>
+    <t xml:space="preserve">8.37489318847656</t>
   </si>
   <si>
     <t xml:space="preserve">8.65425300598145</t>
@@ -521,70 +518,73 @@
     <t xml:space="preserve">8.22566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28335666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57183170318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062057495117</t>
+    <t xml:space="preserve">8.28335475921631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57183074951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53061962127686</t>
   </si>
   <si>
     <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.40698909759521</t>
+    <t xml:space="preserve">8.4069881439209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546318054199</t>
   </si>
   <si>
     <t xml:space="preserve">8.7778844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214458465576</t>
+    <t xml:space="preserve">8.36577796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0278491973877</t>
+    <t xml:space="preserve">8.07730197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02784824371338</t>
   </si>
   <si>
     <t xml:space="preserve">8.14323997497559</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081676483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9289436340332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597463607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683664321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113250732422</t>
+    <t xml:space="preserve">8.06081771850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488019943237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464872360229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113203048706</t>
   </si>
   <si>
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410055160522</t>
+    <t xml:space="preserve">7.76410102844238</t>
   </si>
   <si>
     <t xml:space="preserve">7.61574268341064</t>
@@ -596,31 +596,31 @@
     <t xml:space="preserve">7.66519546508789</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69816446304321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5992579460144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222694396973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.56629037857056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355381011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277320861816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3849630355835</t>
+    <t xml:space="preserve">7.69816493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925889968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222646713257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5662899017334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79706811904907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355285644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277368545532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38496160507202</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254125595093</t>
@@ -635,28 +635,28 @@
     <t xml:space="preserve">7.20363521575928</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33550930023193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035238265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25308847427368</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4179310798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441581726074</t>
+    <t xml:space="preserve">7.33550882339478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035285949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25308799743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4344162940979</t>
   </si>
   <si>
     <t xml:space="preserve">7.46738386154175</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13769769668579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17066621780396</t>
+    <t xml:space="preserve">7.13769721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17066669464111</t>
   </si>
   <si>
     <t xml:space="preserve">7.08824491500854</t>
@@ -665,28 +665,28 @@
     <t xml:space="preserve">6.92340183258057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.90691804885864</t>
+    <t xml:space="preserve">6.90691757202148</t>
   </si>
   <si>
     <t xml:space="preserve">6.98933839797974</t>
   </si>
   <si>
-    <t xml:space="preserve">7.07176065444946</t>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
   </si>
   <si>
-    <t xml:space="preserve">6.62668514251709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.6596531867981</t>
+    <t xml:space="preserve">6.62668466567993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65965366363525</t>
   </si>
   <si>
     <t xml:space="preserve">6.75855922698975</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84098052978516</t>
+    <t xml:space="preserve">6.840980052948</t>
   </si>
   <si>
     <t xml:space="preserve">6.69262218475342</t>
@@ -695,7 +695,7 @@
     <t xml:space="preserve">6.7091064453125</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02230834960938</t>
+    <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559022903442</t>
@@ -707,19 +707,19 @@
     <t xml:space="preserve">7.00582408905029</t>
   </si>
   <si>
-    <t xml:space="preserve">7.28605699539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36847734451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472917556763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23660373687744</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87394952774048</t>
+    <t xml:space="preserve">7.28605651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3684778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10472965240479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23660326004028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87394905090332</t>
   </si>
   <si>
     <t xml:space="preserve">6.52777910232544</t>
@@ -728,25 +728,25 @@
     <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5112943649292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.74207544326782</t>
+    <t xml:space="preserve">6.51129531860352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
     <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67613840103149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12121391296387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.93988609313965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.79152727127075</t>
+    <t xml:space="preserve">6.67613792419434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.12121343612671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.93988656997681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.79152774810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.89043283462524</t>
@@ -758,28 +758,28 @@
     <t xml:space="preserve">6.80801248550415</t>
   </si>
   <si>
-    <t xml:space="preserve">7.2201189994812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199451446533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089864730835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332138061523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64871072769165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.68167972564697</t>
+    <t xml:space="preserve">7.22011947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332042694092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64871120452881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.68167924880981</t>
   </si>
   <si>
     <t xml:space="preserve">7.54980516433716</t>
   </si>
   <si>
-    <t xml:space="preserve">7.69705533981323</t>
+    <t xml:space="preserve">7.69705581665039</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09839534759521</t>
+    <t xml:space="preserve">7.09839487075806</t>
   </si>
   <si>
     <t xml:space="preserve">7.49180030822754</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">7.61153173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30364990234375</t>
+    <t xml:space="preserve">7.30364942550659</t>
   </si>
   <si>
     <t xml:space="preserve">7.35496377944946</t>
@@ -812,10 +812,10 @@
     <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21812677383423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102262496948</t>
+    <t xml:space="preserve">7.21812725067139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102214813232</t>
   </si>
   <si>
     <t xml:space="preserve">7.18391752243042</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418609619141</t>
+    <t xml:space="preserve">7.06418657302856</t>
   </si>
   <si>
     <t xml:space="preserve">7.23523187637329</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">7.2694411277771</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206792831421</t>
+    <t xml:space="preserve">7.37206840515137</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
@@ -848,7 +848,7 @@
     <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04708099365234</t>
+    <t xml:space="preserve">7.0470814704895</t>
   </si>
   <si>
     <t xml:space="preserve">7.08129024505615</t>
@@ -857,19 +857,19 @@
     <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
-    <t xml:space="preserve">6.97866249084473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.87603616714478</t>
+    <t xml:space="preserve">6.97866296768188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.87603521347046</t>
   </si>
   <si>
     <t xml:space="preserve">6.9615592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89314031600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893201828003</t>
+    <t xml:space="preserve">6.89314079284668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893154144287</t>
   </si>
   <si>
     <t xml:space="preserve">6.84182643890381</t>
@@ -878,13 +878,13 @@
     <t xml:space="preserve">6.77340841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65367650985718</t>
+    <t xml:space="preserve">6.65367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552610397339</t>
+    <t xml:space="preserve">6.46552658081055</t>
   </si>
   <si>
     <t xml:space="preserve">6.48263072967529</t>
@@ -893,13 +893,13 @@
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.58525800704956</t>
+    <t xml:space="preserve">6.5852575302124</t>
   </si>
   <si>
     <t xml:space="preserve">6.41421270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36289834976196</t>
+    <t xml:space="preserve">6.36289930343628</t>
   </si>
   <si>
     <t xml:space="preserve">6.43131685256958</t>
@@ -908,7 +908,7 @@
     <t xml:space="preserve">6.38000345230103</t>
   </si>
   <si>
-    <t xml:space="preserve">6.32869005203247</t>
+    <t xml:space="preserve">6.32868957519531</t>
   </si>
   <si>
     <t xml:space="preserve">6.15764379501343</t>
@@ -920,19 +920,19 @@
     <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
-    <t xml:space="preserve">6.10632991790771</t>
+    <t xml:space="preserve">6.10633039474487</t>
   </si>
   <si>
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158542633057</t>
+    <t xml:space="preserve">6.31158494949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
   </si>
   <si>
-    <t xml:space="preserve">6.19185256958008</t>
+    <t xml:space="preserve">6.19185304641724</t>
   </si>
   <si>
     <t xml:space="preserve">6.39710807800293</t>
@@ -944,13 +944,13 @@
     <t xml:space="preserve">6.67078113555908</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75630378723145</t>
+    <t xml:space="preserve">6.7563042640686</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657188415527</t>
+    <t xml:space="preserve">6.63657236099243</t>
   </si>
   <si>
     <t xml:space="preserve">6.60236263275146</t>
@@ -965,7 +965,7 @@
     <t xml:space="preserve">6.55104875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56815338134766</t>
+    <t xml:space="preserve">6.5681529045105</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
@@ -974,7 +974,7 @@
     <t xml:space="preserve">6.73919916152954</t>
   </si>
   <si>
-    <t xml:space="preserve">6.34579420089722</t>
+    <t xml:space="preserve">6.34579467773438</t>
   </si>
   <si>
     <t xml:space="preserve">6.44842147827148</t>
@@ -986,40 +986,40 @@
     <t xml:space="preserve">5.86686658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02080726623535</t>
+    <t xml:space="preserve">6.02080678939819</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423835754395</t>
+    <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397073745728</t>
   </si>
   <si>
-    <t xml:space="preserve">5.9865984916687</t>
+    <t xml:space="preserve">5.98659801483154</t>
   </si>
   <si>
     <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
-    <t xml:space="preserve">5.47346115112305</t>
+    <t xml:space="preserve">5.47346162796021</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453401565552</t>
+    <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506925582886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061899185181</t>
+    <t xml:space="preserve">4.53271007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061851501465</t>
   </si>
   <si>
     <t xml:space="preserve">4.58402395248413</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">4.32745504379272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.44718742370605</t>
+    <t xml:space="preserve">4.4471869468689</t>
   </si>
   <si>
     <t xml:space="preserve">4.36166477203369</t>
@@ -1037,16 +1037,16 @@
     <t xml:space="preserve">4.70375633239746</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04584741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26820611953735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49056529998779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90107536315918</t>
+    <t xml:space="preserve">5.04584693908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26820659637451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056625366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90107583999634</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134393692017</t>
@@ -1058,16 +1058,16 @@
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372924804688</t>
+    <t xml:space="preserve">5.54188013076782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372972488403</t>
   </si>
   <si>
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450645446777</t>
+    <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
@@ -1085,37 +1085,37 @@
     <t xml:space="preserve">6.2944803237915</t>
   </si>
   <si>
-    <t xml:space="preserve">6.24316740036011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.0379114151001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.17474842071533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08922529220581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.26027202606201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.96949338912964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.79844808578491</t>
+    <t xml:space="preserve">6.24316692352295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.03791236877441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.17474794387817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.08922576904297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.26027154922485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9694938659668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.79844856262207</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292543411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81555271148682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.74713373184204</t>
+    <t xml:space="preserve">5.71292495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81555318832397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
@@ -1124,22 +1124,22 @@
     <t xml:space="preserve">5.61029767990112</t>
   </si>
   <si>
-    <t xml:space="preserve">5.83265686035156</t>
+    <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
     <t xml:space="preserve">5.91817998886108</t>
   </si>
   <si>
-    <t xml:space="preserve">5.66161108016968</t>
+    <t xml:space="preserve">5.66161155700684</t>
   </si>
   <si>
     <t xml:space="preserve">5.57608842849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79051351547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209501266479</t>
+    <t xml:space="preserve">6.79051303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209453582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
@@ -1148,16 +1148,16 @@
     <t xml:space="preserve">7.16681337356567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13260459899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917350769043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547384262085</t>
+    <t xml:space="preserve">7.13260412216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547241210938</t>
   </si>
   <si>
     <t xml:space="preserve">7.7825779914856</t>
@@ -1169,7 +1169,7 @@
     <t xml:space="preserve">8.10756397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12467002868652</t>
+    <t xml:space="preserve">8.12466907501221</t>
   </si>
   <si>
     <t xml:space="preserve">8.03914642333984</t>
@@ -1178,13 +1178,13 @@
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783349990845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072792053223</t>
+    <t xml:space="preserve">7.98783397674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362377166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072744369507</t>
   </si>
   <si>
     <t xml:space="preserve">7.91941452026367</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">7.90230989456177</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73126363754272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8167872428894</t>
+    <t xml:space="preserve">7.73126411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678676605225</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
@@ -1205,28 +1205,28 @@
     <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8681001663208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7996826171875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27861022949219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.38123798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965648651123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63780689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59504508972168</t>
+    <t xml:space="preserve">7.86810064315796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79968214035034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2786111831665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3812370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965553283691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.6378059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59504413604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228328704834</t>
+    <t xml:space="preserve">8.55228424072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.41544723510742</t>
@@ -1244,7 +1244,7 @@
     <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68056678771973</t>
+    <t xml:space="preserve">8.68056774139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
@@ -1253,19 +1253,19 @@
     <t xml:space="preserve">8.85161304473877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97989749908447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.02265930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198905944824</t>
+    <t xml:space="preserve">8.97989845275879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198810577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131977081299</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027351379395</t>
+    <t xml:space="preserve">9.45027256011963</t>
   </si>
   <si>
     <t xml:space="preserve">9.74960231781006</t>
@@ -1280,85 +1280,85 @@
     <t xml:space="preserve">10.1772174835205</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344566345215</t>
+    <t xml:space="preserve">10.1344556808472</t>
   </si>
   <si>
     <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5193071365356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8613986968994</t>
+    <t xml:space="preserve">10.5193090438843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8613996505737</t>
   </si>
   <si>
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186378479004</t>
+    <t xml:space="preserve">10.8186388015747</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
   </si>
   <si>
-    <t xml:space="preserve">11.0324440002441</t>
+    <t xml:space="preserve">11.0324449539185</t>
   </si>
   <si>
     <t xml:space="preserve">11.4600591659546</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1014795303345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9731969833374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.887674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8021507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.716628074646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304342269897</t>
+    <t xml:space="preserve">12.1014804840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9731960296631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8876733779907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8021516799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7166271209717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304351806641</t>
   </si>
   <si>
     <t xml:space="preserve">11.5883445739746</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6311054229736</t>
+    <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
     <t xml:space="preserve">12.2725267410278</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0159578323364</t>
+    <t xml:space="preserve">12.0159587860107</t>
   </si>
   <si>
     <t xml:space="preserve">11.8449125289917</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5028200149536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.759388923645</t>
+    <t xml:space="preserve">11.5028209686279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7593898773193</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3317747116089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0587205886841</t>
+    <t xml:space="preserve">11.3317756652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0587196350098</t>
   </si>
   <si>
     <t xml:space="preserve">12.5020551681519</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9257183074951</t>
+    <t xml:space="preserve">11.9257192611694</t>
   </si>
   <si>
     <t xml:space="preserve">11.4380493164062</t>
@@ -1367,49 +1367,49 @@
     <t xml:space="preserve">11.2163820266724</t>
   </si>
   <si>
-    <t xml:space="preserve">10.7287139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173799514771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617134094238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730464935303</t>
+    <t xml:space="preserve">10.7287149429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617143630981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730474472046</t>
   </si>
   <si>
     <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957136154175</t>
+    <t xml:space="preserve">10.5957126617432</t>
   </si>
   <si>
     <t xml:space="preserve">10.6400461196899</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1277151107788</t>
+    <t xml:space="preserve">11.1277160644531</t>
   </si>
   <si>
     <t xml:space="preserve">11.0390481948853</t>
   </si>
   <si>
-    <t xml:space="preserve">11.748384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.482382774353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710506439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050489425659</t>
+    <t xml:space="preserve">11.7483854293823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4823837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710515975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050498962402</t>
   </si>
   <si>
     <t xml:space="preserve">11.615385055542</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3493824005127</t>
+    <t xml:space="preserve">11.349383354187</t>
   </si>
   <si>
     <t xml:space="preserve">11.083381652832</t>
@@ -1418,13 +1418,13 @@
     <t xml:space="preserve">10.9947147369385</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9503812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513801574707</t>
+    <t xml:space="preserve">10.950382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060487747192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513792037964</t>
   </si>
   <si>
     <t xml:space="preserve">11.1720495223999</t>
@@ -1433,10 +1433,10 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
+    <t xml:space="preserve">11.5267181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813858032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
@@ -1448,19 +1448,19 @@
     <t xml:space="preserve">11.3937168121338</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7927179336548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030530929565</t>
+    <t xml:space="preserve">11.7927188873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030521392822</t>
   </si>
   <si>
     <t xml:space="preserve">12.280387878418</t>
   </si>
   <si>
-    <t xml:space="preserve">12.0143852233887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3690538406372</t>
+    <t xml:space="preserve">12.014386177063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3690547943115</t>
   </si>
   <si>
     <t xml:space="preserve">12.3247203826904</t>
@@ -1475,28 +1475,28 @@
     <t xml:space="preserve">13.2113914489746</t>
   </si>
   <si>
-    <t xml:space="preserve">13.5217256546021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1670589447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.388726234436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330587387085</t>
+    <t xml:space="preserve">13.5217266082764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1670579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3887252807617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330596923828</t>
   </si>
   <si>
     <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
-    <t xml:space="preserve">14.1867294311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970636367798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7630643844604</t>
+    <t xml:space="preserve">14.186728477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970645904541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
     <t xml:space="preserve">14.5857315063477</t>
@@ -1508,16 +1508,16 @@
     <t xml:space="preserve">14.2310619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2753963470459</t>
+    <t xml:space="preserve">14.2753973007202</t>
   </si>
   <si>
     <t xml:space="preserve">14.9847326278687</t>
   </si>
   <si>
-    <t xml:space="preserve">14.851731300354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6300640106201</t>
+    <t xml:space="preserve">14.8517322540283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.6300649642944</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1526,16 +1526,16 @@
     <t xml:space="preserve">14.0980615615845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.787727355957</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4773921966553</t>
+    <t xml:space="preserve">13.7877264022827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8567228317261</t>
+    <t xml:space="preserve">12.8567237854004</t>
   </si>
   <si>
     <t xml:space="preserve">12.1473865509033</t>
@@ -1547,7 +1547,7 @@
     <t xml:space="preserve">12.6350555419922</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9700517654419</t>
+    <t xml:space="preserve">11.9700527191162</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
@@ -1565,10 +1565,10 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.679388999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.413387298584</t>
+    <t xml:space="preserve">12.6793899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4133882522583</t>
   </si>
   <si>
     <t xml:space="preserve">12.271520614624</t>
@@ -1577,28 +1577,28 @@
     <t xml:space="preserve">11.8281850814819</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4557828903198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7217845916748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4735155105591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3848495483398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3671159744263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4025821685791</t>
+    <t xml:space="preserve">11.4557838439941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7217855453491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4735164642334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3848505020142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3671169281006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4025831222534</t>
   </si>
   <si>
     <t xml:space="preserve">11.5976505279541</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6685848236084</t>
+    <t xml:space="preserve">11.6685838699341</t>
   </si>
   <si>
     <t xml:space="preserve">11.544451713562</t>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139162063599</t>
+    <t xml:space="preserve">11.3139171600342</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1628,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1117238998413</t>
+    <t xml:space="preserve">12.111722946167</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776374816895</t>
+    <t xml:space="preserve">12.2776365280151</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1643,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519027709961</t>
+    <t xml:space="preserve">13.0519018173218</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1658,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491182327271</t>
+    <t xml:space="preserve">12.8491191864014</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1688,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614603042603</t>
+    <t xml:space="preserve">11.7614612579346</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1706,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698120117188</t>
+    <t xml:space="preserve">12.5357255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1724,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122491836548</t>
+    <t xml:space="preserve">13.1072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122482299805</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1736,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625108718872</t>
+    <t xml:space="preserve">13.1625118255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1745,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938146591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569437026978</t>
+    <t xml:space="preserve">12.7938137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569446563721</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1763,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4066820144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.351375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0195484161377</t>
+    <t xml:space="preserve">12.406681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3513765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019549369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1781,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882465362549</t>
+    <t xml:space="preserve">12.3882455825806</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223320007324</t>
+    <t xml:space="preserve">12.2223329544067</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720703125</t>
+    <t xml:space="preserve">11.8720693588257</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1805,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.724591255188</t>
+    <t xml:space="preserve">11.7245903015137</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1826,156 +1826,159 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346731185913</t>
+    <t xml:space="preserve">11.1346740722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8950204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.577112197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3329420089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4251165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2038974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6279001235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8859882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2546863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3099908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3468608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390354156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3837308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4021654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3652963638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1256418228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2407674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0564184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0932884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061548233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536348342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.816764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5033712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005876541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1531095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715440750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1899785995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1162395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9847860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9655485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1002130508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3118295669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424995422363</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8950204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.577112197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3329420089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4251155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2038974761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8859882354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2546863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3099908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3468608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127744674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3837308883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4021654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1256418228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2407674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0564184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0932884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536348342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6877212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5033712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1531095504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715440750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1899795532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1162395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9847860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9655485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1002130508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3118295669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503046035767</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.734694480896</t>
   </si>
   <si>
@@ -2514,6 +2517,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.8800001144409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5200004577637</t>
   </si>
 </sst>
 </file>
@@ -16159,7 +16165,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16185,7 +16191,7 @@
         <v>10.5</v>
       </c>
       <c r="G513" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16211,7 +16217,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G514" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16237,7 +16243,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16263,7 +16269,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16315,7 +16321,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16471,7 +16477,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16497,7 +16503,7 @@
         <v>10.5</v>
       </c>
       <c r="G525" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16523,7 +16529,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17121,7 +17127,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G549" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17251,7 +17257,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G554" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17277,7 +17283,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17355,7 +17361,7 @@
         <v>10.5</v>
       </c>
       <c r="G558" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17381,7 +17387,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17433,7 +17439,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17459,7 +17465,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G562" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17485,7 +17491,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G563" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17511,7 +17517,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17563,7 +17569,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17615,7 +17621,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17745,7 +17751,7 @@
         <v>10.5</v>
       </c>
       <c r="G573" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17797,7 +17803,7 @@
         <v>10.5</v>
       </c>
       <c r="G575" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17823,7 +17829,7 @@
         <v>10.5</v>
       </c>
       <c r="G576" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17849,7 +17855,7 @@
         <v>10.5</v>
       </c>
       <c r="G577" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18395,7 +18401,7 @@
         <v>10.5</v>
       </c>
       <c r="G598" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18421,7 +18427,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18447,7 +18453,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G600" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18473,7 +18479,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18499,7 +18505,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G602" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18525,7 +18531,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18551,7 +18557,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18577,7 +18583,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G605" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18603,7 +18609,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G606" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18629,7 +18635,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G607" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18655,7 +18661,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G608" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18681,7 +18687,7 @@
         <v>10.5</v>
       </c>
       <c r="G609" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18707,7 +18713,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18733,7 +18739,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G611" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18785,7 +18791,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18811,7 +18817,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18889,7 +18895,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18915,7 +18921,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19097,7 +19103,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19123,7 +19129,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19149,7 +19155,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G627" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19175,7 +19181,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19201,7 +19207,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19487,7 +19493,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G640" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19565,7 +19571,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -51753,7 +51759,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51779,7 +51785,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51805,7 +51811,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51831,7 +51837,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51883,7 +51889,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51909,7 +51915,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51935,7 +51941,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51961,7 +51967,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -51987,7 +51993,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52013,7 +52019,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52039,7 +52045,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52065,7 +52071,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52091,7 +52097,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52117,7 +52123,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52143,7 +52149,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52169,7 +52175,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52195,7 +52201,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52221,7 +52227,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52247,7 +52253,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52273,7 +52279,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52299,7 +52305,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52325,7 +52331,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52351,7 +52357,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52377,7 +52383,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52403,7 +52409,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52429,7 +52435,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52481,7 +52487,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52507,7 +52513,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52533,7 +52539,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52559,7 +52565,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52585,7 +52591,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52611,7 +52617,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52637,7 +52643,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52663,7 +52669,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52715,7 +52721,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52741,7 +52747,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52767,7 +52773,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52793,7 +52799,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52819,7 +52825,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52845,7 +52851,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52871,7 +52877,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52897,7 +52903,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52923,7 +52929,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52949,7 +52955,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52975,7 +52981,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53001,7 +53007,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53027,7 +53033,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53053,7 +53059,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53079,7 +53085,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53105,7 +53111,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53131,7 +53137,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53157,7 +53163,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53183,7 +53189,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53209,7 +53215,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53235,7 +53241,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53261,7 +53267,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53287,7 +53293,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53313,7 +53319,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53339,7 +53345,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53365,7 +53371,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53391,7 +53397,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53417,7 +53423,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53443,7 +53449,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53469,7 +53475,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53495,7 +53501,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53521,7 +53527,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53547,7 +53553,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53573,7 +53579,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53599,7 +53605,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53625,7 +53631,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53651,7 +53657,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53677,7 +53683,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53703,7 +53709,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53729,7 +53735,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53755,7 +53761,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53781,7 +53787,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53807,7 +53813,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53833,7 +53839,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53859,7 +53865,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53885,7 +53891,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53911,7 +53917,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53937,7 +53943,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53963,7 +53969,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -53989,7 +53995,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54015,7 +54021,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54041,7 +54047,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54067,7 +54073,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54093,7 +54099,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54119,7 +54125,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54145,7 +54151,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54171,7 +54177,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54197,7 +54203,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54223,7 +54229,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54249,7 +54255,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54275,7 +54281,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54301,7 +54307,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54327,7 +54333,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54353,7 +54359,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54379,7 +54385,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54405,7 +54411,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54431,7 +54437,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54457,7 +54463,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54483,7 +54489,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54509,7 +54515,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54535,7 +54541,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54561,7 +54567,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54587,7 +54593,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54613,7 +54619,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54639,7 +54645,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54665,7 +54671,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54691,7 +54697,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54717,7 +54723,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54743,7 +54749,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54769,7 +54775,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54795,7 +54801,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54821,7 +54827,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54847,7 +54853,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54873,7 +54879,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54899,7 +54905,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54925,7 +54931,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54951,7 +54957,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54977,7 +54983,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55003,7 +55009,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55029,7 +55035,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55055,7 +55061,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55081,7 +55087,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55107,7 +55113,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55133,7 +55139,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55159,7 +55165,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55185,7 +55191,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55211,7 +55217,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55237,7 +55243,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55263,7 +55269,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55289,7 +55295,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55315,7 +55321,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55341,7 +55347,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55367,7 +55373,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55393,7 +55399,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55419,7 +55425,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55445,7 +55451,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55471,7 +55477,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55497,7 +55503,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55523,7 +55529,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55549,7 +55555,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55575,7 +55581,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55601,7 +55607,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55627,7 +55633,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55653,7 +55659,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55679,7 +55685,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55705,7 +55711,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55731,7 +55737,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55757,7 +55763,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55783,7 +55789,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55809,7 +55815,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55835,7 +55841,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55861,7 +55867,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55887,7 +55893,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55913,7 +55919,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55939,7 +55945,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55965,7 +55971,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -55991,7 +55997,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56017,7 +56023,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56043,7 +56049,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56069,7 +56075,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56095,7 +56101,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56121,7 +56127,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56147,7 +56153,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56173,7 +56179,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56199,7 +56205,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56225,7 +56231,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56251,7 +56257,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56277,7 +56283,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56303,7 +56309,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56329,7 +56335,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56355,7 +56361,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56381,7 +56387,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56407,7 +56413,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56433,7 +56439,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56459,7 +56465,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56485,7 +56491,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56511,7 +56517,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56537,7 +56543,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56563,7 +56569,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56589,7 +56595,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56615,7 +56621,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56641,7 +56647,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56667,7 +56673,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56693,7 +56699,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56719,7 +56725,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56745,7 +56751,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56771,7 +56777,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56797,7 +56803,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56823,7 +56829,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56849,7 +56855,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56901,7 +56907,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56927,7 +56933,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56953,7 +56959,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -56979,7 +56985,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57005,7 +57011,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57031,7 +57037,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57057,7 +57063,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57083,7 +57089,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57109,7 +57115,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57161,7 +57167,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57187,7 +57193,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57213,7 +57219,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57265,7 +57271,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57291,7 +57297,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57317,7 +57323,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57369,7 +57375,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57395,7 +57401,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57421,7 +57427,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57447,7 +57453,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57473,7 +57479,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57499,7 +57505,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57525,7 +57531,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57551,7 +57557,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57577,7 +57583,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57603,7 +57609,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57629,7 +57635,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57655,7 +57661,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57681,7 +57687,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57707,7 +57713,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57733,7 +57739,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57759,7 +57765,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57785,7 +57791,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57811,7 +57817,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57837,7 +57843,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57863,7 +57869,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57889,7 +57895,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57915,7 +57921,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57941,7 +57947,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57967,7 +57973,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -57993,7 +57999,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58019,7 +58025,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58045,7 +58051,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58071,7 +58077,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58097,7 +58103,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58123,7 +58129,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58149,7 +58155,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58175,7 +58181,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58201,7 +58207,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58227,7 +58233,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58253,7 +58259,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58279,7 +58285,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58305,7 +58311,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58331,7 +58337,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58357,7 +58363,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58383,7 +58389,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58409,7 +58415,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58435,7 +58441,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58461,7 +58467,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58487,7 +58493,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58513,7 +58519,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58539,7 +58545,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58565,7 +58571,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58591,7 +58597,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58617,7 +58623,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58643,7 +58649,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58669,7 +58675,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58695,7 +58701,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58721,7 +58727,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58747,7 +58753,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58773,7 +58779,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58799,7 +58805,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58825,7 +58831,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58851,7 +58857,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2154" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58877,7 +58883,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2155" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58903,7 +58909,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2156" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58929,7 +58935,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2157" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58955,7 +58961,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2158" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -58981,7 +58987,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2159" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59007,7 +59013,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G2160" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59033,7 +59039,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G2161" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59059,7 +59065,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G2162" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59067,7 +59073,7 @@
     </row>
     <row r="2163">
       <c r="A2163" s="1" t="n">
-        <v>45474.6493402778</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B2163" t="n">
         <v>10412</v>
@@ -59085,9 +59091,35 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2163" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2163" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" s="1" t="n">
+        <v>45475.6494907407</v>
+      </c>
+      <c r="B2164" t="n">
+        <v>22554</v>
+      </c>
+      <c r="C2164" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2164" t="n">
+        <v>12.3599996566772</v>
+      </c>
+      <c r="E2164" t="n">
+        <v>13</v>
+      </c>
+      <c r="F2164" t="n">
+        <v>12.5200004577637</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>835</v>
+      </c>
+      <c r="H2164" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677164077759</t>
+    <t xml:space="preserve">7.67677116394043</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
@@ -47,73 +47,73 @@
     <t xml:space="preserve">7.65728712081909</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63780307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986547470093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5988335609436</t>
+    <t xml:space="preserve">7.6378026008606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883308410645</t>
   </si>
   <si>
     <t xml:space="preserve">7.40788984298706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36502313613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685840606689</t>
+    <t xml:space="preserve">7.36502361297607</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390588760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685792922974</t>
   </si>
   <si>
     <t xml:space="preserve">7.52089691162109</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48972272872925</t>
+    <t xml:space="preserve">7.48972225189209</t>
   </si>
   <si>
     <t xml:space="preserve">7.44296026229858</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7508111000061</t>
+    <t xml:space="preserve">7.75081062316895</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87161302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367685317993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250123977661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837596893311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94955062866211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588247299194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175624847412</t>
+    <t xml:space="preserve">7.8716139793396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367637634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573972702026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250171661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837406158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94955015182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7897777557373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175577163696</t>
   </si>
   <si>
     <t xml:space="preserve">8.02748584747314</t>
@@ -128,10 +128,10 @@
     <t xml:space="preserve">8.00410652160645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.9963116645813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926561355591</t>
+    <t xml:space="preserve">7.99631261825562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926275253296</t>
   </si>
   <si>
     <t xml:space="preserve">8.1443920135498</t>
@@ -143,43 +143,43 @@
     <t xml:space="preserve">8.05086708068848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75470876693726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043836593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602569580078</t>
+    <t xml:space="preserve">7.75470733642578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8404393196106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
     <t xml:space="preserve">7.80146980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75860500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691390991211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184396743774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73912143707275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7040491104126</t>
+    <t xml:space="preserve">7.75860548019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691438674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184301376343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7391209602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404863357544</t>
   </si>
   <si>
     <t xml:space="preserve">7.48192882537842</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50531053543091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803354263306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854711532593</t>
+    <t xml:space="preserve">7.50531101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803211212158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854759216309</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
@@ -188,25 +188,25 @@
     <t xml:space="preserve">7.98851823806763</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70015287399292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499568939209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
+    <t xml:space="preserve">7.7001519203186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
   </si>
   <si>
     <t xml:space="preserve">8.08204174041748</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10542297363281</t>
+    <t xml:space="preserve">8.10542392730713</t>
   </si>
   <si>
     <t xml:space="preserve">8.24570941925049</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26129627227783</t>
+    <t xml:space="preserve">8.26129817962646</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -221,22 +221,22 @@
     <t xml:space="preserve">8.68215560913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53407669067383</t>
+    <t xml:space="preserve">8.53407573699951</t>
   </si>
   <si>
     <t xml:space="preserve">8.70347785949707</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81567764282227</t>
+    <t xml:space="preserve">8.81567668914795</t>
   </si>
   <si>
     <t xml:space="preserve">8.74354934692383</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65539264678955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63134956359863</t>
+    <t xml:space="preserve">8.65539169311523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
     <t xml:space="preserve">8.42297840118408</t>
@@ -245,19 +245,19 @@
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14248085021973</t>
+    <t xml:space="preserve">8.14247989654541</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460819244385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17453765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517723083496</t>
+    <t xml:space="preserve">8.17453575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893531799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517913818359</t>
   </si>
   <si>
     <t xml:space="preserve">8.43900680541992</t>
@@ -269,52 +269,52 @@
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0561056137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880199432373</t>
+    <t xml:space="preserve">9.28050327301025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05610370635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880294799805</t>
   </si>
   <si>
     <t xml:space="preserve">10.0899438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89760112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370101928711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171474456787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76135921478271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107421875</t>
+    <t xml:space="preserve">9.8976001739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370006561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171569824219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136016845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107326507568</t>
   </si>
   <si>
     <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61710166931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.73731517791748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490283966064</t>
+    <t xml:space="preserve">9.61710357666016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7373161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490188598633</t>
   </si>
   <si>
     <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29653263092041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1843318939209</t>
+    <t xml:space="preserve">9.29653358459473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18433380126953</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681762695312</t>
@@ -323,19 +323,19 @@
     <t xml:space="preserve">9.37667465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41674613952637</t>
+    <t xml:space="preserve">9.41674709320068</t>
   </si>
   <si>
     <t xml:space="preserve">9.42476081848145</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32858943939209</t>
+    <t xml:space="preserve">9.32859039306641</t>
   </si>
   <si>
     <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40071773529053</t>
+    <t xml:space="preserve">9.40071868896484</t>
   </si>
   <si>
     <t xml:space="preserve">9.2404317855835</t>
@@ -344,13 +344,13 @@
     <t xml:space="preserve">9.32057476043701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851890563965</t>
+    <t xml:space="preserve">9.28851795196533</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9439058303833</t>
+    <t xml:space="preserve">8.94390487670898</t>
   </si>
   <si>
     <t xml:space="preserve">8.95993423461914</t>
@@ -365,7 +365,7 @@
     <t xml:space="preserve">9.13624668121338</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9919900894165</t>
+    <t xml:space="preserve">8.99199104309082</t>
   </si>
   <si>
     <t xml:space="preserve">8.85574913024902</t>
@@ -383,16 +383,16 @@
     <t xml:space="preserve">9.51291751861572</t>
   </si>
   <si>
-    <t xml:space="preserve">9.27248954772949</t>
+    <t xml:space="preserve">9.27248859405518</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17631912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617710113525</t>
+    <t xml:space="preserve">9.17631816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617614746094</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
@@ -401,10 +401,10 @@
     <t xml:space="preserve">8.93589019775391</t>
   </si>
   <si>
-    <t xml:space="preserve">8.88780689239502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596263885498</t>
+    <t xml:space="preserve">8.8878059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596168518066</t>
   </si>
   <si>
     <t xml:space="preserve">8.87177658081055</t>
@@ -413,61 +413,61 @@
     <t xml:space="preserve">8.73553466796875</t>
   </si>
   <si>
-    <t xml:space="preserve">8.76759243011475</t>
+    <t xml:space="preserve">8.76759147644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.04007530212402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0000057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560615539551</t>
+    <t xml:space="preserve">9.00000476837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560710906982</t>
   </si>
   <si>
     <t xml:space="preserve">8.67142105102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737701416016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333393096924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936424255371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68745040893555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156307220459</t>
+    <t xml:space="preserve">8.64737796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156497955322</t>
   </si>
   <si>
     <t xml:space="preserve">8.54319286346436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5271635055542</t>
+    <t xml:space="preserve">8.52716541290283</t>
   </si>
   <si>
     <t xml:space="preserve">8.56723499298096</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69546413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8076639175415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943572998047</t>
   </si>
   <si>
     <t xml:space="preserve">8.55922222137451</t>
   </si>
   <si>
-    <t xml:space="preserve">8.30276393890381</t>
+    <t xml:space="preserve">8.30276584625244</t>
   </si>
   <si>
     <t xml:space="preserve">8.3668794631958</t>
@@ -479,10 +479,10 @@
     <t xml:space="preserve">8.5832633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50312042236328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127712249756</t>
+    <t xml:space="preserve">8.5031213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127807617188</t>
   </si>
   <si>
     <t xml:space="preserve">8.72752094268799</t>
@@ -497,10 +497,13 @@
     <t xml:space="preserve">8.4710636138916</t>
   </si>
   <si>
+    <t xml:space="preserve">8.49510765075684</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45503520965576</t>
+    <t xml:space="preserve">8.45503616333008</t>
   </si>
   <si>
     <t xml:space="preserve">8.29475116729736</t>
@@ -509,7 +512,7 @@
     <t xml:space="preserve">8.37489318847656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65425300598145</t>
+    <t xml:space="preserve">8.65425395965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.32456684112549</t>
@@ -518,13 +521,13 @@
     <t xml:space="preserve">8.22566032409668</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28335475921631</t>
+    <t xml:space="preserve">8.28335666656494</t>
   </si>
   <si>
     <t xml:space="preserve">8.57183074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53061962127686</t>
+    <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
     <t xml:space="preserve">8.44819927215576</t>
@@ -533,25 +536,22 @@
     <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.69546318054199</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.7778844833374</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36577796936035</t>
+    <t xml:space="preserve">8.36577701568604</t>
   </si>
   <si>
     <t xml:space="preserve">8.24214649200439</t>
   </si>
   <si>
-    <t xml:space="preserve">8.19269180297852</t>
+    <t xml:space="preserve">8.1926908493042</t>
   </si>
   <si>
     <t xml:space="preserve">8.07730197906494</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02784824371338</t>
+    <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
     <t xml:space="preserve">8.14323997497559</t>
@@ -560,28 +560,28 @@
     <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99488019943237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
+    <t xml:space="preserve">7.99488067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894411087036</t>
   </si>
   <si>
     <t xml:space="preserve">7.89597511291504</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71464872360229</t>
+    <t xml:space="preserve">7.71464776992798</t>
   </si>
   <si>
     <t xml:space="preserve">7.51683616638184</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73113203048706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7476167678833</t>
+    <t xml:space="preserve">7.73113298416138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74761629104614</t>
   </si>
   <si>
     <t xml:space="preserve">7.76410102844238</t>
@@ -590,7 +590,7 @@
     <t xml:space="preserve">7.61574268341064</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78058481216431</t>
+    <t xml:space="preserve">7.78058433532715</t>
   </si>
   <si>
     <t xml:space="preserve">7.66519546508789</t>
@@ -599,7 +599,7 @@
     <t xml:space="preserve">7.69816493988037</t>
   </si>
   <si>
-    <t xml:space="preserve">7.59925889968872</t>
+    <t xml:space="preserve">7.59925842285156</t>
   </si>
   <si>
     <t xml:space="preserve">7.63222646713257</t>
@@ -608,10 +608,10 @@
     <t xml:space="preserve">7.5662899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79706811904907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355285644531</t>
+    <t xml:space="preserve">7.79706859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355333328247</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277368545532</t>
@@ -620,10 +620,10 @@
     <t xml:space="preserve">7.48386764526367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38496160507202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30254125595093</t>
+    <t xml:space="preserve">7.38496208190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30254077911377</t>
   </si>
   <si>
     <t xml:space="preserve">7.4014458656311</t>
@@ -632,7 +632,7 @@
     <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
-    <t xml:space="preserve">7.20363521575928</t>
+    <t xml:space="preserve">7.20363473892212</t>
   </si>
   <si>
     <t xml:space="preserve">7.33550882339478</t>
@@ -647,10 +647,10 @@
     <t xml:space="preserve">7.41793155670166</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4344162940979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738386154175</t>
+    <t xml:space="preserve">7.43441581726074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
     <t xml:space="preserve">7.13769721984863</t>
@@ -659,7 +659,7 @@
     <t xml:space="preserve">7.17066669464111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08824491500854</t>
+    <t xml:space="preserve">7.0882453918457</t>
   </si>
   <si>
     <t xml:space="preserve">6.92340183258057</t>
@@ -668,7 +668,7 @@
     <t xml:space="preserve">6.90691757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933839797974</t>
+    <t xml:space="preserve">6.98933887481689</t>
   </si>
   <si>
     <t xml:space="preserve">7.07176113128662</t>
@@ -683,40 +683,40 @@
     <t xml:space="preserve">6.65965366363525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75855922698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.840980052948</t>
+    <t xml:space="preserve">6.75855875015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
     <t xml:space="preserve">6.69262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7091064453125</t>
+    <t xml:space="preserve">6.70910692214966</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72559022903442</t>
+    <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
     <t xml:space="preserve">6.85746479034424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00582408905029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28605651855469</t>
+    <t xml:space="preserve">7.00582361221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
     <t xml:space="preserve">7.3684778213501</t>
   </si>
   <si>
-    <t xml:space="preserve">7.10472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23660326004028</t>
+    <t xml:space="preserve">7.10472917556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23660278320312</t>
   </si>
   <si>
     <t xml:space="preserve">6.87394905090332</t>
@@ -725,16 +725,16 @@
     <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59371614456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51129531860352</t>
+    <t xml:space="preserve">6.59371662139893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238927841187</t>
+    <t xml:space="preserve">6.41238880157471</t>
   </si>
   <si>
     <t xml:space="preserve">6.67613792419434</t>
@@ -743,7 +743,7 @@
     <t xml:space="preserve">7.12121343612671</t>
   </si>
   <si>
-    <t xml:space="preserve">6.93988656997681</t>
+    <t xml:space="preserve">6.93988609313965</t>
   </si>
   <si>
     <t xml:space="preserve">6.79152774810791</t>
@@ -752,10 +752,10 @@
     <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64316940307617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.80801248550415</t>
+    <t xml:space="preserve">6.64316987991333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.80801200866699</t>
   </si>
   <si>
     <t xml:space="preserve">7.22011947631836</t>
@@ -764,22 +764,22 @@
     <t xml:space="preserve">7.35199403762817</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45089912414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332042694092</t>
+    <t xml:space="preserve">7.45089960098267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332090377808</t>
   </si>
   <si>
     <t xml:space="preserve">7.64871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68167924880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54980516433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705581665039</t>
+    <t xml:space="preserve">7.68167877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705533981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
@@ -788,7 +788,7 @@
     <t xml:space="preserve">7.56021881103516</t>
   </si>
   <si>
-    <t xml:space="preserve">7.09839487075806</t>
+    <t xml:space="preserve">7.09839534759521</t>
   </si>
   <si>
     <t xml:space="preserve">7.49180030822754</t>
@@ -806,7 +806,7 @@
     <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33785915374756</t>
+    <t xml:space="preserve">7.3378586769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.25233554840088</t>
@@ -821,16 +821,16 @@
     <t xml:space="preserve">7.18391752243042</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92735004425049</t>
+    <t xml:space="preserve">6.92734956741333</t>
   </si>
   <si>
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23523187637329</t>
+    <t xml:space="preserve">7.06418609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23523139953613</t>
   </si>
   <si>
     <t xml:space="preserve">7.2694411277771</t>
@@ -860,25 +860,25 @@
     <t xml:space="preserve">6.97866296768188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87603521347046</t>
+    <t xml:space="preserve">6.87603569030762</t>
   </si>
   <si>
     <t xml:space="preserve">6.9615592956543</t>
   </si>
   <si>
-    <t xml:space="preserve">6.89314079284668</t>
+    <t xml:space="preserve">6.89314126968384</t>
   </si>
   <si>
     <t xml:space="preserve">6.85893154144287</t>
   </si>
   <si>
-    <t xml:space="preserve">6.84182643890381</t>
+    <t xml:space="preserve">6.84182691574097</t>
   </si>
   <si>
     <t xml:space="preserve">6.77340841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
@@ -896,7 +896,7 @@
     <t xml:space="preserve">6.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41421270370483</t>
+    <t xml:space="preserve">6.41421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289930343628</t>
@@ -905,7 +905,7 @@
     <t xml:space="preserve">6.43131685256958</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000345230103</t>
+    <t xml:space="preserve">6.38000297546387</t>
   </si>
   <si>
     <t xml:space="preserve">6.32868957519531</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07212114334106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.10633039474487</t>
+    <t xml:space="preserve">6.07212066650391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.10632991790771</t>
   </si>
   <si>
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158494949341</t>
+    <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">6.53394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67078113555908</t>
+    <t xml:space="preserve">6.67078065872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.7563042640686</t>
@@ -950,22 +950,22 @@
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657236099243</t>
+    <t xml:space="preserve">6.63657188415527</t>
   </si>
   <si>
     <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
-    <t xml:space="preserve">6.8247218132019</t>
+    <t xml:space="preserve">6.82472229003906</t>
   </si>
   <si>
     <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55104875564575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.5681529045105</t>
+    <t xml:space="preserve">6.55104923248291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.56815338134766</t>
   </si>
   <si>
     <t xml:space="preserve">6.68788576126099</t>
@@ -986,7 +986,7 @@
     <t xml:space="preserve">5.86686658859253</t>
   </si>
   <si>
-    <t xml:space="preserve">6.02080678939819</t>
+    <t xml:space="preserve">6.02080726623535</t>
   </si>
   <si>
     <t xml:space="preserve">5.93528461456299</t>
@@ -995,16 +995,16 @@
     <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
-    <t xml:space="preserve">5.88397073745728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.98659801483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.73002958297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47346162796021</t>
+    <t xml:space="preserve">5.88397121429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.9865984916687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.73002910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47346115112305</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
@@ -1013,7 +1013,7 @@
     <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506925582886</t>
+    <t xml:space="preserve">4.75506973266602</t>
   </si>
   <si>
     <t xml:space="preserve">4.53271007537842</t>
@@ -1028,7 +1028,7 @@
     <t xml:space="preserve">4.32745504379272</t>
   </si>
   <si>
-    <t xml:space="preserve">4.4471869468689</t>
+    <t xml:space="preserve">4.44718742370605</t>
   </si>
   <si>
     <t xml:space="preserve">4.36166477203369</t>
@@ -1049,28 +1049,28 @@
     <t xml:space="preserve">5.90107583999634</t>
   </si>
   <si>
-    <t xml:space="preserve">5.78134393692017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.69582033157349</t>
+    <t xml:space="preserve">5.78134346008301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.69582080841064</t>
   </si>
   <si>
     <t xml:space="preserve">5.67871570587158</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54188013076782</t>
+    <t xml:space="preserve">5.54187965393066</t>
   </si>
   <si>
     <t xml:space="preserve">5.35372972488403</t>
   </si>
   <si>
-    <t xml:space="preserve">5.52477502822876</t>
+    <t xml:space="preserve">5.5247745513916</t>
   </si>
   <si>
     <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40504312515259</t>
+    <t xml:space="preserve">5.40504360198975</t>
   </si>
   <si>
     <t xml:space="preserve">5.59319305419922</t>
@@ -1082,7 +1082,7 @@
     <t xml:space="preserve">6.12343454360962</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2944803237915</t>
+    <t xml:space="preserve">6.29448080062866</t>
   </si>
   <si>
     <t xml:space="preserve">6.24316692352295</t>
@@ -1103,13 +1103,13 @@
     <t xml:space="preserve">5.9694938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79844856262207</t>
+    <t xml:space="preserve">5.79844808578491</t>
   </si>
   <si>
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292495727539</t>
+    <t xml:space="preserve">5.71292543411255</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
@@ -1154,13 +1154,13 @@
     <t xml:space="preserve">7.38917255401611</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74836874008179</t>
+    <t xml:space="preserve">7.74836921691895</t>
   </si>
   <si>
     <t xml:space="preserve">7.76547241210938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7825779914856</t>
+    <t xml:space="preserve">7.78257846832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
@@ -1169,10 +1169,10 @@
     <t xml:space="preserve">8.10756397247314</t>
   </si>
   <si>
-    <t xml:space="preserve">8.12466907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914642333984</t>
+    <t xml:space="preserve">8.12467002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625057220459</t>
@@ -1181,37 +1181,37 @@
     <t xml:space="preserve">7.98783397674561</t>
   </si>
   <si>
-    <t xml:space="preserve">7.95362377166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072744369507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678676605225</t>
+    <t xml:space="preserve">7.95362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941404342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126459121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678628921509</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86810064315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79968214035034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.2786111831665</t>
+    <t xml:space="preserve">8.0220422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8681001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7996826171875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.27861022949219</t>
   </si>
   <si>
     <t xml:space="preserve">8.3812370300293</t>
@@ -1220,10 +1220,10 @@
     <t xml:space="preserve">8.36413288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44965553283691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6378059387207</t>
+    <t xml:space="preserve">8.44965648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
     <t xml:space="preserve">8.59504413604736</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228424072266</t>
+    <t xml:space="preserve">8.55228328704834</t>
   </si>
   <si>
     <t xml:space="preserve">8.41544723510742</t>
@@ -1259,25 +1259,25 @@
     <t xml:space="preserve">9.0226583480835</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32198810577393</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.62131977081299</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45027256011963</t>
+    <t xml:space="preserve">9.32198905944824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.62131881713867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45027351379395</t>
   </si>
   <si>
     <t xml:space="preserve">9.74960231781006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.66408061981201</t>
+    <t xml:space="preserve">9.6640796661377</t>
   </si>
   <si>
     <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1772174835205</t>
+    <t xml:space="preserve">10.1772165298462</t>
   </si>
   <si>
     <t xml:space="preserve">10.1344556808472</t>
@@ -1295,31 +1295,31 @@
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9896841049194</t>
+    <t xml:space="preserve">10.8186378479004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9896831512451</t>
   </si>
   <si>
     <t xml:space="preserve">11.0324449539185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4600591659546</t>
+    <t xml:space="preserve">11.4600582122803</t>
   </si>
   <si>
     <t xml:space="preserve">12.1014804840088</t>
   </si>
   <si>
-    <t xml:space="preserve">11.9731960296631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8876733779907</t>
+    <t xml:space="preserve">11.9731969833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8876724243164</t>
   </si>
   <si>
     <t xml:space="preserve">11.8021516799927</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7166271209717</t>
+    <t xml:space="preserve">11.716628074646</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304351806641</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">11.9257192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4380493164062</t>
+    <t xml:space="preserve">11.4380502700806</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
@@ -1373,7 +1373,7 @@
     <t xml:space="preserve">10.8173809051514</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8617143630981</t>
+    <t xml:space="preserve">10.8617153167725</t>
   </si>
   <si>
     <t xml:space="preserve">10.7730474472046</t>
@@ -1382,16 +1382,16 @@
     <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
-    <t xml:space="preserve">10.5957126617432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
+    <t xml:space="preserve">10.5957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6400470733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390491485596</t>
   </si>
   <si>
     <t xml:space="preserve">11.7483854293823</t>
@@ -1400,7 +1400,7 @@
     <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5710515975952</t>
+    <t xml:space="preserve">11.5710506439209</t>
   </si>
   <si>
     <t xml:space="preserve">11.3050498962402</t>
@@ -1412,10 +1412,10 @@
     <t xml:space="preserve">11.349383354187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
+    <t xml:space="preserve">11.0833826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947156906128</t>
   </si>
   <si>
     <t xml:space="preserve">10.950382232666</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267181396484</t>
+    <t xml:space="preserve">11.5267171859741</t>
   </si>
   <si>
     <t xml:space="preserve">11.8813858032227</t>
@@ -1454,13 +1454,13 @@
     <t xml:space="preserve">12.1030521392822</t>
   </si>
   <si>
-    <t xml:space="preserve">12.280387878418</t>
+    <t xml:space="preserve">12.2803869247437</t>
   </si>
   <si>
     <t xml:space="preserve">12.014386177063</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3690547943115</t>
+    <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
     <t xml:space="preserve">12.3247203826904</t>
@@ -1481,10 +1481,10 @@
     <t xml:space="preserve">13.1670579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3887252807617</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4330596923828</t>
+    <t xml:space="preserve">13.388726234436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
     <t xml:space="preserve">13.6990604400635</t>
@@ -1493,28 +1493,28 @@
     <t xml:space="preserve">14.186728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4970645904541</t>
+    <t xml:space="preserve">14.4970636367798</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5857315063477</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4527292251587</t>
+    <t xml:space="preserve">14.585732460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.452730178833</t>
   </si>
   <si>
     <t xml:space="preserve">14.2310619354248</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2753973007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9847326278687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
+    <t xml:space="preserve">14.2753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.984733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8517332077026</t>
   </si>
   <si>
     <t xml:space="preserve">14.6300649642944</t>
@@ -1526,40 +1526,40 @@
     <t xml:space="preserve">14.0980615615845</t>
   </si>
   <si>
-    <t xml:space="preserve">13.7877264022827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4773931503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3443918228149</t>
+    <t xml:space="preserve">13.787727355957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4773921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3443927764893</t>
   </si>
   <si>
     <t xml:space="preserve">12.8567237854004</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1473865509033</t>
+    <t xml:space="preserve">12.147385597229</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350555419922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5463876724243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.4627132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297119140625</t>
+    <t xml:space="preserve">12.5463886260986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.4627122879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297109603882</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183788299561</t>
@@ -1568,7 +1568,7 @@
     <t xml:space="preserve">12.6793899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4133882522583</t>
+    <t xml:space="preserve">12.413387298584</t>
   </si>
   <si>
     <t xml:space="preserve">12.271520614624</t>
@@ -1583,25 +1583,25 @@
     <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4735164642334</t>
+    <t xml:space="preserve">11.4735174179077</t>
   </si>
   <si>
     <t xml:space="preserve">11.3848505020142</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3671169281006</t>
+    <t xml:space="preserve">11.3671159744263</t>
   </si>
   <si>
     <t xml:space="preserve">11.4025831222534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5976505279541</t>
+    <t xml:space="preserve">11.5976514816284</t>
   </si>
   <si>
     <t xml:space="preserve">11.6685838699341</t>
   </si>
   <si>
-    <t xml:space="preserve">11.544451713562</t>
+    <t xml:space="preserve">11.5444507598877</t>
   </si>
   <si>
     <t xml:space="preserve">11.6508512496948</t>
@@ -2520,6 +2520,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.5200004577637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5600004196167</t>
   </si>
 </sst>
 </file>
@@ -16165,7 +16168,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G512" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H512" t="s">
         <v>9</v>
@@ -16191,7 +16194,7 @@
         <v>10.5</v>
       </c>
       <c r="G513" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H513" t="s">
         <v>9</v>
@@ -16217,7 +16220,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G514" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H514" t="s">
         <v>9</v>
@@ -16243,7 +16246,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G515" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H515" t="s">
         <v>9</v>
@@ -16269,7 +16272,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G516" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H516" t="s">
         <v>9</v>
@@ -16321,7 +16324,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G518" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H518" t="s">
         <v>9</v>
@@ -16477,7 +16480,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G524" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H524" t="s">
         <v>9</v>
@@ -16503,7 +16506,7 @@
         <v>10.5</v>
       </c>
       <c r="G525" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H525" t="s">
         <v>9</v>
@@ -16529,7 +16532,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G526" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H526" t="s">
         <v>9</v>
@@ -17127,7 +17130,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G549" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H549" t="s">
         <v>9</v>
@@ -17257,7 +17260,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G554" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H554" t="s">
         <v>9</v>
@@ -17283,7 +17286,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G555" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H555" t="s">
         <v>9</v>
@@ -17361,7 +17364,7 @@
         <v>10.5</v>
       </c>
       <c r="G558" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H558" t="s">
         <v>9</v>
@@ -17387,7 +17390,7 @@
         <v>10.4499998092651</v>
       </c>
       <c r="G559" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H559" t="s">
         <v>9</v>
@@ -17439,7 +17442,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G561" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H561" t="s">
         <v>9</v>
@@ -17465,7 +17468,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G562" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H562" t="s">
         <v>9</v>
@@ -17491,7 +17494,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G563" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H563" t="s">
         <v>9</v>
@@ -17517,7 +17520,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G564" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H564" t="s">
         <v>9</v>
@@ -17569,7 +17572,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G566" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H566" t="s">
         <v>9</v>
@@ -17621,7 +17624,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G568" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H568" t="s">
         <v>9</v>
@@ -17751,7 +17754,7 @@
         <v>10.5</v>
       </c>
       <c r="G573" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H573" t="s">
         <v>9</v>
@@ -17803,7 +17806,7 @@
         <v>10.5</v>
       </c>
       <c r="G575" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H575" t="s">
         <v>9</v>
@@ -17829,7 +17832,7 @@
         <v>10.5</v>
       </c>
       <c r="G576" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H576" t="s">
         <v>9</v>
@@ -17855,7 +17858,7 @@
         <v>10.5</v>
       </c>
       <c r="G577" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H577" t="s">
         <v>9</v>
@@ -18401,7 +18404,7 @@
         <v>10.5</v>
       </c>
       <c r="G598" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H598" t="s">
         <v>9</v>
@@ -18427,7 +18430,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G599" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H599" t="s">
         <v>9</v>
@@ -18453,7 +18456,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G600" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H600" t="s">
         <v>9</v>
@@ -18479,7 +18482,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G601" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H601" t="s">
         <v>9</v>
@@ -18505,7 +18508,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G602" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H602" t="s">
         <v>9</v>
@@ -18531,7 +18534,7 @@
         <v>10.3500003814697</v>
       </c>
       <c r="G603" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H603" t="s">
         <v>9</v>
@@ -18557,7 +18560,7 @@
         <v>10.25</v>
       </c>
       <c r="G604" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H604" t="s">
         <v>9</v>
@@ -18583,7 +18586,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G605" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H605" t="s">
         <v>9</v>
@@ -18609,7 +18612,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G606" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H606" t="s">
         <v>9</v>
@@ -18635,7 +18638,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G607" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H607" t="s">
         <v>9</v>
@@ -18661,7 +18664,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G608" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H608" t="s">
         <v>9</v>
@@ -18687,7 +18690,7 @@
         <v>10.5</v>
       </c>
       <c r="G609" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H609" t="s">
         <v>9</v>
@@ -18713,7 +18716,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G610" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H610" t="s">
         <v>9</v>
@@ -18739,7 +18742,7 @@
         <v>10.5500001907349</v>
       </c>
       <c r="G611" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="H611" t="s">
         <v>9</v>
@@ -18791,7 +18794,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G613" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H613" t="s">
         <v>9</v>
@@ -18817,7 +18820,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G614" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H614" t="s">
         <v>9</v>
@@ -18895,7 +18898,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G617" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H617" t="s">
         <v>9</v>
@@ -18921,7 +18924,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G618" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H618" t="s">
         <v>9</v>
@@ -19103,7 +19106,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G625" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H625" t="s">
         <v>9</v>
@@ -19129,7 +19132,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G626" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H626" t="s">
         <v>9</v>
@@ -19155,7 +19158,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G627" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H627" t="s">
         <v>9</v>
@@ -19181,7 +19184,7 @@
         <v>10.0500001907349</v>
       </c>
       <c r="G628" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H628" t="s">
         <v>9</v>
@@ -19207,7 +19210,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G629" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H629" t="s">
         <v>9</v>
@@ -19493,7 +19496,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G640" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H640" t="s">
         <v>9</v>
@@ -19571,7 +19574,7 @@
         <v>9.97999954223633</v>
       </c>
       <c r="G643" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H643" t="s">
         <v>9</v>
@@ -59099,7 +59102,7 @@
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n">
-        <v>45475.6494907407</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B2164" t="n">
         <v>22554</v>
@@ -59120,6 +59123,32 @@
         <v>835</v>
       </c>
       <c r="H2164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" s="1" t="n">
+        <v>45476.6494328704</v>
+      </c>
+      <c r="B2165" t="n">
+        <v>4969</v>
+      </c>
+      <c r="C2165" t="n">
+        <v>12.8800001144409</v>
+      </c>
+      <c r="D2165" t="n">
+        <v>12.4399995803833</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>12.8800001144409</v>
+      </c>
+      <c r="F2165" t="n">
+        <v>12.5600004196167</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>836</v>
+      </c>
+      <c r="H2165" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="838">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -44,97 +44,97 @@
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728712081909</t>
+    <t xml:space="preserve">7.65728759765625</t>
   </si>
   <si>
     <t xml:space="preserve">7.6378026008606</t>
   </si>
   <si>
-    <t xml:space="preserve">7.55986499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883308410645</t>
+    <t xml:space="preserve">7.55986547470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883451461792</t>
   </si>
   <si>
     <t xml:space="preserve">7.40788984298706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36502361297607</t>
+    <t xml:space="preserve">7.36502408981323</t>
   </si>
   <si>
     <t xml:space="preserve">7.63390588760376</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44685792922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089691162109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972225189209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44296026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75081062316895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.77808856964111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8716139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367637634277</t>
+    <t xml:space="preserve">7.44685840606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089786529541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972272872925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44296073913574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7508111000061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7780876159668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.87161302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367733001709</t>
   </si>
   <si>
     <t xml:space="preserve">7.83264493942261</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71573972702026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250171661377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837406158447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278816223145</t>
+    <t xml:space="preserve">7.71573877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837501525879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278720855713</t>
   </si>
   <si>
     <t xml:space="preserve">7.94955015182495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7897777557373</t>
+    <t xml:space="preserve">7.78977870941162</t>
   </si>
   <si>
     <t xml:space="preserve">7.78588199615479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94175577163696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748584747314</t>
+    <t xml:space="preserve">7.94175481796265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748680114746</t>
   </si>
   <si>
     <t xml:space="preserve">8.19115352630615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.16777229309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410652160645</t>
+    <t xml:space="preserve">8.16777324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410556793213</t>
   </si>
   <si>
     <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80926275253296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1443920135498</t>
+    <t xml:space="preserve">7.80926418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14439105987549</t>
   </si>
   <si>
     <t xml:space="preserve">8.06645488739014</t>
@@ -143,25 +143,25 @@
     <t xml:space="preserve">8.05086708068848</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75470733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8404393196106</t>
+    <t xml:space="preserve">7.75470876693726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043836593628</t>
   </si>
   <si>
     <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80146980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691438674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184301376343</t>
+    <t xml:space="preserve">7.80147075653076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860500335693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691295623779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
     <t xml:space="preserve">7.7391209602356</t>
@@ -170,16 +170,16 @@
     <t xml:space="preserve">7.70404863357544</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48192882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531101226807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854759216309</t>
+    <t xml:space="preserve">7.48192977905273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531053543091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4780330657959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854711532593</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
@@ -191,10 +191,10 @@
     <t xml:space="preserve">7.7001519203186</t>
   </si>
   <si>
-    <t xml:space="preserve">7.89499378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969242095947</t>
+    <t xml:space="preserve">7.89499473571777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969337463379</t>
   </si>
   <si>
     <t xml:space="preserve">8.08204174041748</t>
@@ -203,307 +203,307 @@
     <t xml:space="preserve">8.10542392730713</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24570941925049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129817962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41717052459717</t>
+    <t xml:space="preserve">8.2457103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129722595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41716957092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4951057434082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863162994385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347785949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567859649658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.74354839324951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65539264678955</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63135051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4229793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460819244385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453670501709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893627166748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900680541992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532211303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28050231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05610466003418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899438858032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760112762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370006561279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171474456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76136016845703</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.60107421875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.53695964813232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61710166931152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7373161315918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490283966064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646114349365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29653263092041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1843318939209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45681762695312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.37667465209961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.41674613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42475986480713</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32859039306641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.30454635620117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.40071773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2404317855835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057571411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851985931396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234752655029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.94390487670898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993423461914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638965606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837497711182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.13624668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9919900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574913024902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.89581966400146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248859405518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1041898727417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.17631816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617710113525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.98397636413574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.93589019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8878059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553371429443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759147644043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007434844971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00000476837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560520172119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67142105102539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.64737796783447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333488464355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63936328887939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68744945526123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75156402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52716445922852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276393890381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36687850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085010528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312042236328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127902984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72752094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.479079246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47106456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863258361816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53407573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347785949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567668914795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.74354934692383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65539169311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63135051727295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.42297840118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3348217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460819244385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453575134277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893531799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57524967193604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28050327301025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05610370635986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880294799805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899438858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8976001739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.96171569824219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.76136016845703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.60107326507568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.53695964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61710357666016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7373161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490188598633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646114349365</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29653358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18433380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45681762695312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.37667465209961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.41674709320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42476081848145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32859039306641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.30454635620117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.40071868896484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2404317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057476043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851795196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234752655029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94390487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21638965606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13624668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574913024902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.89581966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660316467285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248859405518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1041898727417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.17631816864014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617614746094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.98397636413574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.93589019775391</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.8878059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596168518066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007530212402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560710906982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67142105102539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333488464355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.63936328887939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68744945526123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.75156497955322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319286346436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716541290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80766201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276584625244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085010528564</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5832633972168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5031213760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72752094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47907829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4710636138916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503616333008</t>
+    <t xml:space="preserve">8.41496562957764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503520965576</t>
   </si>
   <si>
     <t xml:space="preserve">8.29475116729736</t>
@@ -2523,6 +2523,9 @@
   </si>
   <si>
     <t xml:space="preserve">12.5600004196167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5799999237061</t>
   </si>
 </sst>
 </file>
@@ -59128,7 +59131,7 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n">
-        <v>45476.6494328704</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B2165" t="n">
         <v>4969</v>
@@ -59149,6 +59152,32 @@
         <v>836</v>
       </c>
       <c r="H2165" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="n">
+        <v>45477.6494907407</v>
+      </c>
+      <c r="B2166" t="n">
+        <v>13833</v>
+      </c>
+      <c r="C2166" t="n">
+        <v>12.6999998092651</v>
+      </c>
+      <c r="D2166" t="n">
+        <v>12.4200000762939</v>
+      </c>
+      <c r="E2166" t="n">
+        <v>12.460000038147</v>
+      </c>
+      <c r="F2166" t="n">
+        <v>12.5799999237061</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>837</v>
+      </c>
+      <c r="H2166" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -38,22 +38,22 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677068710327</t>
+    <t xml:space="preserve">7.67677021026611</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728712081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986642837524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883451461792</t>
+    <t xml:space="preserve">7.65728616714478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780164718628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986499786377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883403778076</t>
   </si>
   <si>
     <t xml:space="preserve">7.40788984298706</t>
@@ -62,73 +62,73 @@
     <t xml:space="preserve">7.36502361297607</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63390588760376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685840606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089786529541</t>
+    <t xml:space="preserve">7.63390636444092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685792922974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089595794678</t>
   </si>
   <si>
     <t xml:space="preserve">7.48972320556641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44296073913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75081205368042</t>
+    <t xml:space="preserve">7.44296026229858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7508111000061</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8716139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264446258545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573925018311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250123977661</t>
+    <t xml:space="preserve">7.87161302566528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367637634277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573877334595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250267028809</t>
   </si>
   <si>
     <t xml:space="preserve">7.91837501525879</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90278768539429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94954872131348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977966308594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78588151931763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94175624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115543365479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1677713394165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00410652160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.9963116645813</t>
+    <t xml:space="preserve">7.90278816223145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94955015182495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977870941162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78588199615479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94175577163696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748680114746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115447998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.16777324676514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00410461425781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99631261825562</t>
   </si>
   <si>
     <t xml:space="preserve">7.80926322937012</t>
@@ -140,37 +140,37 @@
     <t xml:space="preserve">8.06645488739014</t>
   </si>
   <si>
-    <t xml:space="preserve">8.05086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470781326294</t>
+    <t xml:space="preserve">8.05086803436279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470733642578</t>
   </si>
   <si>
     <t xml:space="preserve">7.8404393196106</t>
   </si>
   <si>
-    <t xml:space="preserve">7.85602474212646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860500335693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691295623779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71184301376343</t>
+    <t xml:space="preserve">7.85602617263794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80146980285645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860548019409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691438674927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
     <t xml:space="preserve">7.7391209602356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7040491104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192930221558</t>
+    <t xml:space="preserve">7.70404958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192882537842</t>
   </si>
   <si>
     <t xml:space="preserve">7.50531005859375</t>
@@ -179,19 +179,19 @@
     <t xml:space="preserve">7.47803211212158</t>
   </si>
   <si>
-    <t xml:space="preserve">7.45854711532593</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04307460784912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98851823806763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001519203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499378204346</t>
+    <t xml:space="preserve">7.45854759216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0430736541748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98851728439331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015335083008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499473571777</t>
   </si>
   <si>
     <t xml:space="preserve">8.01969337463379</t>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2457103729248</t>
+    <t xml:space="preserve">8.24570941925049</t>
   </si>
   <si>
     <t xml:space="preserve">8.26129722595215</t>
@@ -215,19 +215,19 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863067626953</t>
+    <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215656280518</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53407573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347690582275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.81567668914795</t>
+    <t xml:space="preserve">8.5340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347881317139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.81567764282227</t>
   </si>
   <si>
     <t xml:space="preserve">8.74354839324951</t>
@@ -242,49 +242,49 @@
     <t xml:space="preserve">8.42297840118408</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3348217010498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14248085021973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21460914611816</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17453765869141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.39893627166748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53517723083496</t>
+    <t xml:space="preserve">8.33482265472412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14247989654541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.21460723876953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.17453575134277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.39893436431885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
     <t xml:space="preserve">8.43900680541992</t>
   </si>
   <si>
-    <t xml:space="preserve">8.57524871826172</t>
+    <t xml:space="preserve">8.57524967193604</t>
   </si>
   <si>
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050422668457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0561056137085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.44880390167236</t>
+    <t xml:space="preserve">9.28050231933594</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05610370635986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.44880294799805</t>
   </si>
   <si>
     <t xml:space="preserve">10.0899438858032</t>
   </si>
   <si>
-    <t xml:space="preserve">9.89760112762451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370197296143</t>
+    <t xml:space="preserve">9.8976001739502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
     <t xml:space="preserve">9.96171474456787</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">9.53695964813232</t>
   </si>
   <si>
-    <t xml:space="preserve">9.61710166931152</t>
+    <t xml:space="preserve">9.61710262298584</t>
   </si>
   <si>
     <t xml:space="preserve">9.7373161315918</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29653263092041</t>
+    <t xml:space="preserve">9.29653358459473</t>
   </si>
   <si>
     <t xml:space="preserve">9.18433284759521</t>
@@ -320,13 +320,13 @@
     <t xml:space="preserve">9.45681762695312</t>
   </si>
   <si>
-    <t xml:space="preserve">9.37667560577393</t>
+    <t xml:space="preserve">9.37667465209961</t>
   </si>
   <si>
     <t xml:space="preserve">9.41674613952637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42476081848145</t>
+    <t xml:space="preserve">9.42475986480713</t>
   </si>
   <si>
     <t xml:space="preserve">9.32858943939209</t>
@@ -338,19 +338,19 @@
     <t xml:space="preserve">9.40071773529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24043273925781</t>
+    <t xml:space="preserve">9.2404317855835</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057476043701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851890563965</t>
+    <t xml:space="preserve">9.28851795196533</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234752655029</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9439058303833</t>
+    <t xml:space="preserve">8.94390487670898</t>
   </si>
   <si>
     <t xml:space="preserve">8.95993423461914</t>
@@ -362,76 +362,76 @@
     <t xml:space="preserve">9.20837497711182</t>
   </si>
   <si>
-    <t xml:space="preserve">9.1362476348877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199104309082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574817657471</t>
+    <t xml:space="preserve">9.13624668121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9919900894165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574913024902</t>
   </si>
   <si>
     <t xml:space="preserve">8.89581966400146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33660316467285</t>
+    <t xml:space="preserve">9.33660411834717</t>
   </si>
   <si>
     <t xml:space="preserve">9.48085975646973</t>
   </si>
   <si>
-    <t xml:space="preserve">9.51291751861572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.27248954772949</t>
+    <t xml:space="preserve">9.51291656494141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.27248859405518</t>
   </si>
   <si>
     <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
-    <t xml:space="preserve">9.17631912231445</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.09617805480957</t>
+    <t xml:space="preserve">9.17631816864014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.09617614746094</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
   </si>
   <si>
-    <t xml:space="preserve">8.93589115142822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.88780498504639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.97596073150635</t>
+    <t xml:space="preserve">8.93589019775391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.8878059387207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.97596168518066</t>
   </si>
   <si>
     <t xml:space="preserve">8.87177658081055</t>
   </si>
   <si>
-    <t xml:space="preserve">8.73553562164307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759147644043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.04007625579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00000476837158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560520172119</t>
+    <t xml:space="preserve">8.73553466796875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759243011475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.04007530212402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0000057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560710906982</t>
   </si>
   <si>
     <t xml:space="preserve">8.67142105102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737796783447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.62333393096924</t>
+    <t xml:space="preserve">8.64737701416016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.62333488464355</t>
   </si>
   <si>
     <t xml:space="preserve">8.63936328887939</t>
@@ -440,46 +440,46 @@
     <t xml:space="preserve">8.68744945526123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716445922852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723499298096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546413421631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5592212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276393890381</t>
+    <t xml:space="preserve">8.75156402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319286346436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.52716541290283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723594665527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766201019287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163551330566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943572998047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.55922222137451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
   </si>
   <si>
     <t xml:space="preserve">8.3668794631958</t>
   </si>
   <si>
-    <t xml:space="preserve">8.35085105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58326435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5031213760376</t>
+    <t xml:space="preserve">8.35085010528564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5832633972168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50312042236328</t>
   </si>
   <si>
     <t xml:space="preserve">8.59127807617188</t>
@@ -488,13 +488,13 @@
     <t xml:space="preserve">8.72752094268799</t>
   </si>
   <si>
-    <t xml:space="preserve">8.47907829284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099212646484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47106266021729</t>
+    <t xml:space="preserve">8.479079246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47106456756592</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510765075684</t>
@@ -512,10 +512,10 @@
     <t xml:space="preserve">8.37489318847656</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65425300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32456588745117</t>
+    <t xml:space="preserve">8.65425395965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32456684112549</t>
   </si>
   <si>
     <t xml:space="preserve">8.22566032409668</t>
@@ -530,88 +530,88 @@
     <t xml:space="preserve">8.53062057495117</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44820022583008</t>
+    <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
     <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77788352966309</t>
+    <t xml:space="preserve">8.7778844833374</t>
   </si>
   <si>
     <t xml:space="preserve">8.36577701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24214553833008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19269275665283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07730293273926</t>
+    <t xml:space="preserve">8.24214649200439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1926908493042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.07730197906494</t>
   </si>
   <si>
     <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14323902130127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06081867218018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488115310669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003807067871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597415924072</t>
+    <t xml:space="preserve">8.14323997497559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06081771850586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488067626953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003854751587</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894411087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597511291504</t>
   </si>
   <si>
     <t xml:space="preserve">7.71464776992798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51683664321899</t>
+    <t xml:space="preserve">7.51683616638184</t>
   </si>
   <si>
     <t xml:space="preserve">7.73113298416138</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7476167678833</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410007476807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574172973633</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058481216431</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519498825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69816398620605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59925746917725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222742080688</t>
+    <t xml:space="preserve">7.74761629104614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574268341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058433532715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519546508789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816493988037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925842285156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222646713257</t>
   </si>
   <si>
     <t xml:space="preserve">7.5662899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79706907272339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355381011963</t>
+    <t xml:space="preserve">7.79706859588623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355333328247</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277368545532</t>
@@ -623,55 +623,55 @@
     <t xml:space="preserve">7.38496208190918</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30254030227661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40144634246826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18715047836304</t>
+    <t xml:space="preserve">7.30254077911377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4014458656311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1871509552002</t>
   </si>
   <si>
     <t xml:space="preserve">7.20363473892212</t>
   </si>
   <si>
-    <t xml:space="preserve">7.33550930023193</t>
+    <t xml:space="preserve">7.33550882339478</t>
   </si>
   <si>
     <t xml:space="preserve">7.50035285949707</t>
   </si>
   <si>
-    <t xml:space="preserve">7.25308752059937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.4179310798645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441534042358</t>
+    <t xml:space="preserve">7.25308799743652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793155670166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43441581726074</t>
   </si>
   <si>
     <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13769817352295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1706657409668</t>
+    <t xml:space="preserve">7.13769721984863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.17066669464111</t>
   </si>
   <si>
     <t xml:space="preserve">7.0882453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92340230941772</t>
+    <t xml:space="preserve">6.92340183258057</t>
   </si>
   <si>
     <t xml:space="preserve">6.90691757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933839797974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07176065444946</t>
+    <t xml:space="preserve">6.98933887481689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
@@ -680,22 +680,22 @@
     <t xml:space="preserve">6.62668466567993</t>
   </si>
   <si>
-    <t xml:space="preserve">6.6596531867981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75855922698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84098100662231</t>
+    <t xml:space="preserve">6.65965366363525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75855875015259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
     <t xml:space="preserve">6.69262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.7091064453125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02230834960938</t>
+    <t xml:space="preserve">6.70910692214966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559070587158</t>
@@ -710,13 +710,13 @@
     <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36847734451294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472965240479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23660326004028</t>
+    <t xml:space="preserve">7.3684778213501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10472917556763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23660278320312</t>
   </si>
   <si>
     <t xml:space="preserve">6.87394905090332</t>
@@ -728,19 +728,19 @@
     <t xml:space="preserve">6.59371662139893</t>
   </si>
   <si>
-    <t xml:space="preserve">6.51129531860352</t>
+    <t xml:space="preserve">6.51129484176636</t>
   </si>
   <si>
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238927841187</t>
+    <t xml:space="preserve">6.41238880157471</t>
   </si>
   <si>
     <t xml:space="preserve">6.67613792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12121391296387</t>
+    <t xml:space="preserve">7.12121343612671</t>
   </si>
   <si>
     <t xml:space="preserve">6.93988609313965</t>
@@ -752,19 +752,19 @@
     <t xml:space="preserve">6.89043283462524</t>
   </si>
   <si>
-    <t xml:space="preserve">6.64316940307617</t>
+    <t xml:space="preserve">6.64316987991333</t>
   </si>
   <si>
     <t xml:space="preserve">6.80801200866699</t>
   </si>
   <si>
-    <t xml:space="preserve">7.22011995315552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089912414551</t>
+    <t xml:space="preserve">7.22011947631836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199403762817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089960098267</t>
   </si>
   <si>
     <t xml:space="preserve">7.53332090377808</t>
@@ -773,16 +773,16 @@
     <t xml:space="preserve">7.64871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68167924880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.54980516433716</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705390930176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6457405090332</t>
+    <t xml:space="preserve">7.68167877197266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5498046875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705533981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.64574098587036</t>
   </si>
   <si>
     <t xml:space="preserve">7.56021881103516</t>
@@ -791,34 +791,34 @@
     <t xml:space="preserve">7.09839534759521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.4918007850647</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.57732200622559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61153221130371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30364990234375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35496425628662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33785915374756</t>
+    <t xml:space="preserve">7.49180030822754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57732343673706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61153173446655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30364942550659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35496377944946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3378586769104</t>
   </si>
   <si>
     <t xml:space="preserve">7.25233554840088</t>
   </si>
   <si>
-    <t xml:space="preserve">7.21812677383423</t>
+    <t xml:space="preserve">7.21812725067139</t>
   </si>
   <si>
     <t xml:space="preserve">7.20102214813232</t>
   </si>
   <si>
-    <t xml:space="preserve">7.18391799926758</t>
+    <t xml:space="preserve">7.18391752243042</t>
   </si>
   <si>
     <t xml:space="preserve">6.92734956741333</t>
@@ -827,28 +827,28 @@
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418657302856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.23523187637329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.26944065093994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.37206888198853</t>
+    <t xml:space="preserve">7.06418609619141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.23523139953613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.2694411277771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.37206840515137</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287269592285</t>
+    <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
     <t xml:space="preserve">7.11549949645996</t>
   </si>
   <si>
-    <t xml:space="preserve">7.04708099365234</t>
+    <t xml:space="preserve">7.0470814704895</t>
   </si>
   <si>
     <t xml:space="preserve">7.08129024505615</t>
@@ -863,49 +863,49 @@
     <t xml:space="preserve">6.87603569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.96155881881714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314031600952</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893106460571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84182643890381</t>
+    <t xml:space="preserve">6.9615592956543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314126968384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893154144287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84182691574097</t>
   </si>
   <si>
     <t xml:space="preserve">6.77340841293335</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65367698669434</t>
+    <t xml:space="preserve">6.65367650985718</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552610397339</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263025283813</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51683950424194</t>
+    <t xml:space="preserve">6.46552658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263072967529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
     <t xml:space="preserve">6.5852575302124</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41421270370483</t>
+    <t xml:space="preserve">6.41421318054199</t>
   </si>
   <si>
     <t xml:space="preserve">6.36289930343628</t>
   </si>
   <si>
-    <t xml:space="preserve">6.43131732940674</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38000392913818</t>
+    <t xml:space="preserve">6.43131685256958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38000297546387</t>
   </si>
   <si>
     <t xml:space="preserve">6.32868957519531</t>
@@ -917,7 +917,7 @@
     <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07212162017822</t>
+    <t xml:space="preserve">6.07212066650391</t>
   </si>
   <si>
     <t xml:space="preserve">6.10632991790771</t>
@@ -926,7 +926,7 @@
     <t xml:space="preserve">6.22606229782104</t>
   </si>
   <si>
-    <t xml:space="preserve">6.31158494949341</t>
+    <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -941,7 +941,7 @@
     <t xml:space="preserve">6.53394412994385</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67078113555908</t>
+    <t xml:space="preserve">6.67078065872192</t>
   </si>
   <si>
     <t xml:space="preserve">6.7563042640686</t>
@@ -950,10 +950,10 @@
     <t xml:space="preserve">6.70499038696289</t>
   </si>
   <si>
-    <t xml:space="preserve">6.63657236099243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.60236215591431</t>
+    <t xml:space="preserve">6.63657188415527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.60236263275146</t>
   </si>
   <si>
     <t xml:space="preserve">6.82472229003906</t>
@@ -962,25 +962,25 @@
     <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55104875564575</t>
+    <t xml:space="preserve">6.55104923248291</t>
   </si>
   <si>
     <t xml:space="preserve">6.56815338134766</t>
   </si>
   <si>
-    <t xml:space="preserve">6.68788623809814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7391996383667</t>
+    <t xml:space="preserve">6.68788576126099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.73919916152954</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44842195510864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.00370311737061</t>
+    <t xml:space="preserve">6.44842147827148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.00370264053345</t>
   </si>
   <si>
     <t xml:space="preserve">5.86686658859253</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.7642388343811</t>
+    <t xml:space="preserve">5.76423931121826</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1001,19 +1001,19 @@
     <t xml:space="preserve">5.9865984916687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73002958297729</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.47346162796021</t>
+    <t xml:space="preserve">5.73002910614014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.47346115112305</t>
   </si>
   <si>
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453401565552</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.75506925582886</t>
+    <t xml:space="preserve">4.99453353881836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.75506973266602</t>
   </si>
   <si>
     <t xml:space="preserve">4.53271007537842</t>
@@ -1025,52 +1025,52 @@
     <t xml:space="preserve">4.58402395248413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32745552062988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.4471869468689</t>
+    <t xml:space="preserve">4.32745504379272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.44718742370605</t>
   </si>
   <si>
     <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.7037558555603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04584741592407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26820611953735</t>
+    <t xml:space="preserve">4.70375633239746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04584693908691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26820659637451</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056625366211</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90107536315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.78134393692017</t>
+    <t xml:space="preserve">5.90107583999634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
     <t xml:space="preserve">5.69582080841064</t>
   </si>
   <si>
-    <t xml:space="preserve">5.67871618270874</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54187917709351</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372924804688</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.52477502822876</t>
+    <t xml:space="preserve">5.67871570587158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54187965393066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372972488403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5247745513916</t>
   </si>
   <si>
     <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
-    <t xml:space="preserve">5.40504312515259</t>
+    <t xml:space="preserve">5.40504360198975</t>
   </si>
   <si>
     <t xml:space="preserve">5.59319305419922</t>
@@ -1079,10 +1079,10 @@
     <t xml:space="preserve">5.84976196289062</t>
   </si>
   <si>
-    <t xml:space="preserve">6.12343502044678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.29447984695435</t>
+    <t xml:space="preserve">6.12343454360962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.29448080062866</t>
   </si>
   <si>
     <t xml:space="preserve">6.24316692352295</t>
@@ -1091,7 +1091,7 @@
     <t xml:space="preserve">6.03791236877441</t>
   </si>
   <si>
-    <t xml:space="preserve">6.17474842071533</t>
+    <t xml:space="preserve">6.17474794387817</t>
   </si>
   <si>
     <t xml:space="preserve">6.08922576904297</t>
@@ -1103,19 +1103,19 @@
     <t xml:space="preserve">5.9694938659668</t>
   </si>
   <si>
-    <t xml:space="preserve">5.79844856262207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.95238876342773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.71292495727539</t>
+    <t xml:space="preserve">5.79844808578491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.95238924026489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.71292543411255</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74713468551636</t>
+    <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
@@ -1127,7 +1127,7 @@
     <t xml:space="preserve">5.83265733718872</t>
   </si>
   <si>
-    <t xml:space="preserve">5.91817951202393</t>
+    <t xml:space="preserve">5.91817998886108</t>
   </si>
   <si>
     <t xml:space="preserve">5.66161155700684</t>
@@ -1139,7 +1139,7 @@
     <t xml:space="preserve">6.79051303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72209501266479</t>
+    <t xml:space="preserve">6.72209453582764</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
@@ -1148,67 +1148,67 @@
     <t xml:space="preserve">7.16681337356567</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13260459899902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38917303085327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7483696937561</t>
+    <t xml:space="preserve">7.13260412216187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38917255401611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836921691895</t>
   </si>
   <si>
     <t xml:space="preserve">7.76547241210938</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7825779914856</t>
+    <t xml:space="preserve">7.78257846832275</t>
   </si>
   <si>
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756492614746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12466907501221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914642333984</t>
+    <t xml:space="preserve">8.10756397247314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12467002868652</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914737701416</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783302307129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362281799316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072839736938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91941452026367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90230989456177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126411437988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81678676605225</t>
+    <t xml:space="preserve">7.98783397674561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362329483032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072696685791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91941404342651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90230941772461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126459121704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678628921509</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
   </si>
   <si>
-    <t xml:space="preserve">8.02204132080078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.86810159683228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79968214035034</t>
+    <t xml:space="preserve">8.0220422744751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.8681001663208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7996826171875</t>
   </si>
   <si>
     <t xml:space="preserve">8.27861022949219</t>
@@ -1217,16 +1217,16 @@
     <t xml:space="preserve">8.3812370300293</t>
   </si>
   <si>
-    <t xml:space="preserve">8.36413383483887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4496545791626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.6378059387207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.595046043396</t>
+    <t xml:space="preserve">8.36413288116455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44965648651123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.63780689239502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59504413604736</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,13 +1235,13 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228424072266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41544628143311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50096988677979</t>
+    <t xml:space="preserve">8.55228328704834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41544723510742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.50096893310547</t>
   </si>
   <si>
     <t xml:space="preserve">8.68056774139404</t>
@@ -1250,31 +1250,31 @@
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161399841309</t>
+    <t xml:space="preserve">8.85161304473877</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.02265930175781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32198810577393</t>
+    <t xml:space="preserve">9.0226583480835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32198905944824</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027256011963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960327148438</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.66408061981201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.57855606079102</t>
+    <t xml:space="preserve">9.45027351379395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960231781006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6640796661377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.57855701446533</t>
   </si>
   <si>
     <t xml:space="preserve">10.1772165298462</t>
@@ -1286,7 +1286,7 @@
     <t xml:space="preserve">10.3910236358643</t>
   </si>
   <si>
-    <t xml:space="preserve">10.51930809021</t>
+    <t xml:space="preserve">10.5193090438843</t>
   </si>
   <si>
     <t xml:space="preserve">10.8613996505737</t>
@@ -1298,13 +1298,13 @@
     <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9896841049194</t>
+    <t xml:space="preserve">10.9896831512451</t>
   </si>
   <si>
     <t xml:space="preserve">11.0324449539185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4600591659546</t>
+    <t xml:space="preserve">11.4600582122803</t>
   </si>
   <si>
     <t xml:space="preserve">12.1014804840088</t>
@@ -1313,25 +1313,25 @@
     <t xml:space="preserve">11.9731969833374</t>
   </si>
   <si>
-    <t xml:space="preserve">11.887674331665</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8021507263184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7166271209717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9304342269897</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5883436203003</t>
+    <t xml:space="preserve">11.8876724243164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8021516799927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.716628074646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9304351806641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5883445739746</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725276947021</t>
+    <t xml:space="preserve">12.2725267410278</t>
   </si>
   <si>
     <t xml:space="preserve">12.0159587860107</t>
@@ -1361,7 +1361,7 @@
     <t xml:space="preserve">11.9257192611694</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4380493164062</t>
+    <t xml:space="preserve">11.4380502700806</t>
   </si>
   <si>
     <t xml:space="preserve">11.2163820266724</t>
@@ -1379,49 +1379,49 @@
     <t xml:space="preserve">10.7730474472046</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6843795776367</t>
+    <t xml:space="preserve">10.684380531311</t>
   </si>
   <si>
     <t xml:space="preserve">10.5957136154175</t>
   </si>
   <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277160644531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
+    <t xml:space="preserve">10.6400470733643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277151107788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390491485596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7483854293823</t>
   </si>
   <si>
     <t xml:space="preserve">11.4823837280273</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5710515975952</t>
+    <t xml:space="preserve">11.5710506439209</t>
   </si>
   <si>
     <t xml:space="preserve">11.3050498962402</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6153841018677</t>
+    <t xml:space="preserve">11.615385055542</t>
   </si>
   <si>
     <t xml:space="preserve">11.349383354187</t>
   </si>
   <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9503812789917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
+    <t xml:space="preserve">11.0833826065063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947156906128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.950382232666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060487747192</t>
   </si>
   <si>
     <t xml:space="preserve">10.5513792037964</t>
@@ -1433,16 +1433,16 @@
     <t xml:space="preserve">11.7040510177612</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5267181396484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
+    <t xml:space="preserve">11.5267171859741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813858032227</t>
   </si>
   <si>
     <t xml:space="preserve">11.6597175598145</t>
   </si>
   <si>
-    <t xml:space="preserve">11.2607164382935</t>
+    <t xml:space="preserve">11.2607154846191</t>
   </si>
   <si>
     <t xml:space="preserve">11.3937168121338</t>
@@ -1451,13 +1451,10 @@
     <t xml:space="preserve">11.7927188873291</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0587205886841</t>
+    <t xml:space="preserve">12.1030521392822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2803869247437</t>
   </si>
   <si>
     <t xml:space="preserve">12.014386177063</t>
@@ -1466,7 +1463,7 @@
     <t xml:space="preserve">12.3690538406372</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3247213363647</t>
+    <t xml:space="preserve">12.3247203826904</t>
   </si>
   <si>
     <t xml:space="preserve">12.5907220840454</t>
@@ -1484,40 +1481,40 @@
     <t xml:space="preserve">13.1670579910278</t>
   </si>
   <si>
-    <t xml:space="preserve">13.3887252807617</t>
+    <t xml:space="preserve">13.388726234436</t>
   </si>
   <si>
     <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6990594863892</t>
+    <t xml:space="preserve">13.6990604400635</t>
   </si>
   <si>
     <t xml:space="preserve">14.186728477478</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4970645904541</t>
+    <t xml:space="preserve">14.4970636367798</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5857305526733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4527292251587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2310628890991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2753973007202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.9847316741943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.8517322540283</t>
+    <t xml:space="preserve">14.585732460022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.452730178833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2310619354248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2753963470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.984733581543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.8517332077026</t>
   </si>
   <si>
     <t xml:space="preserve">14.6300649642944</t>
@@ -1532,13 +1529,13 @@
     <t xml:space="preserve">13.787727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4773931503296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3443918228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8567228317261</t>
+    <t xml:space="preserve">13.4773921966553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3443927764893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8567237854004</t>
   </si>
   <si>
     <t xml:space="preserve">12.147385597229</t>
@@ -1547,10 +1544,10 @@
     <t xml:space="preserve">12.1917200088501</t>
   </si>
   <si>
-    <t xml:space="preserve">12.6350545883179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9700527191162</t>
+    <t xml:space="preserve">12.6350564956665</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9700517654419</t>
   </si>
   <si>
     <t xml:space="preserve">12.2360534667969</t>
@@ -1559,10 +1556,10 @@
     <t xml:space="preserve">12.5463886260986</t>
   </si>
   <si>
-    <t xml:space="preserve">10.4627132415771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.3297119140625</t>
+    <t xml:space="preserve">10.4627122879028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3297109603882</t>
   </si>
   <si>
     <t xml:space="preserve">10.4183788299561</t>
@@ -1571,10 +1568,10 @@
     <t xml:space="preserve">12.6793899536133</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4133882522583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2715196609497</t>
+    <t xml:space="preserve">12.413387298584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.271520614624</t>
   </si>
   <si>
     <t xml:space="preserve">11.8281850814819</t>
@@ -1586,7 +1583,7 @@
     <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4735164642334</t>
+    <t xml:space="preserve">11.4735174179077</t>
   </si>
   <si>
     <t xml:space="preserve">11.3848505020142</t>
@@ -1598,16 +1595,16 @@
     <t xml:space="preserve">11.4025831222534</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5976505279541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6685848236084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.544451713562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6508522033691</t>
+    <t xml:space="preserve">11.5976514816284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6685838699341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5444507598877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6508512496948</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
@@ -1616,13 +1613,13 @@
     <t xml:space="preserve">11.5089836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7572507858276</t>
+    <t xml:space="preserve">11.757251739502</t>
   </si>
   <si>
     <t xml:space="preserve">11.5799179077148</t>
   </si>
   <si>
-    <t xml:space="preserve">11.3139162063599</t>
+    <t xml:space="preserve">11.3139171600342</t>
   </si>
   <si>
     <t xml:space="preserve">12.1854629516602</t>
@@ -1631,13 +1628,13 @@
     <t xml:space="preserve">12.2592029571533</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1117238998413</t>
+    <t xml:space="preserve">12.111722946167</t>
   </si>
   <si>
     <t xml:space="preserve">12.0011148452759</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2776374816895</t>
+    <t xml:space="preserve">12.2776365280151</t>
   </si>
   <si>
     <t xml:space="preserve">12.7200746536255</t>
@@ -1646,7 +1643,7 @@
     <t xml:space="preserve">13.0887727737427</t>
   </si>
   <si>
-    <t xml:space="preserve">13.0519027709961</t>
+    <t xml:space="preserve">13.0519018173218</t>
   </si>
   <si>
     <t xml:space="preserve">13.0703382492065</t>
@@ -1661,7 +1658,7 @@
     <t xml:space="preserve">13.0334672927856</t>
   </si>
   <si>
-    <t xml:space="preserve">12.8491182327271</t>
+    <t xml:space="preserve">12.8491191864014</t>
   </si>
   <si>
     <t xml:space="preserve">12.9781627655029</t>
@@ -1691,7 +1688,7 @@
     <t xml:space="preserve">11.3558921813965</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7614603042603</t>
+    <t xml:space="preserve">11.7614612579346</t>
   </si>
   <si>
     <t xml:space="preserve">11.9273738861084</t>
@@ -1709,10 +1706,10 @@
     <t xml:space="preserve">12.7753791809082</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5357265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3698120117188</t>
+    <t xml:space="preserve">12.5357255935669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3698110580444</t>
   </si>
   <si>
     <t xml:space="preserve">12.554160118103</t>
@@ -1727,10 +1724,10 @@
     <t xml:space="preserve">12.6832056045532</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1072072982788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8122491836548</t>
+    <t xml:space="preserve">13.1072082519531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8122482299805</t>
   </si>
   <si>
     <t xml:space="preserve">12.7385091781616</t>
@@ -1739,7 +1736,7 @@
     <t xml:space="preserve">13.0150327682495</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1625108718872</t>
+    <t xml:space="preserve">13.1625118255615</t>
   </si>
   <si>
     <t xml:space="preserve">13.180947303772</t>
@@ -1748,10 +1745,10 @@
     <t xml:space="preserve">12.9597282409668</t>
   </si>
   <si>
-    <t xml:space="preserve">12.7938146591187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.7569437026978</t>
+    <t xml:space="preserve">12.7938137054443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.7569446563721</t>
   </si>
   <si>
     <t xml:space="preserve">12.9412937164307</t>
@@ -1766,16 +1763,16 @@
     <t xml:space="preserve">12.461986541748</t>
   </si>
   <si>
-    <t xml:space="preserve">12.4066820144653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.351375579834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1301584243774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0195484161377</t>
+    <t xml:space="preserve">12.406681060791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3513765335083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1301574707031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.019549369812</t>
   </si>
   <si>
     <t xml:space="preserve">12.1485929489136</t>
@@ -1784,19 +1781,19 @@
     <t xml:space="preserve">12.3145065307617</t>
   </si>
   <si>
-    <t xml:space="preserve">12.3882465362549</t>
+    <t xml:space="preserve">12.3882455825806</t>
   </si>
   <si>
     <t xml:space="preserve">12.4435510635376</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2223320007324</t>
+    <t xml:space="preserve">12.2223329544067</t>
   </si>
   <si>
     <t xml:space="preserve">11.7983303070068</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8720703125</t>
+    <t xml:space="preserve">11.8720693588257</t>
   </si>
   <si>
     <t xml:space="preserve">11.7798948287964</t>
@@ -1808,7 +1805,7 @@
     <t xml:space="preserve">11.9089393615723</t>
   </si>
   <si>
-    <t xml:space="preserve">11.724591255188</t>
+    <t xml:space="preserve">11.7245903015137</t>
   </si>
   <si>
     <t xml:space="preserve">11.6324157714844</t>
@@ -1829,154 +1826,157 @@
     <t xml:space="preserve">11.0793695449829</t>
   </si>
   <si>
-    <t xml:space="preserve">11.1346731185913</t>
+    <t xml:space="preserve">11.1346740722656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.042498588562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8950204849243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2084131240845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.577112197876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3329420089722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4251165390015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2038974761963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6279001235962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.8859882354736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.328426361084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1440773010254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2546863555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2178163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3099908828735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3468608856201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4390354156494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5127754211426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3837308883667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.4021654129028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3652963638306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1256418228149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2915563583374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5910301208496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5172910690308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0748538970947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2407674789429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0379838943481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0564184188843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0932884216309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7061548233032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8536348342896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.816764831543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5402421951294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6877212524414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6139812469482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5033712387085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3005876541138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3374586105347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1531095504761</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1715440750122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1899785995483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2637186050415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1162395477295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9847860336304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9655485153198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1002130508423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2156400680542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3118295669556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">11.0424995422363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8950204849243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2084131240845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.577112197876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.3329420089722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.4251155853271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2038974761963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.6278991699219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.8859882354736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.328426361084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1440773010254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2546863555908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2178173065186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3099908828735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3468608856201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4390344619751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.5127744674683</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3837308883667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.4021654129028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.3652954101562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1256418228149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.2915563583374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5910301208496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.5172910690308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0748529434204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2407674789429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0379838943481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0564184188843</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0932884216309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7061557769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8536348342896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8167638778687</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5402412414551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6877212524414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6139812469482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5033712387085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3005886077881</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3374576568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1531095504761</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1715440750122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1899795532227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2637176513672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1162395477295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9847860336304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9655485153198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1002130508423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2156400680542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3118295669556</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3503046035767</t>
   </si>
   <si>
     <t xml:space="preserve">10.734694480896</t>
@@ -42047,7 +42047,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42099,7 +42099,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42125,7 +42125,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42151,7 +42151,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42177,7 +42177,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42203,7 +42203,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42229,7 +42229,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42255,7 +42255,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42281,7 +42281,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42307,7 +42307,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42333,7 +42333,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42359,7 +42359,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42385,7 +42385,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42411,7 +42411,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42437,7 +42437,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42463,7 +42463,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42489,7 +42489,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42515,7 +42515,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42541,7 +42541,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42567,7 +42567,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42593,7 +42593,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42619,7 +42619,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42645,7 +42645,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42671,7 +42671,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42697,7 +42697,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42723,7 +42723,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42749,7 +42749,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42775,7 +42775,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42801,7 +42801,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42827,7 +42827,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42853,7 +42853,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42879,7 +42879,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42905,7 +42905,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42931,7 +42931,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42957,7 +42957,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42983,7 +42983,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43009,7 +43009,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43035,7 +43035,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43061,7 +43061,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43087,7 +43087,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43113,7 +43113,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43139,7 +43139,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43191,7 +43191,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43217,7 +43217,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43269,7 +43269,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43321,7 +43321,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43373,7 +43373,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43399,7 +43399,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43425,7 +43425,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43503,7 +43503,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43529,7 +43529,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43581,7 +43581,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43607,7 +43607,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43711,7 +43711,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43737,7 +43737,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43763,7 +43763,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44049,7 +44049,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44153,7 +44153,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44179,7 +44179,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44205,7 +44205,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44231,7 +44231,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44257,7 +44257,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44309,7 +44309,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44361,7 +44361,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44387,7 +44387,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44413,7 +44413,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44439,7 +44439,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44465,7 +44465,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44491,7 +44491,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44517,7 +44517,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44569,7 +44569,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44595,7 +44595,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44621,7 +44621,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44673,7 +44673,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44777,7 +44777,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44803,7 +44803,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44855,7 +44855,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44881,7 +44881,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44907,7 +44907,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44933,7 +44933,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44959,7 +44959,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44985,7 +44985,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45011,7 +45011,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45037,7 +45037,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45063,7 +45063,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45089,7 +45089,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45115,7 +45115,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45141,7 +45141,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45167,7 +45167,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45193,7 +45193,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45219,7 +45219,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45245,7 +45245,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45271,7 +45271,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45297,7 +45297,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45323,7 +45323,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45349,7 +45349,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45375,7 +45375,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45401,7 +45401,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45427,7 +45427,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45453,7 +45453,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45479,7 +45479,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45505,7 +45505,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45531,7 +45531,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45557,7 +45557,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45583,7 +45583,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45609,7 +45609,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45635,7 +45635,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45661,7 +45661,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45687,7 +45687,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45713,7 +45713,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45739,7 +45739,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45765,7 +45765,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45791,7 +45791,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45817,7 +45817,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45843,7 +45843,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45869,7 +45869,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45895,7 +45895,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45921,7 +45921,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45947,7 +45947,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45973,7 +45973,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -45999,7 +45999,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46025,7 +46025,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46051,7 +46051,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46077,7 +46077,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46103,7 +46103,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46129,7 +46129,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46155,7 +46155,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46181,7 +46181,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46207,7 +46207,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46233,7 +46233,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46259,7 +46259,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46285,7 +46285,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46311,7 +46311,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46337,7 +46337,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46363,7 +46363,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46389,7 +46389,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46415,7 +46415,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46441,7 +46441,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46467,7 +46467,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46493,7 +46493,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46519,7 +46519,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46545,7 +46545,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46571,7 +46571,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46597,7 +46597,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46623,7 +46623,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46649,7 +46649,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46675,7 +46675,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46701,7 +46701,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46727,7 +46727,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46753,7 +46753,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46779,7 +46779,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46805,7 +46805,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46831,7 +46831,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46857,7 +46857,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46883,7 +46883,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46909,7 +46909,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46935,7 +46935,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46961,7 +46961,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46987,7 +46987,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47013,7 +47013,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47039,7 +47039,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47065,7 +47065,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47091,7 +47091,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47117,7 +47117,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47143,7 +47143,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47169,7 +47169,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47195,7 +47195,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47221,7 +47221,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47247,7 +47247,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47273,7 +47273,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47299,7 +47299,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47325,7 +47325,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47351,7 +47351,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47377,7 +47377,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47403,7 +47403,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47429,7 +47429,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47455,7 +47455,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47481,7 +47481,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47507,7 +47507,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47533,7 +47533,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47559,7 +47559,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47585,7 +47585,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47611,7 +47611,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47637,7 +47637,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47663,7 +47663,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47689,7 +47689,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47715,7 +47715,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47741,7 +47741,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47767,7 +47767,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47793,7 +47793,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47819,7 +47819,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47845,7 +47845,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47871,7 +47871,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47897,7 +47897,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47923,7 +47923,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47949,7 +47949,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47975,7 +47975,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48001,7 +48001,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48027,7 +48027,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48053,7 +48053,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48079,7 +48079,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48105,7 +48105,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48131,7 +48131,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48157,7 +48157,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48183,7 +48183,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48209,7 +48209,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48235,7 +48235,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48261,7 +48261,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48287,7 +48287,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48313,7 +48313,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48339,7 +48339,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48365,7 +48365,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48391,7 +48391,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48417,7 +48417,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48443,7 +48443,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48469,7 +48469,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48495,7 +48495,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48521,7 +48521,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48547,7 +48547,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48573,7 +48573,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48599,7 +48599,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48625,7 +48625,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48651,7 +48651,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48677,7 +48677,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48703,7 +48703,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48729,7 +48729,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48755,7 +48755,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48781,7 +48781,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48807,7 +48807,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48833,7 +48833,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48859,7 +48859,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48885,7 +48885,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48911,7 +48911,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48937,7 +48937,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48963,7 +48963,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48989,7 +48989,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49015,7 +49015,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49041,7 +49041,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49067,7 +49067,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49093,7 +49093,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49119,7 +49119,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49145,7 +49145,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49171,7 +49171,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49197,7 +49197,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49223,7 +49223,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49249,7 +49249,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49275,7 +49275,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49301,7 +49301,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49327,7 +49327,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49353,7 +49353,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49379,7 +49379,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49405,7 +49405,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49431,7 +49431,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49457,7 +49457,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49483,7 +49483,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49509,7 +49509,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49535,7 +49535,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49561,7 +49561,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49587,7 +49587,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49613,7 +49613,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49639,7 +49639,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49665,7 +49665,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49691,7 +49691,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49717,7 +49717,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49743,7 +49743,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49769,7 +49769,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49795,7 +49795,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49821,7 +49821,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49847,7 +49847,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49873,7 +49873,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49899,7 +49899,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49925,7 +49925,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49951,7 +49951,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49977,7 +49977,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50003,7 +50003,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50029,7 +50029,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50055,7 +50055,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50081,7 +50081,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50107,7 +50107,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50133,7 +50133,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50159,7 +50159,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50185,7 +50185,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50211,7 +50211,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50237,7 +50237,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50263,7 +50263,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50289,7 +50289,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50315,7 +50315,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50341,7 +50341,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50367,7 +50367,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50393,7 +50393,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50419,7 +50419,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50445,7 +50445,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50471,7 +50471,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50497,7 +50497,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50523,7 +50523,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50549,7 +50549,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50575,7 +50575,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50601,7 +50601,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50627,7 +50627,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50653,7 +50653,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50679,7 +50679,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50705,7 +50705,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50731,7 +50731,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50757,7 +50757,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50783,7 +50783,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50809,7 +50809,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50835,7 +50835,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50861,7 +50861,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50887,7 +50887,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50913,7 +50913,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50939,7 +50939,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50965,7 +50965,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50991,7 +50991,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51017,7 +51017,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51043,7 +51043,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51069,7 +51069,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51095,7 +51095,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51121,7 +51121,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51147,7 +51147,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51173,7 +51173,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51199,7 +51199,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51225,7 +51225,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51251,7 +51251,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51277,7 +51277,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51303,7 +51303,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51329,7 +51329,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51355,7 +51355,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51381,7 +51381,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51407,7 +51407,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51433,7 +51433,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51459,7 +51459,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51485,7 +51485,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51511,7 +51511,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51537,7 +51537,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51563,7 +51563,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51589,7 +51589,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51615,7 +51615,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51641,7 +51641,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51667,7 +51667,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51693,7 +51693,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51719,7 +51719,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51745,7 +51745,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51771,7 +51771,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51875,7 +51875,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51979,7 +51979,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52473,7 +52473,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52707,7 +52707,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -56893,7 +56893,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56919,7 +56919,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>606</v>
+        <v>654</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -57153,7 +57153,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57257,7 +57257,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57361,7 +57361,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -59267,7 +59267,7 @@
     </row>
     <row r="2170">
       <c r="A2170" s="1" t="n">
-        <v>45483.649375</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B2170" t="n">
         <v>19589</v>
@@ -59288,6 +59288,32 @@
         <v>819</v>
       </c>
       <c r="H2170" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" s="1" t="n">
+        <v>45484.6494907407</v>
+      </c>
+      <c r="B2171" t="n">
+        <v>12790</v>
+      </c>
+      <c r="C2171" t="n">
+        <v>12.6599998474121</v>
+      </c>
+      <c r="D2171" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="E2171" t="n">
+        <v>12.2799997329712</v>
+      </c>
+      <c r="F2171" t="n">
+        <v>12.6199998855591</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>815</v>
+      </c>
+      <c r="H2171" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -38,82 +38,82 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677021026611</t>
+    <t xml:space="preserve">7.67677164077759</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728616714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780164718628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986499786377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883403778076</t>
+    <t xml:space="preserve">7.65728664398193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780307769775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986595153809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59883451461792</t>
   </si>
   <si>
     <t xml:space="preserve">7.40788984298706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.36502361297607</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685792922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089595794678</t>
+    <t xml:space="preserve">7.36502408981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390493392944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685888290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089691162109</t>
   </si>
   <si>
     <t xml:space="preserve">7.48972320556641</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44296026229858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7508111000061</t>
+    <t xml:space="preserve">7.4429612159729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75081205368042</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808856964111</t>
   </si>
   <si>
-    <t xml:space="preserve">7.87161302566528</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367637634277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264493942261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573877334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250267028809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837501525879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278816223145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.94955015182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977870941162</t>
+    <t xml:space="preserve">7.87161350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367589950562</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264398574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71573925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250123977661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837406158447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278768539429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.94954872131348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78977918624878</t>
   </si>
   <si>
     <t xml:space="preserve">7.78588199615479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94175577163696</t>
+    <t xml:space="preserve">7.9417552947998</t>
   </si>
   <si>
     <t xml:space="preserve">8.02748680114746</t>
@@ -125,127 +125,127 @@
     <t xml:space="preserve">8.16777324676514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00410461425781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99631261825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926322937012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06645488739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086803436279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8404393196106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602617263794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80146980285645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691438674927</t>
+    <t xml:space="preserve">8.00410652160645</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99631214141846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06645584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602426528931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80146932601929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860404968262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691390991211</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184396743774</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7391209602356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.70404958724976</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48192882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531005859375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803211212158</t>
+    <t xml:space="preserve">7.73912048339844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404815673828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48193025588989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531101226807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4780330657959</t>
   </si>
   <si>
     <t xml:space="preserve">7.45854759216309</t>
   </si>
   <si>
-    <t xml:space="preserve">8.0430736541748</t>
+    <t xml:space="preserve">8.04307270050049</t>
   </si>
   <si>
     <t xml:space="preserve">7.98851728439331</t>
   </si>
   <si>
-    <t xml:space="preserve">7.70015335083008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499473571777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08204174041748</t>
+    <t xml:space="preserve">7.70015096664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499378204346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204078674316</t>
   </si>
   <si>
     <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24570941925049</t>
+    <t xml:space="preserve">8.2457103729248</t>
   </si>
   <si>
     <t xml:space="preserve">8.26129722595215</t>
   </si>
   <si>
-    <t xml:space="preserve">8.41717052459717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215656280518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5340747833252</t>
+    <t xml:space="preserve">8.41716957092285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510860443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215560913086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407669067383</t>
   </si>
   <si>
     <t xml:space="preserve">8.70347881317139</t>
   </si>
   <si>
-    <t xml:space="preserve">8.81567764282227</t>
+    <t xml:space="preserve">8.81567668914795</t>
   </si>
   <si>
     <t xml:space="preserve">8.74354839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65539264678955</t>
+    <t xml:space="preserve">8.65539169311523</t>
   </si>
   <si>
     <t xml:space="preserve">8.63135051727295</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42297840118408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33482265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
+    <t xml:space="preserve">8.4229793548584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14247894287109</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460723876953</t>
@@ -254,13 +254,13 @@
     <t xml:space="preserve">8.17453575134277</t>
   </si>
   <si>
-    <t xml:space="preserve">8.39893436431885</t>
+    <t xml:space="preserve">8.39893627166748</t>
   </si>
   <si>
     <t xml:space="preserve">8.53517818450928</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43900680541992</t>
+    <t xml:space="preserve">8.43900775909424</t>
   </si>
   <si>
     <t xml:space="preserve">8.57524967193604</t>
@@ -269,52 +269,52 @@
     <t xml:space="preserve">8.61532115936279</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28050231933594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.05610370635986</t>
+    <t xml:space="preserve">9.28050422668457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.05610466003418</t>
   </si>
   <si>
     <t xml:space="preserve">9.44880294799805</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0899438858032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8976001739502</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.95370101928711</t>
+    <t xml:space="preserve">10.0899429321289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.89760112762451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.95370006561279</t>
   </si>
   <si>
     <t xml:space="preserve">9.96171474456787</t>
   </si>
   <si>
-    <t xml:space="preserve">9.76135921478271</t>
+    <t xml:space="preserve">9.76136016845703</t>
   </si>
   <si>
     <t xml:space="preserve">9.60107326507568</t>
   </si>
   <si>
-    <t xml:space="preserve">9.53695964813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.61710262298584</t>
+    <t xml:space="preserve">9.53696060180664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.61710166931152</t>
   </si>
   <si>
     <t xml:space="preserve">9.7373161315918</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50490188598633</t>
+    <t xml:space="preserve">9.50490283966064</t>
   </si>
   <si>
     <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
-    <t xml:space="preserve">9.29653358459473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.18433284759521</t>
+    <t xml:space="preserve">9.29653167724609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.18433380126953</t>
   </si>
   <si>
     <t xml:space="preserve">9.45681762695312</t>
@@ -326,7 +326,7 @@
     <t xml:space="preserve">9.41674613952637</t>
   </si>
   <si>
-    <t xml:space="preserve">9.42475986480713</t>
+    <t xml:space="preserve">9.42476081848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.32858943939209</t>
@@ -335,25 +335,25 @@
     <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40071773529053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.2404317855835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057476043701</t>
+    <t xml:space="preserve">9.40071678161621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24043273925781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057571411133</t>
   </si>
   <si>
     <t xml:space="preserve">9.28851795196533</t>
   </si>
   <si>
-    <t xml:space="preserve">9.19234752655029</t>
+    <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
     <t xml:space="preserve">8.94390487670898</t>
   </si>
   <si>
-    <t xml:space="preserve">8.95993423461914</t>
+    <t xml:space="preserve">8.95993328094482</t>
   </si>
   <si>
     <t xml:space="preserve">9.21638965606689</t>
@@ -368,19 +368,19 @@
     <t xml:space="preserve">8.9919900894165</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85574913024902</t>
+    <t xml:space="preserve">8.85574817657471</t>
   </si>
   <si>
     <t xml:space="preserve">8.89581966400146</t>
   </si>
   <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48085975646973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291656494141</t>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085880279541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291751861572</t>
   </si>
   <si>
     <t xml:space="preserve">9.27248859405518</t>
@@ -407,10 +407,10 @@
     <t xml:space="preserve">8.97596168518066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87177658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553466796875</t>
+    <t xml:space="preserve">8.87177753448486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553562164307</t>
   </si>
   <si>
     <t xml:space="preserve">8.76759243011475</t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">9.04007530212402</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0000057220459</t>
+    <t xml:space="preserve">9.00000381469727</t>
   </si>
   <si>
     <t xml:space="preserve">8.77560710906982</t>
@@ -428,13 +428,13 @@
     <t xml:space="preserve">8.67142105102539</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737701416016</t>
+    <t xml:space="preserve">8.64737796783447</t>
   </si>
   <si>
     <t xml:space="preserve">8.62333488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63936328887939</t>
+    <t xml:space="preserve">8.63936424255371</t>
   </si>
   <si>
     <t xml:space="preserve">8.68744945526123</t>
@@ -446,7 +446,7 @@
     <t xml:space="preserve">8.54319286346436</t>
   </si>
   <si>
-    <t xml:space="preserve">8.52716541290283</t>
+    <t xml:space="preserve">8.52716445922852</t>
   </si>
   <si>
     <t xml:space="preserve">8.56723594665527</t>
@@ -455,31 +455,31 @@
     <t xml:space="preserve">8.69546318054199</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80766201019287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163551330566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943572998047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922222137451</t>
+    <t xml:space="preserve">8.8076639175415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5592212677002</t>
   </si>
   <si>
     <t xml:space="preserve">8.30276489257812</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085010528564</t>
+    <t xml:space="preserve">8.36687850952148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35084915161133</t>
   </si>
   <si>
     <t xml:space="preserve">8.5832633972168</t>
   </si>
   <si>
-    <t xml:space="preserve">8.50312042236328</t>
+    <t xml:space="preserve">8.5031213760376</t>
   </si>
   <si>
     <t xml:space="preserve">8.59127807617188</t>
@@ -491,10 +491,10 @@
     <t xml:space="preserve">8.479079246521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47106456756592</t>
+    <t xml:space="preserve">8.43099403381348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4710636138916</t>
   </si>
   <si>
     <t xml:space="preserve">8.49510765075684</t>
@@ -503,10 +503,10 @@
     <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
-    <t xml:space="preserve">8.45503616333008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475116729736</t>
+    <t xml:space="preserve">8.45503520965576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475212097168</t>
   </si>
   <si>
     <t xml:space="preserve">8.37489318847656</t>
@@ -515,7 +515,7 @@
     <t xml:space="preserve">8.65425395965576</t>
   </si>
   <si>
-    <t xml:space="preserve">8.32456684112549</t>
+    <t xml:space="preserve">8.3245677947998</t>
   </si>
   <si>
     <t xml:space="preserve">8.22566032409668</t>
@@ -527,7 +527,7 @@
     <t xml:space="preserve">8.57183074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53062057495117</t>
+    <t xml:space="preserve">8.53062152862549</t>
   </si>
   <si>
     <t xml:space="preserve">8.44819927215576</t>
@@ -542,10 +542,10 @@
     <t xml:space="preserve">8.36577701568604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24214649200439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1926908493042</t>
+    <t xml:space="preserve">8.24214458465576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19269275665283</t>
   </si>
   <si>
     <t xml:space="preserve">8.07730197906494</t>
@@ -554,7 +554,7 @@
     <t xml:space="preserve">8.0278491973877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14323997497559</t>
+    <t xml:space="preserve">8.14323902130127</t>
   </si>
   <si>
     <t xml:space="preserve">8.06081771850586</t>
@@ -563,10 +563,10 @@
     <t xml:space="preserve">7.99488067626953</t>
   </si>
   <si>
-    <t xml:space="preserve">7.83003854751587</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894411087036</t>
+    <t xml:space="preserve">7.83003664016724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894315719604</t>
   </si>
   <si>
     <t xml:space="preserve">7.89597511291504</t>
@@ -575,52 +575,52 @@
     <t xml:space="preserve">7.71464776992798</t>
   </si>
   <si>
-    <t xml:space="preserve">7.51683616638184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113298416138</t>
+    <t xml:space="preserve">7.51683712005615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113203048706</t>
   </si>
   <si>
     <t xml:space="preserve">7.74761629104614</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410102844238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574268341064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058433532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519546508789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69816493988037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59925842285156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63222646713257</t>
+    <t xml:space="preserve">7.76410007476807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574172973633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058528900146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519594192505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816398620605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.59925889968872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63222694396973</t>
   </si>
   <si>
     <t xml:space="preserve">7.5662899017334</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79706859588623</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.81355333328247</t>
+    <t xml:space="preserve">7.79706954956055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81355428695679</t>
   </si>
   <si>
     <t xml:space="preserve">7.58277368545532</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48386764526367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38496208190918</t>
+    <t xml:space="preserve">7.48386716842651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38496160507202</t>
   </si>
   <si>
     <t xml:space="preserve">7.30254077911377</t>
@@ -629,7 +629,7 @@
     <t xml:space="preserve">7.4014458656311</t>
   </si>
   <si>
-    <t xml:space="preserve">7.1871509552002</t>
+    <t xml:space="preserve">7.18715143203735</t>
   </si>
   <si>
     <t xml:space="preserve">7.20363473892212</t>
@@ -638,37 +638,37 @@
     <t xml:space="preserve">7.33550882339478</t>
   </si>
   <si>
-    <t xml:space="preserve">7.50035285949707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25308799743652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.41793155670166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.43441581726074</t>
+    <t xml:space="preserve">7.50035238265991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25308847427368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.41793060302734</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.43441534042358</t>
   </si>
   <si>
     <t xml:space="preserve">7.46738433837891</t>
   </si>
   <si>
-    <t xml:space="preserve">7.13769721984863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.17066669464111</t>
+    <t xml:space="preserve">7.13769769668579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.1706657409668</t>
   </si>
   <si>
     <t xml:space="preserve">7.0882453918457</t>
   </si>
   <si>
-    <t xml:space="preserve">6.92340183258057</t>
+    <t xml:space="preserve">6.92340230941772</t>
   </si>
   <si>
     <t xml:space="preserve">6.90691757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933887481689</t>
+    <t xml:space="preserve">6.98933935165405</t>
   </si>
   <si>
     <t xml:space="preserve">7.07176113128662</t>
@@ -680,19 +680,19 @@
     <t xml:space="preserve">6.62668466567993</t>
   </si>
   <si>
-    <t xml:space="preserve">6.65965366363525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.75855875015259</t>
+    <t xml:space="preserve">6.6596531867981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75855922698975</t>
   </si>
   <si>
     <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
-    <t xml:space="preserve">6.69262218475342</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.70910692214966</t>
+    <t xml:space="preserve">6.69262170791626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7091064453125</t>
   </si>
   <si>
     <t xml:space="preserve">7.02230787277222</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">6.72559070587158</t>
   </si>
   <si>
-    <t xml:space="preserve">6.85746479034424</t>
+    <t xml:space="preserve">6.85746383666992</t>
   </si>
   <si>
     <t xml:space="preserve">7.00582361221313</t>
@@ -710,7 +710,7 @@
     <t xml:space="preserve">7.28605699539185</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3684778213501</t>
+    <t xml:space="preserve">7.36847829818726</t>
   </si>
   <si>
     <t xml:space="preserve">7.10472917556763</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
-    <t xml:space="preserve">6.59371662139893</t>
+    <t xml:space="preserve">6.59371614456177</t>
   </si>
   <si>
     <t xml:space="preserve">6.51129484176636</t>
@@ -734,25 +734,25 @@
     <t xml:space="preserve">6.74207496643066</t>
   </si>
   <si>
-    <t xml:space="preserve">6.41238880157471</t>
+    <t xml:space="preserve">6.41238975524902</t>
   </si>
   <si>
     <t xml:space="preserve">6.67613792419434</t>
   </si>
   <si>
-    <t xml:space="preserve">7.12121343612671</t>
+    <t xml:space="preserve">7.12121391296387</t>
   </si>
   <si>
     <t xml:space="preserve">6.93988609313965</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79152774810791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89043283462524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.64316987991333</t>
+    <t xml:space="preserve">6.79152822494507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8904333114624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
     <t xml:space="preserve">6.80801200866699</t>
@@ -770,16 +770,16 @@
     <t xml:space="preserve">7.53332090377808</t>
   </si>
   <si>
-    <t xml:space="preserve">7.64871120452881</t>
+    <t xml:space="preserve">7.64871072769165</t>
   </si>
   <si>
     <t xml:space="preserve">7.68167877197266</t>
   </si>
   <si>
-    <t xml:space="preserve">7.5498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705533981323</t>
+    <t xml:space="preserve">7.54980421066284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705486297607</t>
   </si>
   <si>
     <t xml:space="preserve">7.64574098587036</t>
@@ -794,37 +794,37 @@
     <t xml:space="preserve">7.49180030822754</t>
   </si>
   <si>
-    <t xml:space="preserve">7.57732343673706</t>
+    <t xml:space="preserve">7.5773229598999</t>
   </si>
   <si>
     <t xml:space="preserve">7.61153173446655</t>
   </si>
   <si>
-    <t xml:space="preserve">7.30364942550659</t>
+    <t xml:space="preserve">7.30364990234375</t>
   </si>
   <si>
     <t xml:space="preserve">7.35496377944946</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3378586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233554840088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102214813232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.18391752243042</t>
+    <t xml:space="preserve">7.33785915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233602523804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102262496948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18391799926758</t>
   </si>
   <si>
     <t xml:space="preserve">6.92734956741333</t>
   </si>
   <si>
-    <t xml:space="preserve">6.99576807022095</t>
+    <t xml:space="preserve">6.99576854705811</t>
   </si>
   <si>
     <t xml:space="preserve">7.06418609619141</t>
@@ -845,7 +845,7 @@
     <t xml:space="preserve">7.01287221908569</t>
   </si>
   <si>
-    <t xml:space="preserve">7.11549949645996</t>
+    <t xml:space="preserve">7.1154990196228</t>
   </si>
   <si>
     <t xml:space="preserve">7.0470814704895</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">7.08129024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.02997732162476</t>
+    <t xml:space="preserve">7.0299768447876</t>
   </si>
   <si>
     <t xml:space="preserve">6.97866296768188</t>
@@ -863,7 +863,7 @@
     <t xml:space="preserve">6.87603569030762</t>
   </si>
   <si>
-    <t xml:space="preserve">6.9615592956543</t>
+    <t xml:space="preserve">6.96155881881714</t>
   </si>
   <si>
     <t xml:space="preserve">6.89314126968384</t>
@@ -884,28 +884,28 @@
     <t xml:space="preserve">6.4997353553772</t>
   </si>
   <si>
-    <t xml:space="preserve">6.46552658081055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.48263072967529</t>
+    <t xml:space="preserve">6.46552610397339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.48263025283813</t>
   </si>
   <si>
     <t xml:space="preserve">6.5168399810791</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5852575302124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.41421318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.36289930343628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.43131685256958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.38000297546387</t>
+    <t xml:space="preserve">6.58525800704956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.41421270370483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.36289882659912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.43131732940674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.38000345230103</t>
   </si>
   <si>
     <t xml:space="preserve">6.32868957519531</t>
@@ -914,10 +914,10 @@
     <t xml:space="preserve">6.15764379501343</t>
   </si>
   <si>
-    <t xml:space="preserve">6.14053916931152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07212066650391</t>
+    <t xml:space="preserve">6.14053964614868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.07212114334106</t>
   </si>
   <si>
     <t xml:space="preserve">6.10632991790771</t>
@@ -929,22 +929,22 @@
     <t xml:space="preserve">6.31158542633057</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2773756980896</t>
+    <t xml:space="preserve">6.27737617492676</t>
   </si>
   <si>
     <t xml:space="preserve">6.19185304641724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39710807800293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.53394412994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.67078065872192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.7563042640686</t>
+    <t xml:space="preserve">6.39710760116577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.53394460678101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.67078113555908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.75630378723145</t>
   </si>
   <si>
     <t xml:space="preserve">6.70499038696289</t>
@@ -962,7 +962,7 @@
     <t xml:space="preserve">6.61946725845337</t>
   </si>
   <si>
-    <t xml:space="preserve">6.55104923248291</t>
+    <t xml:space="preserve">6.55104827880859</t>
   </si>
   <si>
     <t xml:space="preserve">6.56815338134766</t>
@@ -977,7 +977,7 @@
     <t xml:space="preserve">6.34579467773438</t>
   </si>
   <si>
-    <t xml:space="preserve">6.44842147827148</t>
+    <t xml:space="preserve">6.44842195510864</t>
   </si>
   <si>
     <t xml:space="preserve">6.00370264053345</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423931121826</t>
+    <t xml:space="preserve">5.7642388343811</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1001,7 +1001,7 @@
     <t xml:space="preserve">5.9865984916687</t>
   </si>
   <si>
-    <t xml:space="preserve">5.73002910614014</t>
+    <t xml:space="preserve">5.73002958297729</t>
   </si>
   <si>
     <t xml:space="preserve">5.47346115112305</t>
@@ -1013,19 +1013,19 @@
     <t xml:space="preserve">4.99453353881836</t>
   </si>
   <si>
-    <t xml:space="preserve">4.75506973266602</t>
+    <t xml:space="preserve">4.75507020950317</t>
   </si>
   <si>
     <t xml:space="preserve">4.53271007537842</t>
   </si>
   <si>
-    <t xml:space="preserve">4.19061851501465</t>
+    <t xml:space="preserve">4.19061899185181</t>
   </si>
   <si>
     <t xml:space="preserve">4.58402395248413</t>
   </si>
   <si>
-    <t xml:space="preserve">4.32745504379272</t>
+    <t xml:space="preserve">4.32745552062988</t>
   </si>
   <si>
     <t xml:space="preserve">4.44718742370605</t>
@@ -1034,37 +1034,37 @@
     <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
-    <t xml:space="preserve">4.70375633239746</t>
+    <t xml:space="preserve">4.7037558555603</t>
   </si>
   <si>
     <t xml:space="preserve">5.04584693908691</t>
   </si>
   <si>
-    <t xml:space="preserve">5.26820659637451</t>
+    <t xml:space="preserve">5.26820611953735</t>
   </si>
   <si>
     <t xml:space="preserve">5.49056625366211</t>
   </si>
   <si>
-    <t xml:space="preserve">5.90107583999634</t>
+    <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134346008301</t>
   </si>
   <si>
-    <t xml:space="preserve">5.69582080841064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.67871570587158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.54187965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372972488403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.5247745513916</t>
+    <t xml:space="preserve">5.69582033157349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.67871618270874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.54187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372924804688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
     <t xml:space="preserve">5.64450693130493</t>
@@ -1073,7 +1073,7 @@
     <t xml:space="preserve">5.40504360198975</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319305419922</t>
+    <t xml:space="preserve">5.59319353103638</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">6.17474794387817</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922576904297</t>
+    <t xml:space="preserve">6.08922529220581</t>
   </si>
   <si>
     <t xml:space="preserve">6.26027154922485</t>
@@ -1109,16 +1109,16 @@
     <t xml:space="preserve">5.95238924026489</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292543411255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.81555318832397</t>
+    <t xml:space="preserve">5.71292495727539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.81555271148682</t>
   </si>
   <si>
     <t xml:space="preserve">5.7471342086792</t>
   </si>
   <si>
-    <t xml:space="preserve">5.62740230560303</t>
+    <t xml:space="preserve">5.62740182876587</t>
   </si>
   <si>
     <t xml:space="preserve">5.61029767990112</t>
@@ -1133,16 +1133,16 @@
     <t xml:space="preserve">5.66161155700684</t>
   </si>
   <si>
-    <t xml:space="preserve">5.57608842849731</t>
+    <t xml:space="preserve">5.57608890533447</t>
   </si>
   <si>
     <t xml:space="preserve">6.79051303863525</t>
   </si>
   <si>
-    <t xml:space="preserve">6.72209453582764</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.94445419311523</t>
+    <t xml:space="preserve">6.72209501266479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.94445371627808</t>
   </si>
   <si>
     <t xml:space="preserve">7.16681337356567</t>
@@ -1151,13 +1151,13 @@
     <t xml:space="preserve">7.13260412216187</t>
   </si>
   <si>
-    <t xml:space="preserve">7.38917255401611</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547241210938</t>
+    <t xml:space="preserve">7.38917303085327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74836874008179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547336578369</t>
   </si>
   <si>
     <t xml:space="preserve">7.78257846832275</t>
@@ -1166,22 +1166,22 @@
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12467002868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914737701416</t>
+    <t xml:space="preserve">8.10756492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12466907501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914642333984</t>
   </si>
   <si>
     <t xml:space="preserve">8.05625057220459</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98783397674561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362329483032</t>
+    <t xml:space="preserve">7.98783206939697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362424850464</t>
   </si>
   <si>
     <t xml:space="preserve">7.97072696685791</t>
@@ -1208,25 +1208,25 @@
     <t xml:space="preserve">7.8681001663208</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7996826171875</t>
+    <t xml:space="preserve">7.79968309402466</t>
   </si>
   <si>
     <t xml:space="preserve">8.27861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.3812370300293</t>
+    <t xml:space="preserve">8.38123798370361</t>
   </si>
   <si>
     <t xml:space="preserve">8.36413288116455</t>
   </si>
   <si>
-    <t xml:space="preserve">8.44965648651123</t>
+    <t xml:space="preserve">8.44965553283691</t>
   </si>
   <si>
     <t xml:space="preserve">8.63780689239502</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504413604736</t>
+    <t xml:space="preserve">8.59504508972168</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,7 +1235,7 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228328704834</t>
+    <t xml:space="preserve">8.55228424072266</t>
   </si>
   <si>
     <t xml:space="preserve">8.41544723510742</t>
@@ -1250,13 +1250,13 @@
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161304473877</t>
+    <t xml:space="preserve">8.85161399841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0226583480835</t>
+    <t xml:space="preserve">9.02265930175781</t>
   </si>
   <si>
     <t xml:space="preserve">9.32198905944824</t>
@@ -1271,7 +1271,7 @@
     <t xml:space="preserve">9.74960231781006</t>
   </si>
   <si>
-    <t xml:space="preserve">9.6640796661377</t>
+    <t xml:space="preserve">9.66408061981201</t>
   </si>
   <si>
     <t xml:space="preserve">9.57855701446533</t>
@@ -1283,7 +1283,7 @@
     <t xml:space="preserve">10.1344556808472</t>
   </si>
   <si>
-    <t xml:space="preserve">10.3910236358643</t>
+    <t xml:space="preserve">10.3910245895386</t>
   </si>
   <si>
     <t xml:space="preserve">10.5193090438843</t>
@@ -1298,16 +1298,16 @@
     <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
-    <t xml:space="preserve">10.9896831512451</t>
+    <t xml:space="preserve">10.9896841049194</t>
   </si>
   <si>
     <t xml:space="preserve">11.0324449539185</t>
   </si>
   <si>
-    <t xml:space="preserve">11.4600582122803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1014804840088</t>
+    <t xml:space="preserve">11.4600591659546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1014814376831</t>
   </si>
   <si>
     <t xml:space="preserve">11.9731969833374</t>
@@ -1316,34 +1316,34 @@
     <t xml:space="preserve">11.8876724243164</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021516799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.716628074646</t>
+    <t xml:space="preserve">11.8021507263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7166271209717</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304351806641</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5883445739746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6311063766479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2725267410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0159587860107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8449125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5028209686279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7593898773193</t>
+    <t xml:space="preserve">11.5883436203003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6311054229736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2725276947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0159578323364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8449115753174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5028219223022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.759388923645</t>
   </si>
   <si>
     <t xml:space="preserve">11.2462520599365</t>
@@ -59293,7 +59293,7 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n">
-        <v>45484.6494907407</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B2171" t="n">
         <v>12790</v>
@@ -59314,6 +59314,32 @@
         <v>815</v>
       </c>
       <c r="H2171" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" s="1" t="n">
+        <v>45485.649525463</v>
+      </c>
+      <c r="B2172" t="n">
+        <v>67447</v>
+      </c>
+      <c r="C2172" t="n">
+        <v>12.6199998855591</v>
+      </c>
+      <c r="D2172" t="n">
+        <v>12.3199996948242</v>
+      </c>
+      <c r="E2172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F2172" t="n">
+        <v>12.5799999237061</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>837</v>
+      </c>
+      <c r="H2172" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="842">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,46 +38,46 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677068710327</t>
+    <t xml:space="preserve">7.67677164077759</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
   </si>
   <si>
-    <t xml:space="preserve">7.65728712081909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.63780355453491</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883499145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40788984298706</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.36502313613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6339054107666</t>
+    <t xml:space="preserve">7.65728759765625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63780212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986547470093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5988335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4078893661499</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36502408981323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.63390636444092</t>
   </si>
   <si>
     <t xml:space="preserve">7.44685840606689</t>
   </si>
   <si>
-    <t xml:space="preserve">7.52089738845825</t>
+    <t xml:space="preserve">7.52089691162109</t>
   </si>
   <si>
     <t xml:space="preserve">7.48972368240356</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44296073913574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75081062316895</t>
+    <t xml:space="preserve">7.44295978546143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75081157684326</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808809280396</t>
@@ -86,49 +86,49 @@
     <t xml:space="preserve">7.8716139793396</t>
   </si>
   <si>
-    <t xml:space="preserve">7.79367589950562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83264541625977</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71573877334595</t>
+    <t xml:space="preserve">7.79367685317993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83264493942261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71574020385742</t>
   </si>
   <si>
     <t xml:space="preserve">7.76250123977661</t>
   </si>
   <si>
-    <t xml:space="preserve">7.91837549209595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.90278768539429</t>
+    <t xml:space="preserve">7.91837453842163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.90278816223145</t>
   </si>
   <si>
     <t xml:space="preserve">7.94955015182495</t>
   </si>
   <si>
-    <t xml:space="preserve">7.78978109359741</t>
+    <t xml:space="preserve">7.7897801399231</t>
   </si>
   <si>
     <t xml:space="preserve">7.78588199615479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94175720214844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748584747314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115543365479</t>
+    <t xml:space="preserve">7.94175624847412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748775482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115352630615</t>
   </si>
   <si>
     <t xml:space="preserve">8.16777324676514</t>
   </si>
   <si>
-    <t xml:space="preserve">8.00410652160645</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99631261825562</t>
+    <t xml:space="preserve">8.00410556793213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.9963116645813</t>
   </si>
   <si>
     <t xml:space="preserve">7.80926370620728</t>
@@ -137,43 +137,43 @@
     <t xml:space="preserve">8.14439105987549</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06645488739014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086708068848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.84043836593628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.85602617263794</t>
+    <t xml:space="preserve">8.06645584106445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086898803711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043884277344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.85602521896362</t>
   </si>
   <si>
     <t xml:space="preserve">7.80146980285645</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75860452651978</t>
+    <t xml:space="preserve">7.75860500335693</t>
   </si>
   <si>
     <t xml:space="preserve">7.74691438674927</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71184301376343</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73912143707275</t>
+    <t xml:space="preserve">7.71184253692627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73912048339844</t>
   </si>
   <si>
     <t xml:space="preserve">7.70405006408691</t>
   </si>
   <si>
-    <t xml:space="preserve">7.48192882537842</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531053543091</t>
+    <t xml:space="preserve">7.48192930221558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50531101226807</t>
   </si>
   <si>
     <t xml:space="preserve">7.47803258895874</t>
@@ -182,22 +182,22 @@
     <t xml:space="preserve">7.45854806900024</t>
   </si>
   <si>
-    <t xml:space="preserve">8.04307270050049</t>
+    <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
     <t xml:space="preserve">7.98851776123047</t>
   </si>
   <si>
-    <t xml:space="preserve">7.7001519203186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89499378204346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01969337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0820426940918</t>
+    <t xml:space="preserve">7.70015096664429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89499425888062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204174041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.10542297363281</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">8.24570941925049</t>
   </si>
   <si>
-    <t xml:space="preserve">8.26129627227783</t>
+    <t xml:space="preserve">8.26129722595215</t>
   </si>
   <si>
     <t xml:space="preserve">8.41717052459717</t>
@@ -215,13 +215,13 @@
     <t xml:space="preserve">8.49510669708252</t>
   </si>
   <si>
-    <t xml:space="preserve">8.58863162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.68215560913086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.5340747833252</t>
+    <t xml:space="preserve">8.58863258361816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.68215465545654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53407573699951</t>
   </si>
   <si>
     <t xml:space="preserve">8.70347785949707</t>
@@ -233,40 +233,40 @@
     <t xml:space="preserve">8.74354839324951</t>
   </si>
   <si>
-    <t xml:space="preserve">8.65539360046387</t>
+    <t xml:space="preserve">8.65539264678955</t>
   </si>
   <si>
     <t xml:space="preserve">8.63134956359863</t>
   </si>
   <si>
-    <t xml:space="preserve">8.42298030853271</t>
+    <t xml:space="preserve">8.42297840118408</t>
   </si>
   <si>
     <t xml:space="preserve">8.3348217010498</t>
   </si>
   <si>
-    <t xml:space="preserve">8.14247989654541</t>
+    <t xml:space="preserve">8.14248085021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460819244385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17453575134277</t>
+    <t xml:space="preserve">8.17453670501709</t>
   </si>
   <si>
     <t xml:space="preserve">8.39893531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53517723083496</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900775909424</t>
+    <t xml:space="preserve">8.53517818450928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900585174561</t>
   </si>
   <si>
     <t xml:space="preserve">8.57524967193604</t>
   </si>
   <si>
-    <t xml:space="preserve">8.61532115936279</t>
+    <t xml:space="preserve">8.61532020568848</t>
   </si>
   <si>
     <t xml:space="preserve">9.28050327301025</t>
@@ -278,19 +278,19 @@
     <t xml:space="preserve">9.44880390167236</t>
   </si>
   <si>
-    <t xml:space="preserve">10.0899429321289</t>
+    <t xml:space="preserve">10.0899438858032</t>
   </si>
   <si>
     <t xml:space="preserve">9.89760112762451</t>
   </si>
   <si>
-    <t xml:space="preserve">9.95370006561279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.9617166519165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.7613582611084</t>
+    <t xml:space="preserve">9.95370101928711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.96171474456787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.76135921478271</t>
   </si>
   <si>
     <t xml:space="preserve">9.60107421875</t>
@@ -302,22 +302,22 @@
     <t xml:space="preserve">9.61710166931152</t>
   </si>
   <si>
-    <t xml:space="preserve">9.7373161315918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.50490283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646018981934</t>
+    <t xml:space="preserve">9.73731517791748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.50490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646114349365</t>
   </si>
   <si>
     <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
-    <t xml:space="preserve">9.18433380126953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.45681667327881</t>
+    <t xml:space="preserve">9.18433284759521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45681858062744</t>
   </si>
   <si>
     <t xml:space="preserve">9.37667465209961</t>
@@ -332,43 +332,43 @@
     <t xml:space="preserve">9.32858943939209</t>
   </si>
   <si>
-    <t xml:space="preserve">9.30454635620117</t>
+    <t xml:space="preserve">9.30454540252686</t>
   </si>
   <si>
     <t xml:space="preserve">9.40071773529053</t>
   </si>
   <si>
-    <t xml:space="preserve">9.24043083190918</t>
+    <t xml:space="preserve">9.2404317855835</t>
   </si>
   <si>
     <t xml:space="preserve">9.32057476043701</t>
   </si>
   <si>
-    <t xml:space="preserve">9.28851890563965</t>
+    <t xml:space="preserve">9.28851795196533</t>
   </si>
   <si>
     <t xml:space="preserve">9.19234657287598</t>
   </si>
   <si>
-    <t xml:space="preserve">8.9439058303833</t>
+    <t xml:space="preserve">8.94390487670898</t>
   </si>
   <si>
     <t xml:space="preserve">8.95993518829346</t>
   </si>
   <si>
-    <t xml:space="preserve">9.21639060974121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.13624668121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.99199199676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.85574913024902</t>
+    <t xml:space="preserve">9.21638965606689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837593078613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1362476348877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.99199104309082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.85574817657471</t>
   </si>
   <si>
     <t xml:space="preserve">8.89582061767578</t>
@@ -377,7 +377,7 @@
     <t xml:space="preserve">9.33660411834717</t>
   </si>
   <si>
-    <t xml:space="preserve">9.48085880279541</t>
+    <t xml:space="preserve">9.48085975646973</t>
   </si>
   <si>
     <t xml:space="preserve">9.51291751861572</t>
@@ -386,13 +386,13 @@
     <t xml:space="preserve">9.27248954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10418891906738</t>
+    <t xml:space="preserve">9.1041898727417</t>
   </si>
   <si>
     <t xml:space="preserve">9.17631912231445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09617710113525</t>
+    <t xml:space="preserve">9.09617614746094</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397636413574</t>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">8.97596168518066</t>
   </si>
   <si>
-    <t xml:space="preserve">8.87177753448486</t>
+    <t xml:space="preserve">8.87177658081055</t>
   </si>
   <si>
     <t xml:space="preserve">8.73553466796875</t>
@@ -425,7 +425,7 @@
     <t xml:space="preserve">8.77560520172119</t>
   </si>
   <si>
-    <t xml:space="preserve">8.67142009735107</t>
+    <t xml:space="preserve">8.67142105102539</t>
   </si>
   <si>
     <t xml:space="preserve">8.64737701416016</t>
@@ -437,7 +437,7 @@
     <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68744850158691</t>
+    <t xml:space="preserve">8.68744945526123</t>
   </si>
   <si>
     <t xml:space="preserve">8.75156307220459</t>
@@ -458,16 +458,16 @@
     <t xml:space="preserve">8.80766296386719</t>
   </si>
   <si>
-    <t xml:space="preserve">8.79163360595703</t>
+    <t xml:space="preserve">8.79163455963135</t>
   </si>
   <si>
     <t xml:space="preserve">8.67943477630615</t>
   </si>
   <si>
-    <t xml:space="preserve">8.5592212677002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276584625244</t>
+    <t xml:space="preserve">8.55922031402588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
   </si>
   <si>
     <t xml:space="preserve">8.36687850952148</t>
@@ -491,7 +491,7 @@
     <t xml:space="preserve">8.479079246521</t>
   </si>
   <si>
-    <t xml:space="preserve">8.43099403381348</t>
+    <t xml:space="preserve">8.43099308013916</t>
   </si>
   <si>
     <t xml:space="preserve">8.47106456756592</t>
@@ -500,19 +500,19 @@
     <t xml:space="preserve">8.49510765075684</t>
   </si>
   <si>
-    <t xml:space="preserve">8.414963722229</t>
+    <t xml:space="preserve">8.41496467590332</t>
   </si>
   <si>
     <t xml:space="preserve">8.45503616333008</t>
   </si>
   <si>
-    <t xml:space="preserve">8.29475021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425395965576</t>
+    <t xml:space="preserve">8.29475116729736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489223480225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425300598145</t>
   </si>
   <si>
     <t xml:space="preserve">8.32456684112549</t>
@@ -527,82 +527,82 @@
     <t xml:space="preserve">8.57183074951172</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53061962127686</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44819831848145</t>
+    <t xml:space="preserve">8.53062057495117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44819927215576</t>
   </si>
   <si>
     <t xml:space="preserve">8.4069881439209</t>
   </si>
   <si>
-    <t xml:space="preserve">8.77788543701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214553833008</t>
+    <t xml:space="preserve">8.7778844833374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214649200439</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269275665283</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02785015106201</t>
+    <t xml:space="preserve">8.07730197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02784824371338</t>
   </si>
   <si>
     <t xml:space="preserve">8.14323902130127</t>
   </si>
   <si>
-    <t xml:space="preserve">8.06081676483154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.99488162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894315719604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.89597463607788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683664321899</t>
+    <t xml:space="preserve">8.06081867218018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.99488115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894411087036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
   </si>
   <si>
     <t xml:space="preserve">7.73113203048706</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74761581420898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76410150527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574125289917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78058433532715</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.66519498825073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.6981635093689</t>
+    <t xml:space="preserve">7.7476167678833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76410102844238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61574268341064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.78058481216431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.66519451141357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69816398620605</t>
   </si>
   <si>
     <t xml:space="preserve">7.5992579460144</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63222694396973</t>
+    <t xml:space="preserve">7.63222646713257</t>
   </si>
   <si>
     <t xml:space="preserve">7.5662899017334</t>
@@ -611,55 +611,55 @@
     <t xml:space="preserve">7.79706907272339</t>
   </si>
   <si>
-    <t xml:space="preserve">7.81355333328247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.58277368545532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48386859893799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.38496208190918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30254077911377</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40144681930542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.1871509552002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20363473892212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.33550882339478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50035238265991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25308752059937</t>
+    <t xml:space="preserve">7.81355381011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.58277463912964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48386764526367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.38496160507202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30253982543945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.40144634246826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.18715047836304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20363521575928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33550930023193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50035285949707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25308799743652</t>
   </si>
   <si>
     <t xml:space="preserve">7.41793012619019</t>
   </si>
   <si>
-    <t xml:space="preserve">7.43441438674927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.46738433837891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13769817352295</t>
+    <t xml:space="preserve">7.4344162940979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.46738481521606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.13769769668579</t>
   </si>
   <si>
     <t xml:space="preserve">7.1706657409668</t>
   </si>
   <si>
-    <t xml:space="preserve">7.08824491500854</t>
+    <t xml:space="preserve">7.0882453918457</t>
   </si>
   <si>
     <t xml:space="preserve">6.92340230941772</t>
@@ -668,10 +668,10 @@
     <t xml:space="preserve">6.90691757202148</t>
   </si>
   <si>
-    <t xml:space="preserve">6.98933792114258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0717601776123</t>
+    <t xml:space="preserve">6.98933839797974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.07176113128662</t>
   </si>
   <si>
     <t xml:space="preserve">6.97285509109497</t>
@@ -683,19 +683,19 @@
     <t xml:space="preserve">6.6596531867981</t>
   </si>
   <si>
-    <t xml:space="preserve">6.75855922698975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.84098100662231</t>
+    <t xml:space="preserve">6.7585597038269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.84098052978516</t>
   </si>
   <si>
     <t xml:space="preserve">6.69262218475342</t>
   </si>
   <si>
-    <t xml:space="preserve">6.70910692214966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02230834960938</t>
+    <t xml:space="preserve">6.70910596847534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.02230787277222</t>
   </si>
   <si>
     <t xml:space="preserve">6.72559022903442</t>
@@ -704,16 +704,16 @@
     <t xml:space="preserve">6.85746479034424</t>
   </si>
   <si>
-    <t xml:space="preserve">7.00582313537598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.28605699539185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3684778213501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10472965240479</t>
+    <t xml:space="preserve">7.00582361221313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.28605651855469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.36847734451294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.10473012924194</t>
   </si>
   <si>
     <t xml:space="preserve">7.23660326004028</t>
@@ -722,7 +722,7 @@
     <t xml:space="preserve">6.87394952774048</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5277795791626</t>
+    <t xml:space="preserve">6.52777910232544</t>
   </si>
   <si>
     <t xml:space="preserve">6.59371614456177</t>
@@ -737,7 +737,7 @@
     <t xml:space="preserve">6.41238927841187</t>
   </si>
   <si>
-    <t xml:space="preserve">6.67613792419434</t>
+    <t xml:space="preserve">6.67613744735718</t>
   </si>
   <si>
     <t xml:space="preserve">7.12121391296387</t>
@@ -755,34 +755,34 @@
     <t xml:space="preserve">6.64316940307617</t>
   </si>
   <si>
-    <t xml:space="preserve">6.80801200866699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.22012042999268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35199356079102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45089960098267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.53332090377808</t>
+    <t xml:space="preserve">6.80801248550415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.22011995315552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35199308395386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45089912414551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.53332042694092</t>
   </si>
   <si>
     <t xml:space="preserve">7.64871120452881</t>
   </si>
   <si>
-    <t xml:space="preserve">7.68167924880981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5498046875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.69705438613892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.64574098587036</t>
+    <t xml:space="preserve">7.68168020248413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.54980516433716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69705390930176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.6457405090332</t>
   </si>
   <si>
     <t xml:space="preserve">7.56021881103516</t>
@@ -791,31 +791,31 @@
     <t xml:space="preserve">7.09839534759521</t>
   </si>
   <si>
-    <t xml:space="preserve">7.49180126190186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.5773229598999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61153173446655</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.30365037918091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.35496377944946</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.3378586769104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.25233507156372</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.21812725067139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.20102262496948</t>
+    <t xml:space="preserve">7.4918007850647</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.57732200622559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.61153221130371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.30364990234375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35496425628662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.33785915374756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.25233554840088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.21812677383423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.20102214813232</t>
   </si>
   <si>
     <t xml:space="preserve">7.18391799926758</t>
@@ -827,7 +827,7 @@
     <t xml:space="preserve">6.99576807022095</t>
   </si>
   <si>
-    <t xml:space="preserve">7.06418609619141</t>
+    <t xml:space="preserve">7.06418657302856</t>
   </si>
   <si>
     <t xml:space="preserve">7.23523187637329</t>
@@ -836,13 +836,13 @@
     <t xml:space="preserve">7.26944065093994</t>
   </si>
   <si>
-    <t xml:space="preserve">7.37206840515137</t>
+    <t xml:space="preserve">7.37206888198853</t>
   </si>
   <si>
     <t xml:space="preserve">7.286545753479</t>
   </si>
   <si>
-    <t xml:space="preserve">7.01287221908569</t>
+    <t xml:space="preserve">7.01287269592285</t>
   </si>
   <si>
     <t xml:space="preserve">7.11549949645996</t>
@@ -854,31 +854,31 @@
     <t xml:space="preserve">7.08129024505615</t>
   </si>
   <si>
-    <t xml:space="preserve">7.0299768447876</t>
+    <t xml:space="preserve">7.02997732162476</t>
   </si>
   <si>
     <t xml:space="preserve">6.97866296768188</t>
   </si>
   <si>
-    <t xml:space="preserve">6.87603616714478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.9615592956543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.89314079284668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.85893154144287</t>
+    <t xml:space="preserve">6.87603569030762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.96155881881714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.89314031600952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.85893106460571</t>
   </si>
   <si>
     <t xml:space="preserve">6.84182643890381</t>
   </si>
   <si>
-    <t xml:space="preserve">6.77340888977051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.65367650985718</t>
+    <t xml:space="preserve">6.77340841293335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.65367698669434</t>
   </si>
   <si>
     <t xml:space="preserve">6.4997353553772</t>
@@ -890,7 +890,7 @@
     <t xml:space="preserve">6.48263025283813</t>
   </si>
   <si>
-    <t xml:space="preserve">6.5168399810791</t>
+    <t xml:space="preserve">6.51683950424194</t>
   </si>
   <si>
     <t xml:space="preserve">6.5852575302124</t>
@@ -899,13 +899,13 @@
     <t xml:space="preserve">6.41421270370483</t>
   </si>
   <si>
-    <t xml:space="preserve">6.36289882659912</t>
+    <t xml:space="preserve">6.36289930343628</t>
   </si>
   <si>
     <t xml:space="preserve">6.43131732940674</t>
   </si>
   <si>
-    <t xml:space="preserve">6.38000345230103</t>
+    <t xml:space="preserve">6.38000392913818</t>
   </si>
   <si>
     <t xml:space="preserve">6.32868957519531</t>
@@ -917,16 +917,16 @@
     <t xml:space="preserve">6.14053916931152</t>
   </si>
   <si>
-    <t xml:space="preserve">6.07212114334106</t>
+    <t xml:space="preserve">6.07212162017822</t>
   </si>
   <si>
     <t xml:space="preserve">6.10632991790771</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2260627746582</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.31158542633057</t>
+    <t xml:space="preserve">6.22606229782104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.31158494949341</t>
   </si>
   <si>
     <t xml:space="preserve">6.2773756980896</t>
@@ -935,7 +935,7 @@
     <t xml:space="preserve">6.19185304641724</t>
   </si>
   <si>
-    <t xml:space="preserve">6.39710760116577</t>
+    <t xml:space="preserve">6.39710807800293</t>
   </si>
   <si>
     <t xml:space="preserve">6.53394412994385</t>
@@ -953,7 +953,7 @@
     <t xml:space="preserve">6.63657236099243</t>
   </si>
   <si>
-    <t xml:space="preserve">6.60236263275146</t>
+    <t xml:space="preserve">6.60236215591431</t>
   </si>
   <si>
     <t xml:space="preserve">6.82472229003906</t>
@@ -965,13 +965,13 @@
     <t xml:space="preserve">6.55104875564575</t>
   </si>
   <si>
-    <t xml:space="preserve">6.56815385818481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.68788576126099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.73919916152954</t>
+    <t xml:space="preserve">6.56815338134766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.68788623809814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7391996383667</t>
   </si>
   <si>
     <t xml:space="preserve">6.34579467773438</t>
@@ -980,7 +980,7 @@
     <t xml:space="preserve">6.44842195510864</t>
   </si>
   <si>
-    <t xml:space="preserve">6.00370264053345</t>
+    <t xml:space="preserve">6.00370311737061</t>
   </si>
   <si>
     <t xml:space="preserve">5.86686658859253</t>
@@ -992,7 +992,7 @@
     <t xml:space="preserve">5.93528461456299</t>
   </si>
   <si>
-    <t xml:space="preserve">5.76423835754395</t>
+    <t xml:space="preserve">5.7642388343811</t>
   </si>
   <si>
     <t xml:space="preserve">5.88397121429443</t>
@@ -1010,16 +1010,16 @@
     <t xml:space="preserve">5.06295204162598</t>
   </si>
   <si>
-    <t xml:space="preserve">4.99453353881836</t>
+    <t xml:space="preserve">4.99453401565552</t>
   </si>
   <si>
     <t xml:space="preserve">4.75506925582886</t>
   </si>
   <si>
-    <t xml:space="preserve">4.53271055221558</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.19061899185181</t>
+    <t xml:space="preserve">4.53271007537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.19061851501465</t>
   </si>
   <si>
     <t xml:space="preserve">4.58402395248413</t>
@@ -1031,22 +1031,22 @@
     <t xml:space="preserve">4.4471869468689</t>
   </si>
   <si>
-    <t xml:space="preserve">4.36166429519653</t>
+    <t xml:space="preserve">4.36166477203369</t>
   </si>
   <si>
     <t xml:space="preserve">4.7037558555603</t>
   </si>
   <si>
-    <t xml:space="preserve">5.04584693908691</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26820659637451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.49056577682495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.90107583999634</t>
+    <t xml:space="preserve">5.04584741592407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.26820611953735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.49056625366211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.90107536315918</t>
   </si>
   <si>
     <t xml:space="preserve">5.78134393692017</t>
@@ -1058,22 +1058,22 @@
     <t xml:space="preserve">5.67871618270874</t>
   </si>
   <si>
-    <t xml:space="preserve">5.54187965393066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35372972488403</t>
+    <t xml:space="preserve">5.54187917709351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.35372924804688</t>
   </si>
   <si>
     <t xml:space="preserve">5.52477502822876</t>
   </si>
   <si>
-    <t xml:space="preserve">5.64450645446777</t>
+    <t xml:space="preserve">5.64450693130493</t>
   </si>
   <si>
     <t xml:space="preserve">5.40504312515259</t>
   </si>
   <si>
-    <t xml:space="preserve">5.59319353103638</t>
+    <t xml:space="preserve">5.59319305419922</t>
   </si>
   <si>
     <t xml:space="preserve">5.84976196289062</t>
@@ -1082,10 +1082,10 @@
     <t xml:space="preserve">6.12343502044678</t>
   </si>
   <si>
-    <t xml:space="preserve">6.2944803237915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.24316740036011</t>
+    <t xml:space="preserve">6.29447984695435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.24316692352295</t>
   </si>
   <si>
     <t xml:space="preserve">6.03791236877441</t>
@@ -1094,7 +1094,7 @@
     <t xml:space="preserve">6.17474842071533</t>
   </si>
   <si>
-    <t xml:space="preserve">6.08922529220581</t>
+    <t xml:space="preserve">6.08922576904297</t>
   </si>
   <si>
     <t xml:space="preserve">6.26027154922485</t>
@@ -1109,25 +1109,25 @@
     <t xml:space="preserve">5.95238876342773</t>
   </si>
   <si>
-    <t xml:space="preserve">5.71292543411255</t>
+    <t xml:space="preserve">5.71292495727539</t>
   </si>
   <si>
     <t xml:space="preserve">5.81555318832397</t>
   </si>
   <si>
-    <t xml:space="preserve">5.74713373184204</t>
+    <t xml:space="preserve">5.74713468551636</t>
   </si>
   <si>
     <t xml:space="preserve">5.62740230560303</t>
   </si>
   <si>
-    <t xml:space="preserve">5.61029815673828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.83265686035156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.91817998886108</t>
+    <t xml:space="preserve">5.61029767990112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.83265733718872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.91817951202393</t>
   </si>
   <si>
     <t xml:space="preserve">5.66161155700684</t>
@@ -1136,10 +1136,10 @@
     <t xml:space="preserve">5.57608842849731</t>
   </si>
   <si>
-    <t xml:space="preserve">6.79051351547241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.72209453582764</t>
+    <t xml:space="preserve">6.79051303863525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.72209501266479</t>
   </si>
   <si>
     <t xml:space="preserve">6.94445419311523</t>
@@ -1154,10 +1154,10 @@
     <t xml:space="preserve">7.38917303085327</t>
   </si>
   <si>
-    <t xml:space="preserve">7.74836921691895</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76547384262085</t>
+    <t xml:space="preserve">7.7483696937561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76547241210938</t>
   </si>
   <si>
     <t xml:space="preserve">7.7825779914856</t>
@@ -1166,37 +1166,37 @@
     <t xml:space="preserve">8.17598342895508</t>
   </si>
   <si>
-    <t xml:space="preserve">8.10756397247314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12467002868652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03914546966553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05625152587891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.98783254623413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.95362329483032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.97072792053223</t>
+    <t xml:space="preserve">8.10756492614746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.12466907501221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.03914642333984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05625057220459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.98783302307129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.95362281799316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.97072839736938</t>
   </si>
   <si>
     <t xml:space="preserve">7.91941452026367</t>
   </si>
   <si>
-    <t xml:space="preserve">7.90230894088745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73126459121704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8167872428894</t>
+    <t xml:space="preserve">7.90230989456177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73126411437988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.81678676605225</t>
   </si>
   <si>
     <t xml:space="preserve">7.93651914596558</t>
@@ -1205,28 +1205,28 @@
     <t xml:space="preserve">8.02204132080078</t>
   </si>
   <si>
-    <t xml:space="preserve">7.86810064315796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7996826171875</t>
+    <t xml:space="preserve">7.86810159683228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79968214035034</t>
   </si>
   <si>
     <t xml:space="preserve">8.27861022949219</t>
   </si>
   <si>
-    <t xml:space="preserve">8.38123798370361</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36413192749023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44965553283691</t>
+    <t xml:space="preserve">8.3812370300293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36413383483887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.4496545791626</t>
   </si>
   <si>
     <t xml:space="preserve">8.6378059387207</t>
   </si>
   <si>
-    <t xml:space="preserve">8.59504508972168</t>
+    <t xml:space="preserve">8.595046043396</t>
   </si>
   <si>
     <t xml:space="preserve">8.46676063537598</t>
@@ -1235,22 +1235,22 @@
     <t xml:space="preserve">8.48386478424072</t>
   </si>
   <si>
-    <t xml:space="preserve">8.55228328704834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41544723510742</t>
+    <t xml:space="preserve">8.55228424072266</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41544628143311</t>
   </si>
   <si>
     <t xml:space="preserve">8.50096988677979</t>
   </si>
   <si>
-    <t xml:space="preserve">8.68056678771973</t>
+    <t xml:space="preserve">8.68056774139404</t>
   </si>
   <si>
     <t xml:space="preserve">8.51807403564453</t>
   </si>
   <si>
-    <t xml:space="preserve">8.85161209106445</t>
+    <t xml:space="preserve">8.85161399841309</t>
   </si>
   <si>
     <t xml:space="preserve">8.97989845275879</t>
@@ -1259,19 +1259,19 @@
     <t xml:space="preserve">9.02265930175781</t>
   </si>
   <si>
-    <t xml:space="preserve">9.32198905944824</t>
+    <t xml:space="preserve">9.32198810577393</t>
   </si>
   <si>
     <t xml:space="preserve">9.62131881713867</t>
   </si>
   <si>
-    <t xml:space="preserve">9.45027351379395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.74960231781006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.6640796661377</t>
+    <t xml:space="preserve">9.45027256011963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.74960327148438</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.66408061981201</t>
   </si>
   <si>
     <t xml:space="preserve">9.57855606079102</t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">10.1772165298462</t>
   </si>
   <si>
-    <t xml:space="preserve">10.1344566345215</t>
+    <t xml:space="preserve">10.1344556808472</t>
   </si>
   <si>
     <t xml:space="preserve">10.3910236358643</t>
@@ -1295,7 +1295,7 @@
     <t xml:space="preserve">10.7758769989014</t>
   </si>
   <si>
-    <t xml:space="preserve">10.8186388015747</t>
+    <t xml:space="preserve">10.8186378479004</t>
   </si>
   <si>
     <t xml:space="preserve">10.9896841049194</t>
@@ -1316,25 +1316,25 @@
     <t xml:space="preserve">11.887674331665</t>
   </si>
   <si>
-    <t xml:space="preserve">11.8021516799927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.716628074646</t>
+    <t xml:space="preserve">11.8021507263184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7166271209717</t>
   </si>
   <si>
     <t xml:space="preserve">11.9304342269897</t>
   </si>
   <si>
-    <t xml:space="preserve">11.5883445739746</t>
+    <t xml:space="preserve">11.5883436203003</t>
   </si>
   <si>
     <t xml:space="preserve">11.6311063766479</t>
   </si>
   <si>
-    <t xml:space="preserve">12.2725267410278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.0159578323364</t>
+    <t xml:space="preserve">12.2725276947021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.0159587860107</t>
   </si>
   <si>
     <t xml:space="preserve">11.8449125289917</t>
@@ -1352,111 +1352,114 @@
     <t xml:space="preserve">11.3317756652832</t>
   </si>
   <si>
+    <t xml:space="preserve">12.0587196350098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.5020551681519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9257192611694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4380493164062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2163820266724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7287149429321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8173809051514</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.8617153167725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.7730474472046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6843795776367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5957136154175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.6400461196899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1277160644531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.0390481948853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.748384475708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.4823837280273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5710515975952</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3050498962402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6153841018677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.349383354187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.083381652832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9947147369385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9503812789917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.9060478210449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.5513792037964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.1720495223999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7040510177612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5267181396484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8813848495483</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.6597175598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.2607164382935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.3937168121338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.7927188873291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1030530929565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.280387878418</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.0587205886841</t>
   </si>
   <si>
-    <t xml:space="preserve">12.5020561218262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.9257183074951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4380502700806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2163820266724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7287139892578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8173809051514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.8617143630981</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.7730474472046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.684380531311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5957136154175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.6400461196899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1277151107788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.0390481948853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.748384475708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.4823837280273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5710506439209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3050498962402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.615385055542</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.349383354187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.083381652832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9947147369385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.950382232666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.9060478210449</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.5513792037964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.1720495223999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7040510177612</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.5267171859741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8813848495483</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.6597175598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2607154846191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.3937168121338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.7927188873291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.1030530929565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.280387878418</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.014386177063</t>
   </si>
   <si>
@@ -1469,7 +1472,7 @@
     <t xml:space="preserve">12.5907220840454</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1227235794067</t>
+    <t xml:space="preserve">13.1227245330811</t>
   </si>
   <si>
     <t xml:space="preserve">13.2113914489746</t>
@@ -1478,37 +1481,37 @@
     <t xml:space="preserve">13.5217266082764</t>
   </si>
   <si>
-    <t xml:space="preserve">13.1670589447021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.388726234436</t>
+    <t xml:space="preserve">13.1670579910278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3887252807617</t>
   </si>
   <si>
     <t xml:space="preserve">13.4330587387085</t>
   </si>
   <si>
-    <t xml:space="preserve">13.6990604400635</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.1867294311523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.4970636367798</t>
+    <t xml:space="preserve">13.6990594863892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.186728477478</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4970645904541</t>
   </si>
   <si>
     <t xml:space="preserve">14.7630653381348</t>
   </si>
   <si>
-    <t xml:space="preserve">14.5857315063477</t>
+    <t xml:space="preserve">14.5857305526733</t>
   </si>
   <si>
     <t xml:space="preserve">14.4527292251587</t>
   </si>
   <si>
-    <t xml:space="preserve">14.2310619354248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2753963470459</t>
+    <t xml:space="preserve">14.2310628890991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2753973007202</t>
   </si>
   <si>
     <t xml:space="preserve">14.9847316741943</t>
@@ -1517,7 +1520,7 @@
     <t xml:space="preserve">14.8517322540283</t>
   </si>
   <si>
-    <t xml:space="preserve">14.6300640106201</t>
+    <t xml:space="preserve">14.6300649642944</t>
   </si>
   <si>
     <t xml:space="preserve">14.1423950195312</t>
@@ -1529,7 +1532,7 @@
     <t xml:space="preserve">13.787727355957</t>
   </si>
   <si>
-    <t xml:space="preserve">13.4773921966553</t>
+    <t xml:space="preserve">13.4773931503296</t>
   </si>
   <si>
     <t xml:space="preserve">13.3443918228149</t>
@@ -1538,7 +1541,7 @@
     <t xml:space="preserve">12.8567228317261</t>
   </si>
   <si>
-    <t xml:space="preserve">12.1473865509033</t>
+    <t xml:space="preserve">12.147385597229</t>
   </si>
   <si>
     <t xml:space="preserve">12.1917200088501</t>
@@ -1565,13 +1568,13 @@
     <t xml:space="preserve">10.4183788299561</t>
   </si>
   <si>
-    <t xml:space="preserve">12.679388999939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.413387298584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.271520614624</t>
+    <t xml:space="preserve">12.6793899536133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.4133882522583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2715196609497</t>
   </si>
   <si>
     <t xml:space="preserve">11.8281850814819</t>
@@ -1580,7 +1583,7 @@
     <t xml:space="preserve">11.4557838439941</t>
   </si>
   <si>
-    <t xml:space="preserve">11.7217845916748</t>
+    <t xml:space="preserve">11.7217855453491</t>
   </si>
   <si>
     <t xml:space="preserve">11.4735164642334</t>
@@ -1604,7 +1607,7 @@
     <t xml:space="preserve">11.544451713562</t>
   </si>
   <si>
-    <t xml:space="preserve">11.6508512496948</t>
+    <t xml:space="preserve">11.6508522033691</t>
   </si>
   <si>
     <t xml:space="preserve">11.5621843338013</t>
@@ -1613,7 +1616,7 @@
     <t xml:space="preserve">11.5089836120605</t>
   </si>
   <si>
-    <t xml:space="preserve">11.757251739502</t>
+    <t xml:space="preserve">11.7572507858276</t>
   </si>
   <si>
     <t xml:space="preserve">11.5799179077148</t>
@@ -42050,7 +42053,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1507" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1507" t="s">
         <v>9</v>
@@ -42102,7 +42105,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1509" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1509" t="s">
         <v>9</v>
@@ -42128,7 +42131,7 @@
         <v>13.9499998092651</v>
       </c>
       <c r="G1510" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H1510" t="s">
         <v>9</v>
@@ -42154,7 +42157,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1511" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1511" t="s">
         <v>9</v>
@@ -42180,7 +42183,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1512" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1512" t="s">
         <v>9</v>
@@ -42206,7 +42209,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1513" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1513" t="s">
         <v>9</v>
@@ -42232,7 +42235,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1514" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1514" t="s">
         <v>9</v>
@@ -42258,7 +42261,7 @@
         <v>15.25</v>
       </c>
       <c r="G1515" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H1515" t="s">
         <v>9</v>
@@ -42284,7 +42287,7 @@
         <v>14.8500003814697</v>
       </c>
       <c r="G1516" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H1516" t="s">
         <v>9</v>
@@ -42310,7 +42313,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1517" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1517" t="s">
         <v>9</v>
@@ -42336,7 +42339,7 @@
         <v>15.1000003814697</v>
       </c>
       <c r="G1518" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H1518" t="s">
         <v>9</v>
@@ -42362,7 +42365,7 @@
         <v>14.8000001907349</v>
       </c>
       <c r="G1519" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H1519" t="s">
         <v>9</v>
@@ -42388,7 +42391,7 @@
         <v>15.1499996185303</v>
       </c>
       <c r="G1520" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H1520" t="s">
         <v>9</v>
@@ -42414,7 +42417,7 @@
         <v>15.4499998092651</v>
       </c>
       <c r="G1521" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H1521" t="s">
         <v>9</v>
@@ -42440,7 +42443,7 @@
         <v>16</v>
       </c>
       <c r="G1522" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H1522" t="s">
         <v>9</v>
@@ -42466,7 +42469,7 @@
         <v>16.3500003814697</v>
       </c>
       <c r="G1523" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H1523" t="s">
         <v>9</v>
@@ -42492,7 +42495,7 @@
         <v>16.6499996185303</v>
       </c>
       <c r="G1524" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H1524" t="s">
         <v>9</v>
@@ -42518,7 +42521,7 @@
         <v>16.4500007629395</v>
       </c>
       <c r="G1525" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="H1525" t="s">
         <v>9</v>
@@ -42544,7 +42547,7 @@
         <v>16.2999992370605</v>
       </c>
       <c r="G1526" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H1526" t="s">
         <v>9</v>
@@ -42570,7 +42573,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1527" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1527" t="s">
         <v>9</v>
@@ -42596,7 +42599,7 @@
         <v>16.1000003814697</v>
       </c>
       <c r="G1528" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H1528" t="s">
         <v>9</v>
@@ -42622,7 +42625,7 @@
         <v>16.8999996185303</v>
       </c>
       <c r="G1529" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H1529" t="s">
         <v>9</v>
@@ -42648,7 +42651,7 @@
         <v>16.75</v>
       </c>
       <c r="G1530" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H1530" t="s">
         <v>9</v>
@@ -42674,7 +42677,7 @@
         <v>16.5</v>
       </c>
       <c r="G1531" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H1531" t="s">
         <v>9</v>
@@ -42700,7 +42703,7 @@
         <v>15.9499998092651</v>
       </c>
       <c r="G1532" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H1532" t="s">
         <v>9</v>
@@ -42726,7 +42729,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1533" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1533" t="s">
         <v>9</v>
@@ -42752,7 +42755,7 @@
         <v>16.0499992370605</v>
       </c>
       <c r="G1534" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H1534" t="s">
         <v>9</v>
@@ -42778,7 +42781,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1535" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1535" t="s">
         <v>9</v>
@@ -42804,7 +42807,7 @@
         <v>15.5500001907349</v>
       </c>
       <c r="G1536" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H1536" t="s">
         <v>9</v>
@@ -42830,7 +42833,7 @@
         <v>15.8999996185303</v>
       </c>
       <c r="G1537" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H1537" t="s">
         <v>9</v>
@@ -42856,7 +42859,7 @@
         <v>15.1999998092651</v>
       </c>
       <c r="G1538" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H1538" t="s">
         <v>9</v>
@@ -42882,7 +42885,7 @@
         <v>14.8999996185303</v>
       </c>
       <c r="G1539" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H1539" t="s">
         <v>9</v>
@@ -42908,7 +42911,7 @@
         <v>15.0500001907349</v>
       </c>
       <c r="G1540" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H1540" t="s">
         <v>9</v>
@@ -42934,7 +42937,7 @@
         <v>14.5</v>
       </c>
       <c r="G1541" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1541" t="s">
         <v>9</v>
@@ -42960,7 +42963,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1542" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1542" t="s">
         <v>9</v>
@@ -42986,7 +42989,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1543" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1543" t="s">
         <v>9</v>
@@ -43012,7 +43015,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1544" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1544" t="s">
         <v>9</v>
@@ -43038,7 +43041,7 @@
         <v>13.75</v>
       </c>
       <c r="G1545" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1545" t="s">
         <v>9</v>
@@ -43064,7 +43067,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1546" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H1546" t="s">
         <v>9</v>
@@ -43090,7 +43093,7 @@
         <v>14.25</v>
       </c>
       <c r="G1547" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H1547" t="s">
         <v>9</v>
@@ -43116,7 +43119,7 @@
         <v>14.5</v>
       </c>
       <c r="G1548" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1548" t="s">
         <v>9</v>
@@ -43142,7 +43145,7 @@
         <v>14.5</v>
       </c>
       <c r="G1549" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="H1549" t="s">
         <v>9</v>
@@ -43194,7 +43197,7 @@
         <v>13.75</v>
       </c>
       <c r="G1551" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="H1551" t="s">
         <v>9</v>
@@ -43220,7 +43223,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1552" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1552" t="s">
         <v>9</v>
@@ -43272,7 +43275,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1554" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1554" t="s">
         <v>9</v>
@@ -43324,7 +43327,7 @@
         <v>13.5</v>
       </c>
       <c r="G1556" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1556" t="s">
         <v>9</v>
@@ -43376,7 +43379,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1558" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H1558" t="s">
         <v>9</v>
@@ -43402,7 +43405,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1559" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H1559" t="s">
         <v>9</v>
@@ -43428,7 +43431,7 @@
         <v>14.1499996185303</v>
       </c>
       <c r="G1560" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1560" t="s">
         <v>9</v>
@@ -43506,7 +43509,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1563" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H1563" t="s">
         <v>9</v>
@@ -43532,7 +43535,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1564" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1564" t="s">
         <v>9</v>
@@ -43584,7 +43587,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1566" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1566" t="s">
         <v>9</v>
@@ -43610,7 +43613,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1567" t="s">
-        <v>446</v>
+        <v>481</v>
       </c>
       <c r="H1567" t="s">
         <v>9</v>
@@ -43714,7 +43717,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1571" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H1571" t="s">
         <v>9</v>
@@ -43740,7 +43743,7 @@
         <v>11.6499996185303</v>
       </c>
       <c r="G1572" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H1572" t="s">
         <v>9</v>
@@ -43766,7 +43769,7 @@
         <v>11.75</v>
       </c>
       <c r="G1573" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H1573" t="s">
         <v>9</v>
@@ -44052,7 +44055,7 @@
         <v>13.5</v>
       </c>
       <c r="G1584" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="H1584" t="s">
         <v>9</v>
@@ -44156,7 +44159,7 @@
         <v>13.5500001907349</v>
       </c>
       <c r="G1588" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H1588" t="s">
         <v>9</v>
@@ -44182,7 +44185,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1589" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="H1589" t="s">
         <v>9</v>
@@ -44208,7 +44211,7 @@
         <v>14</v>
       </c>
       <c r="G1590" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H1590" t="s">
         <v>9</v>
@@ -44234,7 +44237,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1591" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H1591" t="s">
         <v>9</v>
@@ -44260,7 +44263,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1592" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="H1592" t="s">
         <v>9</v>
@@ -44312,7 +44315,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1594" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1594" t="s">
         <v>9</v>
@@ -44364,7 +44367,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1596" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="H1596" t="s">
         <v>9</v>
@@ -44390,7 +44393,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1597" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H1597" t="s">
         <v>9</v>
@@ -44416,7 +44419,7 @@
         <v>12.8400001525879</v>
       </c>
       <c r="G1598" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="H1598" t="s">
         <v>9</v>
@@ -44442,7 +44445,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1599" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1599" t="s">
         <v>9</v>
@@ -44468,7 +44471,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1600" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H1600" t="s">
         <v>9</v>
@@ -44494,7 +44497,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1601" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="H1601" t="s">
         <v>9</v>
@@ -44520,7 +44523,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1602" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="H1602" t="s">
         <v>9</v>
@@ -44572,7 +44575,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1604" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="H1604" t="s">
         <v>9</v>
@@ -44598,7 +44601,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1605" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="H1605" t="s">
         <v>9</v>
@@ -44624,7 +44627,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1606" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1606" t="s">
         <v>9</v>
@@ -44676,7 +44679,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1608" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1608" t="s">
         <v>9</v>
@@ -44780,7 +44783,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1612" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H1612" t="s">
         <v>9</v>
@@ -44806,7 +44809,7 @@
         <v>12.9799995422363</v>
       </c>
       <c r="G1613" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="H1613" t="s">
         <v>9</v>
@@ -44858,7 +44861,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1615" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="H1615" t="s">
         <v>9</v>
@@ -44884,7 +44887,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1616" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H1616" t="s">
         <v>9</v>
@@ -44910,7 +44913,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1617" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="H1617" t="s">
         <v>9</v>
@@ -44936,7 +44939,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1618" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H1618" t="s">
         <v>9</v>
@@ -44962,7 +44965,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1619" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="H1619" t="s">
         <v>9</v>
@@ -44988,7 +44991,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1620" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1620" t="s">
         <v>9</v>
@@ -45014,7 +45017,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1621" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1621" t="s">
         <v>9</v>
@@ -45040,7 +45043,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1622" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1622" t="s">
         <v>9</v>
@@ -45066,7 +45069,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1623" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1623" t="s">
         <v>9</v>
@@ -45092,7 +45095,7 @@
         <v>13.0200004577637</v>
       </c>
       <c r="G1624" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H1624" t="s">
         <v>9</v>
@@ -45118,7 +45121,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1625" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1625" t="s">
         <v>9</v>
@@ -45144,7 +45147,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1626" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1626" t="s">
         <v>9</v>
@@ -45170,7 +45173,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1627" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1627" t="s">
         <v>9</v>
@@ -45196,7 +45199,7 @@
         <v>14.1599998474121</v>
       </c>
       <c r="G1628" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H1628" t="s">
         <v>9</v>
@@ -45222,7 +45225,7 @@
         <v>14.1800003051758</v>
       </c>
       <c r="G1629" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="H1629" t="s">
         <v>9</v>
@@ -45248,7 +45251,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1630" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1630" t="s">
         <v>9</v>
@@ -45274,7 +45277,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1631" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1631" t="s">
         <v>9</v>
@@ -45300,7 +45303,7 @@
         <v>14.1400003433228</v>
       </c>
       <c r="G1632" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="H1632" t="s">
         <v>9</v>
@@ -45326,7 +45329,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1633" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1633" t="s">
         <v>9</v>
@@ -45352,7 +45355,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1634" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1634" t="s">
         <v>9</v>
@@ -45378,7 +45381,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1635" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1635" t="s">
         <v>9</v>
@@ -45404,7 +45407,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1636" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1636" t="s">
         <v>9</v>
@@ -45430,7 +45433,7 @@
         <v>13.7799997329712</v>
       </c>
       <c r="G1637" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H1637" t="s">
         <v>9</v>
@@ -45456,7 +45459,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1638" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1638" t="s">
         <v>9</v>
@@ -45482,7 +45485,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1639" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1639" t="s">
         <v>9</v>
@@ -45508,7 +45511,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1640" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1640" t="s">
         <v>9</v>
@@ -45534,7 +45537,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1641" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1641" t="s">
         <v>9</v>
@@ -45560,7 +45563,7 @@
         <v>14</v>
       </c>
       <c r="G1642" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1642" t="s">
         <v>9</v>
@@ -45586,7 +45589,7 @@
         <v>13</v>
       </c>
       <c r="G1643" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1643" t="s">
         <v>9</v>
@@ -45612,7 +45615,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G1644" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H1644" t="s">
         <v>9</v>
@@ -45638,7 +45641,7 @@
         <v>12.5</v>
       </c>
       <c r="G1645" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1645" t="s">
         <v>9</v>
@@ -45664,7 +45667,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G1646" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H1646" t="s">
         <v>9</v>
@@ -45690,7 +45693,7 @@
         <v>13</v>
       </c>
       <c r="G1647" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1647" t="s">
         <v>9</v>
@@ -45716,7 +45719,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1648" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1648" t="s">
         <v>9</v>
@@ -45742,7 +45745,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G1649" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H1649" t="s">
         <v>9</v>
@@ -45768,7 +45771,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1650" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1650" t="s">
         <v>9</v>
@@ -45794,7 +45797,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1651" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1651" t="s">
         <v>9</v>
@@ -45820,7 +45823,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1652" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1652" t="s">
         <v>9</v>
@@ -45846,7 +45849,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1653" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1653" t="s">
         <v>9</v>
@@ -45872,7 +45875,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1654" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1654" t="s">
         <v>9</v>
@@ -45898,7 +45901,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1655" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1655" t="s">
         <v>9</v>
@@ -45924,7 +45927,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1656" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1656" t="s">
         <v>9</v>
@@ -45950,7 +45953,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1657" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1657" t="s">
         <v>9</v>
@@ -45976,7 +45979,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1658" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1658" t="s">
         <v>9</v>
@@ -46002,7 +46005,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1659" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1659" t="s">
         <v>9</v>
@@ -46028,7 +46031,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1660" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1660" t="s">
         <v>9</v>
@@ -46054,7 +46057,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1661" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1661" t="s">
         <v>9</v>
@@ -46080,7 +46083,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1662" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1662" t="s">
         <v>9</v>
@@ -46106,7 +46109,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1663" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1663" t="s">
         <v>9</v>
@@ -46132,7 +46135,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1664" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1664" t="s">
         <v>9</v>
@@ -46158,7 +46161,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1665" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1665" t="s">
         <v>9</v>
@@ -46184,7 +46187,7 @@
         <v>13.8199996948242</v>
       </c>
       <c r="G1666" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H1666" t="s">
         <v>9</v>
@@ -46210,7 +46213,7 @@
         <v>14.1199998855591</v>
       </c>
       <c r="G1667" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H1667" t="s">
         <v>9</v>
@@ -46236,7 +46239,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1668" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1668" t="s">
         <v>9</v>
@@ -46262,7 +46265,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1669" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1669" t="s">
         <v>9</v>
@@ -46288,7 +46291,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1670" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1670" t="s">
         <v>9</v>
@@ -46314,7 +46317,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1671" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1671" t="s">
         <v>9</v>
@@ -46340,7 +46343,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1672" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1672" t="s">
         <v>9</v>
@@ -46366,7 +46369,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1673" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1673" t="s">
         <v>9</v>
@@ -46392,7 +46395,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1674" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1674" t="s">
         <v>9</v>
@@ -46418,7 +46421,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1675" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1675" t="s">
         <v>9</v>
@@ -46444,7 +46447,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1676" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1676" t="s">
         <v>9</v>
@@ -46470,7 +46473,7 @@
         <v>14</v>
       </c>
       <c r="G1677" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1677" t="s">
         <v>9</v>
@@ -46496,7 +46499,7 @@
         <v>13.9399995803833</v>
       </c>
       <c r="G1678" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H1678" t="s">
         <v>9</v>
@@ -46522,7 +46525,7 @@
         <v>14</v>
       </c>
       <c r="G1679" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1679" t="s">
         <v>9</v>
@@ -46548,7 +46551,7 @@
         <v>14</v>
       </c>
       <c r="G1680" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1680" t="s">
         <v>9</v>
@@ -46574,7 +46577,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1681" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1681" t="s">
         <v>9</v>
@@ -46600,7 +46603,7 @@
         <v>13.8800001144409</v>
       </c>
       <c r="G1682" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H1682" t="s">
         <v>9</v>
@@ -46626,7 +46629,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1683" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1683" t="s">
         <v>9</v>
@@ -46652,7 +46655,7 @@
         <v>14.039999961853</v>
       </c>
       <c r="G1684" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H1684" t="s">
         <v>9</v>
@@ -46678,7 +46681,7 @@
         <v>13.8400001525879</v>
       </c>
       <c r="G1685" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H1685" t="s">
         <v>9</v>
@@ -46704,7 +46707,7 @@
         <v>14.0200004577637</v>
       </c>
       <c r="G1686" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="H1686" t="s">
         <v>9</v>
@@ -46730,7 +46733,7 @@
         <v>13.8599996566772</v>
       </c>
       <c r="G1687" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H1687" t="s">
         <v>9</v>
@@ -46756,7 +46759,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1688" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1688" t="s">
         <v>9</v>
@@ -46782,7 +46785,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1689" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1689" t="s">
         <v>9</v>
@@ -46808,7 +46811,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1690" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1690" t="s">
         <v>9</v>
@@ -46834,7 +46837,7 @@
         <v>13.7200002670288</v>
       </c>
       <c r="G1691" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H1691" t="s">
         <v>9</v>
@@ -46860,7 +46863,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1692" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1692" t="s">
         <v>9</v>
@@ -46886,7 +46889,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1693" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1693" t="s">
         <v>9</v>
@@ -46912,7 +46915,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1694" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1694" t="s">
         <v>9</v>
@@ -46938,7 +46941,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1695" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1695" t="s">
         <v>9</v>
@@ -46964,7 +46967,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1696" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1696" t="s">
         <v>9</v>
@@ -46990,7 +46993,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1697" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1697" t="s">
         <v>9</v>
@@ -47016,7 +47019,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1698" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1698" t="s">
         <v>9</v>
@@ -47042,7 +47045,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1699" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1699" t="s">
         <v>9</v>
@@ -47068,7 +47071,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1700" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1700" t="s">
         <v>9</v>
@@ -47094,7 +47097,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1701" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1701" t="s">
         <v>9</v>
@@ -47120,7 +47123,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1702" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1702" t="s">
         <v>9</v>
@@ -47146,7 +47149,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1703" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1703" t="s">
         <v>9</v>
@@ -47172,7 +47175,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1704" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1704" t="s">
         <v>9</v>
@@ -47198,7 +47201,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1705" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1705" t="s">
         <v>9</v>
@@ -47224,7 +47227,7 @@
         <v>13.5</v>
       </c>
       <c r="G1706" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1706" t="s">
         <v>9</v>
@@ -47250,7 +47253,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1707" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1707" t="s">
         <v>9</v>
@@ -47276,7 +47279,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1708" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1708" t="s">
         <v>9</v>
@@ -47302,7 +47305,7 @@
         <v>13.5600004196167</v>
       </c>
       <c r="G1709" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H1709" t="s">
         <v>9</v>
@@ -47328,7 +47331,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1710" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1710" t="s">
         <v>9</v>
@@ -47354,7 +47357,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1711" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1711" t="s">
         <v>9</v>
@@ -47380,7 +47383,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1712" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1712" t="s">
         <v>9</v>
@@ -47406,7 +47409,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1713" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1713" t="s">
         <v>9</v>
@@ -47432,7 +47435,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1714" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1714" t="s">
         <v>9</v>
@@ -47458,7 +47461,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1715" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1715" t="s">
         <v>9</v>
@@ -47484,7 +47487,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G1716" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H1716" t="s">
         <v>9</v>
@@ -47510,7 +47513,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1717" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1717" t="s">
         <v>9</v>
@@ -47536,7 +47539,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1718" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1718" t="s">
         <v>9</v>
@@ -47562,7 +47565,7 @@
         <v>12.9200000762939</v>
       </c>
       <c r="G1719" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H1719" t="s">
         <v>9</v>
@@ -47588,7 +47591,7 @@
         <v>13</v>
       </c>
       <c r="G1720" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1720" t="s">
         <v>9</v>
@@ -47614,7 +47617,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G1721" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H1721" t="s">
         <v>9</v>
@@ -47640,7 +47643,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G1722" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H1722" t="s">
         <v>9</v>
@@ -47666,7 +47669,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G1723" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H1723" t="s">
         <v>9</v>
@@ -47692,7 +47695,7 @@
         <v>12.3400001525879</v>
       </c>
       <c r="G1724" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="H1724" t="s">
         <v>9</v>
@@ -47718,7 +47721,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1725" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H1725" t="s">
         <v>9</v>
@@ -47744,7 +47747,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1726" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1726" t="s">
         <v>9</v>
@@ -47770,7 +47773,7 @@
         <v>12</v>
       </c>
       <c r="G1727" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1727" t="s">
         <v>9</v>
@@ -47796,7 +47799,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G1728" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H1728" t="s">
         <v>9</v>
@@ -47822,7 +47825,7 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G1729" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="H1729" t="s">
         <v>9</v>
@@ -47848,7 +47851,7 @@
         <v>12.5</v>
       </c>
       <c r="G1730" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1730" t="s">
         <v>9</v>
@@ -47874,7 +47877,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G1731" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H1731" t="s">
         <v>9</v>
@@ -47900,7 +47903,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1732" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1732" t="s">
         <v>9</v>
@@ -47926,7 +47929,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G1733" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H1733" t="s">
         <v>9</v>
@@ -47952,7 +47955,7 @@
         <v>12</v>
       </c>
       <c r="G1734" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1734" t="s">
         <v>9</v>
@@ -47978,7 +47981,7 @@
         <v>12.1599998474121</v>
       </c>
       <c r="G1735" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H1735" t="s">
         <v>9</v>
@@ -48004,7 +48007,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G1736" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H1736" t="s">
         <v>9</v>
@@ -48030,7 +48033,7 @@
         <v>12.5</v>
       </c>
       <c r="G1737" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1737" t="s">
         <v>9</v>
@@ -48056,7 +48059,7 @@
         <v>13</v>
       </c>
       <c r="G1738" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1738" t="s">
         <v>9</v>
@@ -48082,7 +48085,7 @@
         <v>12.9399995803833</v>
       </c>
       <c r="G1739" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="H1739" t="s">
         <v>9</v>
@@ -48108,7 +48111,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1740" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1740" t="s">
         <v>9</v>
@@ -48134,7 +48137,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1741" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1741" t="s">
         <v>9</v>
@@ -48160,7 +48163,7 @@
         <v>13.5</v>
       </c>
       <c r="G1742" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1742" t="s">
         <v>9</v>
@@ -48186,7 +48189,7 @@
         <v>13.5</v>
       </c>
       <c r="G1743" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1743" t="s">
         <v>9</v>
@@ -48212,7 +48215,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1744" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1744" t="s">
         <v>9</v>
@@ -48238,7 +48241,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1745" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1745" t="s">
         <v>9</v>
@@ -48264,7 +48267,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1746" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1746" t="s">
         <v>9</v>
@@ -48290,7 +48293,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1747" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1747" t="s">
         <v>9</v>
@@ -48316,7 +48319,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1748" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1748" t="s">
         <v>9</v>
@@ -48342,7 +48345,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1749" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1749" t="s">
         <v>9</v>
@@ -48368,7 +48371,7 @@
         <v>13.5</v>
       </c>
       <c r="G1750" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1750" t="s">
         <v>9</v>
@@ -48394,7 +48397,7 @@
         <v>13.539999961853</v>
       </c>
       <c r="G1751" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H1751" t="s">
         <v>9</v>
@@ -48420,7 +48423,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1752" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1752" t="s">
         <v>9</v>
@@ -48446,7 +48449,7 @@
         <v>13.3400001525879</v>
       </c>
       <c r="G1753" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H1753" t="s">
         <v>9</v>
@@ -48472,7 +48475,7 @@
         <v>13.4399995803833</v>
       </c>
       <c r="G1754" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H1754" t="s">
         <v>9</v>
@@ -48498,7 +48501,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1755" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1755" t="s">
         <v>9</v>
@@ -48524,7 +48527,7 @@
         <v>13.460000038147</v>
       </c>
       <c r="G1756" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="H1756" t="s">
         <v>9</v>
@@ -48550,7 +48553,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1757" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1757" t="s">
         <v>9</v>
@@ -48576,7 +48579,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1758" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1758" t="s">
         <v>9</v>
@@ -48602,7 +48605,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1759" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1759" t="s">
         <v>9</v>
@@ -48628,7 +48631,7 @@
         <v>13.5</v>
       </c>
       <c r="G1760" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1760" t="s">
         <v>9</v>
@@ -48654,7 +48657,7 @@
         <v>13.5200004577637</v>
       </c>
       <c r="G1761" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H1761" t="s">
         <v>9</v>
@@ -48680,7 +48683,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1762" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1762" t="s">
         <v>9</v>
@@ -48706,7 +48709,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1763" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1763" t="s">
         <v>9</v>
@@ -48732,7 +48735,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1764" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1764" t="s">
         <v>9</v>
@@ -48758,7 +48761,7 @@
         <v>13.4200000762939</v>
       </c>
       <c r="G1765" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H1765" t="s">
         <v>9</v>
@@ -48784,7 +48787,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1766" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1766" t="s">
         <v>9</v>
@@ -48810,7 +48813,7 @@
         <v>13.3599996566772</v>
       </c>
       <c r="G1767" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="H1767" t="s">
         <v>9</v>
@@ -48836,7 +48839,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1768" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1768" t="s">
         <v>9</v>
@@ -48862,7 +48865,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1769" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1769" t="s">
         <v>9</v>
@@ -48888,7 +48891,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1770" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1770" t="s">
         <v>9</v>
@@ -48914,7 +48917,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1771" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1771" t="s">
         <v>9</v>
@@ -48940,7 +48943,7 @@
         <v>13.2200002670288</v>
       </c>
       <c r="G1772" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H1772" t="s">
         <v>9</v>
@@ -48966,7 +48969,7 @@
         <v>13.6199998855591</v>
       </c>
       <c r="G1773" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="H1773" t="s">
         <v>9</v>
@@ -48992,7 +48995,7 @@
         <v>13.5</v>
       </c>
       <c r="G1774" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H1774" t="s">
         <v>9</v>
@@ -49018,7 +49021,7 @@
         <v>13.3800001144409</v>
       </c>
       <c r="G1775" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="H1775" t="s">
         <v>9</v>
@@ -49044,7 +49047,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1776" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1776" t="s">
         <v>9</v>
@@ -49070,7 +49073,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1777" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1777" t="s">
         <v>9</v>
@@ -49096,7 +49099,7 @@
         <v>13.6400003433228</v>
       </c>
       <c r="G1778" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H1778" t="s">
         <v>9</v>
@@ -49122,7 +49125,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1779" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1779" t="s">
         <v>9</v>
@@ -49148,7 +49151,7 @@
         <v>13.6999998092651</v>
       </c>
       <c r="G1780" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H1780" t="s">
         <v>9</v>
@@ -49174,7 +49177,7 @@
         <v>13.9799995422363</v>
       </c>
       <c r="G1781" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="H1781" t="s">
         <v>9</v>
@@ -49200,7 +49203,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1782" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1782" t="s">
         <v>9</v>
@@ -49226,7 +49229,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1783" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1783" t="s">
         <v>9</v>
@@ -49252,7 +49255,7 @@
         <v>14.0600004196167</v>
       </c>
       <c r="G1784" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H1784" t="s">
         <v>9</v>
@@ -49278,7 +49281,7 @@
         <v>14.0799999237061</v>
       </c>
       <c r="G1785" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="H1785" t="s">
         <v>9</v>
@@ -49304,7 +49307,7 @@
         <v>13.8999996185303</v>
       </c>
       <c r="G1786" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H1786" t="s">
         <v>9</v>
@@ -49330,7 +49333,7 @@
         <v>14</v>
       </c>
       <c r="G1787" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H1787" t="s">
         <v>9</v>
@@ -49356,7 +49359,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1788" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1788" t="s">
         <v>9</v>
@@ -49382,7 +49385,7 @@
         <v>14.2600002288818</v>
       </c>
       <c r="G1789" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1789" t="s">
         <v>9</v>
@@ -49408,7 +49411,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1790" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1790" t="s">
         <v>9</v>
@@ -49434,7 +49437,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1791" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1791" t="s">
         <v>9</v>
@@ -49460,7 +49463,7 @@
         <v>14.3400001525879</v>
       </c>
       <c r="G1792" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H1792" t="s">
         <v>9</v>
@@ -49486,7 +49489,7 @@
         <v>14.4399995803833</v>
       </c>
       <c r="G1793" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H1793" t="s">
         <v>9</v>
@@ -49512,7 +49515,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1794" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1794" t="s">
         <v>9</v>
@@ -49538,7 +49541,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1795" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1795" t="s">
         <v>9</v>
@@ -49564,7 +49567,7 @@
         <v>14.4799995422363</v>
       </c>
       <c r="G1796" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="H1796" t="s">
         <v>9</v>
@@ -49590,7 +49593,7 @@
         <v>14.5799999237061</v>
       </c>
       <c r="G1797" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H1797" t="s">
         <v>9</v>
@@ -49616,7 +49619,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1798" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1798" t="s">
         <v>9</v>
@@ -49642,7 +49645,7 @@
         <v>14.6599998474121</v>
       </c>
       <c r="G1799" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H1799" t="s">
         <v>9</v>
@@ -49668,7 +49671,7 @@
         <v>14.5200004577637</v>
       </c>
       <c r="G1800" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H1800" t="s">
         <v>9</v>
@@ -49694,7 +49697,7 @@
         <v>14.539999961853</v>
       </c>
       <c r="G1801" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H1801" t="s">
         <v>9</v>
@@ -49720,7 +49723,7 @@
         <v>14.5</v>
       </c>
       <c r="G1802" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H1802" t="s">
         <v>9</v>
@@ -49746,7 +49749,7 @@
         <v>14.1999998092651</v>
       </c>
       <c r="G1803" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H1803" t="s">
         <v>9</v>
@@ -49772,7 +49775,7 @@
         <v>14.2200002670288</v>
       </c>
       <c r="G1804" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H1804" t="s">
         <v>9</v>
@@ -49798,7 +49801,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1805" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1805" t="s">
         <v>9</v>
@@ -49824,7 +49827,7 @@
         <v>14.2399997711182</v>
       </c>
       <c r="G1806" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H1806" t="s">
         <v>9</v>
@@ -49850,7 +49853,7 @@
         <v>14.3800001144409</v>
       </c>
       <c r="G1807" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="H1807" t="s">
         <v>9</v>
@@ -49876,7 +49879,7 @@
         <v>14.4200000762939</v>
       </c>
       <c r="G1808" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="H1808" t="s">
         <v>9</v>
@@ -49902,7 +49905,7 @@
         <v>14.3999996185303</v>
       </c>
       <c r="G1809" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H1809" t="s">
         <v>9</v>
@@ -49928,7 +49931,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1810" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1810" t="s">
         <v>9</v>
@@ -49954,7 +49957,7 @@
         <v>14.460000038147</v>
       </c>
       <c r="G1811" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="H1811" t="s">
         <v>9</v>
@@ -49980,7 +49983,7 @@
         <v>14.3000001907349</v>
       </c>
       <c r="G1812" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H1812" t="s">
         <v>9</v>
@@ -50006,7 +50009,7 @@
         <v>14.2799997329712</v>
       </c>
       <c r="G1813" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="H1813" t="s">
         <v>9</v>
@@ -50032,7 +50035,7 @@
         <v>14.1000003814697</v>
       </c>
       <c r="G1814" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="H1814" t="s">
         <v>9</v>
@@ -50058,7 +50061,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1815" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1815" t="s">
         <v>9</v>
@@ -50084,7 +50087,7 @@
         <v>13.8000001907349</v>
       </c>
       <c r="G1816" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="H1816" t="s">
         <v>9</v>
@@ -50110,7 +50113,7 @@
         <v>13.7600002288818</v>
       </c>
       <c r="G1817" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H1817" t="s">
         <v>9</v>
@@ -50136,7 +50139,7 @@
         <v>13.6800003051758</v>
       </c>
       <c r="G1818" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H1818" t="s">
         <v>9</v>
@@ -50162,7 +50165,7 @@
         <v>13.6599998474121</v>
       </c>
       <c r="G1819" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H1819" t="s">
         <v>9</v>
@@ -50188,7 +50191,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1820" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1820" t="s">
         <v>9</v>
@@ -50214,7 +50217,7 @@
         <v>13.5799999237061</v>
       </c>
       <c r="G1821" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="H1821" t="s">
         <v>9</v>
@@ -50240,7 +50243,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1822" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1822" t="s">
         <v>9</v>
@@ -50266,7 +50269,7 @@
         <v>13.1800003051758</v>
       </c>
       <c r="G1823" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H1823" t="s">
         <v>9</v>
@@ -50292,7 +50295,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1824" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1824" t="s">
         <v>9</v>
@@ -50318,7 +50321,7 @@
         <v>13.2600002288818</v>
       </c>
       <c r="G1825" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H1825" t="s">
         <v>9</v>
@@ -50344,7 +50347,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G1826" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H1826" t="s">
         <v>9</v>
@@ -50370,7 +50373,7 @@
         <v>13.6000003814697</v>
       </c>
       <c r="G1827" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H1827" t="s">
         <v>9</v>
@@ -50396,7 +50399,7 @@
         <v>13.3999996185303</v>
       </c>
       <c r="G1828" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H1828" t="s">
         <v>9</v>
@@ -50422,7 +50425,7 @@
         <v>13.3199996948242</v>
       </c>
       <c r="G1829" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H1829" t="s">
         <v>9</v>
@@ -50448,7 +50451,7 @@
         <v>13.2799997329712</v>
       </c>
       <c r="G1830" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="H1830" t="s">
         <v>9</v>
@@ -50474,7 +50477,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G1831" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="H1831" t="s">
         <v>9</v>
@@ -50500,7 +50503,7 @@
         <v>13.1999998092651</v>
       </c>
       <c r="G1832" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H1832" t="s">
         <v>9</v>
@@ -50526,7 +50529,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1833" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1833" t="s">
         <v>9</v>
@@ -50552,7 +50555,7 @@
         <v>13.4799995422363</v>
       </c>
       <c r="G1834" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H1834" t="s">
         <v>9</v>
@@ -50578,7 +50581,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G1835" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="H1835" t="s">
         <v>9</v>
@@ -50604,7 +50607,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G1836" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1836" t="s">
         <v>9</v>
@@ -50630,7 +50633,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G1837" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H1837" t="s">
         <v>9</v>
@@ -50656,7 +50659,7 @@
         <v>13</v>
       </c>
       <c r="G1838" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H1838" t="s">
         <v>9</v>
@@ -50682,7 +50685,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1839" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1839" t="s">
         <v>9</v>
@@ -50708,7 +50711,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1840" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1840" t="s">
         <v>9</v>
@@ -50734,7 +50737,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G1841" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H1841" t="s">
         <v>9</v>
@@ -50760,7 +50763,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1842" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1842" t="s">
         <v>9</v>
@@ -50786,7 +50789,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1843" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1843" t="s">
         <v>9</v>
@@ -50812,7 +50815,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G1844" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="H1844" t="s">
         <v>9</v>
@@ -50838,7 +50841,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G1845" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H1845" t="s">
         <v>9</v>
@@ -50864,7 +50867,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G1846" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H1846" t="s">
         <v>9</v>
@@ -50890,7 +50893,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1847" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1847" t="s">
         <v>9</v>
@@ -50916,7 +50919,7 @@
         <v>12.6999998092651</v>
       </c>
       <c r="G1848" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="H1848" t="s">
         <v>9</v>
@@ -50942,7 +50945,7 @@
         <v>13.2399997711182</v>
       </c>
       <c r="G1849" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="H1849" t="s">
         <v>9</v>
@@ -50968,7 +50971,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G1850" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H1850" t="s">
         <v>9</v>
@@ -50994,7 +50997,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G1851" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1851" t="s">
         <v>9</v>
@@ -51020,7 +51023,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G1852" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H1852" t="s">
         <v>9</v>
@@ -51046,7 +51049,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1853" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1853" t="s">
         <v>9</v>
@@ -51072,7 +51075,7 @@
         <v>12.6800003051758</v>
       </c>
       <c r="G1854" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H1854" t="s">
         <v>9</v>
@@ -51098,7 +51101,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G1855" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="H1855" t="s">
         <v>9</v>
@@ -51124,7 +51127,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G1856" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="H1856" t="s">
         <v>9</v>
@@ -51150,7 +51153,7 @@
         <v>12.5</v>
       </c>
       <c r="G1857" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1857" t="s">
         <v>9</v>
@@ -51176,7 +51179,7 @@
         <v>12.4799995422363</v>
       </c>
       <c r="G1858" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H1858" t="s">
         <v>9</v>
@@ -51202,7 +51205,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1859" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1859" t="s">
         <v>9</v>
@@ -51228,7 +51231,7 @@
         <v>12.5</v>
       </c>
       <c r="G1860" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H1860" t="s">
         <v>9</v>
@@ -51254,7 +51257,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G1861" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H1861" t="s">
         <v>9</v>
@@ -51280,7 +51283,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G1862" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="H1862" t="s">
         <v>9</v>
@@ -51306,7 +51309,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G1863" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H1863" t="s">
         <v>9</v>
@@ -51332,7 +51335,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1864" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1864" t="s">
         <v>9</v>
@@ -51358,7 +51361,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1865" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1865" t="s">
         <v>9</v>
@@ -51384,7 +51387,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1866" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1866" t="s">
         <v>9</v>
@@ -51410,7 +51413,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G1867" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="H1867" t="s">
         <v>9</v>
@@ -51436,7 +51439,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1868" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1868" t="s">
         <v>9</v>
@@ -51462,7 +51465,7 @@
         <v>12</v>
       </c>
       <c r="G1869" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1869" t="s">
         <v>9</v>
@@ -51488,7 +51491,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G1870" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H1870" t="s">
         <v>9</v>
@@ -51514,7 +51517,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G1871" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="H1871" t="s">
         <v>9</v>
@@ -51540,7 +51543,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G1872" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H1872" t="s">
         <v>9</v>
@@ -51566,7 +51569,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="G1873" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H1873" t="s">
         <v>9</v>
@@ -51592,7 +51595,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G1874" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1874" t="s">
         <v>9</v>
@@ -51618,7 +51621,7 @@
         <v>11.4200000762939</v>
       </c>
       <c r="G1875" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="H1875" t="s">
         <v>9</v>
@@ -51644,7 +51647,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1876" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1876" t="s">
         <v>9</v>
@@ -51670,7 +51673,7 @@
         <v>11.539999961853</v>
       </c>
       <c r="G1877" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H1877" t="s">
         <v>9</v>
@@ -51696,7 +51699,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1878" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1878" t="s">
         <v>9</v>
@@ -51722,7 +51725,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G1879" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H1879" t="s">
         <v>9</v>
@@ -51748,7 +51751,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G1880" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H1880" t="s">
         <v>9</v>
@@ -51774,7 +51777,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1881" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1881" t="s">
         <v>9</v>
@@ -51800,7 +51803,7 @@
         <v>11.1599998474121</v>
       </c>
       <c r="G1882" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="H1882" t="s">
         <v>9</v>
@@ -51826,7 +51829,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1883" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1883" t="s">
         <v>9</v>
@@ -51852,7 +51855,7 @@
         <v>11.3000001907349</v>
       </c>
       <c r="G1884" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="H1884" t="s">
         <v>9</v>
@@ -51878,7 +51881,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1885" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1885" t="s">
         <v>9</v>
@@ -51904,7 +51907,7 @@
         <v>11.2399997711182</v>
       </c>
       <c r="G1886" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H1886" t="s">
         <v>9</v>
@@ -51930,7 +51933,7 @@
         <v>11.039999961853</v>
       </c>
       <c r="G1887" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H1887" t="s">
         <v>9</v>
@@ -51956,7 +51959,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G1888" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H1888" t="s">
         <v>9</v>
@@ -51982,7 +51985,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G1889" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H1889" t="s">
         <v>9</v>
@@ -52008,7 +52011,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1890" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1890" t="s">
         <v>9</v>
@@ -52034,7 +52037,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G1891" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H1891" t="s">
         <v>9</v>
@@ -52060,7 +52063,7 @@
         <v>11</v>
       </c>
       <c r="G1892" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1892" t="s">
         <v>9</v>
@@ -52086,7 +52089,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G1893" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H1893" t="s">
         <v>9</v>
@@ -52112,7 +52115,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1894" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1894" t="s">
         <v>9</v>
@@ -52138,7 +52141,7 @@
         <v>11</v>
       </c>
       <c r="G1895" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1895" t="s">
         <v>9</v>
@@ -52164,7 +52167,7 @@
         <v>11.1400003433228</v>
       </c>
       <c r="G1896" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="H1896" t="s">
         <v>9</v>
@@ -52190,7 +52193,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1897" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1897" t="s">
         <v>9</v>
@@ -52216,7 +52219,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G1898" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H1898" t="s">
         <v>9</v>
@@ -52242,7 +52245,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1899" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1899" t="s">
         <v>9</v>
@@ -52268,7 +52271,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G1900" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H1900" t="s">
         <v>9</v>
@@ -52294,7 +52297,7 @@
         <v>11</v>
       </c>
       <c r="G1901" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H1901" t="s">
         <v>9</v>
@@ -52320,7 +52323,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1902" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1902" t="s">
         <v>9</v>
@@ -52346,7 +52349,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1903" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1903" t="s">
         <v>9</v>
@@ -52372,7 +52375,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1904" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1904" t="s">
         <v>9</v>
@@ -52398,7 +52401,7 @@
         <v>11.5</v>
       </c>
       <c r="G1905" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1905" t="s">
         <v>9</v>
@@ -52424,7 +52427,7 @@
         <v>11.5</v>
       </c>
       <c r="G1906" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="H1906" t="s">
         <v>9</v>
@@ -52450,7 +52453,7 @@
         <v>11.5799999237061</v>
       </c>
       <c r="G1907" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H1907" t="s">
         <v>9</v>
@@ -52476,7 +52479,7 @@
         <v>11.6599998474121</v>
       </c>
       <c r="G1908" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H1908" t="s">
         <v>9</v>
@@ -52502,7 +52505,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1909" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1909" t="s">
         <v>9</v>
@@ -52528,7 +52531,7 @@
         <v>11.6999998092651</v>
       </c>
       <c r="G1910" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H1910" t="s">
         <v>9</v>
@@ -52554,7 +52557,7 @@
         <v>11.5600004196167</v>
       </c>
       <c r="G1911" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="H1911" t="s">
         <v>9</v>
@@ -52580,7 +52583,7 @@
         <v>11.460000038147</v>
       </c>
       <c r="G1912" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H1912" t="s">
         <v>9</v>
@@ -52606,7 +52609,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="G1913" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H1913" t="s">
         <v>9</v>
@@ -52632,7 +52635,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1914" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1914" t="s">
         <v>9</v>
@@ -52658,7 +52661,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1915" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1915" t="s">
         <v>9</v>
@@ -52684,7 +52687,7 @@
         <v>11.5200004577637</v>
       </c>
       <c r="G1916" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="H1916" t="s">
         <v>9</v>
@@ -52710,7 +52713,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G1917" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H1917" t="s">
         <v>9</v>
@@ -52736,7 +52739,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G1918" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H1918" t="s">
         <v>9</v>
@@ -52762,7 +52765,7 @@
         <v>11.1199998855591</v>
       </c>
       <c r="G1919" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="H1919" t="s">
         <v>9</v>
@@ -52788,7 +52791,7 @@
         <v>10.9799995422363</v>
       </c>
       <c r="G1920" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H1920" t="s">
         <v>9</v>
@@ -52814,7 +52817,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1921" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1921" t="s">
         <v>9</v>
@@ -52840,7 +52843,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1922" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1922" t="s">
         <v>9</v>
@@ -52866,7 +52869,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G1923" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H1923" t="s">
         <v>9</v>
@@ -52892,7 +52895,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1924" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1924" t="s">
         <v>9</v>
@@ -52918,7 +52921,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G1925" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H1925" t="s">
         <v>9</v>
@@ -52944,7 +52947,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G1926" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H1926" t="s">
         <v>9</v>
@@ -52970,7 +52973,7 @@
         <v>10.8800001144409</v>
       </c>
       <c r="G1927" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H1927" t="s">
         <v>9</v>
@@ -52996,7 +52999,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1928" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1928" t="s">
         <v>9</v>
@@ -53022,7 +53025,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1929" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1929" t="s">
         <v>9</v>
@@ -53048,7 +53051,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="G1930" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H1930" t="s">
         <v>9</v>
@@ -53074,7 +53077,7 @@
         <v>10.8999996185303</v>
       </c>
       <c r="G1931" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H1931" t="s">
         <v>9</v>
@@ -53100,7 +53103,7 @@
         <v>10.7200002670288</v>
       </c>
       <c r="G1932" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="H1932" t="s">
         <v>9</v>
@@ -53126,7 +53129,7 @@
         <v>10.460000038147</v>
       </c>
       <c r="G1933" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H1933" t="s">
         <v>9</v>
@@ -53152,7 +53155,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1934" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1934" t="s">
         <v>9</v>
@@ -53178,7 +53181,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1935" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1935" t="s">
         <v>9</v>
@@ -53204,7 +53207,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1936" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1936" t="s">
         <v>9</v>
@@ -53230,7 +53233,7 @@
         <v>10.3199996948242</v>
       </c>
       <c r="G1937" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H1937" t="s">
         <v>9</v>
@@ -53256,7 +53259,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1938" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1938" t="s">
         <v>9</v>
@@ -53282,7 +53285,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1939" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1939" t="s">
         <v>9</v>
@@ -53308,7 +53311,7 @@
         <v>10.4200000762939</v>
       </c>
       <c r="G1940" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1940" t="s">
         <v>9</v>
@@ -53334,7 +53337,7 @@
         <v>10.6000003814697</v>
       </c>
       <c r="G1941" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H1941" t="s">
         <v>9</v>
@@ -53360,7 +53363,7 @@
         <v>10.539999961853</v>
       </c>
       <c r="G1942" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H1942" t="s">
         <v>9</v>
@@ -53386,7 +53389,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G1943" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H1943" t="s">
         <v>9</v>
@@ -53412,7 +53415,7 @@
         <v>10.3999996185303</v>
       </c>
       <c r="G1944" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H1944" t="s">
         <v>9</v>
@@ -53438,7 +53441,7 @@
         <v>10.3599996566772</v>
       </c>
       <c r="G1945" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H1945" t="s">
         <v>9</v>
@@ -53464,7 +53467,7 @@
         <v>10.2799997329712</v>
       </c>
       <c r="G1946" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H1946" t="s">
         <v>9</v>
@@ -53490,7 +53493,7 @@
         <v>10.0200004577637</v>
       </c>
       <c r="G1947" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H1947" t="s">
         <v>9</v>
@@ -53516,7 +53519,7 @@
         <v>10.1999998092651</v>
       </c>
       <c r="G1948" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H1948" t="s">
         <v>9</v>
@@ -53542,7 +53545,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G1949" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H1949" t="s">
         <v>9</v>
@@ -53568,7 +53571,7 @@
         <v>10.0600004196167</v>
       </c>
       <c r="G1950" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H1950" t="s">
         <v>9</v>
@@ -53594,7 +53597,7 @@
         <v>10</v>
       </c>
       <c r="G1951" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H1951" t="s">
         <v>9</v>
@@ -53620,7 +53623,7 @@
         <v>9.85999965667725</v>
       </c>
       <c r="G1952" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="H1952" t="s">
         <v>9</v>
@@ -53646,7 +53649,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1953" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1953" t="s">
         <v>9</v>
@@ -53672,7 +53675,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G1954" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H1954" t="s">
         <v>9</v>
@@ -53698,7 +53701,7 @@
         <v>9.84000015258789</v>
       </c>
       <c r="G1955" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H1955" t="s">
         <v>9</v>
@@ -53724,7 +53727,7 @@
         <v>9.77000045776367</v>
       </c>
       <c r="G1956" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1956" t="s">
         <v>9</v>
@@ -53750,7 +53753,7 @@
         <v>9.40999984741211</v>
       </c>
       <c r="G1957" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H1957" t="s">
         <v>9</v>
@@ -53776,7 +53779,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G1958" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H1958" t="s">
         <v>9</v>
@@ -53802,7 +53805,7 @@
         <v>9.57999992370605</v>
       </c>
       <c r="G1959" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H1959" t="s">
         <v>9</v>
@@ -53828,7 +53831,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1960" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1960" t="s">
         <v>9</v>
@@ -53854,7 +53857,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1961" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1961" t="s">
         <v>9</v>
@@ -53880,7 +53883,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G1962" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H1962" t="s">
         <v>9</v>
@@ -53906,7 +53909,7 @@
         <v>9.59000015258789</v>
       </c>
       <c r="G1963" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1963" t="s">
         <v>9</v>
@@ -53932,7 +53935,7 @@
         <v>9.69999980926514</v>
       </c>
       <c r="G1964" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="H1964" t="s">
         <v>9</v>
@@ -53958,7 +53961,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1965" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1965" t="s">
         <v>9</v>
@@ -53984,7 +53987,7 @@
         <v>9.5600004196167</v>
       </c>
       <c r="G1966" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="H1966" t="s">
         <v>9</v>
@@ -54010,7 +54013,7 @@
         <v>9.34000015258789</v>
       </c>
       <c r="G1967" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H1967" t="s">
         <v>9</v>
@@ -54036,7 +54039,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G1968" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H1968" t="s">
         <v>9</v>
@@ -54062,7 +54065,7 @@
         <v>9.11999988555908</v>
       </c>
       <c r="G1969" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H1969" t="s">
         <v>9</v>
@@ -54088,7 +54091,7 @@
         <v>8.77999973297119</v>
       </c>
       <c r="G1970" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="H1970" t="s">
         <v>9</v>
@@ -54114,7 +54117,7 @@
         <v>9</v>
       </c>
       <c r="G1971" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H1971" t="s">
         <v>9</v>
@@ -54140,7 +54143,7 @@
         <v>8.9399995803833</v>
       </c>
       <c r="G1972" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H1972" t="s">
         <v>9</v>
@@ -54166,7 +54169,7 @@
         <v>8.94999980926514</v>
       </c>
       <c r="G1973" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H1973" t="s">
         <v>9</v>
@@ -54192,7 +54195,7 @@
         <v>8.89999961853027</v>
       </c>
       <c r="G1974" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="H1974" t="s">
         <v>9</v>
@@ -54218,7 +54221,7 @@
         <v>8.85000038146973</v>
       </c>
       <c r="G1975" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H1975" t="s">
         <v>9</v>
@@ -54244,7 +54247,7 @@
         <v>8.78999996185303</v>
       </c>
       <c r="G1976" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H1976" t="s">
         <v>9</v>
@@ -54270,7 +54273,7 @@
         <v>8.68000030517578</v>
       </c>
       <c r="G1977" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H1977" t="s">
         <v>9</v>
@@ -54296,7 +54299,7 @@
         <v>8.77000045776367</v>
       </c>
       <c r="G1978" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="H1978" t="s">
         <v>9</v>
@@ -54322,7 +54325,7 @@
         <v>8.85999965667725</v>
       </c>
       <c r="G1979" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="H1979" t="s">
         <v>9</v>
@@ -54348,7 +54351,7 @@
         <v>8.71000003814697</v>
       </c>
       <c r="G1980" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="H1980" t="s">
         <v>9</v>
@@ -54374,7 +54377,7 @@
         <v>8.80000019073486</v>
       </c>
       <c r="G1981" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H1981" t="s">
         <v>9</v>
@@ -54400,7 +54403,7 @@
         <v>8.64999961853027</v>
       </c>
       <c r="G1982" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="H1982" t="s">
         <v>9</v>
@@ -54426,7 +54429,7 @@
         <v>8.65999984741211</v>
       </c>
       <c r="G1983" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="H1983" t="s">
         <v>9</v>
@@ -54452,7 +54455,7 @@
         <v>8.5</v>
       </c>
       <c r="G1984" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1984" t="s">
         <v>9</v>
@@ -54478,7 +54481,7 @@
         <v>8.5</v>
       </c>
       <c r="G1985" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H1985" t="s">
         <v>9</v>
@@ -54504,7 +54507,7 @@
         <v>8.57999992370605</v>
       </c>
       <c r="G1986" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H1986" t="s">
         <v>9</v>
@@ -54530,7 +54533,7 @@
         <v>8.47999954223633</v>
       </c>
       <c r="G1987" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H1987" t="s">
         <v>9</v>
@@ -54556,7 +54559,7 @@
         <v>8.14000034332275</v>
       </c>
       <c r="G1988" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H1988" t="s">
         <v>9</v>
@@ -54582,7 +54585,7 @@
         <v>8</v>
       </c>
       <c r="G1989" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H1989" t="s">
         <v>9</v>
@@ -54608,7 +54611,7 @@
         <v>7.98000001907349</v>
       </c>
       <c r="G1990" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H1990" t="s">
         <v>9</v>
@@ -54634,7 +54637,7 @@
         <v>7.78999996185303</v>
       </c>
       <c r="G1991" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1991" t="s">
         <v>9</v>
@@ -54660,7 +54663,7 @@
         <v>7.51999998092651</v>
       </c>
       <c r="G1992" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1992" t="s">
         <v>9</v>
@@ -54686,7 +54689,7 @@
         <v>7.3899998664856</v>
       </c>
       <c r="G1993" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H1993" t="s">
         <v>9</v>
@@ -54712,7 +54715,7 @@
         <v>7.44000005722046</v>
       </c>
       <c r="G1994" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="H1994" t="s">
         <v>9</v>
@@ -54738,7 +54741,7 @@
         <v>7.48999977111816</v>
       </c>
       <c r="G1995" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="H1995" t="s">
         <v>9</v>
@@ -54764,7 +54767,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="G1996" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="H1996" t="s">
         <v>9</v>
@@ -54790,7 +54793,7 @@
         <v>7.51000022888184</v>
       </c>
       <c r="G1997" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H1997" t="s">
         <v>9</v>
@@ -54816,7 +54819,7 @@
         <v>7.73000001907349</v>
       </c>
       <c r="G1998" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H1998" t="s">
         <v>9</v>
@@ -54842,7 +54845,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G1999" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H1999" t="s">
         <v>9</v>
@@ -54868,7 +54871,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2000" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2000" t="s">
         <v>9</v>
@@ -54894,7 +54897,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2001" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2001" t="s">
         <v>9</v>
@@ -54920,7 +54923,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2002" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2002" t="s">
         <v>9</v>
@@ -54946,7 +54949,7 @@
         <v>8.05000019073486</v>
       </c>
       <c r="G2003" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="H2003" t="s">
         <v>9</v>
@@ -54972,7 +54975,7 @@
         <v>8.25</v>
       </c>
       <c r="G2004" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H2004" t="s">
         <v>9</v>
@@ -54998,7 +55001,7 @@
         <v>8.5</v>
       </c>
       <c r="G2005" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H2005" t="s">
         <v>9</v>
@@ -55024,7 +55027,7 @@
         <v>8.35000038146973</v>
       </c>
       <c r="G2006" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="H2006" t="s">
         <v>9</v>
@@ -55050,7 +55053,7 @@
         <v>8.32999992370605</v>
       </c>
       <c r="G2007" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H2007" t="s">
         <v>9</v>
@@ -55076,7 +55079,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2008" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2008" t="s">
         <v>9</v>
@@ -55102,7 +55105,7 @@
         <v>8.11999988555908</v>
       </c>
       <c r="G2009" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="H2009" t="s">
         <v>9</v>
@@ -55128,7 +55131,7 @@
         <v>8.30000019073486</v>
       </c>
       <c r="G2010" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H2010" t="s">
         <v>9</v>
@@ -55154,7 +55157,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2011" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2011" t="s">
         <v>9</v>
@@ -55180,7 +55183,7 @@
         <v>8.09000015258789</v>
       </c>
       <c r="G2012" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="H2012" t="s">
         <v>9</v>
@@ -55206,7 +55209,7 @@
         <v>8.0600004196167</v>
       </c>
       <c r="G2013" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="H2013" t="s">
         <v>9</v>
@@ -55232,7 +55235,7 @@
         <v>7.98999977111816</v>
       </c>
       <c r="G2014" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="H2014" t="s">
         <v>9</v>
@@ -55258,7 +55261,7 @@
         <v>7.80999994277954</v>
       </c>
       <c r="G2015" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H2015" t="s">
         <v>9</v>
@@ -55284,7 +55287,7 @@
         <v>7.96000003814697</v>
       </c>
       <c r="G2016" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H2016" t="s">
         <v>9</v>
@@ -55310,7 +55313,7 @@
         <v>7.94999980926514</v>
       </c>
       <c r="G2017" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="H2017" t="s">
         <v>9</v>
@@ -55336,7 +55339,7 @@
         <v>8</v>
       </c>
       <c r="G2018" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H2018" t="s">
         <v>9</v>
@@ -55362,7 +55365,7 @@
         <v>7.8600001335144</v>
       </c>
       <c r="G2019" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2019" t="s">
         <v>9</v>
@@ -55388,7 +55391,7 @@
         <v>7.78000020980835</v>
       </c>
       <c r="G2020" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="H2020" t="s">
         <v>9</v>
@@ -55414,7 +55417,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2021" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2021" t="s">
         <v>9</v>
@@ -55440,7 +55443,7 @@
         <v>7.84000015258789</v>
       </c>
       <c r="G2022" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="H2022" t="s">
         <v>9</v>
@@ -55466,7 +55469,7 @@
         <v>7.90000009536743</v>
       </c>
       <c r="G2023" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H2023" t="s">
         <v>9</v>
@@ -55492,7 +55495,7 @@
         <v>7.84999990463257</v>
       </c>
       <c r="G2024" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H2024" t="s">
         <v>9</v>
@@ -55518,7 +55521,7 @@
         <v>8.10000038146973</v>
       </c>
       <c r="G2025" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="H2025" t="s">
         <v>9</v>
@@ -55544,7 +55547,7 @@
         <v>8.53999996185303</v>
       </c>
       <c r="G2026" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="H2026" t="s">
         <v>9</v>
@@ -55570,7 +55573,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2027" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2027" t="s">
         <v>9</v>
@@ -55596,7 +55599,7 @@
         <v>8.88000011444092</v>
       </c>
       <c r="G2028" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="H2028" t="s">
         <v>9</v>
@@ -55622,7 +55625,7 @@
         <v>8.8100004196167</v>
       </c>
       <c r="G2029" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="H2029" t="s">
         <v>9</v>
@@ -55648,7 +55651,7 @@
         <v>8.82999992370605</v>
       </c>
       <c r="G2030" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="H2030" t="s">
         <v>9</v>
@@ -55674,7 +55677,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2031" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2031" t="s">
         <v>9</v>
@@ -55700,7 +55703,7 @@
         <v>9.1899995803833</v>
       </c>
       <c r="G2032" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="H2032" t="s">
         <v>9</v>
@@ -55726,7 +55729,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2033" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2033" t="s">
         <v>9</v>
@@ -55752,7 +55755,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2034" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2034" t="s">
         <v>9</v>
@@ -55778,7 +55781,7 @@
         <v>9.72999954223633</v>
       </c>
       <c r="G2035" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="H2035" t="s">
         <v>9</v>
@@ -55804,7 +55807,7 @@
         <v>9.97000026702881</v>
       </c>
       <c r="G2036" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H2036" t="s">
         <v>9</v>
@@ -55830,7 +55833,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2037" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2037" t="s">
         <v>9</v>
@@ -55856,7 +55859,7 @@
         <v>9.63000011444092</v>
       </c>
       <c r="G2038" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2038" t="s">
         <v>9</v>
@@ -55882,7 +55885,7 @@
         <v>9.72000026702881</v>
       </c>
       <c r="G2039" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H2039" t="s">
         <v>9</v>
@@ -55908,7 +55911,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2040" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2040" t="s">
         <v>9</v>
@@ -55934,7 +55937,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2041" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2041" t="s">
         <v>9</v>
@@ -55960,7 +55963,7 @@
         <v>9.51000022888184</v>
       </c>
       <c r="G2042" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H2042" t="s">
         <v>9</v>
@@ -55986,7 +55989,7 @@
         <v>9.52000045776367</v>
       </c>
       <c r="G2043" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="H2043" t="s">
         <v>9</v>
@@ -56012,7 +56015,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2044" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2044" t="s">
         <v>9</v>
@@ -56038,7 +56041,7 @@
         <v>9.56999969482422</v>
       </c>
       <c r="G2045" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H2045" t="s">
         <v>9</v>
@@ -56064,7 +56067,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2046" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2046" t="s">
         <v>9</v>
@@ -56090,7 +56093,7 @@
         <v>9.30000019073486</v>
       </c>
       <c r="G2047" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H2047" t="s">
         <v>9</v>
@@ -56116,7 +56119,7 @@
         <v>9.22999954223633</v>
       </c>
       <c r="G2048" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="H2048" t="s">
         <v>9</v>
@@ -56142,7 +56145,7 @@
         <v>9.35999965667725</v>
       </c>
       <c r="G2049" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H2049" t="s">
         <v>9</v>
@@ -56168,7 +56171,7 @@
         <v>9.10999965667725</v>
       </c>
       <c r="G2050" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="H2050" t="s">
         <v>9</v>
@@ -56194,7 +56197,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2051" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2051" t="s">
         <v>9</v>
@@ -56220,7 +56223,7 @@
         <v>8.96000003814697</v>
       </c>
       <c r="G2052" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="H2052" t="s">
         <v>9</v>
@@ -56246,7 +56249,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2053" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2053" t="s">
         <v>9</v>
@@ -56272,7 +56275,7 @@
         <v>9.06999969482422</v>
       </c>
       <c r="G2054" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H2054" t="s">
         <v>9</v>
@@ -56298,7 +56301,7 @@
         <v>9.02000045776367</v>
       </c>
       <c r="G2055" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H2055" t="s">
         <v>9</v>
@@ -56324,7 +56327,7 @@
         <v>9</v>
       </c>
       <c r="G2056" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H2056" t="s">
         <v>9</v>
@@ -56350,7 +56353,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2057" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2057" t="s">
         <v>9</v>
@@ -56376,7 +56379,7 @@
         <v>9.35000038146973</v>
       </c>
       <c r="G2058" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="H2058" t="s">
         <v>9</v>
@@ -56402,7 +56405,7 @@
         <v>9.3100004196167</v>
       </c>
       <c r="G2059" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="H2059" t="s">
         <v>9</v>
@@ -56428,7 +56431,7 @@
         <v>9.27999973297119</v>
       </c>
       <c r="G2060" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="H2060" t="s">
         <v>9</v>
@@ -56454,7 +56457,7 @@
         <v>9.60000038146973</v>
       </c>
       <c r="G2061" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H2061" t="s">
         <v>9</v>
@@ -56480,7 +56483,7 @@
         <v>9.42000007629395</v>
       </c>
       <c r="G2062" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H2062" t="s">
         <v>9</v>
@@ -56506,7 +56509,7 @@
         <v>9.5</v>
       </c>
       <c r="G2063" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2063" t="s">
         <v>9</v>
@@ -56532,7 +56535,7 @@
         <v>9.5</v>
       </c>
       <c r="G2064" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H2064" t="s">
         <v>9</v>
@@ -56558,7 +56561,7 @@
         <v>9.39999961853027</v>
       </c>
       <c r="G2065" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H2065" t="s">
         <v>9</v>
@@ -56584,7 +56587,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2066" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2066" t="s">
         <v>9</v>
@@ -56610,7 +56613,7 @@
         <v>9.64000034332275</v>
       </c>
       <c r="G2067" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H2067" t="s">
         <v>9</v>
@@ -56636,7 +56639,7 @@
         <v>10.1000003814697</v>
       </c>
       <c r="G2068" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H2068" t="s">
         <v>9</v>
@@ -56662,7 +56665,7 @@
         <v>10.2200002670288</v>
       </c>
       <c r="G2069" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H2069" t="s">
         <v>9</v>
@@ -56688,7 +56691,7 @@
         <v>10.8599996566772</v>
       </c>
       <c r="G2070" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="H2070" t="s">
         <v>9</v>
@@ -56714,7 +56717,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2071" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2071" t="s">
         <v>9</v>
@@ -56740,7 +56743,7 @@
         <v>11.0600004196167</v>
       </c>
       <c r="G2072" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H2072" t="s">
         <v>9</v>
@@ -56766,7 +56769,7 @@
         <v>11</v>
       </c>
       <c r="G2073" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H2073" t="s">
         <v>9</v>
@@ -56792,7 +56795,7 @@
         <v>10.7799997329712</v>
       </c>
       <c r="G2074" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="H2074" t="s">
         <v>9</v>
@@ -56818,7 +56821,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2075" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2075" t="s">
         <v>9</v>
@@ -56844,7 +56847,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2076" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2076" t="s">
         <v>9</v>
@@ -56870,7 +56873,7 @@
         <v>11.2600002288818</v>
       </c>
       <c r="G2077" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="H2077" t="s">
         <v>9</v>
@@ -56896,7 +56899,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2078" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2078" t="s">
         <v>9</v>
@@ -56922,7 +56925,7 @@
         <v>11.4799995422363</v>
       </c>
       <c r="G2079" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="H2079" t="s">
         <v>9</v>
@@ -56948,7 +56951,7 @@
         <v>11.3599996566772</v>
       </c>
       <c r="G2080" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H2080" t="s">
         <v>9</v>
@@ -56974,7 +56977,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2081" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2081" t="s">
         <v>9</v>
@@ -57000,7 +57003,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2082" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2082" t="s">
         <v>9</v>
@@ -57026,7 +57029,7 @@
         <v>11.0799999237061</v>
       </c>
       <c r="G2083" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="H2083" t="s">
         <v>9</v>
@@ -57052,7 +57055,7 @@
         <v>11.6000003814697</v>
       </c>
       <c r="G2084" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H2084" t="s">
         <v>9</v>
@@ -57078,7 +57081,7 @@
         <v>11.2799997329712</v>
       </c>
       <c r="G2085" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="H2085" t="s">
         <v>9</v>
@@ -57104,7 +57107,7 @@
         <v>11.1000003814697</v>
       </c>
       <c r="G2086" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H2086" t="s">
         <v>9</v>
@@ -57130,7 +57133,7 @@
         <v>10.8199996948242</v>
       </c>
       <c r="G2087" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="H2087" t="s">
         <v>9</v>
@@ -57156,7 +57159,7 @@
         <v>11.3999996185303</v>
       </c>
       <c r="G2088" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H2088" t="s">
         <v>9</v>
@@ -57182,7 +57185,7 @@
         <v>11.3199996948242</v>
       </c>
       <c r="G2089" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H2089" t="s">
         <v>9</v>
@@ -57208,7 +57211,7 @@
         <v>11.1999998092651</v>
       </c>
       <c r="G2090" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H2090" t="s">
         <v>9</v>
@@ -57234,7 +57237,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2091" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2091" t="s">
         <v>9</v>
@@ -57260,7 +57263,7 @@
         <v>11.8000001907349</v>
       </c>
       <c r="G2092" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H2092" t="s">
         <v>9</v>
@@ -57286,7 +57289,7 @@
         <v>12.0200004577637</v>
       </c>
       <c r="G2093" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="H2093" t="s">
         <v>9</v>
@@ -57312,7 +57315,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2094" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="H2094" t="s">
         <v>9</v>
@@ -57338,7 +57341,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2095" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2095" t="s">
         <v>9</v>
@@ -57364,7 +57367,7 @@
         <v>11.7600002288818</v>
       </c>
       <c r="G2096" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H2096" t="s">
         <v>9</v>
@@ -57390,7 +57393,7 @@
         <v>11.8199996948242</v>
       </c>
       <c r="G2097" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H2097" t="s">
         <v>9</v>
@@ -57416,7 +57419,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2098" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2098" t="s">
         <v>9</v>
@@ -57442,7 +57445,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2099" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H2099" t="s">
         <v>9</v>
@@ -57468,7 +57471,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2100" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2100" t="s">
         <v>9</v>
@@ -57494,7 +57497,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2101" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2101" t="s">
         <v>9</v>
@@ -57520,7 +57523,7 @@
         <v>11.8400001525879</v>
       </c>
       <c r="G2102" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="H2102" t="s">
         <v>9</v>
@@ -57546,7 +57549,7 @@
         <v>12</v>
       </c>
       <c r="G2103" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2103" t="s">
         <v>9</v>
@@ -57572,7 +57575,7 @@
         <v>12</v>
       </c>
       <c r="G2104" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="H2104" t="s">
         <v>9</v>
@@ -57598,7 +57601,7 @@
         <v>11.9200000762939</v>
       </c>
       <c r="G2105" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H2105" t="s">
         <v>9</v>
@@ -57624,7 +57627,7 @@
         <v>12.039999961853</v>
       </c>
       <c r="G2106" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H2106" t="s">
         <v>9</v>
@@ -57650,7 +57653,7 @@
         <v>11.7799997329712</v>
       </c>
       <c r="G2107" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="H2107" t="s">
         <v>9</v>
@@ -57676,7 +57679,7 @@
         <v>11.8599996566772</v>
       </c>
       <c r="G2108" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="H2108" t="s">
         <v>9</v>
@@ -57702,7 +57705,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2109" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2109" t="s">
         <v>9</v>
@@ -57728,7 +57731,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2110" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2110" t="s">
         <v>9</v>
@@ -57754,7 +57757,7 @@
         <v>12.5</v>
       </c>
       <c r="G2111" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2111" t="s">
         <v>9</v>
@@ -57780,7 +57783,7 @@
         <v>12.3599996566772</v>
       </c>
       <c r="G2112" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="H2112" t="s">
         <v>9</v>
@@ -57806,7 +57809,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2113" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="H2113" t="s">
         <v>9</v>
@@ -57832,7 +57835,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2114" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2114" t="s">
         <v>9</v>
@@ -57858,7 +57861,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2115" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H2115" t="s">
         <v>9</v>
@@ -57884,7 +57887,7 @@
         <v>12.5</v>
       </c>
       <c r="G2116" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2116" t="s">
         <v>9</v>
@@ -57910,7 +57913,7 @@
         <v>12.5</v>
       </c>
       <c r="G2117" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H2117" t="s">
         <v>9</v>
@@ -57936,7 +57939,7 @@
         <v>12.7600002288818</v>
       </c>
       <c r="G2118" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="H2118" t="s">
         <v>9</v>
@@ -57962,7 +57965,7 @@
         <v>12.7399997711182</v>
       </c>
       <c r="G2119" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="H2119" t="s">
         <v>9</v>
@@ -57988,7 +57991,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2120" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H2120" t="s">
         <v>9</v>
@@ -58014,7 +58017,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2121" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="H2121" t="s">
         <v>9</v>
@@ -58040,7 +58043,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2122" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2122" t="s">
         <v>9</v>
@@ -58066,7 +58069,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2123" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="H2123" t="s">
         <v>9</v>
@@ -58092,7 +58095,7 @@
         <v>12.6000003814697</v>
       </c>
       <c r="G2124" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="H2124" t="s">
         <v>9</v>
@@ -58118,7 +58121,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2125" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H2125" t="s">
         <v>9</v>
@@ -58144,7 +58147,7 @@
         <v>12.7200002670288</v>
       </c>
       <c r="G2126" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="H2126" t="s">
         <v>9</v>
@@ -58170,7 +58173,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2127" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="H2127" t="s">
         <v>9</v>
@@ -58196,7 +58199,7 @@
         <v>12.7799997329712</v>
       </c>
       <c r="G2128" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H2128" t="s">
         <v>9</v>
@@ -58222,7 +58225,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2129" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H2129" t="s">
         <v>9</v>
@@ -58248,7 +58251,7 @@
         <v>13.3000001907349</v>
       </c>
       <c r="G2130" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="H2130" t="s">
         <v>9</v>
@@ -58274,7 +58277,7 @@
         <v>13.0799999237061</v>
       </c>
       <c r="G2131" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="H2131" t="s">
         <v>9</v>
@@ -58300,7 +58303,7 @@
         <v>13.1400003433228</v>
       </c>
       <c r="G2132" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="H2132" t="s">
         <v>9</v>
@@ -58326,7 +58329,7 @@
         <v>13.039999961853</v>
       </c>
       <c r="G2133" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H2133" t="s">
         <v>9</v>
@@ -58352,7 +58355,7 @@
         <v>13.1000003814697</v>
       </c>
       <c r="G2134" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H2134" t="s">
         <v>9</v>
@@ -58378,7 +58381,7 @@
         <v>13.0600004196167</v>
       </c>
       <c r="G2135" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H2135" t="s">
         <v>9</v>
@@ -58404,7 +58407,7 @@
         <v>13.1599998474121</v>
       </c>
       <c r="G2136" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="H2136" t="s">
         <v>9</v>
@@ -58430,7 +58433,7 @@
         <v>13.1199998855591</v>
       </c>
       <c r="G2137" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2137" t="s">
         <v>9</v>
@@ -58456,7 +58459,7 @@
         <v>12.4200000762939</v>
       </c>
       <c r="G2138" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H2138" t="s">
         <v>9</v>
@@ -58482,7 +58485,7 @@
         <v>12.3199996948242</v>
       </c>
       <c r="G2139" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="H2139" t="s">
         <v>9</v>
@@ -58508,7 +58511,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2140" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2140" t="s">
         <v>9</v>
@@ -58534,7 +58537,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2141" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2141" t="s">
         <v>9</v>
@@ -58560,7 +58563,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2142" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2142" t="s">
         <v>9</v>
@@ -58586,7 +58589,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2143" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2143" t="s">
         <v>9</v>
@@ -58612,7 +58615,7 @@
         <v>12.1199998855591</v>
       </c>
       <c r="G2144" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H2144" t="s">
         <v>9</v>
@@ -58638,7 +58641,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2145" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2145" t="s">
         <v>9</v>
@@ -58664,7 +58667,7 @@
         <v>12.2200002670288</v>
       </c>
       <c r="G2146" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H2146" t="s">
         <v>9</v>
@@ -58690,7 +58693,7 @@
         <v>12.2399997711182</v>
       </c>
       <c r="G2147" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="H2147" t="s">
         <v>9</v>
@@ -58716,7 +58719,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2148" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2148" t="s">
         <v>9</v>
@@ -58742,7 +58745,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2149" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2149" t="s">
         <v>9</v>
@@ -58768,7 +58771,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2150" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2150" t="s">
         <v>9</v>
@@ -58794,7 +58797,7 @@
         <v>12.1000003814697</v>
       </c>
       <c r="G2151" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="H2151" t="s">
         <v>9</v>
@@ -58820,7 +58823,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2152" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2152" t="s">
         <v>9</v>
@@ -58846,7 +58849,7 @@
         <v>11.9799995422363</v>
       </c>
       <c r="G2153" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="H2153" t="s">
         <v>9</v>
@@ -58872,7 +58875,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2154" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2154" t="s">
         <v>9</v>
@@ -58898,7 +58901,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2155" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2155" t="s">
         <v>9</v>
@@ -58924,7 +58927,7 @@
         <v>12.6400003433228</v>
       </c>
       <c r="G2156" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="H2156" t="s">
         <v>9</v>
@@ -58950,7 +58953,7 @@
         <v>12.6599998474121</v>
       </c>
       <c r="G2157" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H2157" t="s">
         <v>9</v>
@@ -58976,7 +58979,7 @@
         <v>12.8999996185303</v>
       </c>
       <c r="G2158" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H2158" t="s">
         <v>9</v>
@@ -59002,7 +59005,7 @@
         <v>12.8599996566772</v>
       </c>
       <c r="G2159" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="H2159" t="s">
         <v>9</v>
@@ -59028,7 +59031,7 @@
         <v>12.8000001907349</v>
       </c>
       <c r="G2160" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="H2160" t="s">
         <v>9</v>
@@ -59054,7 +59057,7 @@
         <v>12.8199996948242</v>
       </c>
       <c r="G2161" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H2161" t="s">
         <v>9</v>
@@ -59080,7 +59083,7 @@
         <v>12.8800001144409</v>
       </c>
       <c r="G2162" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="H2162" t="s">
         <v>9</v>
@@ -59106,7 +59109,7 @@
         <v>12.3999996185303</v>
       </c>
       <c r="G2163" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H2163" t="s">
         <v>9</v>
@@ -59132,7 +59135,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2164" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2164" t="s">
         <v>9</v>
@@ -59158,7 +59161,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="G2165" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H2165" t="s">
         <v>9</v>
@@ -59184,7 +59187,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2166" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2166" t="s">
         <v>9</v>
@@ -59210,7 +59213,7 @@
         <v>12.5200004577637</v>
       </c>
       <c r="G2167" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H2167" t="s">
         <v>9</v>
@@ -59236,7 +59239,7 @@
         <v>12.460000038147</v>
       </c>
       <c r="G2168" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2168" t="s">
         <v>9</v>
@@ -59262,7 +59265,7 @@
         <v>12.1800003051758</v>
       </c>
       <c r="G2169" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H2169" t="s">
         <v>9</v>
@@ -59288,7 +59291,7 @@
         <v>12.2799997329712</v>
       </c>
       <c r="G2170" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H2170" t="s">
         <v>9</v>
@@ -59314,7 +59317,7 @@
         <v>12.6199998855591</v>
       </c>
       <c r="G2171" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H2171" t="s">
         <v>9</v>
@@ -59340,7 +59343,7 @@
         <v>12.5799999237061</v>
       </c>
       <c r="G2172" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="H2172" t="s">
         <v>9</v>
@@ -59366,7 +59369,7 @@
         <v>12.1999998092651</v>
       </c>
       <c r="G2173" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="H2173" t="s">
         <v>9</v>
@@ -59392,7 +59395,7 @@
         <v>12.1400003433228</v>
       </c>
       <c r="G2174" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H2174" t="s">
         <v>9</v>
@@ -59418,7 +59421,7 @@
         <v>12.2600002288818</v>
       </c>
       <c r="G2175" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="H2175" t="s">
         <v>9</v>
@@ -59444,7 +59447,7 @@
         <v>12.3000001907349</v>
       </c>
       <c r="G2176" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="H2176" t="s">
         <v>9</v>
@@ -59452,7 +59455,7 @@
     </row>
     <row r="2177">
       <c r="A2177" s="1" t="n">
-        <v>45492.649525463</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B2177" t="n">
         <v>7353</v>
@@ -59470,9 +59473,35 @@
         <v>12.0799999237061</v>
       </c>
       <c r="G2177" t="s">
+        <v>841</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" s="1" t="n">
+        <v>45495.6495023148</v>
+      </c>
+      <c r="B2178" t="n">
+        <v>7028</v>
+      </c>
+      <c r="C2178" t="n">
+        <v>12.2799997329712</v>
+      </c>
+      <c r="D2178" t="n">
+        <v>11.9799995422363</v>
+      </c>
+      <c r="E2178" t="n">
+        <v>12.1400003433228</v>
+      </c>
+      <c r="F2178" t="n">
+        <v>12.1999998092651</v>
+      </c>
+      <c r="G2178" t="s">
         <v>840</v>
       </c>
-      <c r="H2177" t="s">
+      <c r="H2178" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/GPI.MI.xlsx
+++ b/data/GPI.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="842">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ticker</t>
   </si>
   <si>
-    <t xml:space="preserve">7.67677116394043</t>
+    <t xml:space="preserve">7.67677164077759</t>
   </si>
   <si>
     <t xml:space="preserve">GPI.MI</t>
@@ -47,79 +47,79 @@
     <t xml:space="preserve">7.65728664398193</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63780307769775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.55986595153809</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.59883499145508</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.40788888931274</t>
+    <t xml:space="preserve">7.63780212402344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.55986642837524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.5988335609436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.4078893661499</t>
   </si>
   <si>
     <t xml:space="preserve">7.36502408981323</t>
   </si>
   <si>
-    <t xml:space="preserve">7.63390636444092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.44685792922974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.52089786529541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48972320556641</t>
+    <t xml:space="preserve">7.6339054107666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44685888290405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.52089691162109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48972272872925</t>
   </si>
   <si>
     <t xml:space="preserve">7.4429612159729</t>
   </si>
   <si>
-    <t xml:space="preserve">7.75081062316895</t>
+    <t xml:space="preserve">7.7508111000061</t>
   </si>
   <si>
     <t xml:space="preserve">7.77808904647827</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8716139793396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.79367780685425</t>
+    <t xml:space="preserve">7.87161350250244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.79367589950562</t>
   </si>
   <si>
     <t xml:space="preserve">7.83264541625977</t>
   </si>
   <si>
-    <t xml:space="preserve">7.71573877334595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.76250219345093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.91837453842163</t>
+    <t xml:space="preserve">7.71573925018311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.76250267028809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.91837596893311</t>
   </si>
   <si>
     <t xml:space="preserve">7.90278768539429</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94955015182495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.78977918624878</t>
+    <t xml:space="preserve">7.94954967498779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.7897801399231</t>
   </si>
   <si>
     <t xml:space="preserve">7.7858829498291</t>
   </si>
   <si>
-    <t xml:space="preserve">7.94175624847412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02748680114746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19115447998047</t>
+    <t xml:space="preserve">7.9417552947998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.02748775482178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.19115352630615</t>
   </si>
   <si>
     <t xml:space="preserve">8.16777229309082</t>
@@ -128,103 +128,103 @@
     <t xml:space="preserve">8.00410747528076</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99631261825562</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.80926561355591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14439105987549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06645679473877</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05086898803711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75470733642578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8404393196106</t>
+    <t xml:space="preserve">7.99631118774414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.80926418304443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1443920135498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.06645488739014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05086708068848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75470781326294</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.84043788909912</t>
   </si>
   <si>
     <t xml:space="preserve">7.85602617263794</t>
   </si>
   <si>
-    <t xml:space="preserve">7.80147075653076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.75860548019409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.74691438674927</t>
+    <t xml:space="preserve">7.8014702796936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.75860452651978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.74691343307495</t>
   </si>
   <si>
     <t xml:space="preserve">7.71184301376343</t>
   </si>
   <si>
-    <t xml:space="preserve">7.73912048339844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7040491104126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.48193073272705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.50531148910522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.47803211212158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.45854902267456</t>
+    <t xml:space="preserve">7.7391209602356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70404958724976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48192882537842</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.50530958175659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.47803163528442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.45854806900024</t>
   </si>
   <si>
     <t xml:space="preserve">8.0430736541748</t>
   </si>
   <si>
-    <t xml:space="preserve">7.98851871490479</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.7001519203186</t>
+    <t xml:space="preserve">7.98851823806763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70015239715576</t>
   </si>
   <si>
     <t xml:space="preserve">7.89499378204346</t>
   </si>
   <si>
-    <t xml:space="preserve">8.01969337463379</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.0820426940918</t>
+    <t xml:space="preserve">8.01969242095947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.08204174041748</t>
   </si>
   <si>
     <t xml:space="preserve">8.10542297363281</t>
   </si>
   <si>
-    <t xml:space="preserve">8.24571132659912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26129817962646</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41717147827148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510669708252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58863258361816</t>
+    <t xml:space="preserve">8.2457103729248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.26129722595215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41717052459717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510860443115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58863162994385</t>
   </si>
   <si>
     <t xml:space="preserve">8.68215560913086</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53407573699951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.70347785949707</t>
+    <t xml:space="preserve">8.5340747833252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.70347690582275</t>
   </si>
   <si>
     <t xml:space="preserve">8.81567668914795</t>
@@ -236,49 +236,49 @@
     <t xml:space="preserve">8.65539264678955</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63134956359863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.4229793548584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33482265472412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14247989654541</t>
+    <t xml:space="preserve">8.63135051727295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.42297840118408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3348217010498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14248085021973</t>
   </si>
   <si>
     <t xml:space="preserve">8.21460819244385</t>
   </si>
   <si>
-    <t xml:space="preserve">8.17453765869141</t>
+    <t xml:space="preserve">8.17453670501709</t>
   </si>
   <si>
     <t xml:space="preserve">8.39893531799316</t>
   </si>
   <si>
-    <t xml:space="preserve">8.53517913818359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43900680541992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57525062561035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.61532115936279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28050422668457</t>
+    <t xml:space="preserve">8.53517723083496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43900775909424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57524967193604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.61532211303711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28050327301025</t>
   </si>
   <si>
     <t xml:space="preserve">9.0561056137085</t>
   </si>
   <si>
-    <t xml:space="preserve">9.44880390167236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.0899438858032</t>
+    <t xml:space="preserve">9.44880294799805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0899429321289</t>
   </si>
   <si>
     <t xml:space="preserve">9.89760112762451</t>
@@ -287,13 +287,13 @@
     <t xml:space="preserve">9.95370101928711</t>
   </si>
   <si>
-    <t xml:space="preserve">9.96171569824219</t>
+    <t xml:space="preserve">9.96171474456787</t>
   </si>
   <si>
     <t xml:space="preserve">9.7613582611084</t>
   </si>
   <si>
-    <t xml:space="preserve">9.60107517242432</t>
+    <t xml:space="preserve">9.60107326507568</t>
   </si>
   <si>
     <t xml:space="preserve">9.53695964813232</t>
@@ -305,13 +305,13 @@
     <t xml:space="preserve">9.73731517791748</t>
   </si>
   <si>
-    <t xml:space="preserve">9.50490283966064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.25646209716797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.29653358459473</t>
+    <t xml:space="preserve">9.50490188598633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.25646018981934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.29653263092041</t>
   </si>
   <si>
     <t xml:space="preserve">9.18433284759521</t>
@@ -323,10 +323,10 @@
     <t xml:space="preserve">9.37667465209961</t>
   </si>
   <si>
-    <t xml:space="preserve">9.41674709320068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.42475986480713</t>
+    <t xml:space="preserve">9.41674613952637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.42476081848145</t>
   </si>
   <si>
     <t xml:space="preserve">9.32859039306641</t>
@@ -335,64 +335,64 @@
     <t xml:space="preserve">9.30454635620117</t>
   </si>
   <si>
-    <t xml:space="preserve">9.40071678161621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24043273925781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.32057476043701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.28851795196533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.19234657287598</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.94390487670898</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.95993423461914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.21638965606689</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.20837497711182</t>
+    <t xml:space="preserve">9.40071773529053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24043083190918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.32057571411133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.28851890563965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.19234848022461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.9439058303833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.95993518829346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.21638870239258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20837593078613</t>
   </si>
   <si>
     <t xml:space="preserve">9.1362476348877</t>
   </si>
   <si>
-    <t xml:space="preserve">8.99199104309082</t>
+    <t xml:space="preserve">8.9919900894165</t>
   </si>
   <si>
     <t xml:space="preserve">8.85574817657471</t>
   </si>
   <si>
-    <t xml:space="preserve">8.89581966400146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.33660411834717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.48086071014404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.51291751861572</t>
+    <t xml:space="preserve">8.89582061767578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.33660316467285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.48085975646973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.51291656494141</t>
   </si>
   <si>
     <t xml:space="preserve">9.27248954772949</t>
   </si>
   <si>
-    <t xml:space="preserve">9.10419082641602</t>
+    <t xml:space="preserve">9.10418891906738</t>
   </si>
   <si>
     <t xml:space="preserve">9.17631912231445</t>
   </si>
   <si>
-    <t xml:space="preserve">9.09617710113525</t>
+    <t xml:space="preserve">9.09617805480957</t>
   </si>
   <si>
     <t xml:space="preserve">8.98397731781006</t>
@@ -404,232 +404,232 @@
     <t xml:space="preserve">8.88780498504639</t>
   </si>
   <si>
-    <t xml:space="preserve">8.97596263885498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.87177753448486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.73553466796875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.76759243011475</t>
+    <t xml:space="preserve">8.97596168518066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.87177658081055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.73553562164307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76759147644043</t>
   </si>
   <si>
     <t xml:space="preserve">9.04007625579834</t>
   </si>
   <si>
-    <t xml:space="preserve">9.0000057220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77560615539551</t>
+    <t xml:space="preserve">9.00000476837158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.77560520172119</t>
   </si>
   <si>
     <t xml:space="preserve">8.67142009735107</t>
   </si>
   <si>
-    <t xml:space="preserve">8.64737796783447</t>
+    <t xml:space="preserve">8.64737701416016</t>
   </si>
   <si>
     <t xml:space="preserve">8.62333488464355</t>
   </si>
   <si>
-    <t xml:space="preserve">8.63936424255371</t>
+    <t xml:space="preserve">8.63936328887939</t>
   </si>
   <si>
     <t xml:space="preserve">8.68744945526123</t>
   </si>
   <si>
-    <t xml:space="preserve">8.75156307220459</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.54319381713867</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.52716541290283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.56723594665527</t>
+    <t xml:space="preserve">8.75156402587891</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.54319190979004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5271635055542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.56723499298096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.69546318054199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.80766296386719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.79163455963135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.67943477630615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5592212677002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30276489257812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3668794631958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.35085105895996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.58326435089111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.5031213760376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.59127902984619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.72752094268799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.479079246521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.43099308013916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.47106266021729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.49510765075684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41496467590332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.45503616333008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.29475021362305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.37489318847656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.65425300598145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.32456684112549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.22566032409668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28335666656494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.57183074951172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.53061962127686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.44819927215576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40698719024658</t>
   </si>
   <si>
     <t xml:space="preserve">8.69546413421631</t>
   </si>
   <si>
-    <t xml:space="preserve">8.80766296386719</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.79163455963135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.67943477630615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.55922222137451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30276489257812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3668794631958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.35085105895996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.58326435089111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.50312232971191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.59127807617188</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.72752094268799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.479079246521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.43099308013916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.47106456756592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.49510765075684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.41496467590332</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.45503520965576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29475021362305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.37489318847656</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.65425300598145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.3245677947998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22566032409668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28335666656494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.57183170318604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.53062057495117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.44819927215576</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.40698909759521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.69546318054199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.77788543701172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.36577701568604</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24214649200439</t>
+    <t xml:space="preserve">8.77788352966309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.36577796936035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.24214553833008</t>
   </si>
   <si>
     <t xml:space="preserve">8.19269180297852</t>
   </si>
   <si>
-    <t xml:space="preserve">8.07730293273926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02785015106201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14323902130127</t>
+    <t xml:space="preserve">8.07730197906494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.0278491973877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.14323997497559</t>
   </si>
   <si>
     <t xml:space="preserve">8.06081771850586</t>
   </si>
   <si>
-    <t xml:space="preserve">7.99488162994385</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.83003902435303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.92894411087036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.8959755897522</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.71464824676514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.51683664321899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.73113298416138</t>
+    <t xml:space="preserve">7.99488115310669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.83003807067871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.92894315719604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.89597511291504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71464776992798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.51683616638184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.73113203048706</t>
   </si>
   <si>
     <t xml:space="preserve">7.7476167678833</t>
   </si>
   <si>
-    <t xml:space="preserve">7.76410150527954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.61574125289917<